--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08230495452881</t>
+    <t xml:space="preserve">3.08230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06148910522461</t>
+    <t xml:space="preserve">3.06148934364319</t>
   </si>
   <si>
     <t xml:space="preserve">3.09831690788269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03907251358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97822713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02626276016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04227471351624</t>
+    <t xml:space="preserve">3.0390727519989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97822690010071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02626299858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04227519035339</t>
   </si>
   <si>
     <t xml:space="preserve">3.0182569026947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89176249504089</t>
+    <t xml:space="preserve">2.89176201820374</t>
   </si>
   <si>
     <t xml:space="preserve">2.89016103744507</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">2.79408931732178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87414908409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93019151687622</t>
+    <t xml:space="preserve">2.87414932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93019127845764</t>
   </si>
   <si>
     <t xml:space="preserve">2.94620323181152</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">2.95741152763367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88375616073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91097664833069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372639656067</t>
+    <t xml:space="preserve">2.88375639915466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91097688674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.79729175567627</t>
@@ -107,34 +107,34 @@
     <t xml:space="preserve">2.64197564125061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59394001960754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52028441429138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63076710700989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73804712295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75886297225952</t>
+    <t xml:space="preserve">2.59393954277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52028465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63076734542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73804759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75886273384094</t>
   </si>
   <si>
     <t xml:space="preserve">2.78608345985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7012197971344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86614298820496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9045717716217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82451200485229</t>
+    <t xml:space="preserve">2.70122003555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86614322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90457201004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82451224327087</t>
   </si>
   <si>
     <t xml:space="preserve">2.81330370903015</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">2.82130980491638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76847052574158</t>
+    <t xml:space="preserve">2.76847004890442</t>
   </si>
   <si>
     <t xml:space="preserve">2.77967858314514</t>
@@ -161,31 +161,31 @@
     <t xml:space="preserve">2.83411931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8885600566864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85653591156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81010127067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96221542358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92218518257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.842125415802</t>
+    <t xml:space="preserve">2.88856029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85653614997864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81010150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96221494674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92218542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84212517738342</t>
   </si>
   <si>
     <t xml:space="preserve">2.83732175827026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85333371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493493080139</t>
+    <t xml:space="preserve">2.85333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493469238281</t>
   </si>
   <si>
     <t xml:space="preserve">2.83892297744751</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">2.85973834991455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87254786491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88215494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9349946975708</t>
+    <t xml:space="preserve">2.87254810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.882155418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93499493598938</t>
   </si>
   <si>
     <t xml:space="preserve">2.90297079086304</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">2.98623299598694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02466177940369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00224471092224</t>
+    <t xml:space="preserve">3.02466201782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0022451877594</t>
   </si>
   <si>
     <t xml:space="preserve">3.01892423629761</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">2.9755585193634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98556590080261</t>
+    <t xml:space="preserve">2.98556613922119</t>
   </si>
   <si>
     <t xml:space="preserve">2.89549851417542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89716672897339</t>
+    <t xml:space="preserve">2.89716649055481</t>
   </si>
   <si>
     <t xml:space="preserve">2.9205174446106</t>
@@ -251,31 +251,31 @@
     <t xml:space="preserve">2.91050982475281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83545398712158</t>
+    <t xml:space="preserve">2.835453748703</t>
   </si>
   <si>
     <t xml:space="preserve">2.8938307762146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96054720878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0155885219574</t>
+    <t xml:space="preserve">2.96054744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01558828353882</t>
   </si>
   <si>
     <t xml:space="preserve">2.99557328224182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00558090209961</t>
+    <t xml:space="preserve">3.00558114051819</t>
   </si>
   <si>
     <t xml:space="preserve">3.05061459541321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09231233596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13234233856201</t>
+    <t xml:space="preserve">3.0923125743866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13234210014343</t>
   </si>
   <si>
     <t xml:space="preserve">3.12733864784241</t>
@@ -284,61 +284,61 @@
     <t xml:space="preserve">3.11899900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12567043304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10398769378662</t>
+    <t xml:space="preserve">3.12567067146301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10398745536804</t>
   </si>
   <si>
     <t xml:space="preserve">3.07896900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04727864265442</t>
+    <t xml:space="preserve">3.04727911949158</t>
   </si>
   <si>
     <t xml:space="preserve">3.03560352325439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.040607213974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99223780632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01225256919861</t>
+    <t xml:space="preserve">3.04060697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99223756790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01225233078003</t>
   </si>
   <si>
     <t xml:space="preserve">3.03226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95054006576538</t>
+    <t xml:space="preserve">2.9505398273468</t>
   </si>
   <si>
     <t xml:space="preserve">2.9188494682312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96721911430359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05561852455139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05228233337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890899658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04394316673279</t>
+    <t xml:space="preserve">2.96721887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05561828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05228281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890947341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04394340515137</t>
   </si>
   <si>
     <t xml:space="preserve">3.04227495193481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07730102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98723411560059</t>
+    <t xml:space="preserve">3.07730150222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98723363876343</t>
   </si>
   <si>
     <t xml:space="preserve">3.00057721138</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">2.93552851676941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94220042228699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92718887329102</t>
+    <t xml:space="preserve">2.94220018386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92718911170959</t>
   </si>
   <si>
     <t xml:space="preserve">3.01058459281921</t>
@@ -362,43 +362,43 @@
     <t xml:space="preserve">2.95887923240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97222232818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9889018535614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.007248878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07563328742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1356782913208</t>
+    <t xml:space="preserve">2.97222256660461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98890209197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00724864006042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07563352584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13567805290222</t>
   </si>
   <si>
     <t xml:space="preserve">3.18571543693542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21573781967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20239472389221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17737603187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12066698074341</t>
+    <t xml:space="preserve">3.21573805809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20239448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17737579345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12066721916199</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09564805030823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08730864524841</t>
+    <t xml:space="preserve">3.09564828872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08730840682983</t>
   </si>
   <si>
     <t xml:space="preserve">3.06896185874939</t>
@@ -413,37 +413,37 @@
     <t xml:space="preserve">3.05395030975342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98389792442322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03059959411621</t>
+    <t xml:space="preserve">2.9838981628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03059983253479</t>
   </si>
   <si>
     <t xml:space="preserve">3.02893161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99724149703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08397316932678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10732388496399</t>
+    <t xml:space="preserve">2.99724125862122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08397269248962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10732364654541</t>
   </si>
   <si>
     <t xml:space="preserve">3.0906445980072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15235757827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9121778011322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08564066886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06229019165039</t>
+    <t xml:space="preserve">3.15235710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91217803955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0856409072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06228995323181</t>
   </si>
   <si>
     <t xml:space="preserve">3.033935546875</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">3.03727126121521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92885708808899</t>
+    <t xml:space="preserve">2.92885684967041</t>
   </si>
   <si>
     <t xml:space="preserve">2.93386030197144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9255211353302</t>
+    <t xml:space="preserve">2.92552089691162</t>
   </si>
   <si>
     <t xml:space="preserve">2.8604724407196</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">2.8171067237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79041981697083</t>
+    <t xml:space="preserve">2.7904200553894</t>
   </si>
   <si>
     <t xml:space="preserve">2.7854163646698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83378553390503</t>
+    <t xml:space="preserve">2.83378577232361</t>
   </si>
   <si>
     <t xml:space="preserve">2.83211779594421</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">2.89049482345581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90884160995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95220756530762</t>
+    <t xml:space="preserve">2.90884184837341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9522078037262</t>
   </si>
   <si>
     <t xml:space="preserve">3.0389392375946</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">3.1223349571228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09398055076599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1156632900238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11232757568359</t>
+    <t xml:space="preserve">3.09398031234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11566305160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11232733726501</t>
   </si>
   <si>
     <t xml:space="preserve">3.09898400306702</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">3.15902924537659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16736841201782</t>
+    <t xml:space="preserve">3.16736888885498</t>
   </si>
   <si>
     <t xml:space="preserve">3.16903638839722</t>
@@ -560,67 +560,67 @@
     <t xml:space="preserve">3.36418223381042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39253711700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29412984848022</t>
+    <t xml:space="preserve">3.39253664016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2941300868988</t>
   </si>
   <si>
     <t xml:space="preserve">3.2374210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24576044082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2557680606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24742841720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44424223899841</t>
+    <t xml:space="preserve">3.245760679245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25576782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24742817878723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420485496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44424271583557</t>
   </si>
   <si>
     <t xml:space="preserve">3.49094367027283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50261902809143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67608237266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68608951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66273927688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66941070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65773582458496</t>
+    <t xml:space="preserve">3.50261926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67608213424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68608999252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66273903846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66941046714783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6577353477478</t>
   </si>
   <si>
     <t xml:space="preserve">3.61937355995178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67775011062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62104105949402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61603760719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42756342887878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56099629402161</t>
+    <t xml:space="preserve">3.67774987220764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62104082107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61603736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42756319046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56099653244019</t>
   </si>
   <si>
     <t xml:space="preserve">3.62771248817444</t>
@@ -632,31 +632,31 @@
     <t xml:space="preserve">3.67242479324341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64131760597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61193799972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62921977043152</t>
+    <t xml:space="preserve">3.64131784439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61193823814392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6292200088501</t>
   </si>
   <si>
     <t xml:space="preserve">3.71563029289246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74673771858215</t>
+    <t xml:space="preserve">3.74673748016357</t>
   </si>
   <si>
     <t xml:space="preserve">3.80031180381775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82623505592346</t>
+    <t xml:space="preserve">3.82623529434204</t>
   </si>
   <si>
     <t xml:space="preserve">3.79167103767395</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90400362014771</t>
+    <t xml:space="preserve">3.90400385856628</t>
   </si>
   <si>
     <t xml:space="preserve">3.98350119590759</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">4.05608558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04398822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96794748306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97658824920654</t>
+    <t xml:space="preserve">4.04398775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96794724464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97658848762512</t>
   </si>
   <si>
     <t xml:space="preserve">3.96967530250549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97485995292664</t>
+    <t xml:space="preserve">3.97486019134521</t>
   </si>
   <si>
     <t xml:space="preserve">4.11311626434326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95412158966064</t>
+    <t xml:space="preserve">3.95412135124207</t>
   </si>
   <si>
     <t xml:space="preserve">4.03534746170044</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">4.07336759567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07855176925659</t>
+    <t xml:space="preserve">4.07855224609375</t>
   </si>
   <si>
     <t xml:space="preserve">4.05781364440918</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">4.05262899398804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0025110244751</t>
+    <t xml:space="preserve">4.00251150131226</t>
   </si>
   <si>
     <t xml:space="preserve">3.89881944656372</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91610145568848</t>
+    <t xml:space="preserve">3.9161012172699</t>
   </si>
   <si>
     <t xml:space="preserve">3.83660387992859</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">3.85561418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89017820358276</t>
+    <t xml:space="preserve">3.89017796516418</t>
   </si>
   <si>
     <t xml:space="preserve">3.84524464607239</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">3.67415308952332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7761173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80549621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72427082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68106603622437</t>
+    <t xml:space="preserve">3.77611708641052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80549597740173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7242705821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68106627464294</t>
   </si>
   <si>
     <t xml:space="preserve">3.74500942230225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68970704078674</t>
+    <t xml:space="preserve">3.68970727920532</t>
   </si>
   <si>
     <t xml:space="preserve">3.76747608184814</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">3.76574778556824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75883483886719</t>
+    <t xml:space="preserve">3.75883460044861</t>
   </si>
   <si>
     <t xml:space="preserve">3.8245062828064</t>
@@ -806,13 +806,13 @@
     <t xml:space="preserve">3.84006023406982</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85734272003174</t>
+    <t xml:space="preserve">3.85734248161316</t>
   </si>
   <si>
     <t xml:space="preserve">3.81932234764099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82105016708374</t>
+    <t xml:space="preserve">3.82104992866516</t>
   </si>
   <si>
     <t xml:space="preserve">3.84178876876831</t>
@@ -821,43 +821,43 @@
     <t xml:space="preserve">3.91264486312866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91955757141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91091632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90573239326477</t>
+    <t xml:space="preserve">3.91955780982971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91091656684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90573215484619</t>
   </si>
   <si>
     <t xml:space="preserve">3.89709115028381</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91782927513123</t>
+    <t xml:space="preserve">3.91782879829407</t>
   </si>
   <si>
     <t xml:space="preserve">3.90746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8711678981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95757794380188</t>
+    <t xml:space="preserve">3.87116813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9575777053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.14767980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24273109436035</t>
+    <t xml:space="preserve">4.24273157119751</t>
   </si>
   <si>
     <t xml:space="preserve">4.32049989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38962841033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40690994262695</t>
+    <t xml:space="preserve">4.3896279335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40691041946411</t>
   </si>
   <si>
     <t xml:space="preserve">4.45011520385742</t>
@@ -902,31 +902,31 @@
     <t xml:space="preserve">4.69206285476685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72230672836304</t>
+    <t xml:space="preserve">4.72230625152588</t>
   </si>
   <si>
     <t xml:space="preserve">4.83895969390869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80871629714966</t>
+    <t xml:space="preserve">4.80871677398682</t>
   </si>
   <si>
     <t xml:space="preserve">4.83463907241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82599782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93833160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9858570098877</t>
+    <t xml:space="preserve">4.82599830627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93833112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98585653305054</t>
   </si>
   <si>
     <t xml:space="preserve">4.9772162437439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03770351409912</t>
+    <t xml:space="preserve">5.03770303726196</t>
   </si>
   <si>
     <t xml:space="preserve">5.02042102813721</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">5.01178073883057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99881887435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89080619812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86488246917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81303691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67478084564209</t>
+    <t xml:space="preserve">4.99881839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89080572128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8648829460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81303739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67478036880493</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">4.83031892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93401145935059</t>
+    <t xml:space="preserve">4.93401098251343</t>
   </si>
   <si>
     <t xml:space="preserve">4.9685754776001</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">5.35741949081421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43086910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45679187774658</t>
+    <t xml:space="preserve">5.43086862564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45679140090942</t>
   </si>
   <si>
     <t xml:space="preserve">5.49135541915894</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">5.82403326034546</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84131622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80675172805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83267450332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81107234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77218818664551</t>
+    <t xml:space="preserve">5.84131669998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80675220489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83267498016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8110728263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77218770980835</t>
   </si>
   <si>
     <t xml:space="preserve">5.75490617752075</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">5.78946971893311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81539249420166</t>
+    <t xml:space="preserve">5.81539297103882</t>
   </si>
   <si>
     <t xml:space="preserve">5.87587976455688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89316177368164</t>
+    <t xml:space="preserve">5.8931622505188</t>
   </si>
   <si>
     <t xml:space="preserve">5.59936809539795</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">5.3228554725647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23644590377808</t>
+    <t xml:space="preserve">5.23644638061523</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731786727905</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">5.25372791290283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39198398590088</t>
+    <t xml:space="preserve">5.39198446273804</t>
   </si>
   <si>
     <t xml:space="preserve">5.11547183990479</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">5.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18459987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94265174865723</t>
+    <t xml:space="preserve">5.18460035324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94265127182007</t>
   </si>
   <si>
     <t xml:space="preserve">4.95993423461914</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">4.92537021636963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85624170303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167768478394</t>
+    <t xml:space="preserve">4.85624217987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167816162109</t>
   </si>
   <si>
     <t xml:space="preserve">4.90808773040771</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99449825286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09819030761719</t>
+    <t xml:space="preserve">4.99449777603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09818983078003</t>
   </si>
   <si>
     <t xml:space="preserve">5.06362628936768</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80439567565918</t>
+    <t xml:space="preserve">4.80439615249634</t>
   </si>
   <si>
     <t xml:space="preserve">4.68342208862305</t>
@@ -58614,6 +58614,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" s="1" t="n">
+        <v>45446.2916666667</v>
+      </c>
+      <c r="B2143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>1.89499998092651</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>1.89499998092651</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>1.89499998092651</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>1.89499998092651</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>856</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6496064815</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>4710</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>848</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,307 +38,307 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08230447769165</t>
+    <t xml:space="preserve">3.08230471611023</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06148934364319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09831690788269</t>
+    <t xml:space="preserve">3.06148910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09831666946411</t>
   </si>
   <si>
     <t xml:space="preserve">3.0390727519989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97822690010071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02626299858093</t>
+    <t xml:space="preserve">2.97822713851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02626276016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04227495193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89176225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89016103744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79408955574036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87414932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93019127845764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94620323181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93819689750671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89656615257263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95741128921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88375616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91097664833069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372663497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79729151725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64197587966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59393978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52028489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63076710700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73804759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7588632106781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78608322143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7012197971344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86614322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9045717716217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82451224327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81330347061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8213095664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76847004890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77967882156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7780773639679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80369687080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82291078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83411908149719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8885600566864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85653614997864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81010127067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96221470832825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92218542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84212517738342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83732151985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85333371162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493493080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83892297744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84532737731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973858833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87254810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88215494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93499493598938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90297079086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98623299598694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02466177940369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00224494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01892423629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99390530586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97555875778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556613922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89716649055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9205174446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86881232261658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547636985779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87715172767639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91051006317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83545398712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8938307762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96054720878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01558828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99557328224182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00558066368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05061459541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09231233596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13234257698059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12733864784241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11899924278259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12567067146301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10398745536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.047278881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03560328483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.040607213974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99223780632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01225256919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03226757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9505398273468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91884922981262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96721911430359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05561828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05228281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890923500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04394292831421</t>
   </si>
   <si>
     <t xml:space="preserve">3.04227519035339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0182569026947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89176201820374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89016103744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79408931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87414932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93019127845764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94620323181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93819737434387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89656591415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95741152763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88375639915466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91097688674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372663497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79729175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64197564125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59393954277039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52028465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63076734542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73804759979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75886273384094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78608345985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70122003555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86614322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90457201004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82451224327087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81330370903015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82130980491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76847004890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77967858314514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77807712554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82291102409363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83411931991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88856029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85653614997864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81010150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96221494674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92218542098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84212517738342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83732175827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85333347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83892297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84532761573792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87254810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.882155418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93499493598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90297079086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98623299598694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02466201782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0022451877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01892423629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99390554428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9755585193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549851417542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89716649055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9205174446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.868812084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547636985779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87715172767639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91050982475281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.835453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8938307762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96054744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01558828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99557328224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00558114051819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05061459541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0923125743866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13234210014343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12733864784241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11899900436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12567067146301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10398745536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07896900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04727911949158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03560352325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04060697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99223756790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01225233078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03226757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9505398273468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9188494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96721887588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05561828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05228281021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890947341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04394340515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04227495193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07730150222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98723363876343</t>
+    <t xml:space="preserve">3.0773012638092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98723387718201</t>
   </si>
   <si>
     <t xml:space="preserve">3.00057721138</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">2.93552851676941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94220018386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92718911170959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01058459281921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95887923240662</t>
+    <t xml:space="preserve">2.94220066070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92718887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01058483123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9588794708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.97222256660461</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">2.98890209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00724864006042</t>
+    <t xml:space="preserve">3.007248878479</t>
   </si>
   <si>
     <t xml:space="preserve">3.07563352584839</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">3.13567805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18571543693542</t>
+    <t xml:space="preserve">3.18571591377258</t>
   </si>
   <si>
     <t xml:space="preserve">3.21573805809021</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">3.20239448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17737579345703</t>
+    <t xml:space="preserve">3.17737603187561</t>
   </si>
   <si>
     <t xml:space="preserve">3.12066721916199</t>
@@ -398,43 +398,43 @@
     <t xml:space="preserve">3.09564828872681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08730840682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06896185874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97722625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02559566497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05395030975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9838981628418</t>
+    <t xml:space="preserve">3.08730888366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06896162033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9772264957428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02559590339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.053950548172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98389792442322</t>
   </si>
   <si>
     <t xml:space="preserve">3.03059983253479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99724125862122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08397269248962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10732364654541</t>
+    <t xml:space="preserve">3.0289318561554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99724173545837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0839729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10732388496399</t>
   </si>
   <si>
     <t xml:space="preserve">3.0906445980072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15235710144043</t>
+    <t xml:space="preserve">3.15235757827759</t>
   </si>
   <si>
     <t xml:space="preserve">2.91217803955078</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">2.92885684967041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93386030197144</t>
+    <t xml:space="preserve">2.93386077880859</t>
   </si>
   <si>
     <t xml:space="preserve">2.92552089691162</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">2.8604724407196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81043481826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90217041969299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8171067237854</t>
+    <t xml:space="preserve">2.8104350566864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90217018127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81710648536682</t>
   </si>
   <si>
     <t xml:space="preserve">2.7904200553894</t>
@@ -488,28 +488,28 @@
     <t xml:space="preserve">2.85880422592163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91551375389099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86380839347839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89049482345581</t>
+    <t xml:space="preserve">2.91551351547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86380815505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89049506187439</t>
   </si>
   <si>
     <t xml:space="preserve">2.90884184837341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9522078037262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0389392375946</t>
+    <t xml:space="preserve">2.95220756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03893899917603</t>
   </si>
   <si>
     <t xml:space="preserve">3.0656259059906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06395792961121</t>
+    <t xml:space="preserve">3.06395816802979</t>
   </si>
   <si>
     <t xml:space="preserve">3.0222601890564</t>
@@ -518,49 +518,49 @@
     <t xml:space="preserve">3.1089916229248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1223349571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09398031234741</t>
+    <t xml:space="preserve">3.12233471870422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09398007392883</t>
   </si>
   <si>
     <t xml:space="preserve">3.11566305160522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11232733726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09898400306702</t>
+    <t xml:space="preserve">3.11232757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0989842414856</t>
   </si>
   <si>
     <t xml:space="preserve">3.11733102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15902924537659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16736888885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16903638839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24409246444702</t>
+    <t xml:space="preserve">3.15902876853943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1673686504364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1690366268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2440927028656</t>
   </si>
   <si>
     <t xml:space="preserve">3.31914877891541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33582782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36084675788879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36418223381042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39253664016724</t>
+    <t xml:space="preserve">3.33582806587219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36084651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.364182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39253687858582</t>
   </si>
   <si>
     <t xml:space="preserve">3.2941300868988</t>
@@ -569,49 +569,49 @@
     <t xml:space="preserve">3.2374210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.245760679245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25576782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24742817878723</t>
+    <t xml:space="preserve">3.24576044082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25576829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24742865562439</t>
   </si>
   <si>
     <t xml:space="preserve">3.39420485496521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44424271583557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49094367027283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50261926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67608213424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68608999252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66273903846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66941046714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6577353477478</t>
+    <t xml:space="preserve">3.44424247741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49094390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50261878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67608237266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68608975410461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66273927688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66941070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65773558616638</t>
   </si>
   <si>
     <t xml:space="preserve">3.61937355995178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67774987220764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62104082107544</t>
+    <t xml:space="preserve">3.6777503490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6210412979126</t>
   </si>
   <si>
     <t xml:space="preserve">3.61603736877441</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">3.42756319046021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56099653244019</t>
+    <t xml:space="preserve">3.56099605560303</t>
   </si>
   <si>
     <t xml:space="preserve">3.62771248817444</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58601522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67242479324341</t>
+    <t xml:space="preserve">3.58601546287537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67242503166199</t>
   </si>
   <si>
     <t xml:space="preserve">3.64131784439087</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">3.61193823814392</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6292200088501</t>
+    <t xml:space="preserve">3.62921953201294</t>
   </si>
   <si>
     <t xml:space="preserve">3.71563029289246</t>
@@ -650,40 +650,40 @@
     <t xml:space="preserve">3.80031180381775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82623529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79167103767395</t>
+    <t xml:space="preserve">3.82623481750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79167079925537</t>
   </si>
   <si>
     <t xml:space="preserve">3.90400385856628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98350119590759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10447454452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13039827346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18224382400513</t>
+    <t xml:space="preserve">3.98350071907043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1044750213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13039779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18224430084229</t>
   </si>
   <si>
     <t xml:space="preserve">4.15632104873657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05954170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99732637405396</t>
+    <t xml:space="preserve">4.05954217910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99732661247253</t>
   </si>
   <si>
     <t xml:space="preserve">3.88844990730286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95585036277771</t>
+    <t xml:space="preserve">3.95584964752197</t>
   </si>
   <si>
     <t xml:space="preserve">3.93165516853333</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">4.05608558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04398775100708</t>
+    <t xml:space="preserve">4.0439887046814</t>
   </si>
   <si>
     <t xml:space="preserve">3.96794724464417</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">3.97658848762512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96967530250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97486019134521</t>
+    <t xml:space="preserve">3.96967554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97486042976379</t>
   </si>
   <si>
     <t xml:space="preserve">4.11311626434326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95412135124207</t>
+    <t xml:space="preserve">3.95412182807922</t>
   </si>
   <si>
     <t xml:space="preserve">4.03534746170044</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">4.07336759567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07855224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05781364440918</t>
+    <t xml:space="preserve">4.07855176925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05781316757202</t>
   </si>
   <si>
     <t xml:space="preserve">4.06126976013184</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">4.05262899398804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00251150131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89881944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9161012172699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83660387992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80203986167908</t>
+    <t xml:space="preserve">4.0025110244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89881896972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91610145568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83660435676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80204010009766</t>
   </si>
   <si>
     <t xml:space="preserve">3.85561418533325</t>
@@ -755,46 +755,46 @@
     <t xml:space="preserve">3.89017796516418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84524464607239</t>
+    <t xml:space="preserve">3.84524488449097</t>
   </si>
   <si>
     <t xml:space="preserve">3.77784538269043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67415308952332</t>
+    <t xml:space="preserve">3.67415285110474</t>
   </si>
   <si>
     <t xml:space="preserve">3.77611708641052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80549597740173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7242705821991</t>
+    <t xml:space="preserve">3.80549645423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72427082061768</t>
   </si>
   <si>
     <t xml:space="preserve">3.68106627464294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74500942230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68970727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747608184814</t>
+    <t xml:space="preserve">3.74500918388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68970680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747632026672</t>
   </si>
   <si>
     <t xml:space="preserve">3.76574778556824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75883460044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8245062828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78475832939148</t>
+    <t xml:space="preserve">3.75883483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82450675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7847580909729</t>
   </si>
   <si>
     <t xml:space="preserve">3.79858350753784</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">3.77438855171204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84006023406982</t>
+    <t xml:space="preserve">3.84006071090698</t>
   </si>
   <si>
     <t xml:space="preserve">3.85734248161316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81932234764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82104992866516</t>
+    <t xml:space="preserve">3.81932187080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82105016708374</t>
   </si>
   <si>
     <t xml:space="preserve">3.84178876876831</t>
@@ -821,43 +821,43 @@
     <t xml:space="preserve">3.91264486312866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91955780982971</t>
+    <t xml:space="preserve">3.91955757141113</t>
   </si>
   <si>
     <t xml:space="preserve">3.91091656684875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90573215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89709115028381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91782879829407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90746021270752</t>
+    <t xml:space="preserve">3.90573239326477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89709138870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9178295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90745997428894</t>
   </si>
   <si>
     <t xml:space="preserve">3.87116813659668</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9575777053833</t>
+    <t xml:space="preserve">3.95757818222046</t>
   </si>
   <si>
     <t xml:space="preserve">4.14767980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24273157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32049989700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3896279335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40691041946411</t>
+    <t xml:space="preserve">4.24273109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32050037384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38962841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40690994262695</t>
   </si>
   <si>
     <t xml:space="preserve">4.45011520385742</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">4.43715381622314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44147396087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47603797912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51924276351929</t>
+    <t xml:space="preserve">4.44147348403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50628137588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47603750228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51924324035645</t>
   </si>
   <si>
     <t xml:space="preserve">4.58837127685547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57973051071167</t>
+    <t xml:space="preserve">4.57973003387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.64453744888306</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">4.69206285476685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72230625152588</t>
+    <t xml:space="preserve">4.7223072052002</t>
   </si>
   <si>
     <t xml:space="preserve">4.83895969390869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80871677398682</t>
+    <t xml:space="preserve">4.80871629714966</t>
   </si>
   <si>
     <t xml:space="preserve">4.83463907241821</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">4.82599830627441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93833112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98585653305054</t>
+    <t xml:space="preserve">4.93833160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9858570098877</t>
   </si>
   <si>
     <t xml:space="preserve">4.9772162437439</t>
@@ -944,22 +944,22 @@
     <t xml:space="preserve">4.8648829460144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81303739547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67478036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71798610687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83031892776489</t>
+    <t xml:space="preserve">4.81303691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67478084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71798658370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83031940460205</t>
   </si>
   <si>
     <t xml:space="preserve">4.93401098251343</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9685754776001</t>
+    <t xml:space="preserve">4.96857500076294</t>
   </si>
   <si>
     <t xml:space="preserve">5.19324111938477</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">5.3055739402771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35741949081421</t>
+    <t xml:space="preserve">5.35741996765137</t>
   </si>
   <si>
     <t xml:space="preserve">5.43086862564087</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48703479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59072685241699</t>
+    <t xml:space="preserve">5.48703527450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59072637557983</t>
   </si>
   <si>
     <t xml:space="preserve">5.67713737487793</t>
@@ -992,16 +992,16 @@
     <t xml:space="preserve">5.61665010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66849565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70305967330933</t>
+    <t xml:space="preserve">5.66849613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70306015014648</t>
   </si>
   <si>
     <t xml:space="preserve">5.60800886154175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7289834022522</t>
+    <t xml:space="preserve">5.72898292541504</t>
   </si>
   <si>
     <t xml:space="preserve">5.71170139312744</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">5.68577814102173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82403326034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84131669998169</t>
+    <t xml:space="preserve">5.82403421401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84131622314453</t>
   </si>
   <si>
     <t xml:space="preserve">5.80675220489502</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">5.8110728263855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77218770980835</t>
+    <t xml:space="preserve">5.77218818664551</t>
   </si>
   <si>
     <t xml:space="preserve">5.75490617752075</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">5.81539297103882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87587976455688</t>
+    <t xml:space="preserve">5.87588024139404</t>
   </si>
   <si>
     <t xml:space="preserve">5.8931622505188</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">5.47839403152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3228554725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23644638061523</t>
+    <t xml:space="preserve">5.32285594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23644590377808</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731786727905</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">5.25372791290283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39198446273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11547183990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1500358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18460035324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94265127182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95993423461914</t>
+    <t xml:space="preserve">5.39198398590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11547231674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15003633499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18459987640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94265222549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95993375778198</t>
   </si>
   <si>
     <t xml:space="preserve">4.92537021636963</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">4.85624217987061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82167816162109</t>
+    <t xml:space="preserve">4.82167768478394</t>
   </si>
   <si>
     <t xml:space="preserve">4.90808773040771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52788352966309</t>
+    <t xml:space="preserve">4.52788400650024</t>
   </si>
   <si>
     <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99449777603149</t>
+    <t xml:space="preserve">4.99449872970581</t>
   </si>
   <si>
     <t xml:space="preserve">5.09818983078003</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">4.66614055633545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701204299927</t>
+    <t xml:space="preserve">4.59701251983643</t>
   </si>
   <si>
     <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80439615249634</t>
+    <t xml:space="preserve">4.80439567565918</t>
   </si>
   <si>
     <t xml:space="preserve">4.68342208862305</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">4.70070457458496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63157606124878</t>
+    <t xml:space="preserve">4.63157653808594</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063314437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363327026367</t>
+    <t xml:space="preserve">4.90413188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8506326675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
@@ -1172,28 +1172,28 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788835525513</t>
+    <t xml:space="preserve">3.96788859367371</t>
   </si>
   <si>
     <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0035548210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78063988685608</t>
+    <t xml:space="preserve">4.00355529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7806396484375</t>
   </si>
   <si>
     <t xml:space="preserve">3.76280689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75389003753662</t>
+    <t xml:space="preserve">3.7538902759552</t>
   </si>
   <si>
     <t xml:space="preserve">3.62905788421631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70039081573486</t>
+    <t xml:space="preserve">3.70039057731628</t>
   </si>
   <si>
     <t xml:space="preserve">3.7449734210968</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">3.72714042663574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69147396087646</t>
+    <t xml:space="preserve">3.69147419929504</t>
   </si>
   <si>
     <t xml:space="preserve">3.66472434997559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11055469512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3334698677063</t>
+    <t xml:space="preserve">4.11055421829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33346939086914</t>
   </si>
   <si>
     <t xml:space="preserve">4.36021900177002</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11947107315063</t>
+    <t xml:space="preserve">4.11947059631348</t>
   </si>
   <si>
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.101637840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20863676071167</t>
+    <t xml:space="preserve">3.99463868141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10163831710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20863723754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538637161255</t>
+    <t xml:space="preserve">4.23538732528687</t>
   </si>
   <si>
     <t xml:space="preserve">4.17297077178955</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622116088867</t>
+    <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.18188714981079</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">4.03922176361084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98572206497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95897197723389</t>
+    <t xml:space="preserve">3.98572158813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95897245407104</t>
   </si>
   <si>
     <t xml:space="preserve">4.0213885307312</t>
@@ -1277,22 +1277,22 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630682945251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70930695533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67364048957825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63797450065613</t>
+    <t xml:space="preserve">3.92330574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547251701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630659103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7093071937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67364072799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63797426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880833625793</t>
+    <t xml:space="preserve">3.54880857467651</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555818557739</t>
+    <t xml:space="preserve">3.57555842399597</t>
   </si>
   <si>
     <t xml:space="preserve">3.59339141845703</t>
@@ -1334,16 +1334,16 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4507257938385</t>
+    <t xml:space="preserve">3.45072555541992</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372663497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26347708702087</t>
+    <t xml:space="preserve">3.34372639656067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26347732543945</t>
   </si>
   <si>
     <t xml:space="preserve">3.29914355278015</t>
@@ -1352,43 +1352,43 @@
     <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17431116104126</t>
+    <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
     <t xml:space="preserve">3.12081146240234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10297822952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04056191444397</t>
+    <t xml:space="preserve">3.10297799110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04056215286255</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06731176376343</t>
+    <t xml:space="preserve">3.06731200218201</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03164529800415</t>
+    <t xml:space="preserve">3.03164553642273</t>
   </si>
   <si>
     <t xml:space="preserve">3.02272868156433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96031260490417</t>
+    <t xml:space="preserve">2.9603123664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789628982544</t>
+    <t xml:space="preserve">2.94247937202454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789652824402</t>
   </si>
   <si>
     <t xml:space="preserve">2.80873036384583</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.75523066520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63931465148926</t>
+    <t xml:space="preserve">2.63931488990784</t>
   </si>
   <si>
     <t xml:space="preserve">2.5858154296875</t>
@@ -1412,34 +1412,34 @@
     <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79981398582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922922134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706197738647</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92464590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86222982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764698028564</t>
+    <t xml:space="preserve">2.9246461391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86223006248474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764674186707</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78198051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281435012817</t>
+    <t xml:space="preserve">2.78198027610779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281458854675</t>
   </si>
   <si>
     <t xml:space="preserve">2.67498111724854</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">3.29022693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27239370346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33480978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30806016921997</t>
+    <t xml:space="preserve">3.27239346504211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33481001853943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30805993080139</t>
   </si>
   <si>
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106053352356</t>
+    <t xml:space="preserve">3.20106077194214</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1472,34 +1472,34 @@
     <t xml:space="preserve">3.23672723770142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2188937664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16539454460144</t>
+    <t xml:space="preserve">3.21889400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16539430618286</t>
   </si>
   <si>
     <t xml:space="preserve">3.1386444568634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1832275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
+    <t xml:space="preserve">3.18322777748108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6825578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53989171981812</t>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580773353577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53989195823669</t>
   </si>
   <si>
     <t xml:space="preserve">3.51314210891724</t>
@@ -1508,13 +1508,13 @@
     <t xml:space="preserve">3.5309751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4061427116394</t>
+    <t xml:space="preserve">3.40614295005798</t>
   </si>
   <si>
     <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39722585678101</t>
+    <t xml:space="preserve">3.39722609519958</t>
   </si>
   <si>
     <t xml:space="preserve">3.4418089389801</t>
@@ -1523,13 +1523,13 @@
     <t xml:space="preserve">3.42397570610046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37939262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
+    <t xml:space="preserve">3.37939286231995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2278106212616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489544868469</t>
   </si>
   <si>
     <t xml:space="preserve">3.08514499664307</t>
@@ -1538,31 +1538,31 @@
     <t xml:space="preserve">3.01381230354309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95139598846436</t>
+    <t xml:space="preserve">2.95139575004578</t>
   </si>
   <si>
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321828842163</t>
+    <t xml:space="preserve">3.13321805000305</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645367622375</t>
+    <t xml:space="preserve">3.08645391464233</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1574,34 +1574,34 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451268196106</t>
+    <t xml:space="preserve">3.11451244354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292492866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716135025024</t>
+    <t xml:space="preserve">2.99292516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716158866882</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1610,19 +1610,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104429244995</t>
+    <t xml:space="preserve">2.73104405403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039697647095</t>
+    <t xml:space="preserve">2.74039721488953</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298528671265</t>
+    <t xml:space="preserve">2.70298552513123</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880946159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68427968025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557383537292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945630073547</t>
+    <t xml:space="preserve">2.61880922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6842794418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557359695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945653915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722170829773</t>
+    <t xml:space="preserve">2.49722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519238948822</t>
+    <t xml:space="preserve">3.15192413330078</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127729415894</t>
+    <t xml:space="preserve">3.16127705574036</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457304000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780866622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81521987915039</t>
+    <t xml:space="preserve">2.82457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780842781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598814964294</t>
+    <t xml:space="preserve">2.28210520744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598791122437</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698894500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1231062412262</t>
+    <t xml:space="preserve">2.06698870658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863669872284</t>
+    <t xml:space="preserve">1.89863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540107250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987061500549</t>
+    <t xml:space="preserve">1.94540119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022433280945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1793,19 +1793,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922353744507</t>
+    <t xml:space="preserve">2.17922329902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534083366394</t>
+    <t xml:space="preserve">2.23534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469375610352</t>
+    <t xml:space="preserve">2.24469399452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -58642,13 +58642,13 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6496064815</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>4710</v>
       </c>
       <c r="C2144" t="n">
-        <v>1.86000001430511</v>
+        <v>1.88499999046326</v>
       </c>
       <c r="D2144" t="n">
         <v>1.85500001907349</v>
@@ -58663,6 +58663,32 @@
         <v>848</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6496296296</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>1.87999999523163</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>1.87999999523163</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>1.87999999523163</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>851</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08230447769165</t>
+    <t xml:space="preserve">3.08230471611023</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">3.09831690788269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03907251358032</t>
+    <t xml:space="preserve">3.0390727519989</t>
   </si>
   <si>
     <t xml:space="preserve">2.97822713851929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02626299858093</t>
+    <t xml:space="preserve">3.02626276016235</t>
   </si>
   <si>
     <t xml:space="preserve">3.04227495193481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01825714111328</t>
+    <t xml:space="preserve">3.01825737953186</t>
   </si>
   <si>
     <t xml:space="preserve">2.89176225662231</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">2.87414932250977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93019104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94620323181152</t>
+    <t xml:space="preserve">2.93019127845764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94620299339294</t>
   </si>
   <si>
     <t xml:space="preserve">2.93819713592529</t>
@@ -89,46 +89,46 @@
     <t xml:space="preserve">2.89656591415405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95741152763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88375639915466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91097664833069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372663497925</t>
+    <t xml:space="preserve">2.95741128921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88375616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91097688674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.79729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64197540283203</t>
+    <t xml:space="preserve">2.64197564125061</t>
   </si>
   <si>
     <t xml:space="preserve">2.59393954277039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52028441429138</t>
+    <t xml:space="preserve">2.52028465270996</t>
   </si>
   <si>
     <t xml:space="preserve">2.63076734542847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73804759979248</t>
+    <t xml:space="preserve">2.7380473613739</t>
   </si>
   <si>
     <t xml:space="preserve">2.75886297225952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78608369827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70122003555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86614298820496</t>
+    <t xml:space="preserve">2.78608345985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7012197971344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86614322662354</t>
   </si>
   <si>
     <t xml:space="preserve">2.90457201004028</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">2.82451224327087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81330370903015</t>
+    <t xml:space="preserve">2.81330347061157</t>
   </si>
   <si>
     <t xml:space="preserve">2.82130980491638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76847004890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77967834472656</t>
+    <t xml:space="preserve">2.768470287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77967882156372</t>
   </si>
   <si>
     <t xml:space="preserve">2.7780773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82291126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83411931991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88856029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85653614997864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81010127067566</t>
+    <t xml:space="preserve">2.80369687080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82291078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83411908149719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88855981826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85653638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81010150909424</t>
   </si>
   <si>
     <t xml:space="preserve">2.96221518516541</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">2.92218542098999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84212517738342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83732128143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85333347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493469238281</t>
+    <t xml:space="preserve">2.842125415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83732151985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85333395004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493493080139</t>
   </si>
   <si>
     <t xml:space="preserve">2.83892273902893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84532785415649</t>
+    <t xml:space="preserve">2.84532737731934</t>
   </si>
   <si>
     <t xml:space="preserve">2.85973858833313</t>
@@ -200,28 +200,28 @@
     <t xml:space="preserve">2.87254810333252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88215517997742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93499493598938</t>
+    <t xml:space="preserve">2.88215494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9349946975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.90297079086304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98623299598694</t>
+    <t xml:space="preserve">2.9862334728241</t>
   </si>
   <si>
     <t xml:space="preserve">3.02466177940369</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0022451877594</t>
+    <t xml:space="preserve">3.00224494934082</t>
   </si>
   <si>
     <t xml:space="preserve">3.01892423629761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99390554428101</t>
+    <t xml:space="preserve">2.99390578269958</t>
   </si>
   <si>
     <t xml:space="preserve">2.9755585193634</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">2.98556590080261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89549851417542</t>
+    <t xml:space="preserve">2.89549875259399</t>
   </si>
   <si>
     <t xml:space="preserve">2.89716649055481</t>
@@ -242,28 +242,28 @@
     <t xml:space="preserve">2.868812084198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86547613143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87715148925781</t>
+    <t xml:space="preserve">2.86547636985779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87715172767639</t>
   </si>
   <si>
     <t xml:space="preserve">2.91050982475281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.835453748703</t>
+    <t xml:space="preserve">2.83545351028442</t>
   </si>
   <si>
     <t xml:space="preserve">2.8938307762146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96054744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01558828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99557328224182</t>
+    <t xml:space="preserve">2.96054720878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0155885219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9955735206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.00558090209961</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">3.05061459541321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09231233596802</t>
+    <t xml:space="preserve">3.0923125743866</t>
   </si>
   <si>
     <t xml:space="preserve">3.13234210014343</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">3.11899900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12567067146301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10398769378662</t>
+    <t xml:space="preserve">3.12567090988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10398745536804</t>
   </si>
   <si>
     <t xml:space="preserve">3.07896900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04727911949158</t>
+    <t xml:space="preserve">3.04727864265442</t>
   </si>
   <si>
     <t xml:space="preserve">3.03560328483582</t>
@@ -302,37 +302,37 @@
     <t xml:space="preserve">3.04060697555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99223756790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01225256919861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03226757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95054006576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9188494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96721863746643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00224494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05561828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0522825717926</t>
+    <t xml:space="preserve">2.99223780632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01225233078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03226733207703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9505398273468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91884922981262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96721887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05561852455139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05228281021118</t>
   </si>
   <si>
     <t xml:space="preserve">2.99890947341919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04394316673279</t>
+    <t xml:space="preserve">3.04394292831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04227519035339</t>
   </si>
   <si>
     <t xml:space="preserve">3.0773012638092</t>
@@ -341,49 +341,49 @@
     <t xml:space="preserve">2.98723387718201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00057721138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97055459022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93552851676941</t>
+    <t xml:space="preserve">3.00057697296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9705548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93552827835083</t>
   </si>
   <si>
     <t xml:space="preserve">2.94220018386841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92718887329102</t>
+    <t xml:space="preserve">2.92718911170959</t>
   </si>
   <si>
     <t xml:space="preserve">3.01058459281921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95887923240662</t>
+    <t xml:space="preserve">2.95887970924377</t>
   </si>
   <si>
     <t xml:space="preserve">2.97222256660461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98890209197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.007248878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07563352584839</t>
+    <t xml:space="preserve">2.9889018535614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00724864006042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07563328742981</t>
   </si>
   <si>
     <t xml:space="preserve">3.13567805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18571543693542</t>
+    <t xml:space="preserve">3.185715675354</t>
   </si>
   <si>
     <t xml:space="preserve">3.21573805809021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20239472389221</t>
+    <t xml:space="preserve">3.20239448547363</t>
   </si>
   <si>
     <t xml:space="preserve">3.17737603187561</t>
@@ -392,34 +392,34 @@
     <t xml:space="preserve">3.12066698074341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10232019424438</t>
+    <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.09564828872681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08730864524841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06896185874939</t>
+    <t xml:space="preserve">3.08730888366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06896162033081</t>
   </si>
   <si>
     <t xml:space="preserve">2.97722625732422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02559566497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05395030975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98389792442322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03059959411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02893161773682</t>
+    <t xml:space="preserve">3.02559590339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.053950548172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9838981628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03059983253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0289318561554</t>
   </si>
   <si>
     <t xml:space="preserve">2.99724149703979</t>
@@ -431,31 +431,31 @@
     <t xml:space="preserve">3.10732364654541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0906445980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15235710144043</t>
+    <t xml:space="preserve">3.09064483642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15235757827759</t>
   </si>
   <si>
     <t xml:space="preserve">2.91217803955078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08564114570618</t>
+    <t xml:space="preserve">3.08564066886902</t>
   </si>
   <si>
     <t xml:space="preserve">3.06228995323181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.033935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03727149963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92885684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93386030197144</t>
+    <t xml:space="preserve">3.03393530845642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03727126121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92885708808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93386054039001</t>
   </si>
   <si>
     <t xml:space="preserve">2.92552089691162</t>
@@ -464,37 +464,37 @@
     <t xml:space="preserve">2.8604724407196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81043481826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90217041969299</t>
+    <t xml:space="preserve">2.81043457984924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90217018127441</t>
   </si>
   <si>
     <t xml:space="preserve">2.8171067237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79041981697083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7854163646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83378577232361</t>
+    <t xml:space="preserve">2.7904200553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78541612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83378601074219</t>
   </si>
   <si>
     <t xml:space="preserve">2.83211779594421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85880422592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91551375389099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86380839347839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89049482345581</t>
+    <t xml:space="preserve">2.85880446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91551351547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86380815505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89049506187439</t>
   </si>
   <si>
     <t xml:space="preserve">2.90884160995483</t>
@@ -506,19 +506,19 @@
     <t xml:space="preserve">3.0389392375946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0656259059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06395769119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0222601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1089916229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12233471870422</t>
+    <t xml:space="preserve">3.06562566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06395816802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02225995063782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10899138450623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1223349571228</t>
   </si>
   <si>
     <t xml:space="preserve">3.09398031234741</t>
@@ -527,13 +527,13 @@
     <t xml:space="preserve">3.1156632900238</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11232733726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09898400306702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11733102798462</t>
+    <t xml:space="preserve">3.11232757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0989842414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1173312664032</t>
   </si>
   <si>
     <t xml:space="preserve">3.15902924537659</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">3.1673686504364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16903638839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24409246444702</t>
+    <t xml:space="preserve">3.1690366268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2440927028656</t>
   </si>
   <si>
     <t xml:space="preserve">3.31914877891541</t>
@@ -554,43 +554,43 @@
     <t xml:space="preserve">3.33582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36084675788879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36418223381042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39253664016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2941300868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2374210357666</t>
+    <t xml:space="preserve">3.36084651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.364182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39253711700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29412984848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23742079734802</t>
   </si>
   <si>
     <t xml:space="preserve">3.245760679245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2557680606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24742817878723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420461654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44424247741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49094343185425</t>
+    <t xml:space="preserve">3.25576829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24742841720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420485496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44424223899841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49094367027283</t>
   </si>
   <si>
     <t xml:space="preserve">3.50261902809143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67608261108398</t>
+    <t xml:space="preserve">3.67608237266541</t>
   </si>
   <si>
     <t xml:space="preserve">3.68608999252319</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">3.66273927688599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66941046714783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65773582458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61937355995178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67774987220764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62104105949402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61603736877441</t>
+    <t xml:space="preserve">3.66941070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6577353477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61937379837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67775011062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6210412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61603760719299</t>
   </si>
   <si>
     <t xml:space="preserve">3.42756319046021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56099677085876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62771248817444</t>
+    <t xml:space="preserve">3.56099605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62771272659302</t>
   </si>
   <si>
     <t xml:space="preserve">3.58601522445679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67242479324341</t>
+    <t xml:space="preserve">3.67242503166199</t>
   </si>
   <si>
     <t xml:space="preserve">3.64131784439087</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">3.61193823814392</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6292200088501</t>
+    <t xml:space="preserve">3.62921977043152</t>
   </si>
   <si>
     <t xml:space="preserve">3.71563029289246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74673748016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80031180381775</t>
+    <t xml:space="preserve">3.74673771858215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80031204223633</t>
   </si>
   <si>
     <t xml:space="preserve">3.82623529434204</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">3.98350119590759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10447454452515</t>
+    <t xml:space="preserve">4.1044750213623</t>
   </si>
   <si>
     <t xml:space="preserve">4.13039827346802</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">4.18224382400513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15632104873657</t>
+    <t xml:space="preserve">4.15632057189941</t>
   </si>
   <si>
     <t xml:space="preserve">4.05954170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99732637405396</t>
+    <t xml:space="preserve">3.99732685089111</t>
   </si>
   <si>
     <t xml:space="preserve">3.88844990730286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95585036277771</t>
+    <t xml:space="preserve">3.95584988594055</t>
   </si>
   <si>
     <t xml:space="preserve">3.93165516853333</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">3.97486019134521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11311626434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95412135124207</t>
+    <t xml:space="preserve">4.1131157875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95412182807922</t>
   </si>
   <si>
     <t xml:space="preserve">4.03534746170044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06991100311279</t>
+    <t xml:space="preserve">4.06991147994995</t>
   </si>
   <si>
     <t xml:space="preserve">4.07336759567261</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">4.05262899398804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00251150131226</t>
+    <t xml:space="preserve">4.0025110244751</t>
   </si>
   <si>
     <t xml:space="preserve">3.89881944656372</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">3.9161012172699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83660387992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80203986167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85561418533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89017796516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84524464607239</t>
+    <t xml:space="preserve">3.83660435676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80204010009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85561466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89017820358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84524512290955</t>
   </si>
   <si>
     <t xml:space="preserve">3.77784538269043</t>
@@ -767,37 +767,37 @@
     <t xml:space="preserve">3.77611708641052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80549597740173</t>
+    <t xml:space="preserve">3.80549645423889</t>
   </si>
   <si>
     <t xml:space="preserve">3.7242705821991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68106627464294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74500942230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68970727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747608184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76574778556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75883460044861</t>
+    <t xml:space="preserve">3.68106651306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74500966072083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68970680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747632026672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76574754714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75883483886719</t>
   </si>
   <si>
     <t xml:space="preserve">3.8245062828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78475832939148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79858350753784</t>
+    <t xml:space="preserve">3.7847580909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79858326911926</t>
   </si>
   <si>
     <t xml:space="preserve">3.77438855171204</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">3.85734248161316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81932234764099</t>
+    <t xml:space="preserve">3.81932210922241</t>
   </si>
   <si>
     <t xml:space="preserve">3.82104992866516</t>
@@ -818,22 +818,22 @@
     <t xml:space="preserve">3.84178876876831</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91264486312866</t>
+    <t xml:space="preserve">3.9126443862915</t>
   </si>
   <si>
     <t xml:space="preserve">3.91955780982971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91091656684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90573215484619</t>
+    <t xml:space="preserve">3.91091704368591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90573167800903</t>
   </si>
   <si>
     <t xml:space="preserve">3.89709115028381</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91782879829407</t>
+    <t xml:space="preserve">3.91782927513123</t>
   </si>
   <si>
     <t xml:space="preserve">3.90746021270752</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">4.14767980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24273157119751</t>
+    <t xml:space="preserve">4.24273109436035</t>
   </si>
   <si>
     <t xml:space="preserve">4.32049989700317</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">4.3896279335022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40691041946411</t>
+    <t xml:space="preserve">4.40690994262695</t>
   </si>
   <si>
     <t xml:space="preserve">4.45011520385742</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">4.49331998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41123056411743</t>
+    <t xml:space="preserve">4.41123008728027</t>
   </si>
   <si>
     <t xml:space="preserve">4.48467874526978</t>
@@ -878,37 +878,37 @@
     <t xml:space="preserve">4.44147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50628185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47603797912598</t>
+    <t xml:space="preserve">4.50628137588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47603750228882</t>
   </si>
   <si>
     <t xml:space="preserve">4.51924276351929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58837127685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57973051071167</t>
+    <t xml:space="preserve">4.58837080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57973003387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.64453744888306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64885807037354</t>
+    <t xml:space="preserve">4.64885854721069</t>
   </si>
   <si>
     <t xml:space="preserve">4.69206285476685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72230625152588</t>
+    <t xml:space="preserve">4.72230672836304</t>
   </si>
   <si>
     <t xml:space="preserve">4.83895969390869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80871677398682</t>
+    <t xml:space="preserve">4.80871629714966</t>
   </si>
   <si>
     <t xml:space="preserve">4.83463907241821</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">4.82599830627441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93833112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98585653305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9772162437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03770303726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02042102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01178073883057</t>
+    <t xml:space="preserve">4.93833160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9858570098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97721672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02042150497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01178026199341</t>
   </si>
   <si>
     <t xml:space="preserve">4.99881839752197</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">4.81303739547729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67478036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71798610687256</t>
+    <t xml:space="preserve">4.67478084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71798658370972</t>
   </si>
   <si>
     <t xml:space="preserve">4.83031892776489</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">4.93401098251343</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9685754776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19324111938477</t>
+    <t xml:space="preserve">4.96857500076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19324064254761</t>
   </si>
   <si>
     <t xml:space="preserve">5.3055739402771</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">5.35741949081421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43086862564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45679140090942</t>
+    <t xml:space="preserve">5.43086814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45679092407227</t>
   </si>
   <si>
     <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48703479766846</t>
+    <t xml:space="preserve">5.48703527450562</t>
   </si>
   <si>
     <t xml:space="preserve">5.59072685241699</t>
@@ -992,28 +992,28 @@
     <t xml:space="preserve">5.61665010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66849565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70305967330933</t>
+    <t xml:space="preserve">5.66849613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70306015014648</t>
   </si>
   <si>
     <t xml:space="preserve">5.60800886154175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7289834022522</t>
+    <t xml:space="preserve">5.72898292541504</t>
   </si>
   <si>
     <t xml:space="preserve">5.71170139312744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68577814102173</t>
+    <t xml:space="preserve">5.68577766418457</t>
   </si>
   <si>
     <t xml:space="preserve">5.82403326034546</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84131669998169</t>
+    <t xml:space="preserve">5.84131622314453</t>
   </si>
   <si>
     <t xml:space="preserve">5.80675220489502</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">5.77218770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75490617752075</t>
+    <t xml:space="preserve">5.75490570068359</t>
   </si>
   <si>
     <t xml:space="preserve">5.78946971893311</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">5.8931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59936809539795</t>
+    <t xml:space="preserve">5.59936857223511</t>
   </si>
   <si>
     <t xml:space="preserve">5.737624168396</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">5.47839403152466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3228554725647</t>
+    <t xml:space="preserve">5.32285642623901</t>
   </si>
   <si>
     <t xml:space="preserve">5.23644638061523</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">5.16731786727905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25372791290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39198446273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11547183990479</t>
+    <t xml:space="preserve">5.25372838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39198398590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11547231674194</t>
   </si>
   <si>
     <t xml:space="preserve">5.1500358581543</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">5.18460035324097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94265127182007</t>
+    <t xml:space="preserve">4.94265174865723</t>
   </si>
   <si>
     <t xml:space="preserve">4.95993423461914</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">4.52788352966309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61429405212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99449777603149</t>
+    <t xml:space="preserve">4.61429452896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99449825286865</t>
   </si>
   <si>
     <t xml:space="preserve">5.09818983078003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06362628936768</t>
+    <t xml:space="preserve">5.06362581253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.66614055633545</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80439615249634</t>
+    <t xml:space="preserve">4.80439567565918</t>
   </si>
   <si>
     <t xml:space="preserve">4.68342208862305</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">4.70070457458496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63157606124878</t>
+    <t xml:space="preserve">4.63157653808594</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">4.85063314437866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74363327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72580051422119</t>
+    <t xml:space="preserve">4.74363374710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72580003738403</t>
   </si>
   <si>
     <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430370330811</t>
+    <t xml:space="preserve">4.28888607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430322647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788835525513</t>
+    <t xml:space="preserve">3.96788883209229</t>
   </si>
   <si>
     <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0035548210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78063988685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76280689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75389003753662</t>
+    <t xml:space="preserve">4.00355529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7806396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76280665397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7538902759552</t>
   </si>
   <si>
     <t xml:space="preserve">3.62905788421631</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.74497318267822</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538637161255</t>
+    <t xml:space="preserve">4.23538684844971</t>
   </si>
   <si>
     <t xml:space="preserve">4.17297077178955</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">4.18188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03922176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98572206497192</t>
+    <t xml:space="preserve">4.039222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98572158813477</t>
   </si>
   <si>
     <t xml:space="preserve">3.95897197723389</t>
@@ -1277,19 +1277,19 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547275543213</t>
+    <t xml:space="preserve">3.92330598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547251701355</t>
   </si>
   <si>
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70930695533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67364048957825</t>
+    <t xml:space="preserve">3.7093071937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
     <t xml:space="preserve">3.63797450065613</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4507257938385</t>
+    <t xml:space="preserve">3.45072555541992</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997738838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17431116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12081146240234</t>
+    <t xml:space="preserve">3.20997714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17431092262268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12081122398376</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">3.07622838020325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06731176376343</t>
+    <t xml:space="preserve">3.06731200218201</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03164529800415</t>
+    <t xml:space="preserve">3.03164553642273</t>
   </si>
   <si>
     <t xml:space="preserve">3.02272868156433</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247913360596</t>
+    <t xml:space="preserve">2.94247937202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.89789628982544</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.63931465148926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5858154296875</t>
+    <t xml:space="preserve">2.58581519126892</t>
   </si>
   <si>
     <t xml:space="preserve">2.56798195838928</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79981398582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922922134399</t>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922898292542</t>
   </si>
   <si>
     <t xml:space="preserve">2.98706221580505</t>
@@ -1424,19 +1424,19 @@
     <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92464590072632</t>
+    <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
     <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81764698028564</t>
+    <t xml:space="preserve">2.81764674186707</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78198051452637</t>
+    <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281435012817</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">3.27239370346069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33480978012085</t>
+    <t xml:space="preserve">3.33481001853943</t>
   </si>
   <si>
     <t xml:space="preserve">3.30806016921997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19214415550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106053352356</t>
+    <t xml:space="preserve">3.19214391708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106077194214</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">3.23672723770142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2188937664032</t>
+    <t xml:space="preserve">3.21889400482178</t>
   </si>
   <si>
     <t xml:space="preserve">3.16539454460144</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647792816162</t>
+    <t xml:space="preserve">3.15647768974304</t>
   </si>
   <si>
     <t xml:space="preserve">3.32589340209961</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">3.50422549247742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6825578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580749511719</t>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580773353577</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5309751033783</t>
+    <t xml:space="preserve">3.53097534179688</t>
   </si>
   <si>
     <t xml:space="preserve">3.4061427116394</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">3.42397570610046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37939262390137</t>
+    <t xml:space="preserve">3.37939286231995</t>
   </si>
   <si>
     <t xml:space="preserve">3.22781038284302</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">3.01381230354309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95139598846436</t>
+    <t xml:space="preserve">2.95139575004578</t>
   </si>
   <si>
     <t xml:space="preserve">3.17998290061951</t>
@@ -6221,7 +6221,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6247,7 +6247,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6273,7 +6273,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6325,7 +6325,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6351,7 +6351,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6377,7 +6377,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6429,7 +6429,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6455,7 +6455,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7391,7 +7391,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8145,7 +8145,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8171,7 +8171,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8509,7 +8509,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9757,7 +9757,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -58723,7 +58723,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6493518519</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>2400</v>
@@ -58744,6 +58744,32 @@
         <v>846</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6496296296</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>1.81500005722046</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>1.81500005722046</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1.82500004768372</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>845</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08230471611023</t>
+    <t xml:space="preserve">3.08230495452881</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06148934364319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09831666946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0390727519989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97822690010071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02626323699951</t>
+    <t xml:space="preserve">3.06148910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09831690788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03907251358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97822737693787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02626299858093</t>
   </si>
   <si>
     <t xml:space="preserve">3.04227495193481</t>
@@ -92,40 +92,40 @@
     <t xml:space="preserve">2.95741152763367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88375639915466</t>
+    <t xml:space="preserve">2.88375663757324</t>
   </si>
   <si>
     <t xml:space="preserve">2.91097664833069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84372663497925</t>
+    <t xml:space="preserve">2.84372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.79729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64197587966919</t>
+    <t xml:space="preserve">2.64197564125061</t>
   </si>
   <si>
     <t xml:space="preserve">2.59393978118896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52028465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63076734542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73804759979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75886344909668</t>
+    <t xml:space="preserve">2.52028441429138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63076686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7380473613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75886297225952</t>
   </si>
   <si>
     <t xml:space="preserve">2.78608345985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7012197971344</t>
+    <t xml:space="preserve">2.70122003555298</t>
   </si>
   <si>
     <t xml:space="preserve">2.86614322662354</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">2.82451200485229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81330347061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82130980491638</t>
+    <t xml:space="preserve">2.81330370903015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8213095664978</t>
   </si>
   <si>
     <t xml:space="preserve">2.768470287323</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">2.7780773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82291078567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83411908149719</t>
+    <t xml:space="preserve">2.80369687080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82291102409363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83411931991577</t>
   </si>
   <si>
     <t xml:space="preserve">2.8885600566864</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">2.81010103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96221542358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92218518257141</t>
+    <t xml:space="preserve">2.96221518516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92218542098999</t>
   </si>
   <si>
     <t xml:space="preserve">2.84212517738342</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">2.83732151985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85333371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493493080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83892297744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84532737731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973858833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87254786491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.882155418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93499445915222</t>
+    <t xml:space="preserve">2.85333347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493516921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83892321586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84532761573792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973834991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87254810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88215517997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9349946975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.90297079086304</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">3.01892423629761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99390578269958</t>
+    <t xml:space="preserve">2.99390554428101</t>
   </si>
   <si>
     <t xml:space="preserve">2.9755585193634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98556566238403</t>
+    <t xml:space="preserve">2.98556590080261</t>
   </si>
   <si>
     <t xml:space="preserve">2.89549851417542</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">2.87715172767639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91050982475281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83545398712158</t>
+    <t xml:space="preserve">2.91051006317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.835453748703</t>
   </si>
   <si>
     <t xml:space="preserve">2.8938307762146</t>
@@ -263,40 +263,40 @@
     <t xml:space="preserve">3.01558828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9955735206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00558114051819</t>
+    <t xml:space="preserve">2.99557328224182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00558090209961</t>
   </si>
   <si>
     <t xml:space="preserve">3.05061435699463</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0923125743866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13234257698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12733864784241</t>
+    <t xml:space="preserve">3.09231233596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13234233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12733840942383</t>
   </si>
   <si>
     <t xml:space="preserve">3.11899900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12567043304443</t>
+    <t xml:space="preserve">3.12567067146301</t>
   </si>
   <si>
     <t xml:space="preserve">3.10398769378662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07896900177002</t>
+    <t xml:space="preserve">3.0789692401886</t>
   </si>
   <si>
     <t xml:space="preserve">3.04727864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03560328483582</t>
+    <t xml:space="preserve">3.03560352325439</t>
   </si>
   <si>
     <t xml:space="preserve">3.040607213974</t>
@@ -317,7 +317,10 @@
     <t xml:space="preserve">2.91884922981262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96721911430359</t>
+    <t xml:space="preserve">2.96721887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0022451877594</t>
   </si>
   <si>
     <t xml:space="preserve">3.05561828613281</t>
@@ -326,25 +329,22 @@
     <t xml:space="preserve">3.0522825717926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99890923500061</t>
+    <t xml:space="preserve">2.99890899658203</t>
   </si>
   <si>
     <t xml:space="preserve">3.04394316673279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04227519035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07730102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98723387718201</t>
+    <t xml:space="preserve">3.0773012638092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98723411560059</t>
   </si>
   <si>
     <t xml:space="preserve">3.00057721138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97055459022522</t>
+    <t xml:space="preserve">2.9705548286438</t>
   </si>
   <si>
     <t xml:space="preserve">2.93552851676941</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">2.94220042228699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92718911170959</t>
+    <t xml:space="preserve">2.92718887329102</t>
   </si>
   <si>
     <t xml:space="preserve">3.01058459281921</t>
@@ -362,16 +362,16 @@
     <t xml:space="preserve">2.95887923240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97222256660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9889018535614</t>
+    <t xml:space="preserve">2.97222232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98890161514282</t>
   </si>
   <si>
     <t xml:space="preserve">3.007248878479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07563304901123</t>
+    <t xml:space="preserve">3.07563328742981</t>
   </si>
   <si>
     <t xml:space="preserve">3.1356782913208</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">3.20239472389221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17737579345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12066721916199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10231971740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09564805030823</t>
+    <t xml:space="preserve">3.17737603187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12066698074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10232019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09564828872681</t>
   </si>
   <si>
     <t xml:space="preserve">3.08730864524841</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">3.06896185874939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97722625732422</t>
+    <t xml:space="preserve">2.9772264957428</t>
   </si>
   <si>
     <t xml:space="preserve">3.02559590339661</t>
@@ -416,22 +416,22 @@
     <t xml:space="preserve">2.98389792442322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03059959411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02893161773682</t>
+    <t xml:space="preserve">3.03059983253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0289318561554</t>
   </si>
   <si>
     <t xml:space="preserve">2.99724125862122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0839729309082</t>
+    <t xml:space="preserve">3.08397316932678</t>
   </si>
   <si>
     <t xml:space="preserve">3.10732388496399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09064483642578</t>
+    <t xml:space="preserve">3.0906445980072</t>
   </si>
   <si>
     <t xml:space="preserve">3.15235733985901</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">3.0856409072876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06228971481323</t>
+    <t xml:space="preserve">3.06229019165039</t>
   </si>
   <si>
     <t xml:space="preserve">3.03393530845642</t>
@@ -452,25 +452,25 @@
     <t xml:space="preserve">3.03727126121521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92885732650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93386030197144</t>
+    <t xml:space="preserve">2.92885708808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93386054039001</t>
   </si>
   <si>
     <t xml:space="preserve">2.9255211353302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86047267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81043481826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90217041969299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81710648536682</t>
+    <t xml:space="preserve">2.8604724407196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8104350566864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90217065811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8171067237854</t>
   </si>
   <si>
     <t xml:space="preserve">2.79041981697083</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">2.7854163646698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83378601074219</t>
+    <t xml:space="preserve">2.83378577232361</t>
   </si>
   <si>
     <t xml:space="preserve">2.83211779594421</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">2.85880446434021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91551399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86380815505981</t>
+    <t xml:space="preserve">2.91551375389099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86380839347839</t>
   </si>
   <si>
     <t xml:space="preserve">2.89049482345581</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">2.9522078037262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0389392375946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0656259059906</t>
+    <t xml:space="preserve">3.03893899917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06562566757202</t>
   </si>
   <si>
     <t xml:space="preserve">3.06395792961121</t>
@@ -521,28 +521,28 @@
     <t xml:space="preserve">3.1223349571228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09398031234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11566305160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11232757568359</t>
+    <t xml:space="preserve">3.09398055076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1156632900238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11232733726501</t>
   </si>
   <si>
     <t xml:space="preserve">3.09898400306702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15902924537659</t>
+    <t xml:space="preserve">3.1173312664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15902900695801</t>
   </si>
   <si>
     <t xml:space="preserve">3.1673686504364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16903638839722</t>
+    <t xml:space="preserve">3.1690366268158</t>
   </si>
   <si>
     <t xml:space="preserve">3.2440927028656</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">3.31914877891541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33582758903503</t>
+    <t xml:space="preserve">3.33582782745361</t>
   </si>
   <si>
     <t xml:space="preserve">3.36084675788879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.364182472229</t>
+    <t xml:space="preserve">3.36418223381042</t>
   </si>
   <si>
     <t xml:space="preserve">3.39253711700439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29412984848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2374210357666</t>
+    <t xml:space="preserve">3.29413032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23742079734802</t>
   </si>
   <si>
     <t xml:space="preserve">3.24576044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25576782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24742865562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420485496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44424247741699</t>
+    <t xml:space="preserve">3.2557680606842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24742841720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44424223899841</t>
   </si>
   <si>
     <t xml:space="preserve">3.49094367027283</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">3.50261902809143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67608237266541</t>
+    <t xml:space="preserve">3.67608189582825</t>
   </si>
   <si>
     <t xml:space="preserve">3.68608951568604</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">3.66273927688599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66941094398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65773510932922</t>
+    <t xml:space="preserve">3.66941070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65773558616638</t>
   </si>
   <si>
     <t xml:space="preserve">3.6193733215332</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">3.6777503490448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6210412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61603760719299</t>
+    <t xml:space="preserve">3.62104082107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61603736877441</t>
   </si>
   <si>
     <t xml:space="preserve">3.42756319046021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56099605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62771272659302</t>
+    <t xml:space="preserve">3.56099629402161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62771248817444</t>
   </si>
   <si>
     <t xml:space="preserve">3.58601522445679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67242527008057</t>
+    <t xml:space="preserve">3.67242503166199</t>
   </si>
   <si>
     <t xml:space="preserve">3.64131760597229</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">3.61193799972534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6292200088501</t>
+    <t xml:space="preserve">3.62921977043152</t>
   </si>
   <si>
     <t xml:space="preserve">3.71563029289246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74673771858215</t>
+    <t xml:space="preserve">3.74673748016357</t>
   </si>
   <si>
     <t xml:space="preserve">3.80031156539917</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">3.79167079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90400409698486</t>
+    <t xml:space="preserve">3.90400362014771</t>
   </si>
   <si>
     <t xml:space="preserve">3.98350119590759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1044750213623</t>
+    <t xml:space="preserve">4.10447454452515</t>
   </si>
   <si>
     <t xml:space="preserve">4.13039827346802</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">4.05954170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99732637405396</t>
+    <t xml:space="preserve">3.99732685089111</t>
   </si>
   <si>
     <t xml:space="preserve">3.88844990730286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95584988594055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93165516853333</t>
+    <t xml:space="preserve">3.95585036277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93165469169617</t>
   </si>
   <si>
     <t xml:space="preserve">4.05608558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04398775100708</t>
+    <t xml:space="preserve">4.04398822784424</t>
   </si>
   <si>
     <t xml:space="preserve">3.96794700622559</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">3.97485995292664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11311626434326</t>
+    <t xml:space="preserve">4.1131157875061</t>
   </si>
   <si>
     <t xml:space="preserve">3.9541220664978</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">4.06991100311279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07336807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07855224609375</t>
+    <t xml:space="preserve">4.07336759567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07855176925659</t>
   </si>
   <si>
     <t xml:space="preserve">4.05781364440918</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">4.0526294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0025110244751</t>
+    <t xml:space="preserve">4.00251150131226</t>
   </si>
   <si>
     <t xml:space="preserve">3.89881944656372</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">3.83660387992859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80204010009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85561442375183</t>
+    <t xml:space="preserve">3.80204033851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85561418533325</t>
   </si>
   <si>
     <t xml:space="preserve">3.89017820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84524488449097</t>
+    <t xml:space="preserve">3.84524464607239</t>
   </si>
   <si>
     <t xml:space="preserve">3.77784538269043</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">3.67415285110474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77611684799194</t>
+    <t xml:space="preserve">3.77611708641052</t>
   </si>
   <si>
     <t xml:space="preserve">3.80549621582031</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">3.68106603622437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74500942230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68970680236816</t>
+    <t xml:space="preserve">3.74500966072083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68970704078674</t>
   </si>
   <si>
     <t xml:space="preserve">3.7674765586853</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">3.76574778556824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75883507728577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82450675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7847580909729</t>
+    <t xml:space="preserve">3.75883531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82450652122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78475832939148</t>
   </si>
   <si>
     <t xml:space="preserve">3.79858374595642</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">3.77438879013062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84006023406982</t>
+    <t xml:space="preserve">3.8400604724884</t>
   </si>
   <si>
     <t xml:space="preserve">3.85734295845032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81932210922241</t>
+    <t xml:space="preserve">3.81932187080383</t>
   </si>
   <si>
     <t xml:space="preserve">3.82105016708374</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">3.84178853034973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9126443862915</t>
+    <t xml:space="preserve">3.91264486312866</t>
   </si>
   <si>
     <t xml:space="preserve">3.91955709457397</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91091728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90573239326477</t>
+    <t xml:space="preserve">3.91091680526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90573191642761</t>
   </si>
   <si>
     <t xml:space="preserve">3.89709115028381</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">3.90746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87116813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95757794380188</t>
+    <t xml:space="preserve">3.8711678981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95757842063904</t>
   </si>
   <si>
     <t xml:space="preserve">4.14768028259277</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">4.45011520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49331998825073</t>
+    <t xml:space="preserve">4.49331951141357</t>
   </si>
   <si>
     <t xml:space="preserve">4.41123056411743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48467969894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4371542930603</t>
+    <t xml:space="preserve">4.48467922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43715381622314</t>
   </si>
   <si>
     <t xml:space="preserve">4.44147396087646</t>
@@ -908,19 +908,19 @@
     <t xml:space="preserve">4.83895969390869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80871677398682</t>
+    <t xml:space="preserve">4.80871629714966</t>
   </si>
   <si>
     <t xml:space="preserve">4.83463907241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82599782943726</t>
+    <t xml:space="preserve">4.82599830627441</t>
   </si>
   <si>
     <t xml:space="preserve">4.93833208084106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98585748672485</t>
+    <t xml:space="preserve">4.9858570098877</t>
   </si>
   <si>
     <t xml:space="preserve">4.9772162437439</t>
@@ -953,16 +953,16 @@
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83031845092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93401145935059</t>
+    <t xml:space="preserve">4.83031892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93401098251343</t>
   </si>
   <si>
     <t xml:space="preserve">4.96857500076294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19324159622192</t>
+    <t xml:space="preserve">5.19324111938477</t>
   </si>
   <si>
     <t xml:space="preserve">5.30557346343994</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">5.49135589599609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48703479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59072732925415</t>
+    <t xml:space="preserve">5.48703527450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59072685241699</t>
   </si>
   <si>
     <t xml:space="preserve">5.67713737487793</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">5.66849613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70305967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60800886154175</t>
+    <t xml:space="preserve">5.70306015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60800838470459</t>
   </si>
   <si>
     <t xml:space="preserve">5.7289834022522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71170091629028</t>
+    <t xml:space="preserve">5.71170139312744</t>
   </si>
   <si>
     <t xml:space="preserve">5.68577814102173</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">5.82403373718262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84131622314453</t>
+    <t xml:space="preserve">5.84131574630737</t>
   </si>
   <si>
     <t xml:space="preserve">5.80675172805786</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">5.81107234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77218818664551</t>
+    <t xml:space="preserve">5.77218770980835</t>
   </si>
   <si>
     <t xml:space="preserve">5.75490570068359</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">5.8931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59936809539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73762321472168</t>
+    <t xml:space="preserve">5.59936761856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73762369155884</t>
   </si>
   <si>
     <t xml:space="preserve">5.47839450836182</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">5.3228554725647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23644638061523</t>
+    <t xml:space="preserve">5.23644590377808</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731786727905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25372791290283</t>
+    <t xml:space="preserve">5.25372838973999</t>
   </si>
   <si>
     <t xml:space="preserve">5.39198398590088</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">5.18459987640381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94265222549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95993423461914</t>
+    <t xml:space="preserve">4.94265174865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95993375778198</t>
   </si>
   <si>
     <t xml:space="preserve">4.92536973953247</t>
@@ -1112,19 +1112,19 @@
     <t xml:space="preserve">4.66614007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701204299927</t>
+    <t xml:space="preserve">4.59701251983643</t>
   </si>
   <si>
     <t xml:space="preserve">4.75254964828491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80439567565918</t>
+    <t xml:space="preserve">4.80439615249634</t>
   </si>
   <si>
     <t xml:space="preserve">4.68342208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70070362091064</t>
+    <t xml:space="preserve">4.7007040977478</t>
   </si>
   <si>
     <t xml:space="preserve">4.63157653808594</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">4.90413188934326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85063219070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363327026367</t>
+    <t xml:space="preserve">4.8506326675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">4.28888654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24430370330811</t>
+    <t xml:space="preserve">4.24430322647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1166,16 +1166,16 @@
     <t xml:space="preserve">4.06597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08380460739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05705499649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96788859367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87872266769409</t>
+    <t xml:space="preserve">4.08380508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05705451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96788835525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87872290611267</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74497365951538</t>
+    <t xml:space="preserve">3.7449734210968</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36021900177002</t>
+    <t xml:space="preserve">4.36021947860718</t>
   </si>
   <si>
     <t xml:space="preserve">4.27997016906738</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463868141174</t>
+    <t xml:space="preserve">3.99463844299316</t>
   </si>
   <si>
     <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20863723754883</t>
+    <t xml:space="preserve">4.20863676071167</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297029495239</t>
+    <t xml:space="preserve">4.23538637161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297077178955</t>
   </si>
   <si>
     <t xml:space="preserve">4.13730382919312</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">4.12838792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15513753890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92330574989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547251701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630659103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70930695533752</t>
+    <t xml:space="preserve">4.15513706207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92330598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547275543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630682945251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7093071937561</t>
   </si>
   <si>
     <t xml:space="preserve">3.67364072799683</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880857467651</t>
+    <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">3.59339165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58447456359863</t>
+    <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
     <t xml:space="preserve">3.52205872535706</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">3.45964241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47747564315796</t>
+    <t xml:space="preserve">3.47747588157654</t>
   </si>
   <si>
     <t xml:space="preserve">3.45072555541992</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997738838196</t>
+    <t xml:space="preserve">3.20997714996338</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081146240234</t>
+    <t xml:space="preserve">3.12081122398376</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
@@ -1376,22 +1376,22 @@
     <t xml:space="preserve">3.03164553642273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02272868156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96031212806702</t>
+    <t xml:space="preserve">3.02272891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9603123664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247913360596</t>
+    <t xml:space="preserve">2.94247937202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.89789628982544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80873036384583</t>
+    <t xml:space="preserve">2.8087306022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.75523066520691</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">2.68389773368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71064758300781</t>
+    <t xml:space="preserve">2.71064782142639</t>
   </si>
   <si>
     <t xml:space="preserve">2.79981374740601</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">2.98706197738647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97814583778381</t>
+    <t xml:space="preserve">2.97814559936523</t>
   </si>
   <si>
     <t xml:space="preserve">2.9246461391449</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81764674186707</t>
+    <t xml:space="preserve">2.81764698028564</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78198051452637</t>
+    <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281435012817</t>
@@ -1478,16 +1478,16 @@
     <t xml:space="preserve">3.16539430618286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1386444568634</t>
+    <t xml:space="preserve">3.13864469528198</t>
   </si>
   <si>
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647768974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589316368103</t>
+    <t xml:space="preserve">3.15647792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589340209961</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
@@ -1496,22 +1496,22 @@
     <t xml:space="preserve">3.68255758285522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65580749511719</t>
+    <t xml:space="preserve">3.65580725669861</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314210891724</t>
+    <t xml:space="preserve">3.51314187049866</t>
   </si>
   <si>
     <t xml:space="preserve">3.5309751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4061427116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
+    <t xml:space="preserve">3.40614247322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697654724121</t>
   </si>
   <si>
     <t xml:space="preserve">3.39722609519958</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">3.37939310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2278106212616</t>
+    <t xml:space="preserve">3.22781038284302</t>
   </si>
   <si>
     <t xml:space="preserve">3.00489544868469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
+    <t xml:space="preserve">3.08514475822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381206512451</t>
   </si>
   <si>
     <t xml:space="preserve">2.95139598846436</t>
@@ -6224,7 +6224,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6250,7 +6250,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6276,7 +6276,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6354,7 +6354,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6380,7 +6380,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6432,7 +6432,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6458,7 +6458,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7394,7 +7394,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8148,7 +8148,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8174,7 +8174,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8512,7 +8512,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9760,7 +9760,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="860">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08230495452881</t>
+    <t xml:space="preserve">3.08230471611023</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">3.09831690788269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0390727519989</t>
+    <t xml:space="preserve">3.03907251358032</t>
   </si>
   <si>
     <t xml:space="preserve">2.97822690010071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02626276016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04227471351624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825714111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89176249504089</t>
+    <t xml:space="preserve">3.02626299858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04227495193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0182569026947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89176225662231</t>
   </si>
   <si>
     <t xml:space="preserve">2.89016103744507</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">2.79408931732178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87414932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93019127845764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94620275497437</t>
+    <t xml:space="preserve">2.87414908409119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93019104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94620323181152</t>
   </si>
   <si>
     <t xml:space="preserve">2.93819737434387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89656615257263</t>
+    <t xml:space="preserve">2.89656591415405</t>
   </si>
   <si>
     <t xml:space="preserve">2.95741152763367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88375663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91097712516785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372639656067</t>
+    <t xml:space="preserve">2.88375639915466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91097664833069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.79729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64197540283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59393978118896</t>
+    <t xml:space="preserve">2.64197564125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59393954277039</t>
   </si>
   <si>
     <t xml:space="preserve">2.52028441429138</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">2.63076710700989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7380473613739</t>
+    <t xml:space="preserve">2.73804759979248</t>
   </si>
   <si>
     <t xml:space="preserve">2.75886297225952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78608322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7012197971344</t>
+    <t xml:space="preserve">2.78608345985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70122003555298</t>
   </si>
   <si>
     <t xml:space="preserve">2.86614322662354</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">2.768470287323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77967858314514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7780773639679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82291054725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83411908149719</t>
+    <t xml:space="preserve">2.77967834472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77807712554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80369687080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82291078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83411931991577</t>
   </si>
   <si>
     <t xml:space="preserve">2.8885600566864</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">2.85653614997864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81010174751282</t>
+    <t xml:space="preserve">2.81010127067566</t>
   </si>
   <si>
     <t xml:space="preserve">2.96221518516541</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">2.92218542098999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.842125415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83732199668884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85333371162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493469238281</t>
+    <t xml:space="preserve">2.84212517738342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83732175827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85333323478699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493493080139</t>
   </si>
   <si>
     <t xml:space="preserve">2.83892273902893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84532737731934</t>
+    <t xml:space="preserve">2.84532785415649</t>
   </si>
   <si>
     <t xml:space="preserve">2.85973834991455</t>
@@ -203,127 +203,130 @@
     <t xml:space="preserve">2.88215517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93499445915222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90297055244446</t>
+    <t xml:space="preserve">2.93499493598938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90297079086304</t>
   </si>
   <si>
     <t xml:space="preserve">2.98623323440552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02466201782227</t>
+    <t xml:space="preserve">3.02466177940369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00224471092224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01892399787903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99390530586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9755585193634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556590080261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549851417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89716649055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9205174446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86881184577942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547660827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87715172767639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91050982475281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.835453748703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89383053779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96054720878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01558828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9955735206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00558114051819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05061483383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09231233596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13234233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12733840942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11899900436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12567043304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10398745536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04727864265442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03560352325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04060697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99223756790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01225256919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03226733207703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95054006576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91884922981262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96721911430359</t>
   </si>
   <si>
     <t xml:space="preserve">3.00224494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01892399787903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99390554428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9755585193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556590080261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549851417542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89716649055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9205174446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86881184577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547636985779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87715172767639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91050982475281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83545351028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8938307762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96054744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0155885219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9955735206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00558114051819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05061459541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09231209754944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13234257698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12733864784241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11899900436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12567067146301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10398769378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07896900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.047278881073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03560328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04060673713684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99223756790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01225256919861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03226780891418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95054006576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91884922981262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96721911430359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05561876296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0522825717926</t>
+    <t xml:space="preserve">3.05561828613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05228233337402</t>
   </si>
   <si>
     <t xml:space="preserve">2.99890923500061</t>
@@ -332,28 +335,25 @@
     <t xml:space="preserve">3.04394316673279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04227519035339</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.0773012638092</t>
   </si>
   <si>
     <t xml:space="preserve">2.98723387718201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00057721138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9705548286438</t>
+    <t xml:space="preserve">3.00057744979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97055459022522</t>
   </si>
   <si>
     <t xml:space="preserve">2.93552827835083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94220042228699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92718935012817</t>
+    <t xml:space="preserve">2.94220018386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92718911170959</t>
   </si>
   <si>
     <t xml:space="preserve">3.01058459281921</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">2.95887923240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97222280502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98890209197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00724864006042</t>
+    <t xml:space="preserve">2.97222232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9889018535614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00724840164185</t>
   </si>
   <si>
     <t xml:space="preserve">3.07563328742981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13567805290222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.185715675354</t>
+    <t xml:space="preserve">3.1356782913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18571519851685</t>
   </si>
   <si>
     <t xml:space="preserve">3.21573805809021</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.08730864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06896138191223</t>
+    <t xml:space="preserve">3.06896162033081</t>
   </si>
   <si>
     <t xml:space="preserve">2.9772264957428</t>
@@ -425,55 +425,55 @@
     <t xml:space="preserve">2.99724149703979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08397269248962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10732340812683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0906445980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15235710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9121778011322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0856409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06228995323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03393530845642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03727149963379</t>
+    <t xml:space="preserve">3.0839729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10732364654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09064435958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15235733985901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91217756271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08564066886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06229019165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.033935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03727126121521</t>
   </si>
   <si>
     <t xml:space="preserve">2.92885684967041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93386030197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92552089691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86047267913818</t>
+    <t xml:space="preserve">2.93386054039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9255211353302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8604724407196</t>
   </si>
   <si>
     <t xml:space="preserve">2.81043481826782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90217018127441</t>
+    <t xml:space="preserve">2.90217041969299</t>
   </si>
   <si>
     <t xml:space="preserve">2.8171067237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79041981697083</t>
+    <t xml:space="preserve">2.7904200553894</t>
   </si>
   <si>
     <t xml:space="preserve">2.78541612625122</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">2.91551375389099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86380791664124</t>
+    <t xml:space="preserve">2.86380815505981</t>
   </si>
   <si>
     <t xml:space="preserve">2.89049482345581</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">3.03893947601318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06562614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06395769119263</t>
+    <t xml:space="preserve">3.06562566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06395792961121</t>
   </si>
   <si>
     <t xml:space="preserve">3.02226042747498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1089916229248</t>
+    <t xml:space="preserve">3.10899138450623</t>
   </si>
   <si>
     <t xml:space="preserve">3.1223349571228</t>
@@ -527,31 +527,31 @@
     <t xml:space="preserve">3.1156632900238</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11232733726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0989842414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15902900695801</t>
+    <t xml:space="preserve">3.11232757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09898447990417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1173312664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15902924537659</t>
   </si>
   <si>
     <t xml:space="preserve">3.1673686504364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16903614997864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24409294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31914877891541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33582782745361</t>
+    <t xml:space="preserve">3.16903638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2440927028656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31914854049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33582758903503</t>
   </si>
   <si>
     <t xml:space="preserve">3.36084675788879</t>
@@ -566,22 +566,22 @@
     <t xml:space="preserve">3.2941300868988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2374210357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24576044082642</t>
+    <t xml:space="preserve">3.23742079734802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.245760679245</t>
   </si>
   <si>
     <t xml:space="preserve">3.2557680606842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24742841720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44424247741699</t>
+    <t xml:space="preserve">3.24742817878723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420485496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44424223899841</t>
   </si>
   <si>
     <t xml:space="preserve">3.49094367027283</t>
@@ -593,73 +593,73 @@
     <t xml:space="preserve">3.67608237266541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68608999252319</t>
+    <t xml:space="preserve">3.68608975410461</t>
   </si>
   <si>
     <t xml:space="preserve">3.66273927688599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66941094398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65773558616638</t>
+    <t xml:space="preserve">3.66941046714783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65773582458496</t>
   </si>
   <si>
     <t xml:space="preserve">3.61937355995178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67774987220764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6210412979126</t>
+    <t xml:space="preserve">3.67775011062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62104105949402</t>
   </si>
   <si>
     <t xml:space="preserve">3.61603736877441</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42756319046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56099605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62771272659302</t>
+    <t xml:space="preserve">3.42756342887878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56099629402161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62771248817444</t>
   </si>
   <si>
     <t xml:space="preserve">3.58601522445679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67242527008057</t>
+    <t xml:space="preserve">3.67242503166199</t>
   </si>
   <si>
     <t xml:space="preserve">3.64131760597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61193776130676</t>
+    <t xml:space="preserve">3.61193799972534</t>
   </si>
   <si>
     <t xml:space="preserve">3.6292200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71563029289246</t>
+    <t xml:space="preserve">3.71563005447388</t>
   </si>
   <si>
     <t xml:space="preserve">3.74673748016357</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80031156539917</t>
+    <t xml:space="preserve">3.80031180381775</t>
   </si>
   <si>
     <t xml:space="preserve">3.82623505592346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79167056083679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90400433540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98350095748901</t>
+    <t xml:space="preserve">3.79167079925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90400385856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98350143432617</t>
   </si>
   <si>
     <t xml:space="preserve">4.1044750213623</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">4.13039827346802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18224382400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15632057189941</t>
+    <t xml:space="preserve">4.18224430084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15632104873657</t>
   </si>
   <si>
     <t xml:space="preserve">4.05954170227051</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">3.99732661247253</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88845038414001</t>
+    <t xml:space="preserve">3.88844990730286</t>
   </si>
   <si>
     <t xml:space="preserve">3.95584988594055</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">3.96794700622559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97658896446228</t>
+    <t xml:space="preserve">3.97658848762512</t>
   </si>
   <si>
     <t xml:space="preserve">3.96967530250549</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">4.11311626434326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95412158966064</t>
+    <t xml:space="preserve">3.95412182807922</t>
   </si>
   <si>
     <t xml:space="preserve">4.03534698486328</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">4.07336759567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07855176925659</t>
+    <t xml:space="preserve">4.07855224609375</t>
   </si>
   <si>
     <t xml:space="preserve">4.05781412124634</t>
@@ -731,55 +731,55 @@
     <t xml:space="preserve">4.06126976013184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0526294708252</t>
+    <t xml:space="preserve">4.05262899398804</t>
   </si>
   <si>
     <t xml:space="preserve">4.0025110244751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8988196849823</t>
+    <t xml:space="preserve">3.89881920814514</t>
   </si>
   <si>
     <t xml:space="preserve">3.91610097885132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83660435676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80204033851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85561466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89017820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84524536132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77784585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67415285110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77611684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80549597740173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72427082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68106651306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74500966072083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68970680236816</t>
+    <t xml:space="preserve">3.83660387992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80204010009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85561418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89017772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84524488449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77784538269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67415261268616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7761173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80549621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7242705821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68106603622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74500942230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68970727920532</t>
   </si>
   <si>
     <t xml:space="preserve">3.76747608184814</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">3.76574754714966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75883507728577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82450675964355</t>
+    <t xml:space="preserve">3.75883460044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8245062828064</t>
   </si>
   <si>
     <t xml:space="preserve">3.7847580909729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79858374595642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77438879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84006023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85734248161316</t>
+    <t xml:space="preserve">3.79858350753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77438831329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84006071090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85734295845032</t>
   </si>
   <si>
     <t xml:space="preserve">3.81932210922241</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">3.82105040550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84178900718689</t>
+    <t xml:space="preserve">3.84178853034973</t>
   </si>
   <si>
     <t xml:space="preserve">3.91264486312866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91955733299255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91091632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90573167800903</t>
+    <t xml:space="preserve">3.91955780982971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91091680526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90573215484619</t>
   </si>
   <si>
     <t xml:space="preserve">3.89709138870239</t>
@@ -839,55 +839,55 @@
     <t xml:space="preserve">3.90746021270752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87116813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9575777053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14768028259277</t>
+    <t xml:space="preserve">3.87116861343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95757818222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14767980575562</t>
   </si>
   <si>
     <t xml:space="preserve">4.24273109436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32050037384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38962745666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40691041946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45011520385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49331998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41123008728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48467969894409</t>
+    <t xml:space="preserve">4.32049989700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3896279335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40690994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45011472702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49332046508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41123056411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48467922210693</t>
   </si>
   <si>
     <t xml:space="preserve">4.43715333938599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44147396087646</t>
+    <t xml:space="preserve">4.44147348403931</t>
   </si>
   <si>
     <t xml:space="preserve">4.50628185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47603750228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51924276351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58837080001831</t>
+    <t xml:space="preserve">4.47603797912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51924324035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58837127685547</t>
   </si>
   <si>
     <t xml:space="preserve">4.57973051071167</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">4.69206237792969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72230625152588</t>
+    <t xml:space="preserve">4.72230672836304</t>
   </si>
   <si>
     <t xml:space="preserve">4.83896017074585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80871629714966</t>
+    <t xml:space="preserve">4.80871677398682</t>
   </si>
   <si>
     <t xml:space="preserve">4.83463954925537</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">4.93833160400391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9858570098877</t>
+    <t xml:space="preserve">4.98585653305054</t>
   </si>
   <si>
     <t xml:space="preserve">4.9772162437439</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">5.03770303726196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02042150497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01178026199341</t>
+    <t xml:space="preserve">5.02042102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01177978515625</t>
   </si>
   <si>
     <t xml:space="preserve">4.99881839752197</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">4.89080619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86488342285156</t>
+    <t xml:space="preserve">4.8648829460144</t>
   </si>
   <si>
     <t xml:space="preserve">4.81303739547729</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">4.93401098251343</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9685754776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19324159622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30557346343994</t>
+    <t xml:space="preserve">4.96857500076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19324111938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3055739402771</t>
   </si>
   <si>
     <t xml:space="preserve">5.35741949081421</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">5.61665010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66849613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70305967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60800886154175</t>
+    <t xml:space="preserve">5.66849565505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70306015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60800838470459</t>
   </si>
   <si>
     <t xml:space="preserve">5.7289834022522</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">5.71170139312744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68577814102173</t>
+    <t xml:space="preserve">5.68577766418457</t>
   </si>
   <si>
     <t xml:space="preserve">5.82403373718262</t>
@@ -1052,19 +1052,19 @@
     <t xml:space="preserve">5.47839450836182</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32285642623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23644638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16731786727905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25372743606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39198350906372</t>
+    <t xml:space="preserve">5.32285594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23644590377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16731834411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25372791290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39198398590088</t>
   </si>
   <si>
     <t xml:space="preserve">5.11547231674194</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">5.18460035324097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94265222549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95993328094482</t>
+    <t xml:space="preserve">4.94265174865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95993375778198</t>
   </si>
   <si>
     <t xml:space="preserve">4.92536973953247</t>
@@ -1094,31 +1094,31 @@
     <t xml:space="preserve">4.90808773040771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52788400650024</t>
+    <t xml:space="preserve">4.52788352966309</t>
   </si>
   <si>
     <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99449872970581</t>
+    <t xml:space="preserve">4.99449825286865</t>
   </si>
   <si>
     <t xml:space="preserve">5.09819030761719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06362628936768</t>
+    <t xml:space="preserve">5.06362581253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.66614007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701204299927</t>
+    <t xml:space="preserve">4.59701251983643</t>
   </si>
   <si>
     <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80439615249634</t>
+    <t xml:space="preserve">4.8043966293335</t>
   </si>
   <si>
     <t xml:space="preserve">4.68342208862305</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">4.5474681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430322647095</t>
+    <t xml:space="preserve">4.28888702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430370330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">4.06597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08380508422852</t>
+    <t xml:space="preserve">4.08380460739136</t>
   </si>
   <si>
     <t xml:space="preserve">4.05705451965332</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">3.96788835525513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87872290611267</t>
+    <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280665397644</t>
+    <t xml:space="preserve">3.76280689239502</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62905788421631</t>
+    <t xml:space="preserve">3.62905764579773</t>
   </si>
   <si>
     <t xml:space="preserve">3.70039081573486</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66472434997559</t>
+    <t xml:space="preserve">3.66472411155701</t>
   </si>
   <si>
     <t xml:space="preserve">4.11055469512939</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36021947860718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27997016906738</t>
+    <t xml:space="preserve">4.36021900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">4.23538637161255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17297077178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13730382919312</t>
+    <t xml:space="preserve">4.17297029495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13730430603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18188762664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922128677368</t>
+    <t xml:space="preserve">4.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922176361084</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0213885307312</t>
+    <t xml:space="preserve">4.02138805389404</t>
   </si>
   <si>
     <t xml:space="preserve">4.12838792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15513706207275</t>
+    <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
     <t xml:space="preserve">3.92330598831177</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7093071937561</t>
+    <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
     <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63797426223755</t>
+    <t xml:space="preserve">3.63797450065613</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61122465133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57555866241455</t>
+    <t xml:space="preserve">3.61122488975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57555842399597</t>
   </si>
   <si>
     <t xml:space="preserve">3.59339165687561</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52205872535706</t>
+    <t xml:space="preserve">3.52205848693848</t>
   </si>
   <si>
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772471427917</t>
+    <t xml:space="preserve">3.55772495269775</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">3.45964241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47747588157654</t>
+    <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
     <t xml:space="preserve">3.45072555541992</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997714996338</t>
+    <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081122398376</t>
+    <t xml:space="preserve">3.12081146240234</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247937202454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789628982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8087306022644</t>
+    <t xml:space="preserve">2.94247913360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789605140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80873036384583</t>
   </si>
   <si>
     <t xml:space="preserve">2.75523066520691</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">2.56798195838928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68389773368835</t>
+    <t xml:space="preserve">2.68389749526978</t>
   </si>
   <si>
     <t xml:space="preserve">2.71064782142639</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">2.79981374740601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96922898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706197738647</t>
+    <t xml:space="preserve">2.96922922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706221580505</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814559936523</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86222982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84439659118652</t>
+    <t xml:space="preserve">2.86223006248474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764721870422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8443968296051</t>
   </si>
   <si>
     <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281435012817</t>
+    <t xml:space="preserve">2.69281458854675</t>
   </si>
   <si>
     <t xml:space="preserve">2.67498111724854</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106077194214</t>
+    <t xml:space="preserve">3.20106053352356</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">3.2188937664032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539430618286</t>
+    <t xml:space="preserve">3.16539454460144</t>
   </si>
   <si>
     <t xml:space="preserve">3.13864469528198</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
@@ -1496,22 +1496,22 @@
     <t xml:space="preserve">3.68255758285522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65580725669861</t>
+    <t xml:space="preserve">3.65580749511719</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314187049866</t>
+    <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
     <t xml:space="preserve">3.5309751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40614247322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697654724121</t>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
     <t xml:space="preserve">3.39722609519958</t>
@@ -1520,22 +1520,22 @@
     <t xml:space="preserve">3.4418089389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42397594451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939310073853</t>
+    <t xml:space="preserve">3.42397570610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939286231995</t>
   </si>
   <si>
     <t xml:space="preserve">3.22781038284302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00489544868469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514475822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381206512451</t>
+    <t xml:space="preserve">3.00489521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
   </si>
   <si>
     <t xml:space="preserve">2.95139598846436</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321805000305</t>
+    <t xml:space="preserve">3.13321828842163</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645391464233</t>
+    <t xml:space="preserve">3.08645367622375</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227785110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551347732544</t>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968954086304</t>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
@@ -1589,22 +1589,22 @@
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451244354248</t>
+    <t xml:space="preserve">3.11451268196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292516708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716158866882</t>
+    <t xml:space="preserve">2.99292492866516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357224464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616055488586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716135025024</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104405403137</t>
+    <t xml:space="preserve">2.73104429244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039721488953</t>
+    <t xml:space="preserve">2.74039697647095</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298552513123</t>
+    <t xml:space="preserve">2.70298528671265</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622091293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6842794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557359695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945653915405</t>
+    <t xml:space="preserve">2.61880946159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622067451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68427968025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557383537292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945630073547</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722194671631</t>
+    <t xml:space="preserve">2.49722170829773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15192413330078</t>
+    <t xml:space="preserve">3.1519238948822</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127705574036</t>
+    <t xml:space="preserve">3.16127729415894</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457280158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780842781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81522011756897</t>
+    <t xml:space="preserve">2.82457304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81521987915039</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210520744324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598791122437</t>
+    <t xml:space="preserve">2.28210544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698870658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12310600280762</t>
+    <t xml:space="preserve">2.06698894500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1231062412262</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863681793213</t>
+    <t xml:space="preserve">1.89863669872284</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022433280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987037658691</t>
+    <t xml:space="preserve">1.94540107250214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987061500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1796,19 +1796,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922329902649</t>
+    <t xml:space="preserve">2.17922353744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534107208252</t>
+    <t xml:space="preserve">2.23534083366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469399452209</t>
+    <t xml:space="preserve">2.24469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -2589,6 +2589,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.84500002861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86500000953674</t>
   </si>
 </sst>
 </file>
@@ -6224,7 +6227,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6250,7 +6253,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6276,7 +6279,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6328,7 +6331,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6354,7 +6357,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6380,7 +6383,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6432,7 +6435,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6458,7 +6461,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7394,7 +7397,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8148,7 +8151,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8174,7 +8177,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8512,7 +8515,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9760,7 +9763,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -58856,7 +58859,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6494907407</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>5715</v>
@@ -58877,6 +58880,32 @@
         <v>844</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6493634259</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>2394</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.86500000953674</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>859</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">3.06148934364319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09831690788269</t>
+    <t xml:space="preserve">3.09831666946411</t>
   </si>
   <si>
     <t xml:space="preserve">3.03907251358032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97822690010071</t>
+    <t xml:space="preserve">2.97822713851929</t>
   </si>
   <si>
     <t xml:space="preserve">3.02626299858093</t>
@@ -86,19 +86,19 @@
     <t xml:space="preserve">2.93819737434387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89656591415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95741152763367</t>
+    <t xml:space="preserve">2.89656615257263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95741176605225</t>
   </si>
   <si>
     <t xml:space="preserve">2.88375639915466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91097664833069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372663497925</t>
+    <t xml:space="preserve">2.91097640991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.79729175567627</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">2.59393954277039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52028441429138</t>
+    <t xml:space="preserve">2.52028465270996</t>
   </si>
   <si>
     <t xml:space="preserve">2.63076710700989</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">2.73804759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75886297225952</t>
+    <t xml:space="preserve">2.7588632106781</t>
   </si>
   <si>
     <t xml:space="preserve">2.78608345985413</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">2.86614322662354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90457201004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82451224327087</t>
+    <t xml:space="preserve">2.9045717716217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82451200485229</t>
   </si>
   <si>
     <t xml:space="preserve">2.81330347061157</t>
@@ -146,13 +146,13 @@
     <t xml:space="preserve">2.768470287323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77967834472656</t>
+    <t xml:space="preserve">2.77967858314514</t>
   </si>
   <si>
     <t xml:space="preserve">2.77807712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80369687080383</t>
+    <t xml:space="preserve">2.80369663238525</t>
   </si>
   <si>
     <t xml:space="preserve">2.82291078567505</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">2.8885600566864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85653614997864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81010127067566</t>
+    <t xml:space="preserve">2.85653638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81010150909424</t>
   </si>
   <si>
     <t xml:space="preserve">2.96221518516541</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">2.83732175827026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85333323478699</t>
+    <t xml:space="preserve">2.85333347320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.85493493080139</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">2.88215517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93499493598938</t>
+    <t xml:space="preserve">2.9349946975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.90297079086304</t>
@@ -58885,13 +58885,13 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6493634259</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>2394</v>
       </c>
       <c r="C2153" t="n">
-        <v>1.84500002861023</v>
+        <v>1.86500000953674</v>
       </c>
       <c r="D2153" t="n">
         <v>1.84500002861023</v>
@@ -58906,6 +58906,32 @@
         <v>859</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6496296296</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>5694</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1.83500003814697</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -50,337 +50,337 @@
     <t xml:space="preserve">3.09831666946411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03907251358032</t>
+    <t xml:space="preserve">3.0390727519989</t>
   </si>
   <si>
     <t xml:space="preserve">2.97822713851929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02626276016235</t>
+    <t xml:space="preserve">3.02626299858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04227471351624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89176225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89016103744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79408931732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87414932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93019104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94620299339294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93819737434387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89656591415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95741128921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88375616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91097688674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372663497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79729175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64197540283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59393954277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52028465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63076734542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7380473613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7588632106781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78608345985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70122003555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86614322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90457224845886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82451224327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81330370903015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82130980491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.768470287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77967858314514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7780773639679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80369687080383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82291078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83411908149719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8885600566864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85653638839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81010127067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96221494674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92218542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84212517738342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83732151985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85333395004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493493080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83892273902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84532737731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973858833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87254810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88215517997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9349946975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90297079086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98623323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02466177940369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00224494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01892423629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99390578269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9755585193634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98556613922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89716649055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9205174446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.868812084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86547636985779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87715148925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91050982475281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83545351028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8938307762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96054720878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0155885219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99557328224182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00558090209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05061459541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0923125743866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13234233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12733864784241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11899900436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12567090988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10398745536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.047278881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03560352325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04060697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99223780632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01225233078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03226757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9505398273468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91884922981262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96721887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05561852455139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05228281021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890947341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04394292831421</t>
   </si>
   <si>
     <t xml:space="preserve">3.04227495193481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01825737953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89176225662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89016103744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79408955574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87414932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93019127845764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94620299339294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93819713592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89656591415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95741152763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88375616073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91097664833069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372687339783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79729175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64197587966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59393978118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52028465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63076734542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7380473613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75886297225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78608345985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70122003555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86614322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90457201004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82451224327087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81330347061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8213095664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76847004890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77967882156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7780773639679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80369663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82291078567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83411908149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8885600566864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85653614997864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81010150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96221518516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92218518257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.842125415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83732151985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85333395004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493493080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83892321586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84532737731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973858833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87254810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88215494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93499493598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90297079086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98623323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02466177940369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00224494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01892423629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99390554428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9755585193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98556590080261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549827575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89716625213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9205174446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86881232261658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86547636985779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87715172767639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91051006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.835453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8938307762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96054720878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0155885219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99557328224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00558090209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05061459541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0923125743866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13234233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12733864784241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11899924278259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12567090988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10398745536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07896900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.047278881073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03560328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.040607213974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99223780632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01225256919861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03226780891418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9505398273468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9188494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96721887588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05561828613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05228281021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890923500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04394292831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04227519035339</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.0773012638092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98723411560059</t>
+    <t xml:space="preserve">2.98723387718201</t>
   </si>
   <si>
     <t xml:space="preserve">3.00057697296143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9705548286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93552851676941</t>
+    <t xml:space="preserve">2.97055459022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93552827835083</t>
   </si>
   <si>
     <t xml:space="preserve">2.94220018386841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92718887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01058459281921</t>
+    <t xml:space="preserve">2.92718911170959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01058483123779</t>
   </si>
   <si>
     <t xml:space="preserve">2.9588794708252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97222280502319</t>
+    <t xml:space="preserve">2.97222256660461</t>
   </si>
   <si>
     <t xml:space="preserve">2.98890209197998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00724911689758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07563352584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13567852973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18571591377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21573805809021</t>
+    <t xml:space="preserve">3.007248878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07563328742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13567805290222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.185715675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21573781967163</t>
   </si>
   <si>
     <t xml:space="preserve">3.20239448547363</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09564781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08730888366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06896162033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9772264957428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02559566497803</t>
+    <t xml:space="preserve">3.09564828872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08730864524841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06896185874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97722625732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02559590339661</t>
   </si>
   <si>
     <t xml:space="preserve">3.053950548172</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">3.03059983253479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99724173545837</t>
+    <t xml:space="preserve">3.0289318561554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99724149703979</t>
   </si>
   <si>
     <t xml:space="preserve">3.08397269248962</t>
@@ -431,19 +431,19 @@
     <t xml:space="preserve">3.10732364654541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0906445980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15235757827759</t>
+    <t xml:space="preserve">3.09064483642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15235733985901</t>
   </si>
   <si>
     <t xml:space="preserve">2.91217803955078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08564066886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06228971481323</t>
+    <t xml:space="preserve">3.0856409072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06228995323181</t>
   </si>
   <si>
     <t xml:space="preserve">3.03393530845642</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">2.92885708808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93386077880859</t>
+    <t xml:space="preserve">2.93386030197144</t>
   </si>
   <si>
     <t xml:space="preserve">2.92552089691162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8604724407196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81043481826782</t>
+    <t xml:space="preserve">2.86047267913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81043457984924</t>
   </si>
   <si>
     <t xml:space="preserve">2.90217018127441</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">2.7904200553894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7854163646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83378601074219</t>
+    <t xml:space="preserve">2.78541612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83378577232361</t>
   </si>
   <si>
     <t xml:space="preserve">2.83211779594421</t>
@@ -491,37 +491,37 @@
     <t xml:space="preserve">2.91551351547241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86380839347839</t>
+    <t xml:space="preserve">2.86380815505981</t>
   </si>
   <si>
     <t xml:space="preserve">2.89049506187439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90884184837341</t>
+    <t xml:space="preserve">2.90884160995483</t>
   </si>
   <si>
     <t xml:space="preserve">2.95220756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0389392375946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0656259059906</t>
+    <t xml:space="preserve">3.03893899917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06562542915344</t>
   </si>
   <si>
     <t xml:space="preserve">3.06395816802979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0222601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1089916229248</t>
+    <t xml:space="preserve">3.02225995063782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10899138450623</t>
   </si>
   <si>
     <t xml:space="preserve">3.1223349571228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09398007392883</t>
+    <t xml:space="preserve">3.09398055076599</t>
   </si>
   <si>
     <t xml:space="preserve">3.1156632900238</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">3.11232757568359</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0989842414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11733102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15902900695801</t>
+    <t xml:space="preserve">3.09898400306702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1173312664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15902924537659</t>
   </si>
   <si>
     <t xml:space="preserve">3.1673686504364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1690366268158</t>
+    <t xml:space="preserve">3.16903638839722</t>
   </si>
   <si>
     <t xml:space="preserve">3.2440927028656</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">3.33582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36084675788879</t>
+    <t xml:space="preserve">3.36084651947021</t>
   </si>
   <si>
     <t xml:space="preserve">3.364182472229</t>
@@ -563,28 +563,28 @@
     <t xml:space="preserve">3.39253687858582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2941300868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23742079734802</t>
+    <t xml:space="preserve">3.29412984848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2374210357666</t>
   </si>
   <si>
     <t xml:space="preserve">3.245760679245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25576829910278</t>
+    <t xml:space="preserve">3.2557680606842</t>
   </si>
   <si>
     <t xml:space="preserve">3.24742841720581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39420509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44424247741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49094367027283</t>
+    <t xml:space="preserve">3.39420485496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44424223899841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49094390869141</t>
   </si>
   <si>
     <t xml:space="preserve">3.50261902809143</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">3.67608237266541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68608999252319</t>
+    <t xml:space="preserve">3.68608975410461</t>
   </si>
   <si>
     <t xml:space="preserve">3.66273927688599</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">3.66941070556641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65773558616638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61937355995178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6777503490448</t>
+    <t xml:space="preserve">3.6577353477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61937379837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67774987220764</t>
   </si>
   <si>
     <t xml:space="preserve">3.6210412979126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61603760719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42756342887878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56099581718445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62771272659302</t>
+    <t xml:space="preserve">3.61603736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42756319046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56099605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62771248817444</t>
   </si>
   <si>
     <t xml:space="preserve">3.58601522445679</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">3.64131784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61193799972534</t>
+    <t xml:space="preserve">3.61193823814392</t>
   </si>
   <si>
     <t xml:space="preserve">3.62921977043152</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">3.74673771858215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80031180381775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82623481750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79167079925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90400362014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98350095748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10447549819946</t>
+    <t xml:space="preserve">3.80031204223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82623529434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79167103767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90400385856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98350119590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1044750213623</t>
   </si>
   <si>
     <t xml:space="preserve">4.13039827346802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18224430084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15632104873657</t>
+    <t xml:space="preserve">4.18224382400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15632057189941</t>
   </si>
   <si>
     <t xml:space="preserve">4.05954170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99732637405396</t>
+    <t xml:space="preserve">3.99732685089111</t>
   </si>
   <si>
     <t xml:space="preserve">3.88844990730286</t>
@@ -692,31 +692,31 @@
     <t xml:space="preserve">4.05608558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04398822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96794700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97658824920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96967577934265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97486042976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11311626434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9541220664978</t>
+    <t xml:space="preserve">4.04398775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96794724464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97658848762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96967530250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97486019134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1131157875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95412182807922</t>
   </si>
   <si>
     <t xml:space="preserve">4.03534746170044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06991100311279</t>
+    <t xml:space="preserve">4.06991147994995</t>
   </si>
   <si>
     <t xml:space="preserve">4.07336759567261</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">4.0025110244751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89881896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91610145568848</t>
+    <t xml:space="preserve">3.89881944656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9161012172699</t>
   </si>
   <si>
     <t xml:space="preserve">3.83660435676575</t>
@@ -749,61 +749,61 @@
     <t xml:space="preserve">3.80204010009766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85561442375183</t>
+    <t xml:space="preserve">3.85561466217041</t>
   </si>
   <si>
     <t xml:space="preserve">3.89017820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84524488449097</t>
+    <t xml:space="preserve">3.84524512290955</t>
   </si>
   <si>
     <t xml:space="preserve">3.77784538269043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67415285110474</t>
+    <t xml:space="preserve">3.67415308952332</t>
   </si>
   <si>
     <t xml:space="preserve">3.77611708641052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80549621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72427082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68106627464294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74500918388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68970656394958</t>
+    <t xml:space="preserve">3.80549645423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7242705821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68106651306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74500966072083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68970680236816</t>
   </si>
   <si>
     <t xml:space="preserve">3.76747632026672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76574778556824</t>
+    <t xml:space="preserve">3.76574754714966</t>
   </si>
   <si>
     <t xml:space="preserve">3.75883483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82450675964355</t>
+    <t xml:space="preserve">3.8245062828064</t>
   </si>
   <si>
     <t xml:space="preserve">3.7847580909729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79858350753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77438879013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84006071090698</t>
+    <t xml:space="preserve">3.79858326911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77438855171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84006023406982</t>
   </si>
   <si>
     <t xml:space="preserve">3.85734248161316</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">3.81932210922241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82105016708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84178853034973</t>
+    <t xml:space="preserve">3.82104992866516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84178876876831</t>
   </si>
   <si>
     <t xml:space="preserve">3.9126443862915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91955757141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91091680526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90573239326477</t>
+    <t xml:space="preserve">3.91955780982971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91091704368591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90573167800903</t>
   </si>
   <si>
     <t xml:space="preserve">3.89709115028381</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">3.91782927513123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90745973587036</t>
+    <t xml:space="preserve">3.90746021270752</t>
   </si>
   <si>
     <t xml:space="preserve">3.87116813659668</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95757794380188</t>
+    <t xml:space="preserve">3.9575777053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.14767980575562</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">4.32049989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38962841033936</t>
+    <t xml:space="preserve">4.3896279335022</t>
   </si>
   <si>
     <t xml:space="preserve">4.40690994262695</t>
@@ -866,37 +866,37 @@
     <t xml:space="preserve">4.49331998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41123056411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48467922210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4371542930603</t>
+    <t xml:space="preserve">4.41123008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48467874526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43715381622314</t>
   </si>
   <si>
     <t xml:space="preserve">4.44147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50628185272217</t>
+    <t xml:space="preserve">4.50628137588501</t>
   </si>
   <si>
     <t xml:space="preserve">4.47603750228882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51924324035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58837127685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57973051071167</t>
+    <t xml:space="preserve">4.51924276351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58837080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57973003387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.64453744888306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64885807037354</t>
+    <t xml:space="preserve">4.64885854721069</t>
   </si>
   <si>
     <t xml:space="preserve">4.69206285476685</t>
@@ -917,67 +917,67 @@
     <t xml:space="preserve">4.82599830627441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93833208084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98585748672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9772162437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03770303726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02042102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01178073883057</t>
+    <t xml:space="preserve">4.93833160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9858570098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97721672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02042150497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01178026199341</t>
   </si>
   <si>
     <t xml:space="preserve">4.99881839752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89080619812012</t>
+    <t xml:space="preserve">4.89080572128296</t>
   </si>
   <si>
     <t xml:space="preserve">4.8648829460144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81303691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67478036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71798610687256</t>
+    <t xml:space="preserve">4.81303739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67478084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71798658370972</t>
   </si>
   <si>
     <t xml:space="preserve">4.83031892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93401145935059</t>
+    <t xml:space="preserve">4.93401098251343</t>
   </si>
   <si>
     <t xml:space="preserve">4.96857500076294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19324111938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30557346343994</t>
+    <t xml:space="preserve">5.19324064254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3055739402771</t>
   </si>
   <si>
     <t xml:space="preserve">5.35741949081421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43086862564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45679140090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49135589599609</t>
+    <t xml:space="preserve">5.43086814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45679092407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
     <t xml:space="preserve">5.48703527450562</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">5.67713737487793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61665058135986</t>
+    <t xml:space="preserve">5.61665010452271</t>
   </si>
   <si>
     <t xml:space="preserve">5.66849613189697</t>
@@ -1004,64 +1004,64 @@
     <t xml:space="preserve">5.72898292541504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71170091629028</t>
+    <t xml:space="preserve">5.71170139312744</t>
   </si>
   <si>
     <t xml:space="preserve">5.68577766418457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82403373718262</t>
+    <t xml:space="preserve">5.82403326034546</t>
   </si>
   <si>
     <t xml:space="preserve">5.84131622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80675172805786</t>
+    <t xml:space="preserve">5.80675220489502</t>
   </si>
   <si>
     <t xml:space="preserve">5.83267498016357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81107234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77218818664551</t>
+    <t xml:space="preserve">5.8110728263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77218770980835</t>
   </si>
   <si>
     <t xml:space="preserve">5.75490570068359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78946924209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81539249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87588024139404</t>
+    <t xml:space="preserve">5.78946971893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81539297103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87587976455688</t>
   </si>
   <si>
     <t xml:space="preserve">5.8931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59936809539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73762369155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47839450836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32285594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23644590377808</t>
+    <t xml:space="preserve">5.59936857223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.737624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47839403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32285642623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23644638061523</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731786727905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25372791290283</t>
+    <t xml:space="preserve">5.25372838973999</t>
   </si>
   <si>
     <t xml:space="preserve">5.39198398590088</t>
@@ -1070,13 +1070,13 @@
     <t xml:space="preserve">5.11547231674194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15003633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18459987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94265222549438</t>
+    <t xml:space="preserve">5.1500358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18460035324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94265174865723</t>
   </si>
   <si>
     <t xml:space="preserve">4.95993423461914</t>
@@ -1085,37 +1085,37 @@
     <t xml:space="preserve">4.92537021636963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85624170303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90808820724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52788400650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429405212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99449872970581</t>
+    <t xml:space="preserve">4.85624217987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90808773040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52788352966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429452896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99449825286865</t>
   </si>
   <si>
     <t xml:space="preserve">5.09818983078003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06362628936768</t>
+    <t xml:space="preserve">5.06362581253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.66614055633545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75254964828491</t>
+    <t xml:space="preserve">4.59701204299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.80439567565918</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">4.68342208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7007040977478</t>
+    <t xml:space="preserve">4.70070457458496</t>
   </si>
   <si>
     <t xml:space="preserve">4.63157653808594</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8506326675415</t>
+    <t xml:space="preserve">4.90413236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85063314437866</t>
   </si>
   <si>
     <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72580051422119</t>
+    <t xml:space="preserve">4.72580003738403</t>
   </si>
   <si>
     <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430370330811</t>
+    <t xml:space="preserve">4.28888607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430322647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788859367371</t>
+    <t xml:space="preserve">3.96788883209229</t>
   </si>
   <si>
     <t xml:space="preserve">3.87872242927551</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">3.7806396484375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280689239502</t>
+    <t xml:space="preserve">3.76280665397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.7538902759552</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">3.62905788421631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70039057731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.70039081573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74497318267822</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69147419929504</t>
+    <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
     <t xml:space="preserve">3.66472434997559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11055421829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33346939086914</t>
+    <t xml:space="preserve">4.11055469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
     <t xml:space="preserve">4.36021900177002</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11947059631348</t>
+    <t xml:space="preserve">4.11947107315063</t>
   </si>
   <si>
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463868141174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10163831710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20863723754883</t>
+    <t xml:space="preserve">3.99463844299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.101637840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20863676071167</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538732528687</t>
+    <t xml:space="preserve">4.23538684844971</t>
   </si>
   <si>
     <t xml:space="preserve">4.17297077178955</t>
@@ -1253,19 +1253,19 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622068405151</t>
+    <t xml:space="preserve">4.14622116088867</t>
   </si>
   <si>
     <t xml:space="preserve">4.18188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03922176361084</t>
+    <t xml:space="preserve">4.039222240448</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572158813477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95897245407104</t>
+    <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
     <t xml:space="preserve">4.0213885307312</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330574989319</t>
+    <t xml:space="preserve">3.92330598831177</t>
   </si>
   <si>
     <t xml:space="preserve">3.90547251701355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81630659103394</t>
+    <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
     <t xml:space="preserve">3.7093071937561</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63797426223755</t>
+    <t xml:space="preserve">3.63797450065613</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880857467651</t>
+    <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555842399597</t>
+    <t xml:space="preserve">3.57555818557739</t>
   </si>
   <si>
     <t xml:space="preserve">3.59339141845703</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372639656067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26347732543945</t>
+    <t xml:space="preserve">3.34372663497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26347708702087</t>
   </si>
   <si>
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997738838196</t>
+    <t xml:space="preserve">3.20997714996338</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081146240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10297799110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04056215286255</t>
+    <t xml:space="preserve">3.12081122398376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10297822952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04056191444397</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">3.02272868156433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9603123664856</t>
+    <t xml:space="preserve">2.96031260490417</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">2.94247937202454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89789652824402</t>
+    <t xml:space="preserve">2.89789628982544</t>
   </si>
   <si>
     <t xml:space="preserve">2.80873036384583</t>
@@ -1397,10 +1397,10 @@
     <t xml:space="preserve">2.75523066520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63931488990784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5858154296875</t>
+    <t xml:space="preserve">2.63931465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58581519126892</t>
   </si>
   <si>
     <t xml:space="preserve">2.56798195838928</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">2.96922898292542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98706197738647</t>
+    <t xml:space="preserve">2.98706221580505</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814583778381</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86223006248474</t>
+    <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
     <t xml:space="preserve">2.81764674186707</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281458854675</t>
+    <t xml:space="preserve">2.69281435012817</t>
   </si>
   <si>
     <t xml:space="preserve">2.67498111724854</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">3.29022693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27239346504211</t>
+    <t xml:space="preserve">3.27239370346069</t>
   </si>
   <si>
     <t xml:space="preserve">3.33481001853943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30805993080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214415550232</t>
+    <t xml:space="preserve">3.30806016921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214391708374</t>
   </si>
   <si>
     <t xml:space="preserve">3.20106077194214</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">3.21889400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539430618286</t>
+    <t xml:space="preserve">3.16539454460144</t>
   </si>
   <si>
     <t xml:space="preserve">3.1386444568634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18322777748108</t>
+    <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
     <t xml:space="preserve">3.15647768974304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32589316368103</t>
+    <t xml:space="preserve">3.32589340209961</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">3.65580773353577</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53989195823669</t>
+    <t xml:space="preserve">3.53989171981812</t>
   </si>
   <si>
     <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5309751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40614295005798</t>
+    <t xml:space="preserve">3.53097534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4061427116394</t>
   </si>
   <si>
     <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39722609519958</t>
+    <t xml:space="preserve">3.39722585678101</t>
   </si>
   <si>
     <t xml:space="preserve">3.4418089389801</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">3.37939286231995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2278106212616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489544868469</t>
+    <t xml:space="preserve">3.22781038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489521026611</t>
   </si>
   <si>
     <t xml:space="preserve">3.08514499664307</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321805000305</t>
+    <t xml:space="preserve">3.13321828842163</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645391464233</t>
+    <t xml:space="preserve">3.08645367622375</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227785110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551347732544</t>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1574,34 +1574,34 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968954086304</t>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451244354248</t>
+    <t xml:space="preserve">3.11451268196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292516708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716158866882</t>
+    <t xml:space="preserve">2.99292492866516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357224464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616055488586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716135025024</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1610,19 +1610,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104405403137</t>
+    <t xml:space="preserve">2.73104429244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039721488953</t>
+    <t xml:space="preserve">2.74039697647095</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298552513123</t>
+    <t xml:space="preserve">2.70298528671265</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622091293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6842794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557359695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945653915405</t>
+    <t xml:space="preserve">2.61880946159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622067451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68427968025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557383537292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945630073547</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722194671631</t>
+    <t xml:space="preserve">2.49722170829773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15192413330078</t>
+    <t xml:space="preserve">3.1519238948822</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127705574036</t>
+    <t xml:space="preserve">3.16127729415894</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457280158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780842781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81522011756897</t>
+    <t xml:space="preserve">2.82457304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81521987915039</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210520744324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598791122437</t>
+    <t xml:space="preserve">2.28210544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698870658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12310600280762</t>
+    <t xml:space="preserve">2.06698894500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1231062412262</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863681793213</t>
+    <t xml:space="preserve">1.89863669872284</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022433280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987037658691</t>
+    <t xml:space="preserve">1.94540107250214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987061500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1793,19 +1793,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922329902649</t>
+    <t xml:space="preserve">2.17922353744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534107208252</t>
+    <t xml:space="preserve">2.23534083366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469399452209</t>
+    <t xml:space="preserve">2.24469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -58934,7 +58934,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6496296296</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>7889</v>
@@ -58955,6 +58955,32 @@
         <v>844</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6495833333</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>4074</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>1.83500003814697</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>1.83500003814697</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>1.83500003814697</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>1.86500000953674</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08230471611023</t>
+    <t xml:space="preserve">3.08230495452881</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">3.06148934364319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09831666946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0390727519989</t>
+    <t xml:space="preserve">3.09831690788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03907227516174</t>
   </si>
   <si>
     <t xml:space="preserve">2.97822713851929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02626299858093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04227471351624</t>
+    <t xml:space="preserve">3.02626276016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04227495193481</t>
   </si>
   <si>
     <t xml:space="preserve">3.01825714111328</t>
@@ -68,43 +68,43 @@
     <t xml:space="preserve">2.89176225662231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89016103744507</t>
+    <t xml:space="preserve">2.89016079902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.79408931732178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87414932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93019104003906</t>
+    <t xml:space="preserve">2.87414908409119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93019151687622</t>
   </si>
   <si>
     <t xml:space="preserve">2.94620299339294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93819737434387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89656591415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95741128921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88375616073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91097688674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84372663497925</t>
+    <t xml:space="preserve">2.93819713592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89656615257263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95741152763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88375639915466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91097664833069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.79729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64197540283203</t>
+    <t xml:space="preserve">2.64197564125061</t>
   </si>
   <si>
     <t xml:space="preserve">2.59393954277039</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">2.52028465270996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63076734542847</t>
+    <t xml:space="preserve">2.63076710700989</t>
   </si>
   <si>
     <t xml:space="preserve">2.7380473613739</t>
@@ -122,28 +122,28 @@
     <t xml:space="preserve">2.7588632106781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78608345985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70122003555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86614322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90457224845886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82451224327087</t>
+    <t xml:space="preserve">2.78608369827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7012197971344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86614346504211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90457201004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82451200485229</t>
   </si>
   <si>
     <t xml:space="preserve">2.81330370903015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82130980491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.768470287323</t>
+    <t xml:space="preserve">2.8213095664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76847004890442</t>
   </si>
   <si>
     <t xml:space="preserve">2.77967858314514</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">2.7780773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80369687080383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82291078567505</t>
+    <t xml:space="preserve">2.80369663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82291126251221</t>
   </si>
   <si>
     <t xml:space="preserve">2.83411908149719</t>
@@ -164,34 +164,34 @@
     <t xml:space="preserve">2.8885600566864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85653638839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81010127067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96221494674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92218542098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84212517738342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83732151985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85333395004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85493493080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83892273902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84532737731934</t>
+    <t xml:space="preserve">2.85653614997864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81010150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96221518516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92218518257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.842125415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83732175827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85333371162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85493469238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83892297744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84532761573792</t>
   </si>
   <si>
     <t xml:space="preserve">2.85973858833313</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">2.88215517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9349946975708</t>
+    <t xml:space="preserve">2.93499493598938</t>
   </si>
   <si>
     <t xml:space="preserve">2.90297079086304</t>
@@ -212,31 +212,31 @@
     <t xml:space="preserve">2.98623323440552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02466177940369</t>
+    <t xml:space="preserve">3.02466154098511</t>
   </si>
   <si>
     <t xml:space="preserve">3.00224494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01892423629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99390578269958</t>
+    <t xml:space="preserve">3.01892399787903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99390530586243</t>
   </si>
   <si>
     <t xml:space="preserve">2.9755585193634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98556613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89716649055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9205174446106</t>
+    <t xml:space="preserve">2.98556590080261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89716625213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92051720619202</t>
   </si>
   <si>
     <t xml:space="preserve">2.868812084198</t>
@@ -245,28 +245,28 @@
     <t xml:space="preserve">2.86547636985779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87715148925781</t>
+    <t xml:space="preserve">2.87715172767639</t>
   </si>
   <si>
     <t xml:space="preserve">2.91050982475281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83545351028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8938307762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96054720878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0155885219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99557328224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00558090209961</t>
+    <t xml:space="preserve">2.835453748703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89383053779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96054744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01558828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9955735206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00558114051819</t>
   </si>
   <si>
     <t xml:space="preserve">3.05061459541321</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">3.11899900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12567090988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10398745536804</t>
+    <t xml:space="preserve">3.12567043304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10398769378662</t>
   </si>
   <si>
     <t xml:space="preserve">3.07896900177002</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">3.03560352325439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04060697555542</t>
+    <t xml:space="preserve">3.04060745239258</t>
   </si>
   <si>
     <t xml:space="preserve">2.99223780632019</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">3.03226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9505398273468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91884922981262</t>
+    <t xml:space="preserve">2.95054006576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9188494682312</t>
   </si>
   <si>
     <t xml:space="preserve">2.96721887588501</t>
@@ -323,16 +323,13 @@
     <t xml:space="preserve">3.05561852455139</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05228281021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890947341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04394292831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04227495193481</t>
+    <t xml:space="preserve">3.0522825717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890923500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04394316673279</t>
   </si>
   <si>
     <t xml:space="preserve">3.0773012638092</t>
@@ -344,10 +341,10 @@
     <t xml:space="preserve">3.00057697296143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97055459022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93552827835083</t>
+    <t xml:space="preserve">2.9705548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93552875518799</t>
   </si>
   <si>
     <t xml:space="preserve">2.94220018386841</t>
@@ -356,25 +353,25 @@
     <t xml:space="preserve">2.92718911170959</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01058483123779</t>
+    <t xml:space="preserve">3.01058435440063</t>
   </si>
   <si>
     <t xml:space="preserve">2.9588794708252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97222256660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98890209197998</t>
+    <t xml:space="preserve">2.97222280502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9889018535614</t>
   </si>
   <si>
     <t xml:space="preserve">3.007248878479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07563328742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13567805290222</t>
+    <t xml:space="preserve">3.07563352584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13567852973938</t>
   </si>
   <si>
     <t xml:space="preserve">3.185715675354</t>
@@ -389,25 +386,25 @@
     <t xml:space="preserve">3.17737603187561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12066698074341</t>
+    <t xml:space="preserve">3.12066674232483</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09564828872681</t>
+    <t xml:space="preserve">3.09564805030823</t>
   </si>
   <si>
     <t xml:space="preserve">3.08730864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06896185874939</t>
+    <t xml:space="preserve">3.06896162033081</t>
   </si>
   <si>
     <t xml:space="preserve">2.97722625732422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02559590339661</t>
+    <t xml:space="preserve">3.02559566497803</t>
   </si>
   <si>
     <t xml:space="preserve">3.053950548172</t>
@@ -431,7 +428,7 @@
     <t xml:space="preserve">3.10732364654541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09064483642578</t>
+    <t xml:space="preserve">3.0906445980072</t>
   </si>
   <si>
     <t xml:space="preserve">3.15235733985901</t>
@@ -440,13 +437,13 @@
     <t xml:space="preserve">2.91217803955078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0856409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06228995323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03393530845642</t>
+    <t xml:space="preserve">3.08564066886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06228971481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.033935546875</t>
   </si>
   <si>
     <t xml:space="preserve">3.03727126121521</t>
@@ -455,7 +452,7 @@
     <t xml:space="preserve">2.92885708808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93386030197144</t>
+    <t xml:space="preserve">2.93386077880859</t>
   </si>
   <si>
     <t xml:space="preserve">2.92552089691162</t>
@@ -467,19 +464,19 @@
     <t xml:space="preserve">2.81043457984924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90217018127441</t>
+    <t xml:space="preserve">2.90217041969299</t>
   </si>
   <si>
     <t xml:space="preserve">2.8171067237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7904200553894</t>
+    <t xml:space="preserve">2.79041981697083</t>
   </si>
   <si>
     <t xml:space="preserve">2.78541612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83378577232361</t>
+    <t xml:space="preserve">2.83378601074219</t>
   </si>
   <si>
     <t xml:space="preserve">2.83211779594421</t>
@@ -491,25 +488,25 @@
     <t xml:space="preserve">2.91551351547241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86380815505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89049506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90884160995483</t>
+    <t xml:space="preserve">2.86380839347839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89049482345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90884184837341</t>
   </si>
   <si>
     <t xml:space="preserve">2.95220756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03893899917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06562542915344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06395816802979</t>
+    <t xml:space="preserve">3.0389392375946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06562614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06395792961121</t>
   </si>
   <si>
     <t xml:space="preserve">3.02225995063782</t>
@@ -518,22 +515,22 @@
     <t xml:space="preserve">3.10899138450623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1223349571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09398055076599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1156632900238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11232757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09898400306702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1173312664032</t>
+    <t xml:space="preserve">3.12233471870422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09398007392883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11566305160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11232733726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0989842414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11733102798462</t>
   </si>
   <si>
     <t xml:space="preserve">3.15902924537659</t>
@@ -542,22 +539,22 @@
     <t xml:space="preserve">3.1673686504364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16903638839722</t>
+    <t xml:space="preserve">3.1690366268158</t>
   </si>
   <si>
     <t xml:space="preserve">3.2440927028656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31914877891541</t>
+    <t xml:space="preserve">3.31914854049683</t>
   </si>
   <si>
     <t xml:space="preserve">3.33582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36084651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.364182472229</t>
+    <t xml:space="preserve">3.36084699630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36418223381042</t>
   </si>
   <si>
     <t xml:space="preserve">3.39253687858582</t>
@@ -572,7 +569,7 @@
     <t xml:space="preserve">3.245760679245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2557680606842</t>
+    <t xml:space="preserve">3.25576829910278</t>
   </si>
   <si>
     <t xml:space="preserve">3.24742841720581</t>
@@ -581,10 +578,10 @@
     <t xml:space="preserve">3.39420485496521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44424223899841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49094390869141</t>
+    <t xml:space="preserve">3.44424247741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49094367027283</t>
   </si>
   <si>
     <t xml:space="preserve">3.50261902809143</t>
@@ -593,25 +590,25 @@
     <t xml:space="preserve">3.67608237266541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68608975410461</t>
+    <t xml:space="preserve">3.68608999252319</t>
   </si>
   <si>
     <t xml:space="preserve">3.66273927688599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66941070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6577353477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61937379837036</t>
+    <t xml:space="preserve">3.66941094398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65773558616638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6193733215332</t>
   </si>
   <si>
     <t xml:space="preserve">3.67774987220764</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6210412979126</t>
+    <t xml:space="preserve">3.62104105949402</t>
   </si>
   <si>
     <t xml:space="preserve">3.61603736877441</t>
@@ -620,10 +617,10 @@
     <t xml:space="preserve">3.42756319046021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56099605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62771248817444</t>
+    <t xml:space="preserve">3.56099653244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62771272659302</t>
   </si>
   <si>
     <t xml:space="preserve">3.58601522445679</t>
@@ -635,7 +632,7 @@
     <t xml:space="preserve">3.64131784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61193823814392</t>
+    <t xml:space="preserve">3.61193799972534</t>
   </si>
   <si>
     <t xml:space="preserve">3.62921977043152</t>
@@ -644,49 +641,49 @@
     <t xml:space="preserve">3.71563029289246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74673771858215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80031204223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82623529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79167103767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90400385856628</t>
+    <t xml:space="preserve">3.74673748016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80031156539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82623481750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79167127609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90400362014771</t>
   </si>
   <si>
     <t xml:space="preserve">3.98350119590759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1044750213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13039827346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18224382400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15632057189941</t>
+    <t xml:space="preserve">4.10447454452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13039779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18224430084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15632152557373</t>
   </si>
   <si>
     <t xml:space="preserve">4.05954170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99732685089111</t>
+    <t xml:space="preserve">3.99732637405396</t>
   </si>
   <si>
     <t xml:space="preserve">3.88844990730286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95584988594055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93165516853333</t>
+    <t xml:space="preserve">3.95585036277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93165469169617</t>
   </si>
   <si>
     <t xml:space="preserve">4.05608558654785</t>
@@ -695,22 +692,22 @@
     <t xml:space="preserve">4.04398775100708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96794724464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97658848762512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96967530250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97486019134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1131157875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95412182807922</t>
+    <t xml:space="preserve">3.96794700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9765887260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96967577934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97485995292664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11311626434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9541220664978</t>
   </si>
   <si>
     <t xml:space="preserve">4.03534746170044</t>
@@ -722,7 +719,7 @@
     <t xml:space="preserve">4.07336759567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07855224609375</t>
+    <t xml:space="preserve">4.07855176925659</t>
   </si>
   <si>
     <t xml:space="preserve">4.05781364440918</t>
@@ -740,22 +737,22 @@
     <t xml:space="preserve">3.89881944656372</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9161012172699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83660435676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80204010009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85561466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89017820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84524512290955</t>
+    <t xml:space="preserve">3.91610097885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83660387992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80204033851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85561418533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89017772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84524464607239</t>
   </si>
   <si>
     <t xml:space="preserve">3.77784538269043</t>
@@ -767,82 +764,82 @@
     <t xml:space="preserve">3.77611708641052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80549645423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7242705821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68106651306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74500966072083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68970680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747632026672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76574754714966</t>
+    <t xml:space="preserve">3.80549621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72427082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68106603622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74500918388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68970727920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747608184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76574730873108</t>
   </si>
   <si>
     <t xml:space="preserve">3.75883483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8245062828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7847580909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79858326911926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77438855171204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84006023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85734248161316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81932210922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82104992866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84178876876831</t>
+    <t xml:space="preserve">3.82450652122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78475832939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79858374595642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77438879013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8400604724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85734295845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81932234764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82105016708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84178853034973</t>
   </si>
   <si>
     <t xml:space="preserve">3.9126443862915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91955780982971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91091704368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90573167800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89709115028381</t>
+    <t xml:space="preserve">3.91955757141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91091632843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90573191642761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89709067344666</t>
   </si>
   <si>
     <t xml:space="preserve">3.91782927513123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90746021270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87116813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9575777053833</t>
+    <t xml:space="preserve">3.90745973587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8711678981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95757794380188</t>
   </si>
   <si>
     <t xml:space="preserve">4.14767980575562</t>
@@ -851,25 +848,25 @@
     <t xml:space="preserve">4.24273109436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32049989700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3896279335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40690994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45011520385742</t>
+    <t xml:space="preserve">4.32049942016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38962841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40691041946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45011568069458</t>
   </si>
   <si>
     <t xml:space="preserve">4.49331998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41123008728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48467874526978</t>
+    <t xml:space="preserve">4.41123104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48467922210693</t>
   </si>
   <si>
     <t xml:space="preserve">4.43715381622314</t>
@@ -878,25 +875,25 @@
     <t xml:space="preserve">4.44147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50628137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47603750228882</t>
+    <t xml:space="preserve">4.50628185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47603797912598</t>
   </si>
   <si>
     <t xml:space="preserve">4.51924276351929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58837080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57973003387451</t>
+    <t xml:space="preserve">4.58837127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57973051071167</t>
   </si>
   <si>
     <t xml:space="preserve">4.64453744888306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64885854721069</t>
+    <t xml:space="preserve">4.64885807037354</t>
   </si>
   <si>
     <t xml:space="preserve">4.69206285476685</t>
@@ -905,7 +902,7 @@
     <t xml:space="preserve">4.72230672836304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83895969390869</t>
+    <t xml:space="preserve">4.83896017074585</t>
   </si>
   <si>
     <t xml:space="preserve">4.80871629714966</t>
@@ -917,43 +914,43 @@
     <t xml:space="preserve">4.82599830627441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93833160400391</t>
+    <t xml:space="preserve">4.93833208084106</t>
   </si>
   <si>
     <t xml:space="preserve">4.9858570098877</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97721672058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0377025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02042150497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01178026199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99881839752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89080572128296</t>
+    <t xml:space="preserve">4.9772162437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03770351409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02042102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01178073883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99881887435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89080619812012</t>
   </si>
   <si>
     <t xml:space="preserve">4.8648829460144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81303739547729</t>
+    <t xml:space="preserve">4.81303691864014</t>
   </si>
   <si>
     <t xml:space="preserve">4.67478084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71798658370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83031892776489</t>
+    <t xml:space="preserve">4.71798610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83031940460205</t>
   </si>
   <si>
     <t xml:space="preserve">4.93401098251343</t>
@@ -962,7 +959,7 @@
     <t xml:space="preserve">4.96857500076294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19324064254761</t>
+    <t xml:space="preserve">5.19324111938477</t>
   </si>
   <si>
     <t xml:space="preserve">5.3055739402771</t>
@@ -971,10 +968,10 @@
     <t xml:space="preserve">5.35741949081421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43086814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45679092407227</t>
+    <t xml:space="preserve">5.43086862564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45679140090942</t>
   </si>
   <si>
     <t xml:space="preserve">5.49135541915894</t>
@@ -989,25 +986,25 @@
     <t xml:space="preserve">5.67713737487793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61665010452271</t>
+    <t xml:space="preserve">5.61664962768555</t>
   </si>
   <si>
     <t xml:space="preserve">5.66849613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70306015014648</t>
+    <t xml:space="preserve">5.70305967330933</t>
   </si>
   <si>
     <t xml:space="preserve">5.60800886154175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72898292541504</t>
+    <t xml:space="preserve">5.7289834022522</t>
   </si>
   <si>
     <t xml:space="preserve">5.71170139312744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68577766418457</t>
+    <t xml:space="preserve">5.68577814102173</t>
   </si>
   <si>
     <t xml:space="preserve">5.82403326034546</t>
@@ -1016,19 +1013,19 @@
     <t xml:space="preserve">5.84131622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80675220489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83267498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8110728263855</t>
+    <t xml:space="preserve">5.80675172805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83267450332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81107234954834</t>
   </si>
   <si>
     <t xml:space="preserve">5.77218770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75490570068359</t>
+    <t xml:space="preserve">5.75490617752075</t>
   </si>
   <si>
     <t xml:space="preserve">5.78946971893311</t>
@@ -1037,25 +1034,25 @@
     <t xml:space="preserve">5.81539297103882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87587976455688</t>
+    <t xml:space="preserve">5.87588024139404</t>
   </si>
   <si>
     <t xml:space="preserve">5.8931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59936857223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.737624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47839403152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32285642623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23644638061523</t>
+    <t xml:space="preserve">5.59936809539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73762369155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47839450836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3228554725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23644590377808</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731786727905</t>
@@ -1067,13 +1064,13 @@
     <t xml:space="preserve">5.39198398590088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11547231674194</t>
+    <t xml:space="preserve">5.11547183990479</t>
   </si>
   <si>
     <t xml:space="preserve">5.1500358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18460035324097</t>
+    <t xml:space="preserve">5.18459987640381</t>
   </si>
   <si>
     <t xml:space="preserve">4.94265174865723</t>
@@ -1085,10 +1082,10 @@
     <t xml:space="preserve">4.92537021636963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85624217987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167816162109</t>
+    <t xml:space="preserve">4.85624170303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167768478394</t>
   </si>
   <si>
     <t xml:space="preserve">4.90808773040771</t>
@@ -1097,34 +1094,34 @@
     <t xml:space="preserve">4.52788352966309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61429452896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99449825286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09818983078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06362581253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66614055633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59701204299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75255012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80439567565918</t>
+    <t xml:space="preserve">4.61429405212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99449777603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09819030761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06362628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66614007949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75254964828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80439615249634</t>
   </si>
   <si>
     <t xml:space="preserve">4.68342208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70070457458496</t>
+    <t xml:space="preserve">4.7007040977478</t>
   </si>
   <si>
     <t xml:space="preserve">4.63157653808594</t>
@@ -1136,25 +1133,25 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063314437866</t>
+    <t xml:space="preserve">4.90413188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8506326675415</t>
   </si>
   <si>
     <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72580003738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54746770858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28888607025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430322647095</t>
+    <t xml:space="preserve">4.72580051422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5474681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28888702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430370330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1169,34 +1166,34 @@
     <t xml:space="preserve">4.08380460739136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05705499649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96788883209229</t>
+    <t xml:space="preserve">4.05705451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96788835525513</t>
   </si>
   <si>
     <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00355529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7806396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76280665397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7538902759552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62905788421631</t>
+    <t xml:space="preserve">4.0035548210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78063988685608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76280689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75389003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62905764579773</t>
   </si>
   <si>
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74497318267822</t>
+    <t xml:space="preserve">3.7449734210968</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1205,7 +1202,7 @@
     <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66472434997559</t>
+    <t xml:space="preserve">3.66472411155701</t>
   </si>
   <si>
     <t xml:space="preserve">4.11055469512939</t>
@@ -1238,10 +1235,10 @@
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297077178955</t>
+    <t xml:space="preserve">4.23538637161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297029495239</t>
   </si>
   <si>
     <t xml:space="preserve">4.13730430603027</t>
@@ -1253,22 +1250,22 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622116088867</t>
+    <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.18188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.039222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98572158813477</t>
+    <t xml:space="preserve">4.03922176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98572206497192</t>
   </si>
   <si>
     <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0213885307312</t>
+    <t xml:space="preserve">4.02138805389404</t>
   </si>
   <si>
     <t xml:space="preserve">4.12838792800903</t>
@@ -1280,13 +1277,13 @@
     <t xml:space="preserve">3.92330598831177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90547251701355</t>
+    <t xml:space="preserve">3.90547275543213</t>
   </si>
   <si>
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7093071937561</t>
+    <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
     <t xml:space="preserve">3.67364072799683</t>
@@ -1304,19 +1301,19 @@
     <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61122465133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57555818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339141845703</t>
+    <t xml:space="preserve">3.61122488975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57555842399597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339165687561</t>
   </si>
   <si>
     <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52205872535706</t>
+    <t xml:space="preserve">3.52205848693848</t>
   </si>
   <si>
     <t xml:space="preserve">3.4953088760376</t>
@@ -1340,7 +1337,7 @@
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372663497925</t>
+    <t xml:space="preserve">3.34372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1349,238 +1346,241 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997714996338</t>
+    <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081122398376</t>
+    <t xml:space="preserve">3.12081146240234</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056191444397</t>
+    <t xml:space="preserve">3.04056215286255</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06731200218201</t>
+    <t xml:space="preserve">3.06731176376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05839538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164553642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02272891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9603123664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91572952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94247913360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789605140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80873036384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75523066520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63931465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56798195838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68389749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71064782142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706221580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814559936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9246461391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86223006248474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764721870422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8443968296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78198027610779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281458854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11189460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29022693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27239370346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30805993080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214415550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106053352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475613117218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23672723770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2188937664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16539454460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13864469528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1832275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50422549247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5309751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39722609519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4418089389801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42397570610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939286231995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22781038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17998290061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13321828842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515952110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08645367622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09580683708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96486639976501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92745471000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89939594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03164553642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02272868156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96031260490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91572952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94247937202454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789628982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80873036384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75523066520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63931465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58581519126892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56798195838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68389773368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71064758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79981374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814583778381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9246461391449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86222982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764674186707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84439659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78198027610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281435012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11189484596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29022693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27239370346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33481001853943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30806016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214391708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106077194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1475613117218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23672723770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16539454460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1386444568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1832275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647768974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50422549247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68255758285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580773353577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53097534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4061427116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39722585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4418089389801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939286231995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95139575004578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17998290061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13321828842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515952110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08645367622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09580683708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96486639976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92745471000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89939594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
@@ -6458,7 +6458,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6484,7 +6484,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6536,7 +6536,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6614,7 +6614,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6640,7 +6640,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6666,7 +6666,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6718,7 +6718,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6744,7 +6744,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6770,7 +6770,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6796,7 +6796,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6822,7 +6822,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6848,7 +6848,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6874,7 +6874,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6900,7 +6900,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6926,7 +6926,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7056,7 +7056,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7186,7 +7186,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7290,7 +7290,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7316,7 +7316,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7342,7 +7342,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7420,7 +7420,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7446,7 +7446,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7472,7 +7472,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7498,7 +7498,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7524,7 +7524,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7550,7 +7550,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7576,7 +7576,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7628,7 +7628,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7654,7 +7654,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7680,7 +7680,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7706,7 +7706,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7732,7 +7732,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7758,7 +7758,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7784,7 +7784,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7810,7 +7810,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7862,7 +7862,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7940,7 +7940,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7966,7 +7966,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7992,7 +7992,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8044,7 +8044,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8122,7 +8122,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8200,7 +8200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8226,7 +8226,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8252,7 +8252,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8278,7 +8278,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8304,7 +8304,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8330,7 +8330,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8382,7 +8382,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8408,7 +8408,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8434,7 +8434,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8486,7 +8486,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8512,7 +8512,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8538,7 +8538,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8564,7 +8564,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8590,7 +8590,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8616,7 +8616,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8694,7 +8694,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8720,7 +8720,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8746,7 +8746,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8798,7 +8798,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8824,7 +8824,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8902,7 +8902,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8928,7 +8928,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8980,7 +8980,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9006,7 +9006,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9032,7 +9032,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9058,7 +9058,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9084,7 +9084,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9110,7 +9110,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9136,7 +9136,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9162,7 +9162,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9214,7 +9214,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9240,7 +9240,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9266,7 +9266,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9318,7 +9318,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9344,7 +9344,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9370,7 +9370,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9422,7 +9422,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9448,7 +9448,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9474,7 +9474,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9500,7 +9500,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9552,7 +9552,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9578,7 +9578,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9604,7 +9604,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9630,7 +9630,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9656,7 +9656,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9708,7 +9708,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9734,7 +9734,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9786,7 +9786,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9812,7 +9812,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9864,7 +9864,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9890,7 +9890,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9916,7 +9916,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9942,7 +9942,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9968,7 +9968,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9994,7 +9994,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10124,7 +10124,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10150,7 +10150,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10176,7 +10176,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10202,7 +10202,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10228,7 +10228,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10254,7 +10254,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10280,7 +10280,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10332,7 +10332,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10358,7 +10358,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10384,7 +10384,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10410,7 +10410,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10436,7 +10436,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10462,7 +10462,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10488,7 +10488,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10514,7 +10514,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10540,7 +10540,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10618,7 +10618,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10670,7 +10670,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10696,7 +10696,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10722,7 +10722,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10748,7 +10748,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10774,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10800,7 +10800,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10826,7 +10826,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10852,7 +10852,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10878,7 +10878,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10904,7 +10904,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10930,7 +10930,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10956,7 +10956,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11008,7 +11008,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11034,7 +11034,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11060,7 +11060,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11086,7 +11086,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11112,7 +11112,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11138,7 +11138,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11164,7 +11164,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11190,7 +11190,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11216,7 +11216,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11242,7 +11242,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11268,7 +11268,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11294,7 +11294,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11320,7 +11320,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11346,7 +11346,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11372,7 +11372,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11398,7 +11398,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11424,7 +11424,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11450,7 +11450,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11476,7 +11476,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11502,7 +11502,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11528,7 +11528,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11554,7 +11554,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11580,7 +11580,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11606,7 +11606,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11632,7 +11632,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11658,7 +11658,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11684,7 +11684,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11710,7 +11710,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11736,7 +11736,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11762,7 +11762,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11788,7 +11788,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11814,7 +11814,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11840,7 +11840,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11866,7 +11866,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11892,7 +11892,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11918,7 +11918,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11944,7 +11944,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11970,7 +11970,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11996,7 +11996,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12022,7 +12022,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12048,7 +12048,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12074,7 +12074,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12100,7 +12100,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12126,7 +12126,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12152,7 +12152,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12178,7 +12178,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12204,7 +12204,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12230,7 +12230,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12256,7 +12256,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12282,7 +12282,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12308,7 +12308,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12334,7 +12334,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12360,7 +12360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12386,7 +12386,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12412,7 +12412,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12438,7 +12438,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12464,7 +12464,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12490,7 +12490,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12516,7 +12516,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12542,7 +12542,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12568,7 +12568,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12594,7 +12594,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12620,7 +12620,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12646,7 +12646,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12672,7 +12672,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12698,7 +12698,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12724,7 +12724,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12750,7 +12750,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12776,7 +12776,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12802,7 +12802,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12828,7 +12828,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12854,7 +12854,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12880,7 +12880,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12906,7 +12906,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12932,7 +12932,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12958,7 +12958,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12984,7 +12984,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13010,7 +13010,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13036,7 +13036,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13062,7 +13062,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13088,7 +13088,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13114,7 +13114,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13140,7 +13140,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13166,7 +13166,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13192,7 +13192,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13218,7 +13218,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13244,7 +13244,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13270,7 +13270,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13296,7 +13296,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13322,7 +13322,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13348,7 +13348,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13374,7 +13374,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13400,7 +13400,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13426,7 +13426,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13452,7 +13452,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13478,7 +13478,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13504,7 +13504,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13530,7 +13530,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13556,7 +13556,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13582,7 +13582,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13608,7 +13608,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13634,7 +13634,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13660,7 +13660,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13686,7 +13686,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13712,7 +13712,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13738,7 +13738,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13764,7 +13764,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13790,7 +13790,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13816,7 +13816,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13842,7 +13842,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13868,7 +13868,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13894,7 +13894,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13920,7 +13920,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13946,7 +13946,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13972,7 +13972,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13998,7 +13998,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14024,7 +14024,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14050,7 +14050,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14076,7 +14076,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14102,7 +14102,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14128,7 +14128,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14154,7 +14154,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14180,7 +14180,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14206,7 +14206,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14232,7 +14232,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14258,7 +14258,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14284,7 +14284,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14310,7 +14310,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14336,7 +14336,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14362,7 +14362,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14388,7 +14388,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14414,7 +14414,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14440,7 +14440,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14466,7 +14466,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14492,7 +14492,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14518,7 +14518,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14544,7 +14544,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14570,7 +14570,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14596,7 +14596,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14622,7 +14622,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14648,7 +14648,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14674,7 +14674,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14700,7 +14700,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14726,7 +14726,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14752,7 +14752,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14778,7 +14778,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14804,7 +14804,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14830,7 +14830,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14856,7 +14856,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14882,7 +14882,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14908,7 +14908,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14934,7 +14934,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14960,7 +14960,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14986,7 +14986,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15012,7 +15012,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15038,7 +15038,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15064,7 +15064,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15090,7 +15090,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15116,7 +15116,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15142,7 +15142,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15168,7 +15168,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15194,7 +15194,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15220,7 +15220,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15246,7 +15246,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15272,7 +15272,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15298,7 +15298,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15324,7 +15324,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15350,7 +15350,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15376,7 +15376,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15402,7 +15402,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15428,7 +15428,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15454,7 +15454,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15480,7 +15480,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15506,7 +15506,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15532,7 +15532,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15558,7 +15558,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15584,7 +15584,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15610,7 +15610,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15636,7 +15636,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15662,7 +15662,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15688,7 +15688,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15714,7 +15714,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15740,7 +15740,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15766,7 +15766,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15792,7 +15792,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15818,7 +15818,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15844,7 +15844,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15870,7 +15870,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15896,7 +15896,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15922,7 +15922,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15948,7 +15948,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15974,7 +15974,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16000,7 +16000,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16026,7 +16026,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16052,7 +16052,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16078,7 +16078,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16104,7 +16104,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16130,7 +16130,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16156,7 +16156,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16182,7 +16182,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16208,7 +16208,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16234,7 +16234,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16260,7 +16260,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16286,7 +16286,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16312,7 +16312,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16338,7 +16338,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16364,7 +16364,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16390,7 +16390,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16416,7 +16416,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16442,7 +16442,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16468,7 +16468,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16494,7 +16494,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16520,7 +16520,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16546,7 +16546,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16572,7 +16572,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16598,7 +16598,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16624,7 +16624,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16650,7 +16650,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16676,7 +16676,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16702,7 +16702,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16728,7 +16728,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16754,7 +16754,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16780,7 +16780,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16806,7 +16806,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16832,7 +16832,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16858,7 +16858,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16884,7 +16884,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16910,7 +16910,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16936,7 +16936,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16962,7 +16962,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16988,7 +16988,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17014,7 +17014,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17040,7 +17040,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17066,7 +17066,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17092,7 +17092,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17118,7 +17118,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17144,7 +17144,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17170,7 +17170,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17196,7 +17196,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17222,7 +17222,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17248,7 +17248,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17274,7 +17274,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17300,7 +17300,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17326,7 +17326,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17352,7 +17352,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17378,7 +17378,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17404,7 +17404,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17430,7 +17430,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17456,7 +17456,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17482,7 +17482,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17508,7 +17508,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17534,7 +17534,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17560,7 +17560,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17586,7 +17586,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17612,7 +17612,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17638,7 +17638,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17664,7 +17664,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17690,7 +17690,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17716,7 +17716,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17742,7 +17742,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17768,7 +17768,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17794,7 +17794,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17820,7 +17820,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17846,7 +17846,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17872,7 +17872,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17898,7 +17898,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17924,7 +17924,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17950,7 +17950,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17976,7 +17976,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18002,7 +18002,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18028,7 +18028,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18054,7 +18054,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18080,7 +18080,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18106,7 +18106,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18132,7 +18132,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18158,7 +18158,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18184,7 +18184,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18210,7 +18210,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18236,7 +18236,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18262,7 +18262,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18288,7 +18288,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18314,7 +18314,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18340,7 +18340,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18366,7 +18366,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18392,7 +18392,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18418,7 +18418,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18444,7 +18444,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18470,7 +18470,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18496,7 +18496,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18522,7 +18522,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18548,7 +18548,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18574,7 +18574,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18600,7 +18600,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18626,7 +18626,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18652,7 +18652,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18678,7 +18678,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18704,7 +18704,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18730,7 +18730,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18756,7 +18756,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18782,7 +18782,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18808,7 +18808,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18834,7 +18834,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18860,7 +18860,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18886,7 +18886,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18912,7 +18912,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18938,7 +18938,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18964,7 +18964,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18990,7 +18990,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19016,7 +19016,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19042,7 +19042,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19068,7 +19068,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19094,7 +19094,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19120,7 +19120,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19146,7 +19146,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19172,7 +19172,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19198,7 +19198,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19224,7 +19224,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19250,7 +19250,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19276,7 +19276,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19302,7 +19302,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19328,7 +19328,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19354,7 +19354,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19380,7 +19380,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19406,7 +19406,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19432,7 +19432,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19458,7 +19458,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19484,7 +19484,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19510,7 +19510,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19536,7 +19536,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19562,7 +19562,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19588,7 +19588,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19614,7 +19614,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19640,7 +19640,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19666,7 +19666,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19692,7 +19692,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19718,7 +19718,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19744,7 +19744,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19770,7 +19770,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19796,7 +19796,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19822,7 +19822,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19848,7 +19848,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19874,7 +19874,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19900,7 +19900,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19926,7 +19926,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19952,7 +19952,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19978,7 +19978,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20004,7 +20004,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20030,7 +20030,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20056,7 +20056,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20082,7 +20082,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20108,7 +20108,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20134,7 +20134,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20160,7 +20160,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20186,7 +20186,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20212,7 +20212,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20238,7 +20238,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20264,7 +20264,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20290,7 +20290,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20316,7 +20316,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20342,7 +20342,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20368,7 +20368,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20394,7 +20394,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20420,7 +20420,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20446,7 +20446,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20472,7 +20472,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20498,7 +20498,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20524,7 +20524,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20550,7 +20550,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20576,7 +20576,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20602,7 +20602,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20628,7 +20628,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20654,7 +20654,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20680,7 +20680,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20706,7 +20706,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20732,7 +20732,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20758,7 +20758,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20784,7 +20784,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20810,7 +20810,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20836,7 +20836,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20862,7 +20862,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20888,7 +20888,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20914,7 +20914,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20940,7 +20940,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20966,7 +20966,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20992,7 +20992,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21018,7 +21018,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21044,7 +21044,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21070,7 +21070,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21096,7 +21096,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21122,7 +21122,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21148,7 +21148,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21174,7 +21174,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21200,7 +21200,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21226,7 +21226,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21252,7 +21252,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21278,7 +21278,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21304,7 +21304,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21330,7 +21330,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21356,7 +21356,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21382,7 +21382,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21408,7 +21408,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21434,7 +21434,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21460,7 +21460,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21486,7 +21486,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21512,7 +21512,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21538,7 +21538,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21564,7 +21564,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21590,7 +21590,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21616,7 +21616,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21642,7 +21642,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21668,7 +21668,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21694,7 +21694,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21720,7 +21720,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21746,7 +21746,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21772,7 +21772,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21798,7 +21798,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21824,7 +21824,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21850,7 +21850,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21876,7 +21876,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21902,7 +21902,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21928,7 +21928,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21954,7 +21954,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21980,7 +21980,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22006,7 +22006,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22032,7 +22032,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22058,7 +22058,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22084,7 +22084,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22110,7 +22110,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22136,7 +22136,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22162,7 +22162,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22188,7 +22188,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22214,7 +22214,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22240,7 +22240,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22266,7 +22266,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22292,7 +22292,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22318,7 +22318,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22344,7 +22344,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22370,7 +22370,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22396,7 +22396,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22422,7 +22422,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22448,7 +22448,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22474,7 +22474,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22500,7 +22500,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22526,7 +22526,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22552,7 +22552,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22578,7 +22578,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22604,7 +22604,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22630,7 +22630,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22656,7 +22656,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22682,7 +22682,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22708,7 +22708,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22734,7 +22734,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22760,7 +22760,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22786,7 +22786,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22812,7 +22812,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22838,7 +22838,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22864,7 +22864,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22890,7 +22890,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22916,7 +22916,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22942,7 +22942,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22968,7 +22968,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22994,7 +22994,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23020,7 +23020,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23046,7 +23046,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23072,7 +23072,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23098,7 +23098,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23124,7 +23124,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23150,7 +23150,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23176,7 +23176,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23202,7 +23202,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23228,7 +23228,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23254,7 +23254,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23280,7 +23280,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23306,7 +23306,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23332,7 +23332,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23358,7 +23358,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23384,7 +23384,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23410,7 +23410,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23436,7 +23436,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23462,7 +23462,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23488,7 +23488,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23514,7 +23514,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23540,7 +23540,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23566,7 +23566,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23592,7 +23592,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23618,7 +23618,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23644,7 +23644,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23670,7 +23670,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23696,7 +23696,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23722,7 +23722,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23748,7 +23748,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23774,7 +23774,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23800,7 +23800,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23826,7 +23826,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23852,7 +23852,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23878,7 +23878,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23904,7 +23904,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23930,7 +23930,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23956,7 +23956,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23982,7 +23982,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24008,7 +24008,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24034,7 +24034,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24060,7 +24060,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24086,7 +24086,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24112,7 +24112,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24138,7 +24138,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24164,7 +24164,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24190,7 +24190,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24216,7 +24216,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24242,7 +24242,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24268,7 +24268,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24294,7 +24294,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24320,7 +24320,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24346,7 +24346,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24372,7 +24372,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24398,7 +24398,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24424,7 +24424,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24450,7 +24450,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24476,7 +24476,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24502,7 +24502,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24528,7 +24528,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24554,7 +24554,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24580,7 +24580,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24606,7 +24606,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24632,7 +24632,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24658,7 +24658,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24684,7 +24684,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24710,7 +24710,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24736,7 +24736,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24762,7 +24762,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24788,7 +24788,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24814,7 +24814,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24840,7 +24840,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24866,7 +24866,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24892,7 +24892,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24918,7 +24918,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24944,7 +24944,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24970,7 +24970,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24996,7 +24996,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25022,7 +25022,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25048,7 +25048,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25074,7 +25074,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25100,7 +25100,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25126,7 +25126,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25152,7 +25152,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25178,7 +25178,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25204,7 +25204,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25230,7 +25230,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25256,7 +25256,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25282,7 +25282,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25308,7 +25308,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25334,7 +25334,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25360,7 +25360,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25386,7 +25386,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25412,7 +25412,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25438,7 +25438,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25464,7 +25464,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25490,7 +25490,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25516,7 +25516,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25542,7 +25542,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25568,7 +25568,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25594,7 +25594,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25620,7 +25620,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25646,7 +25646,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25672,7 +25672,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25698,7 +25698,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25724,7 +25724,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25750,7 +25750,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25776,7 +25776,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25802,7 +25802,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25828,7 +25828,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25854,7 +25854,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25880,7 +25880,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25906,7 +25906,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25932,7 +25932,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25958,7 +25958,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25984,7 +25984,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26010,7 +26010,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26036,7 +26036,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26062,7 +26062,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26088,7 +26088,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26114,7 +26114,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26140,7 +26140,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26166,7 +26166,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26192,7 +26192,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26218,7 +26218,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26244,7 +26244,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26270,7 +26270,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26348,7 +26348,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26374,7 +26374,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26608,7 +26608,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26660,7 +26660,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26686,7 +26686,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26738,7 +26738,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28818,7 +28818,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28844,7 +28844,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28870,7 +28870,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28974,7 +28974,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29026,7 +29026,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29078,7 +29078,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29104,7 +29104,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29130,7 +29130,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29156,7 +29156,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -58960,13 +58960,13 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495833333</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>4074</v>
       </c>
       <c r="C2156" t="n">
-        <v>1.83500003814697</v>
+        <v>1.86500000953674</v>
       </c>
       <c r="D2156" t="n">
         <v>1.83500003814697</v>
@@ -58981,6 +58981,32 @@
         <v>858</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6493055556</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1.8400000333786</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1.86500000953674</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="867">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,46 +50,46 @@
     <t xml:space="preserve">3.00149416923523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94410181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515782356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93169260025024</t>
+    <t xml:space="preserve">2.94410133361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515758514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93169212341309</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720363616943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393660545349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80139493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984354972839</t>
+    <t xml:space="preserve">2.92393612861633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80139470100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984331130981</t>
   </si>
   <si>
     <t xml:space="preserve">2.70677399635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78433227539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83862257003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85413408279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84637880325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80604815483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86499214172363</t>
+    <t xml:space="preserve">2.78433179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83862233161926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85413455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84637856483459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604791641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86499238014221</t>
   </si>
   <si>
     <t xml:space="preserve">2.79363894462585</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">2.82000851631165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75486016273499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70987629890442</t>
+    <t xml:space="preserve">2.75486040115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709876537323</t>
   </si>
   <si>
     <t xml:space="preserve">2.55941367149353</t>
@@ -113,19 +113,19 @@
     <t xml:space="preserve">2.44152569770813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54855585098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248346328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67264866828918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69901847839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61680722236633</t>
+    <t xml:space="preserve">2.54855561256409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248322486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67264890670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69901823997498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61680674552917</t>
   </si>
   <si>
     <t xml:space="preserve">2.77657628059387</t>
@@ -134,22 +134,22 @@
     <t xml:space="preserve">2.81380414962769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624634742737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72538805007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73314356803894</t>
+    <t xml:space="preserve">2.73624658584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72538781166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7331440448761</t>
   </si>
   <si>
     <t xml:space="preserve">2.68195533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281363487244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69126224517822</t>
+    <t xml:space="preserve">2.69281339645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6912624835968</t>
   </si>
   <si>
     <t xml:space="preserve">2.71608114242554</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">2.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79829287528992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76726913452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7222855091095</t>
+    <t xml:space="preserve">2.79829216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76726937294006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72228574752808</t>
   </si>
   <si>
     <t xml:space="preserve">2.86964583396912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83086705207825</t>
+    <t xml:space="preserve">2.83086681365967</t>
   </si>
   <si>
     <t xml:space="preserve">2.75330901145935</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">2.76571822166443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7502064704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641131401062</t>
+    <t xml:space="preserve">2.75020670890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641107559204</t>
   </si>
   <si>
     <t xml:space="preserve">2.77037143707275</t>
@@ -203,55 +203,55 @@
     <t xml:space="preserve">2.7920880317688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84327626228333</t>
+    <t xml:space="preserve">2.84327578544617</t>
   </si>
   <si>
     <t xml:space="preserve">2.81225299835205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89291310310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93014121055603</t>
+    <t xml:space="preserve">2.89291334152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93014144897461</t>
   </si>
   <si>
     <t xml:space="preserve">2.90842485427856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92458271980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034604072571</t>
+    <t xml:space="preserve">2.92458295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034556388855</t>
   </si>
   <si>
     <t xml:space="preserve">2.88257241249084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89226722717285</t>
+    <t xml:space="preserve">2.89226698875427</t>
   </si>
   <si>
     <t xml:space="preserve">2.80501413345337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80662989616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8292510509491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77916145324707</t>
+    <t xml:space="preserve">2.80663013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82925128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77916193008423</t>
   </si>
   <si>
     <t xml:space="preserve">2.77593016624451</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78724026679993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955647468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74684548377991</t>
+    <t xml:space="preserve">2.78724050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74684596061707</t>
   </si>
   <si>
     <t xml:space="preserve">2.8033983707428</t>
@@ -260,64 +260,61 @@
     <t xml:space="preserve">2.86803030967712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92135143280029</t>
+    <t xml:space="preserve">2.92135119438171</t>
   </si>
   <si>
     <t xml:space="preserve">2.90196180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91165661811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528316497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567770957947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02960920333862</t>
+    <t xml:space="preserve">2.91165637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445649147034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02960896492004</t>
   </si>
   <si>
     <t xml:space="preserve">3.02153038978577</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02799320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698804855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98275113105774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205140113831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94074082374573</t>
+    <t xml:space="preserve">3.02799344062805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698828697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98275136947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94074106216431</t>
   </si>
   <si>
     <t xml:space="preserve">2.94558811187744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89873027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8696460723877</t>
+    <t xml:space="preserve">2.89873003959656</t>
   </si>
   <si>
     <t xml:space="preserve">2.91811966896057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93750929832458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85833549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82763528823853</t>
+    <t xml:space="preserve">2.93750905990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8583357334137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8276355266571</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449336051941</t>
@@ -329,7 +326,7 @@
     <t xml:space="preserve">2.96013045310974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9568989276886</t>
+    <t xml:space="preserve">2.95689868927002</t>
   </si>
   <si>
     <t xml:space="preserve">2.905193567276</t>
@@ -338,22 +335,22 @@
     <t xml:space="preserve">2.94881987571716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94720387458801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98113560676575</t>
+    <t xml:space="preserve">2.94720411300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98113584518433</t>
   </si>
   <si>
     <t xml:space="preserve">2.89388275146484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90680909156799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87772464752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84379291534424</t>
+    <t xml:space="preserve">2.90680932998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87772488594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84379315376282</t>
   </si>
   <si>
     <t xml:space="preserve">2.85025644302368</t>
@@ -362,70 +359,70 @@
     <t xml:space="preserve">2.83571434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91650414466858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86641454696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87934064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549899101257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327261924744</t>
+    <t xml:space="preserve">2.91650366783142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86641430854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8793408870697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549851417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327238082886</t>
   </si>
   <si>
     <t xml:space="preserve">2.97951984405518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03768801689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08616185188293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524605751038</t>
+    <t xml:space="preserve">3.03768825531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08616209030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524629592896</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0780827999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314615249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00537276268005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890923500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9908299446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97305679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88418793678284</t>
+    <t xml:space="preserve">3.07808303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314639091492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00537252426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890899658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99083018302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97305655479431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88418817520142</t>
   </si>
   <si>
     <t xml:space="preserve">2.93104577064514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95851469039917</t>
+    <t xml:space="preserve">2.95851445198059</t>
   </si>
   <si>
     <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93589353561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93427753448486</t>
+    <t xml:space="preserve">2.93589329719543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93427729606628</t>
   </si>
   <si>
     <t xml:space="preserve">2.90357780456543</t>
@@ -440,13 +437,13 @@
     <t xml:space="preserve">2.9940619468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05384588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82117247581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98921465873718</t>
+    <t xml:space="preserve">3.05384612083435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82117223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9892144203186</t>
   </si>
   <si>
     <t xml:space="preserve">2.96659350395203</t>
@@ -461,55 +458,55 @@
     <t xml:space="preserve">2.83733010292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84217715263367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83409810066223</t>
+    <t xml:space="preserve">2.84217739105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83409833908081</t>
   </si>
   <si>
     <t xml:space="preserve">2.77108287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72260880470276</t>
+    <t xml:space="preserve">2.72260856628418</t>
   </si>
   <si>
     <t xml:space="preserve">2.81147766113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72907209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70321917533875</t>
+    <t xml:space="preserve">2.72907185554504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70321941375732</t>
   </si>
   <si>
     <t xml:space="preserve">2.69837188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74522995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74361395835876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76946687698364</t>
+    <t xml:space="preserve">2.74523019790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74361419677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76946663856506</t>
   </si>
   <si>
     <t xml:space="preserve">2.82440400123596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77431440353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80016684532166</t>
+    <t xml:space="preserve">2.77431416511536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80016708374023</t>
   </si>
   <si>
     <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85995125770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94397234916687</t>
+    <t xml:space="preserve">2.85995101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94397258758545</t>
   </si>
   <si>
     <t xml:space="preserve">2.96982502937317</t>
@@ -521,16 +518,16 @@
     <t xml:space="preserve">2.927814245224</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183533668518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99729371070862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01829886436462</t>
+    <t xml:space="preserve">3.01183557510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02476191520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99729347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01829862594604</t>
   </si>
   <si>
     <t xml:space="preserve">3.01506733894348</t>
@@ -542,7 +539,7 @@
     <t xml:space="preserve">3.01991438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06030964851379</t>
+    <t xml:space="preserve">3.06030941009521</t>
   </si>
   <si>
     <t xml:space="preserve">3.06838822364807</t>
@@ -551,31 +548,31 @@
     <t xml:space="preserve">3.07000374794006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14271473884583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542525291443</t>
+    <t xml:space="preserve">3.1427149772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542572975159</t>
   </si>
   <si>
     <t xml:space="preserve">3.23158311843872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25582027435303</t>
+    <t xml:space="preserve">3.25582051277161</t>
   </si>
   <si>
     <t xml:space="preserve">3.25905179977417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28651976585388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19118857383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625168800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14433073997498</t>
+    <t xml:space="preserve">3.28652000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1911883354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625144958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1443305015564</t>
   </si>
   <si>
     <t xml:space="preserve">3.1540253162384</t>
@@ -584,34 +581,34 @@
     <t xml:space="preserve">3.14594626426697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28813600540161</t>
+    <t xml:space="preserve">3.28813624382019</t>
   </si>
   <si>
     <t xml:space="preserve">3.33660984039307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3818519115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39316248893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56120491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57089996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827833175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474138259888</t>
+    <t xml:space="preserve">3.38185167312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3931622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56120443344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57089924812317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474162101746</t>
   </si>
   <si>
     <t xml:space="preserve">3.54343128204346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50626802444458</t>
+    <t xml:space="preserve">3.506267786026</t>
   </si>
   <si>
     <t xml:space="preserve">3.56282019615173</t>
@@ -623,22 +620,22 @@
     <t xml:space="preserve">3.50303602218628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3204517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44971561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51434636116028</t>
+    <t xml:space="preserve">3.32045197486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51434683799744</t>
   </si>
   <si>
     <t xml:space="preserve">3.473952293396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55766177177429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52752637863159</t>
+    <t xml:space="preserve">3.55766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52752614021301</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
@@ -647,34 +644,34 @@
     <t xml:space="preserve">3.51580691337585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59951686859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62965202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68155217170715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70666551589966</t>
+    <t xml:space="preserve">3.59951710700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62965178489685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68155193328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70666527748108</t>
   </si>
   <si>
     <t xml:space="preserve">3.67318105697632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78200364112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901689529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97621011734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00132322311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05154895782471</t>
+    <t xml:space="preserve">3.78200387954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97620987892151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00132369995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05154848098755</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
@@ -683,76 +680,76 @@
     <t xml:space="preserve">3.9326810836792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87240982055664</t>
+    <t xml:space="preserve">3.87241005897522</t>
   </si>
   <si>
     <t xml:space="preserve">3.7669358253479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83222961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80879044532776</t>
+    <t xml:space="preserve">3.83222937583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879092216492</t>
   </si>
   <si>
     <t xml:space="preserve">3.92933249473572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91761302947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84394884109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85232019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84562301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064578056335</t>
+    <t xml:space="preserve">3.91761326789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84394860267639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85231995582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.845623254776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064554214478</t>
   </si>
   <si>
     <t xml:space="preserve">3.9845814704895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83055543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9092423915863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94272637367249</t>
+    <t xml:space="preserve">3.83055567741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924286842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94272613525391</t>
   </si>
   <si>
     <t xml:space="preserve">3.94607496261597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95109748840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93100738525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93435502052307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92598390579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87743258476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77698135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79372310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71671056747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68322610855103</t>
+    <t xml:space="preserve">3.95109724998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93100714683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93435478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92598414421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87743282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77698087692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7937228679657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71671032905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
     <t xml:space="preserve">3.73512625694275</t>
@@ -761,61 +758,61 @@
     <t xml:space="preserve">3.76861000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72508072853088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978765487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55933547019958</t>
+    <t xml:space="preserve">3.72508096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55933570861816</t>
   </si>
   <si>
     <t xml:space="preserve">3.65811347961426</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68657469749451</t>
+    <t xml:space="preserve">3.68657422065735</t>
   </si>
   <si>
     <t xml:space="preserve">3.60788702964783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56603264808655</t>
+    <t xml:space="preserve">3.56603336334229</t>
   </si>
   <si>
     <t xml:space="preserve">3.62797784805298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57440400123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.649742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64806795120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64137125015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499038696289</t>
+    <t xml:space="preserve">3.5744035243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64974236488342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64806818962097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64137148857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499086380005</t>
   </si>
   <si>
     <t xml:space="preserve">3.66648435592651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67987775802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65643882751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73680090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69996857643127</t>
+    <t xml:space="preserve">3.6798779964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65643930435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73680067062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69996809959412</t>
   </si>
   <si>
     <t xml:space="preserve">3.70164251327515</t>
@@ -827,49 +824,49 @@
     <t xml:space="preserve">3.79037475585938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79707169532776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78870034217834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78367805480957</t>
+    <t xml:space="preserve">3.7970712184906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78870010375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
     <t xml:space="preserve">3.77530694007874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79539704322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535199165344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75019431114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390378952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11014556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25245237350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26919460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31104898452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290431976318</t>
+    <t xml:space="preserve">3.79539752006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535151481628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75019407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390402793884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806545257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1101450920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25245189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26919412612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31104946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290336608887</t>
   </si>
   <si>
     <t xml:space="preserve">4.27337980270386</t>
@@ -878,13 +875,13 @@
     <t xml:space="preserve">4.34453248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29849290847778</t>
+    <t xml:space="preserve">4.29849243164062</t>
   </si>
   <si>
     <t xml:space="preserve">4.30267810821533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36546039581299</t>
+    <t xml:space="preserve">4.36545991897583</t>
   </si>
   <si>
     <t xml:space="preserve">4.33616161346436</t>
@@ -896,22 +893,22 @@
     <t xml:space="preserve">4.44498443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43661403656006</t>
+    <t xml:space="preserve">4.4366135597229</t>
   </si>
   <si>
     <t xml:space="preserve">4.49939584732056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50358104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54543590545654</t>
+    <t xml:space="preserve">4.50358152389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5454363822937</t>
   </si>
   <si>
     <t xml:space="preserve">4.57473468780518</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68774223327637</t>
+    <t xml:space="preserve">4.68774271011353</t>
   </si>
   <si>
     <t xml:space="preserve">4.65844440460205</t>
@@ -920,16 +917,16 @@
     <t xml:space="preserve">4.68355703353882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6751856803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78400897979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167863845825</t>
+    <t xml:space="preserve">4.67518663406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78400850296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83004903793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167768478394</t>
   </si>
   <si>
     <t xml:space="preserve">4.88027477264404</t>
@@ -941,22 +938,22 @@
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260511398315</t>
+    <t xml:space="preserve">4.84260559082031</t>
   </si>
   <si>
     <t xml:space="preserve">4.73796796798706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71285533905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66263008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52869415283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57054901123047</t>
+    <t xml:space="preserve">4.71285581588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6626296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52869367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57054948806763</t>
   </si>
   <si>
     <t xml:space="preserve">4.67937183380127</t>
@@ -968,13 +965,13 @@
     <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03095197677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13977479934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19000005722046</t>
+    <t xml:space="preserve">5.03095293045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13977432250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19000101089478</t>
   </si>
   <si>
     <t xml:space="preserve">5.26115417480469</t>
@@ -995,7 +992,7 @@
     <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44112968444824</t>
+    <t xml:space="preserve">5.4411301612854</t>
   </si>
   <si>
     <t xml:space="preserve">5.49135494232178</t>
@@ -1019,16 +1016,16 @@
     <t xml:space="preserve">5.64203262329102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65877532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62529134750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65040397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62947702407837</t>
+    <t xml:space="preserve">5.65877485275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6252908706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65040349960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62947654724121</t>
   </si>
   <si>
     <t xml:space="preserve">5.59180688858032</t>
@@ -1040,67 +1037,67 @@
     <t xml:space="preserve">5.60854864120483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63366222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69225835800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70900106430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42438840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832290649414</t>
+    <t xml:space="preserve">5.63366174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69225883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70900058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42438745498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5583233833313</t>
   </si>
   <si>
     <t xml:space="preserve">5.30719423294067</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15651655197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07280683517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00583982467651</t>
+    <t xml:space="preserve">5.15651702880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07280731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0058388710022</t>
   </si>
   <si>
     <t xml:space="preserve">5.08954906463623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2234845161438</t>
+    <t xml:space="preserve">5.22348403930664</t>
   </si>
   <si>
     <t xml:space="preserve">4.95561361312866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98909711837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02258157730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78819370269775</t>
+    <t xml:space="preserve">4.98909759521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02258110046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
     <t xml:space="preserve">4.80493640899658</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7714524269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70448398590088</t>
+    <t xml:space="preserve">4.77145195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
     <t xml:space="preserve">4.67100048065186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75471019744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38638734817505</t>
+    <t xml:space="preserve">4.75470972061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38638782501221</t>
   </si>
   <si>
     <t xml:space="preserve">4.47009754180908</t>
@@ -1109,22 +1106,22 @@
     <t xml:space="preserve">4.83842039108276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93887186050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90538787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52032375335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45335578918457</t>
+    <t xml:space="preserve">4.93887138366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90538740158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52032279968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
     <t xml:space="preserve">4.60403299331665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65425872802734</t>
+    <t xml:space="preserve">4.65425825119019</t>
   </si>
   <si>
     <t xml:space="preserve">4.53706502914429</t>
@@ -1133,7 +1130,7 @@
     <t xml:space="preserve">4.55380725860596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701251983643</t>
+    <t xml:space="preserve">4.59701204299927</t>
   </si>
   <si>
     <t xml:space="preserve">4.63157606124878</t>
@@ -1154,10 +1151,10 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063314437866</t>
+    <t xml:space="preserve">4.90413188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85063219070435</t>
   </si>
   <si>
     <t xml:space="preserve">4.74363327026367</t>
@@ -1166,7 +1163,7 @@
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54746770858765</t>
+    <t xml:space="preserve">4.5474681854248</t>
   </si>
   <si>
     <t xml:space="preserve">4.28888654708862</t>
@@ -1190,10 +1187,10 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788835525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87872242927551</t>
+    <t xml:space="preserve">3.96788859367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87872266769409</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1202,7 +1199,7 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280689239502</t>
+    <t xml:space="preserve">3.76280665397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
@@ -1214,7 +1211,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.74497365951538</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1235,7 +1232,7 @@
     <t xml:space="preserve">4.36021900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27996969223022</t>
+    <t xml:space="preserve">4.27997016906738</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1244,25 +1241,25 @@
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463844299316</t>
+    <t xml:space="preserve">3.99463868141174</t>
   </si>
   <si>
     <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20863676071167</t>
+    <t xml:space="preserve">4.20863723754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538637161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297077178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13730430603027</t>
+    <t xml:space="preserve">4.23538684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297029495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13730382919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1271,13 +1268,13 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922176361084</t>
+    <t xml:space="preserve">4.14622068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18188762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922128677368</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1295,22 +1292,22 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630682945251</t>
+    <t xml:space="preserve">3.92330574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547251701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630659103394</t>
   </si>
   <si>
     <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67364048957825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63797450065613</t>
+    <t xml:space="preserve">3.67364072799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63797426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1319,19 +1316,19 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880833625793</t>
+    <t xml:space="preserve">3.54880857467651</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58447480201721</t>
+    <t xml:space="preserve">3.57555866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339165687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58447456359863</t>
   </si>
   <si>
     <t xml:space="preserve">3.52205872535706</t>
@@ -1340,7 +1337,7 @@
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772495269775</t>
+    <t xml:space="preserve">3.55772471427917</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1352,13 +1349,13 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4507257938385</t>
+    <t xml:space="preserve">3.45072555541992</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372663497925</t>
+    <t xml:space="preserve">3.34372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1370,7 +1367,7 @@
     <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17431116104126</t>
+    <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
     <t xml:space="preserve">3.12081146240234</t>
@@ -1379,7 +1376,7 @@
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056191444397</t>
+    <t xml:space="preserve">3.04056215286255</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1388,238 +1385,241 @@
     <t xml:space="preserve">3.06731176376343</t>
   </si>
   <si>
+    <t xml:space="preserve">3.05839538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164553642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02272868156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96031212806702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91572952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94247913360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789628982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80873036384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75523066520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63931465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56798195838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68389773368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71064758300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706197738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814583778381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9246461391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86222982406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764674186707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84439659118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78198051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11189460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29022693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27239370346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30805993080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214415550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106077194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475613117218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23672723770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2188937664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16539430618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1386444568634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1832275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50422549247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5309751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39722609519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4418089389801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42397594451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2278106212616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489544868469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17998290061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13321805000305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515952110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08645391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09580683708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96486639976501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92745471000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89939594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.05839514732361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03164529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02272868156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96031260490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91572952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94247913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789628982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80873036384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75523066520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63931465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5858154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56798195838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68389773368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71064758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79981398582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922922134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814583778381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92464590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86222982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84439659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78198051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281435012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11189484596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29022693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27239370346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33480978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30806016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214415550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1475613117218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23672723770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2188937664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16539454460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1386444568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1832275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50422549247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6825578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5309751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4061427116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39722585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4418089389801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95139598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17998290061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13321828842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515952110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08645367622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09580683708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96486639976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92745471000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89939594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451268196106</t>
+    <t xml:space="preserve">3.11451244354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292492866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716135025024</t>
+    <t xml:space="preserve">2.99292516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716158866882</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104429244995</t>
+    <t xml:space="preserve">2.73104405403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039697647095</t>
+    <t xml:space="preserve">2.74039721488953</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298528671265</t>
+    <t xml:space="preserve">2.70298552513123</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880946159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68427968025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557383537292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945630073547</t>
+    <t xml:space="preserve">2.61880922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6842794418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557359695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945653915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722170829773</t>
+    <t xml:space="preserve">2.49722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519238948822</t>
+    <t xml:space="preserve">3.15192413330078</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127729415894</t>
+    <t xml:space="preserve">3.16127705574036</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457304000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780866622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81521987915039</t>
+    <t xml:space="preserve">2.82457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780842781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598814964294</t>
+    <t xml:space="preserve">2.28210520744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598791122437</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698894500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1231062412262</t>
+    <t xml:space="preserve">2.06698870658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863669872284</t>
+    <t xml:space="preserve">1.89863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540107250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987061500549</t>
+    <t xml:space="preserve">1.94540119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022433280945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922353744507</t>
+    <t xml:space="preserve">2.17922329902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534083366394</t>
+    <t xml:space="preserve">2.23534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469375610352</t>
+    <t xml:space="preserve">2.24469399452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -2610,6 +2610,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.86000001430511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82000005245209</t>
   </si>
 </sst>
 </file>
@@ -6011,7 +6014,7 @@
         <v>3.55200004577637</v>
       </c>
       <c r="G118" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -6063,7 +6066,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -6089,7 +6092,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -6115,7 +6118,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -6141,7 +6144,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -6167,7 +6170,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -6193,7 +6196,7 @@
         <v>3.5</v>
       </c>
       <c r="G125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -6219,7 +6222,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -6245,7 +6248,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6271,7 +6274,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6297,7 +6300,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6349,7 +6352,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6375,7 +6378,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6401,7 +6404,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6453,7 +6456,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6479,7 +6482,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6505,7 +6508,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6557,7 +6560,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6635,7 +6638,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6661,7 +6664,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6687,7 +6690,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6739,7 +6742,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6765,7 +6768,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6791,7 +6794,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6817,7 +6820,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6843,7 +6846,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6869,7 +6872,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6895,7 +6898,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6921,7 +6924,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6947,7 +6950,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6973,7 +6976,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7077,7 +7080,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7129,7 +7132,7 @@
         <v>3.5</v>
       </c>
       <c r="G161" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -7155,7 +7158,7 @@
         <v>3.5</v>
       </c>
       <c r="G162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -7181,7 +7184,7 @@
         <v>3.5</v>
       </c>
       <c r="G163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -7207,7 +7210,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7311,7 +7314,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7337,7 +7340,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7363,7 +7366,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7415,7 +7418,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7441,7 +7444,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7467,7 +7470,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7493,7 +7496,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7519,7 +7522,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7545,7 +7548,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7571,7 +7574,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7597,7 +7600,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7649,7 +7652,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7675,7 +7678,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7701,7 +7704,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7727,7 +7730,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7753,7 +7756,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7779,7 +7782,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7805,7 +7808,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7831,7 +7834,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7883,7 +7886,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7909,7 +7912,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G191" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7935,7 +7938,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7961,7 +7964,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7987,7 +7990,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8013,7 +8016,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8039,7 +8042,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8065,7 +8068,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8143,7 +8146,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8169,7 +8172,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8195,7 +8198,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8221,7 +8224,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8247,7 +8250,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8273,7 +8276,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8299,7 +8302,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8325,7 +8328,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8351,7 +8354,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8403,7 +8406,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8429,7 +8432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8455,7 +8458,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8507,7 +8510,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8533,7 +8536,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8559,7 +8562,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8585,7 +8588,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8611,7 +8614,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8637,7 +8640,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8663,7 +8666,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8689,7 +8692,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G221" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8715,7 +8718,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8741,7 +8744,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8767,7 +8770,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8819,7 +8822,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8845,7 +8848,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8897,7 +8900,7 @@
         <v>3.5</v>
       </c>
       <c r="G229" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8923,7 +8926,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8949,7 +8952,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -9001,7 +9004,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9027,7 +9030,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9053,7 +9056,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9079,7 +9082,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9105,7 +9108,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9131,7 +9134,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9157,7 +9160,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9183,7 +9186,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9235,7 +9238,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9261,7 +9264,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9287,7 +9290,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9339,7 +9342,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9365,7 +9368,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9391,7 +9394,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9443,7 +9446,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9469,7 +9472,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9495,7 +9498,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9521,7 +9524,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9547,7 +9550,7 @@
         <v>3.5</v>
       </c>
       <c r="G254" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9573,7 +9576,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9599,7 +9602,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9625,7 +9628,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9651,7 +9654,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9677,7 +9680,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9729,7 +9732,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9755,7 +9758,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9781,7 +9784,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9807,7 +9810,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9833,7 +9836,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9885,7 +9888,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9911,7 +9914,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9937,7 +9940,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9963,7 +9966,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9989,7 +9992,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10015,7 +10018,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10145,7 +10148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10171,7 +10174,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10197,7 +10200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10223,7 +10226,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10249,7 +10252,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10275,7 +10278,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10301,7 +10304,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10353,7 +10356,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10379,7 +10382,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10405,7 +10408,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10431,7 +10434,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10457,7 +10460,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10483,7 +10486,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10509,7 +10512,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10535,7 +10538,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10561,7 +10564,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10639,7 +10642,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10691,7 +10694,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10717,7 +10720,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10743,7 +10746,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10769,7 +10772,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10795,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10821,7 +10824,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10847,7 +10850,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10873,7 +10876,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10899,7 +10902,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10925,7 +10928,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10951,7 +10954,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10977,7 +10980,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11029,7 +11032,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11055,7 +11058,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11081,7 +11084,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11107,7 +11110,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11133,7 +11136,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11159,7 +11162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11185,7 +11188,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11211,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11237,7 +11240,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11263,7 +11266,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11289,7 +11292,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11315,7 +11318,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11341,7 +11344,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11367,7 +11370,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11393,7 +11396,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11419,7 +11422,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11445,7 +11448,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11471,7 +11474,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11497,7 +11500,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11523,7 +11526,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11549,7 +11552,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11575,7 +11578,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11601,7 +11604,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11627,7 +11630,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11653,7 +11656,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11679,7 +11682,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11705,7 +11708,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11731,7 +11734,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11757,7 +11760,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11783,7 +11786,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11809,7 +11812,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11835,7 +11838,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11861,7 +11864,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11887,7 +11890,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11913,7 +11916,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11939,7 +11942,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11965,7 +11968,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11991,7 +11994,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12017,7 +12020,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12043,7 +12046,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12069,7 +12072,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12095,7 +12098,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12121,7 +12124,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12147,7 +12150,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12173,7 +12176,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12199,7 +12202,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12225,7 +12228,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12251,7 +12254,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12277,7 +12280,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12303,7 +12306,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12329,7 +12332,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12355,7 +12358,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12381,7 +12384,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12407,7 +12410,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12433,7 +12436,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12459,7 +12462,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12485,7 +12488,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12511,7 +12514,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12537,7 +12540,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12563,7 +12566,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12589,7 +12592,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12615,7 +12618,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12641,7 +12644,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12667,7 +12670,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12693,7 +12696,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12719,7 +12722,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12745,7 +12748,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12771,7 +12774,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12797,7 +12800,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12823,7 +12826,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12849,7 +12852,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12875,7 +12878,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12901,7 +12904,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12927,7 +12930,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12953,7 +12956,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12979,7 +12982,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13005,7 +13008,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13031,7 +13034,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13057,7 +13060,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13083,7 +13086,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13109,7 +13112,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13135,7 +13138,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13161,7 +13164,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13187,7 +13190,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13213,7 +13216,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13239,7 +13242,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13265,7 +13268,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13291,7 +13294,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13317,7 +13320,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13343,7 +13346,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13369,7 +13372,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13395,7 +13398,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13421,7 +13424,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13447,7 +13450,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13473,7 +13476,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13499,7 +13502,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13525,7 +13528,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13551,7 +13554,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13577,7 +13580,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13603,7 +13606,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13629,7 +13632,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13655,7 +13658,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13681,7 +13684,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13707,7 +13710,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13733,7 +13736,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13759,7 +13762,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13785,7 +13788,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13811,7 +13814,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13837,7 +13840,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13863,7 +13866,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13889,7 +13892,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13915,7 +13918,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13941,7 +13944,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13967,7 +13970,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13993,7 +13996,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14019,7 +14022,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14045,7 +14048,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14071,7 +14074,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14097,7 +14100,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14123,7 +14126,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14149,7 +14152,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14175,7 +14178,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14201,7 +14204,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14227,7 +14230,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14253,7 +14256,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14279,7 +14282,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14305,7 +14308,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14331,7 +14334,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14357,7 +14360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14383,7 +14386,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14409,7 +14412,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14435,7 +14438,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14461,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14487,7 +14490,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14513,7 +14516,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14539,7 +14542,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14565,7 +14568,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14591,7 +14594,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14617,7 +14620,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14643,7 +14646,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14669,7 +14672,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14695,7 +14698,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14721,7 +14724,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14747,7 +14750,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14773,7 +14776,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14799,7 +14802,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14825,7 +14828,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14851,7 +14854,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14877,7 +14880,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14903,7 +14906,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14929,7 +14932,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14955,7 +14958,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14981,7 +14984,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15007,7 +15010,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15033,7 +15036,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15059,7 +15062,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15085,7 +15088,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15111,7 +15114,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15137,7 +15140,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15163,7 +15166,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15189,7 +15192,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15215,7 +15218,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15241,7 +15244,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15267,7 +15270,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15293,7 +15296,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15319,7 +15322,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15345,7 +15348,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15371,7 +15374,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15397,7 +15400,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15423,7 +15426,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15449,7 +15452,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15475,7 +15478,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15501,7 +15504,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15527,7 +15530,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15553,7 +15556,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15579,7 +15582,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15605,7 +15608,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15631,7 +15634,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15657,7 +15660,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15683,7 +15686,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15709,7 +15712,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15735,7 +15738,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15761,7 +15764,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15787,7 +15790,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15813,7 +15816,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15839,7 +15842,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15865,7 +15868,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15891,7 +15894,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15917,7 +15920,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15943,7 +15946,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15969,7 +15972,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15995,7 +15998,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16021,7 +16024,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16047,7 +16050,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16073,7 +16076,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16099,7 +16102,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16125,7 +16128,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16151,7 +16154,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16177,7 +16180,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16203,7 +16206,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16229,7 +16232,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16255,7 +16258,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16281,7 +16284,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16307,7 +16310,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16333,7 +16336,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16359,7 +16362,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16385,7 +16388,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16411,7 +16414,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16437,7 +16440,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16463,7 +16466,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16489,7 +16492,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16515,7 +16518,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16541,7 +16544,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16567,7 +16570,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16593,7 +16596,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16619,7 +16622,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16645,7 +16648,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16671,7 +16674,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16697,7 +16700,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16723,7 +16726,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16749,7 +16752,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16775,7 +16778,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16801,7 +16804,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16827,7 +16830,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16853,7 +16856,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16879,7 +16882,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16905,7 +16908,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16931,7 +16934,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16957,7 +16960,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16983,7 +16986,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17009,7 +17012,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17035,7 +17038,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17061,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17087,7 +17090,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17113,7 +17116,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17139,7 +17142,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17165,7 +17168,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17191,7 +17194,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17217,7 +17220,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17243,7 +17246,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17269,7 +17272,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17295,7 +17298,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17321,7 +17324,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17347,7 +17350,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17373,7 +17376,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17399,7 +17402,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17425,7 +17428,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17451,7 +17454,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17477,7 +17480,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17503,7 +17506,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17529,7 +17532,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17555,7 +17558,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17581,7 +17584,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17607,7 +17610,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17633,7 +17636,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17659,7 +17662,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17685,7 +17688,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17711,7 +17714,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17737,7 +17740,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17763,7 +17766,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17789,7 +17792,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17815,7 +17818,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17841,7 +17844,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17867,7 +17870,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17893,7 +17896,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17919,7 +17922,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17945,7 +17948,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17971,7 +17974,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17997,7 +18000,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18023,7 +18026,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18049,7 +18052,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18075,7 +18078,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18101,7 +18104,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18127,7 +18130,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18153,7 +18156,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18179,7 +18182,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18205,7 +18208,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18231,7 +18234,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18257,7 +18260,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18283,7 +18286,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18309,7 +18312,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18335,7 +18338,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18361,7 +18364,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18387,7 +18390,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18413,7 +18416,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18439,7 +18442,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18465,7 +18468,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18491,7 +18494,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18517,7 +18520,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18543,7 +18546,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18569,7 +18572,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18595,7 +18598,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18621,7 +18624,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18647,7 +18650,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18673,7 +18676,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18699,7 +18702,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18725,7 +18728,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18751,7 +18754,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18777,7 +18780,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18803,7 +18806,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18829,7 +18832,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18855,7 +18858,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18881,7 +18884,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18907,7 +18910,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18933,7 +18936,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18959,7 +18962,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18985,7 +18988,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19011,7 +19014,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19037,7 +19040,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19063,7 +19066,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19089,7 +19092,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19115,7 +19118,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19141,7 +19144,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19167,7 +19170,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19193,7 +19196,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19219,7 +19222,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19245,7 +19248,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19271,7 +19274,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19297,7 +19300,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19323,7 +19326,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19349,7 +19352,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19375,7 +19378,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19401,7 +19404,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19427,7 +19430,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19453,7 +19456,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19479,7 +19482,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19505,7 +19508,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19531,7 +19534,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19557,7 +19560,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19583,7 +19586,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19609,7 +19612,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19635,7 +19638,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19661,7 +19664,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19687,7 +19690,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19713,7 +19716,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19739,7 +19742,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19765,7 +19768,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19791,7 +19794,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19817,7 +19820,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19843,7 +19846,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19869,7 +19872,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19895,7 +19898,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19921,7 +19924,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19947,7 +19950,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19973,7 +19976,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19999,7 +20002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20025,7 +20028,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20051,7 +20054,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20077,7 +20080,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20103,7 +20106,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20129,7 +20132,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20155,7 +20158,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20181,7 +20184,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20207,7 +20210,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20233,7 +20236,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20259,7 +20262,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20285,7 +20288,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20311,7 +20314,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20337,7 +20340,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20363,7 +20366,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20389,7 +20392,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20415,7 +20418,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20441,7 +20444,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20467,7 +20470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20493,7 +20496,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20519,7 +20522,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20545,7 +20548,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20571,7 +20574,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20597,7 +20600,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20623,7 +20626,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20649,7 +20652,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20675,7 +20678,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20701,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20727,7 +20730,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20753,7 +20756,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20779,7 +20782,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20805,7 +20808,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20831,7 +20834,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20857,7 +20860,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20883,7 +20886,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20909,7 +20912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20935,7 +20938,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20961,7 +20964,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20987,7 +20990,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21013,7 +21016,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21039,7 +21042,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21065,7 +21068,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21091,7 +21094,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21117,7 +21120,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21143,7 +21146,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21169,7 +21172,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21195,7 +21198,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21221,7 +21224,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21247,7 +21250,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21273,7 +21276,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21299,7 +21302,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21325,7 +21328,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21351,7 +21354,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21377,7 +21380,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21403,7 +21406,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21429,7 +21432,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21455,7 +21458,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21481,7 +21484,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21507,7 +21510,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21533,7 +21536,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21559,7 +21562,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21585,7 +21588,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21611,7 +21614,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21637,7 +21640,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21663,7 +21666,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21689,7 +21692,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21715,7 +21718,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21741,7 +21744,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21767,7 +21770,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21793,7 +21796,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21819,7 +21822,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21845,7 +21848,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21871,7 +21874,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21897,7 +21900,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21923,7 +21926,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21949,7 +21952,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21975,7 +21978,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22001,7 +22004,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22027,7 +22030,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22053,7 +22056,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22079,7 +22082,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22105,7 +22108,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22131,7 +22134,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22157,7 +22160,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22183,7 +22186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22209,7 +22212,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22235,7 +22238,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22261,7 +22264,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22287,7 +22290,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22313,7 +22316,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22339,7 +22342,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22365,7 +22368,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22391,7 +22394,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22417,7 +22420,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22443,7 +22446,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22469,7 +22472,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22495,7 +22498,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22521,7 +22524,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22547,7 +22550,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22573,7 +22576,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22599,7 +22602,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22625,7 +22628,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22651,7 +22654,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22677,7 +22680,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22703,7 +22706,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22729,7 +22732,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22755,7 +22758,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22781,7 +22784,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22807,7 +22810,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22833,7 +22836,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22859,7 +22862,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22885,7 +22888,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22911,7 +22914,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22937,7 +22940,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22963,7 +22966,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22989,7 +22992,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23015,7 +23018,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23041,7 +23044,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23067,7 +23070,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23093,7 +23096,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23119,7 +23122,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23145,7 +23148,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23171,7 +23174,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23197,7 +23200,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23223,7 +23226,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23249,7 +23252,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23275,7 +23278,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23301,7 +23304,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23327,7 +23330,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23353,7 +23356,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23379,7 +23382,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23405,7 +23408,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23431,7 +23434,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23457,7 +23460,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23483,7 +23486,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23509,7 +23512,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23535,7 +23538,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23561,7 +23564,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23587,7 +23590,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23613,7 +23616,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23639,7 +23642,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23665,7 +23668,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23691,7 +23694,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23717,7 +23720,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23743,7 +23746,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23769,7 +23772,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23795,7 +23798,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23821,7 +23824,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23847,7 +23850,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23873,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23899,7 +23902,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23925,7 +23928,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23951,7 +23954,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23977,7 +23980,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24003,7 +24006,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24029,7 +24032,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24055,7 +24058,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24081,7 +24084,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24107,7 +24110,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24133,7 +24136,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24159,7 +24162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24185,7 +24188,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24211,7 +24214,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24237,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24263,7 +24266,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24289,7 +24292,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24315,7 +24318,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24341,7 +24344,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24367,7 +24370,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24393,7 +24396,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24419,7 +24422,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24445,7 +24448,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24471,7 +24474,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24497,7 +24500,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24523,7 +24526,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24549,7 +24552,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24575,7 +24578,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24601,7 +24604,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24627,7 +24630,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24653,7 +24656,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24679,7 +24682,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24705,7 +24708,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24731,7 +24734,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24757,7 +24760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24783,7 +24786,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24809,7 +24812,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24835,7 +24838,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24861,7 +24864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24887,7 +24890,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24913,7 +24916,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24939,7 +24942,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24965,7 +24968,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24991,7 +24994,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25017,7 +25020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25043,7 +25046,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25069,7 +25072,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25095,7 +25098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25121,7 +25124,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25147,7 +25150,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25173,7 +25176,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25199,7 +25202,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25225,7 +25228,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25251,7 +25254,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25277,7 +25280,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25303,7 +25306,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25329,7 +25332,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25355,7 +25358,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25381,7 +25384,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25407,7 +25410,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25433,7 +25436,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25459,7 +25462,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25485,7 +25488,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25511,7 +25514,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25537,7 +25540,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25563,7 +25566,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25589,7 +25592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25615,7 +25618,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25641,7 +25644,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25667,7 +25670,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25693,7 +25696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25719,7 +25722,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25745,7 +25748,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25771,7 +25774,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25797,7 +25800,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25823,7 +25826,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25849,7 +25852,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25875,7 +25878,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25901,7 +25904,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25927,7 +25930,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25953,7 +25956,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25979,7 +25982,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26005,7 +26008,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26031,7 +26034,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26057,7 +26060,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26083,7 +26086,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26109,7 +26112,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26135,7 +26138,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26161,7 +26164,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26187,7 +26190,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26213,7 +26216,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26239,7 +26242,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26265,7 +26268,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26291,7 +26294,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26369,7 +26372,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26395,7 +26398,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26629,7 +26632,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26681,7 +26684,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26707,7 +26710,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26759,7 +26762,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28839,7 +28842,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28865,7 +28868,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28891,7 +28894,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28995,7 +28998,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29047,7 +29050,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29099,7 +29102,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29125,7 +29128,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29151,7 +29154,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29177,7 +29180,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -59085,7 +59088,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6493981481</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>26876</v>
@@ -59106,6 +59109,32 @@
         <v>846</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6496296296</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>3288</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>1.82000005245209</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>1.80999994277954</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>1.80499994754791</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>1.82000005245209</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>866</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -62,46 +62,46 @@
     <t xml:space="preserve">2.94720363616943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393612861633</t>
+    <t xml:space="preserve">2.92393660545349</t>
   </si>
   <si>
     <t xml:space="preserve">2.80139470100403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79984331130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70677399635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78433179855347</t>
+    <t xml:space="preserve">2.79984354972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70677423477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78433203697205</t>
   </si>
   <si>
     <t xml:space="preserve">2.83862233161926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85413455963135</t>
+    <t xml:space="preserve">2.85413432121277</t>
   </si>
   <si>
     <t xml:space="preserve">2.84637856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80604791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86499238014221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79363894462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82000851631165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75486040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.709876537323</t>
+    <t xml:space="preserve">2.80604839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86499261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79363918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82000875473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70987629890442</t>
   </si>
   <si>
     <t xml:space="preserve">2.55941367149353</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">2.51287913322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44152569770813</t>
+    <t xml:space="preserve">2.44152545928955</t>
   </si>
   <si>
     <t xml:space="preserve">2.54855561256409</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">2.61680674552917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77657628059387</t>
+    <t xml:space="preserve">2.77657651901245</t>
   </si>
   <si>
     <t xml:space="preserve">2.81380414962769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624658584595</t>
+    <t xml:space="preserve">2.73624610900879</t>
   </si>
   <si>
     <t xml:space="preserve">2.72538781166077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7331440448761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195533752441</t>
+    <t xml:space="preserve">2.73314380645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195509910583</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281339645386</t>
@@ -161,157 +161,160 @@
     <t xml:space="preserve">2.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79829216003418</t>
+    <t xml:space="preserve">2.79829239845276</t>
   </si>
   <si>
     <t xml:space="preserve">2.76726937294006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72228574752808</t>
+    <t xml:space="preserve">2.7222855091095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8696460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83086681365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75330877304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74865555763245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416707038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76571822166443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7502064704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037167549133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78278112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7920880317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81225299835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89291334152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93014121055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842461585999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92458295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257217407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89226722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501413345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80663013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82925128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77916169166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77592992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78724074363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955671310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74684596061707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80339860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135119438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90196180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91165637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445672988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02960920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02799344062805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698828697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9827516078949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205140113831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94074082374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89873027801514</t>
   </si>
   <si>
     <t xml:space="preserve">2.86964583396912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83086681365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75330901145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74865531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416707038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76571822166443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75020670890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641107559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037143707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78278088569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7920880317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84327578544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81225299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89291334152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93014144897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842485427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92458295822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034556388855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257241249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89226698875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501413345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80663013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82925128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77916193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77593016624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78724050521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955623626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74684596061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8033983707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135119438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90196180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91165637969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528292655945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567747116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445649147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02960896492004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153038978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02799344062805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698828697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98275136947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94074106216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94558811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89873003959656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811966896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93750905990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8583357334137</t>
+    <t xml:space="preserve">2.91811943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93750929832458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85833549499512</t>
   </si>
   <si>
     <t xml:space="preserve">2.8276355266571</t>
@@ -326,22 +329,22 @@
     <t xml:space="preserve">2.96013045310974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95689868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.905193567276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881987571716</t>
+    <t xml:space="preserve">2.95689845085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90519332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881963729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720411300659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98113584518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89388275146484</t>
+    <t xml:space="preserve">2.98113560676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89388298988342</t>
   </si>
   <si>
     <t xml:space="preserve">2.90680932998657</t>
@@ -353,7 +356,7 @@
     <t xml:space="preserve">2.84379315376282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85025644302368</t>
+    <t xml:space="preserve">2.85025668144226</t>
   </si>
   <si>
     <t xml:space="preserve">2.83571434020996</t>
@@ -362,34 +365,34 @@
     <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86641430854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8793408870697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549851417542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327238082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97951984405518</t>
+    <t xml:space="preserve">2.86641454696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87934064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327214241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9795196056366</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768825531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08616209030151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524629592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10231971740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07808303833008</t>
+    <t xml:space="preserve">3.08616232872009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524605751038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10232019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314639091492</t>
@@ -398,7 +401,7 @@
     <t xml:space="preserve">3.00537252426147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99890899658203</t>
+    <t xml:space="preserve">2.99890923500061</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
@@ -407,10 +410,10 @@
     <t xml:space="preserve">2.97305655479431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88418817520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93104577064514</t>
+    <t xml:space="preserve">2.88418769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93104600906372</t>
   </si>
   <si>
     <t xml:space="preserve">2.95851445198059</t>
@@ -419,13 +422,13 @@
     <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93589329719543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93427729606628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90357780456543</t>
+    <t xml:space="preserve">2.93589353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93427753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90357756614685</t>
   </si>
   <si>
     <t xml:space="preserve">2.98759865760803</t>
@@ -434,7 +437,7 @@
     <t xml:space="preserve">3.01021981239319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9940619468689</t>
+    <t xml:space="preserve">2.99406170845032</t>
   </si>
   <si>
     <t xml:space="preserve">3.05384612083435</t>
@@ -443,7 +446,7 @@
     <t xml:space="preserve">2.82117223739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9892144203186</t>
+    <t xml:space="preserve">2.98921465873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.96659350395203</t>
@@ -458,31 +461,31 @@
     <t xml:space="preserve">2.83733010292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84217739105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83409833908081</t>
+    <t xml:space="preserve">2.84217715263367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83409857749939</t>
   </si>
   <si>
     <t xml:space="preserve">2.77108287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72260856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81147766113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72907185554504</t>
+    <t xml:space="preserve">2.72260880470276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81147742271423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
     <t xml:space="preserve">2.70321941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69837188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74523019790649</t>
+    <t xml:space="preserve">2.69837212562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74522995948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.74361419677734</t>
@@ -491,16 +494,16 @@
     <t xml:space="preserve">2.76946663856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82440400123596</t>
+    <t xml:space="preserve">2.82440376281738</t>
   </si>
   <si>
     <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80016708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81794047355652</t>
+    <t xml:space="preserve">2.80016684532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8179407119751</t>
   </si>
   <si>
     <t xml:space="preserve">2.85995101928711</t>
@@ -509,7 +512,7 @@
     <t xml:space="preserve">2.94397258758545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96982502937317</t>
+    <t xml:space="preserve">2.96982526779175</t>
   </si>
   <si>
     <t xml:space="preserve">2.9682092666626</t>
@@ -530,31 +533,31 @@
     <t xml:space="preserve">3.01829862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01506733894348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00214099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01991438865662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030941009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838822364807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07000374794006</t>
+    <t xml:space="preserve">3.0150671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00214076042175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0199146270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030917167664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
     <t xml:space="preserve">3.1427149772644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21542572975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23158311843872</t>
+    <t xml:space="preserve">3.21542549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2315833568573</t>
   </si>
   <si>
     <t xml:space="preserve">3.25582051277161</t>
@@ -566,7 +569,7 @@
     <t xml:space="preserve">3.28652000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1911883354187</t>
+    <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625144958496</t>
@@ -578,40 +581,40 @@
     <t xml:space="preserve">3.1540253162384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14594626426697</t>
+    <t xml:space="preserve">3.14594650268555</t>
   </si>
   <si>
     <t xml:space="preserve">3.28813624382019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33660984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38185167312622</t>
+    <t xml:space="preserve">3.33661007881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3818519115448</t>
   </si>
   <si>
     <t xml:space="preserve">3.3931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56120443344116</t>
+    <t xml:space="preserve">3.56120467185974</t>
   </si>
   <si>
     <t xml:space="preserve">3.57089924812317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54827880859375</t>
+    <t xml:space="preserve">3.54827857017517</t>
   </si>
   <si>
     <t xml:space="preserve">3.55474162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54343128204346</t>
+    <t xml:space="preserve">3.54343152046204</t>
   </si>
   <si>
     <t xml:space="preserve">3.506267786026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56282019615173</t>
+    <t xml:space="preserve">3.56281971931458</t>
   </si>
   <si>
     <t xml:space="preserve">3.50788354873657</t>
@@ -626,43 +629,43 @@
     <t xml:space="preserve">3.44971513748169</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51434683799744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.473952293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55766201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52752614021301</t>
+    <t xml:space="preserve">3.51434707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47395253181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55766177177429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52752637863159</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51580691337585</t>
+    <t xml:space="preserve">3.51580667495728</t>
   </si>
   <si>
     <t xml:space="preserve">3.59951710700989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62965178489685</t>
+    <t xml:space="preserve">3.62965202331543</t>
   </si>
   <si>
     <t xml:space="preserve">3.68155193328857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70666527748108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67318105697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200387954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901641845703</t>
+    <t xml:space="preserve">3.7066650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67318081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78200364112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901665687561</t>
   </si>
   <si>
     <t xml:space="preserve">3.97620987892151</t>
@@ -671,22 +674,22 @@
     <t xml:space="preserve">4.00132369995117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05154848098755</t>
+    <t xml:space="preserve">4.05154895782471</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9326810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87241005897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7669358253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222937583923</t>
+    <t xml:space="preserve">3.93268132209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8724102973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76693606376648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222985267639</t>
   </si>
   <si>
     <t xml:space="preserve">3.80879092216492</t>
@@ -695,55 +698,55 @@
     <t xml:space="preserve">3.92933249473572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91761326789856</t>
+    <t xml:space="preserve">3.9176139831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.84394860267639</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85231995582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.845623254776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064554214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9845814704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83055567741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924286842346</t>
+    <t xml:space="preserve">3.85232019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84562277793884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064506530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458170890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83055543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924263000488</t>
   </si>
   <si>
     <t xml:space="preserve">3.94272613525391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94607496261597</t>
+    <t xml:space="preserve">3.94607472419739</t>
   </si>
   <si>
     <t xml:space="preserve">3.95109724998474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93100714683533</t>
+    <t xml:space="preserve">3.93100690841675</t>
   </si>
   <si>
     <t xml:space="preserve">3.93435478210449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92598414421082</t>
+    <t xml:space="preserve">3.92598438262939</t>
   </si>
   <si>
     <t xml:space="preserve">3.87743282318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77698087692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7937228679657</t>
+    <t xml:space="preserve">3.77698111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79372262954712</t>
   </si>
   <si>
     <t xml:space="preserve">3.71671032905579</t>
@@ -752,22 +755,22 @@
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512625694275</t>
+    <t xml:space="preserve">3.73512649536133</t>
   </si>
   <si>
     <t xml:space="preserve">3.76861000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72508096694946</t>
+    <t xml:space="preserve">3.72508120536804</t>
   </si>
   <si>
     <t xml:space="preserve">3.65978813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55933570861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65811347961426</t>
+    <t xml:space="preserve">3.55933547019958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65811324119568</t>
   </si>
   <si>
     <t xml:space="preserve">3.68657422065735</t>
@@ -776,10 +779,10 @@
     <t xml:space="preserve">3.60788702964783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56603336334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797784805298</t>
+    <t xml:space="preserve">3.56603312492371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797808647156</t>
   </si>
   <si>
     <t xml:space="preserve">3.5744035243988</t>
@@ -788,10 +791,10 @@
     <t xml:space="preserve">3.64974236488342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64806818962097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64137148857117</t>
+    <t xml:space="preserve">3.64806795120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64137172698975</t>
   </si>
   <si>
     <t xml:space="preserve">3.70499086380005</t>
@@ -803,16 +806,16 @@
     <t xml:space="preserve">3.6798779964447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65643930435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005796432495</t>
+    <t xml:space="preserve">3.65643954277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005820274353</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680067062378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69996809959412</t>
+    <t xml:space="preserve">3.69996786117554</t>
   </si>
   <si>
     <t xml:space="preserve">3.70164251327515</t>
@@ -821,19 +824,19 @@
     <t xml:space="preserve">3.72173285484314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79037475585938</t>
+    <t xml:space="preserve">3.79037499427795</t>
   </si>
   <si>
     <t xml:space="preserve">3.7970712184906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78870010375977</t>
+    <t xml:space="preserve">3.78870034217834</t>
   </si>
   <si>
     <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77530694007874</t>
+    <t xml:space="preserve">3.77530717849731</t>
   </si>
   <si>
     <t xml:space="preserve">3.79539752006531</t>
@@ -842,16 +845,16 @@
     <t xml:space="preserve">3.78535151481628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75019407272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390402793884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806545257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1101450920105</t>
+    <t xml:space="preserve">3.75019431114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390378952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11014556884766</t>
   </si>
   <si>
     <t xml:space="preserve">4.18548440933228</t>
@@ -863,13 +866,13 @@
     <t xml:space="preserve">4.26919412612915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31104946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290336608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27337980270386</t>
+    <t xml:space="preserve">4.31104898452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290384292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2733793258667</t>
   </si>
   <si>
     <t xml:space="preserve">4.34453248977661</t>
@@ -881,13 +884,13 @@
     <t xml:space="preserve">4.30267810821533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36545991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33616161346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37801647186279</t>
+    <t xml:space="preserve">4.36546039581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3361611366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37801694869995</t>
   </si>
   <si>
     <t xml:space="preserve">4.44498443603516</t>
@@ -899,16 +902,16 @@
     <t xml:space="preserve">4.49939584732056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50358152389526</t>
+    <t xml:space="preserve">4.50358104705811</t>
   </si>
   <si>
     <t xml:space="preserve">4.5454363822937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57473468780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68774271011353</t>
+    <t xml:space="preserve">4.57473421096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68774223327637</t>
   </si>
   <si>
     <t xml:space="preserve">4.65844440460205</t>
@@ -917,7 +920,7 @@
     <t xml:space="preserve">4.68355703353882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67518663406372</t>
+    <t xml:space="preserve">4.67518615722656</t>
   </si>
   <si>
     <t xml:space="preserve">4.78400850296021</t>
@@ -926,10 +929,10 @@
     <t xml:space="preserve">4.83004903793335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82167768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88027477264404</t>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8802752494812</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353302001953</t>
@@ -962,7 +965,7 @@
     <t xml:space="preserve">4.77982330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81330680847168</t>
+    <t xml:space="preserve">4.81330728530884</t>
   </si>
   <si>
     <t xml:space="preserve">5.03095293045044</t>
@@ -995,10 +998,10 @@
     <t xml:space="preserve">5.4411301612854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49135494232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52483940124512</t>
+    <t xml:space="preserve">5.49135541915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52483892440796</t>
   </si>
   <si>
     <t xml:space="preserve">5.43275880813599</t>
@@ -1016,10 +1019,10 @@
     <t xml:space="preserve">5.64203262329102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65877485275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6252908706665</t>
+    <t xml:space="preserve">5.65877532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62529039382935</t>
   </si>
   <si>
     <t xml:space="preserve">5.65040349960327</t>
@@ -1028,13 +1031,13 @@
     <t xml:space="preserve">5.62947654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59180688858032</t>
+    <t xml:space="preserve">5.59180736541748</t>
   </si>
   <si>
     <t xml:space="preserve">5.57506513595581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60854864120483</t>
+    <t xml:space="preserve">5.60854911804199</t>
   </si>
   <si>
     <t xml:space="preserve">5.63366174697876</t>
@@ -1043,49 +1046,49 @@
     <t xml:space="preserve">5.69225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70900058746338</t>
+    <t xml:space="preserve">5.70900106430054</t>
   </si>
   <si>
     <t xml:space="preserve">5.42438745498657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5583233833313</t>
+    <t xml:space="preserve">5.55832290649414</t>
   </si>
   <si>
     <t xml:space="preserve">5.30719423294067</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15651702880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07280731201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0058388710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08954906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22348403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95561361312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98909759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02258110046387</t>
+    <t xml:space="preserve">5.15651655197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07280683517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00583934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08954858779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2234845161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95561408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98909711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02258157730103</t>
   </si>
   <si>
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493640899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77145195007324</t>
+    <t xml:space="preserve">4.80493545532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77145147323608</t>
   </si>
   <si>
     <t xml:space="preserve">4.70448446273804</t>
@@ -1094,13 +1097,13 @@
     <t xml:space="preserve">4.67100048065186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75470972061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38638782501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47009754180908</t>
+    <t xml:space="preserve">4.75471019744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38638734817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47009801864624</t>
   </si>
   <si>
     <t xml:space="preserve">4.83842039108276</t>
@@ -1112,19 +1115,19 @@
     <t xml:space="preserve">4.90538740158081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52032279968262</t>
+    <t xml:space="preserve">4.52032327651978</t>
   </si>
   <si>
     <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60403299331665</t>
+    <t xml:space="preserve">4.60403251647949</t>
   </si>
   <si>
     <t xml:space="preserve">4.65425825119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53706502914429</t>
+    <t xml:space="preserve">4.53706550598145</t>
   </si>
   <si>
     <t xml:space="preserve">4.55380725860596</t>
@@ -1136,13 +1139,13 @@
     <t xml:space="preserve">4.63157606124878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61429405212402</t>
+    <t xml:space="preserve">4.61429452896118</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75255012512207</t>
+    <t xml:space="preserve">4.75254964828491</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1151,10 +1154,10 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063219070435</t>
+    <t xml:space="preserve">4.90413236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85063314437866</t>
   </si>
   <si>
     <t xml:space="preserve">4.74363327026367</t>
@@ -1163,7 +1166,7 @@
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5474681854248</t>
+    <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
     <t xml:space="preserve">4.28888654708862</t>
@@ -1187,10 +1190,10 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788859367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87872266769409</t>
+    <t xml:space="preserve">3.96788835525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1199,7 +1202,7 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280665397644</t>
+    <t xml:space="preserve">3.76280689239502</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
@@ -1211,7 +1214,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74497365951538</t>
+    <t xml:space="preserve">3.7449734210968</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1232,7 +1235,7 @@
     <t xml:space="preserve">4.36021900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27997016906738</t>
+    <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1241,25 +1244,25 @@
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463868141174</t>
+    <t xml:space="preserve">3.99463844299316</t>
   </si>
   <si>
     <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20863723754883</t>
+    <t xml:space="preserve">4.20863676071167</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13730382919312</t>
+    <t xml:space="preserve">4.23538637161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297077178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13730430603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1268,13 +1271,13 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18188762664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922128677368</t>
+    <t xml:space="preserve">4.14622116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922176361084</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1292,22 +1295,22 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330574989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547251701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630659103394</t>
+    <t xml:space="preserve">3.92330551147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547275543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
     <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67364072799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63797426223755</t>
+    <t xml:space="preserve">3.67364048957825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63797450065613</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1316,19 +1319,19 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880857467651</t>
+    <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339165687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58447456359863</t>
+    <t xml:space="preserve">3.57555818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
     <t xml:space="preserve">3.52205872535706</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772471427917</t>
+    <t xml:space="preserve">3.55772495269775</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1349,13 +1352,13 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45072555541992</t>
+    <t xml:space="preserve">3.4507257938385</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372639656067</t>
+    <t xml:space="preserve">3.34372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1367,7 +1370,7 @@
     <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17431092262268</t>
+    <t xml:space="preserve">3.17431116104126</t>
   </si>
   <si>
     <t xml:space="preserve">3.12081146240234</t>
@@ -1376,7 +1379,7 @@
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056215286255</t>
+    <t xml:space="preserve">3.04056191444397</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1385,16 +1388,16 @@
     <t xml:space="preserve">3.06731176376343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05839538574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03164553642273</t>
+    <t xml:space="preserve">3.05839514732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164529800415</t>
   </si>
   <si>
     <t xml:space="preserve">3.02272868156433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96031212806702</t>
+    <t xml:space="preserve">2.96031260490417</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
@@ -1427,25 +1430,25 @@
     <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79981374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706197738647</t>
+    <t xml:space="preserve">2.79981398582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706221580505</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9246461391449</t>
+    <t xml:space="preserve">2.92464590072632</t>
   </si>
   <si>
     <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81764674186707</t>
+    <t xml:space="preserve">2.81764698028564</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
@@ -1460,7 +1463,7 @@
     <t xml:space="preserve">2.67498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11189460754395</t>
+    <t xml:space="preserve">3.11189484596252</t>
   </si>
   <si>
     <t xml:space="preserve">3.29022693634033</t>
@@ -1472,13 +1475,13 @@
     <t xml:space="preserve">3.33480978012085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30805993080139</t>
+    <t xml:space="preserve">3.30806016921997</t>
   </si>
   <si>
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106077194214</t>
+    <t xml:space="preserve">3.20106053352356</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1490,7 +1493,7 @@
     <t xml:space="preserve">3.2188937664032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539430618286</t>
+    <t xml:space="preserve">3.16539454460144</t>
   </si>
   <si>
     <t xml:space="preserve">3.1386444568634</t>
@@ -1499,16 +1502,16 @@
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647768974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589316368103</t>
+    <t xml:space="preserve">3.15647792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589340209961</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68255758285522</t>
+    <t xml:space="preserve">3.6825578212738</t>
   </si>
   <si>
     <t xml:space="preserve">3.65580749511719</t>
@@ -1529,22 +1532,22 @@
     <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39722609519958</t>
+    <t xml:space="preserve">3.39722585678101</t>
   </si>
   <si>
     <t xml:space="preserve">3.4418089389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42397594451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2278106212616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489544868469</t>
+    <t xml:space="preserve">3.42397570610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22781038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489521026611</t>
   </si>
   <si>
     <t xml:space="preserve">3.08514499664307</t>
@@ -1559,25 +1562,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321805000305</t>
+    <t xml:space="preserve">3.13321828842163</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645391464233</t>
+    <t xml:space="preserve">3.08645367622375</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227785110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551347732544</t>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1589,37 +1592,34 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968954086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05839514732361</t>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451244354248</t>
+    <t xml:space="preserve">3.11451268196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292516708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716158866882</t>
+    <t xml:space="preserve">2.99292492866516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357224464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616055488586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716135025024</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104405403137</t>
+    <t xml:space="preserve">2.73104429244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039721488953</t>
+    <t xml:space="preserve">2.74039697647095</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298552513123</t>
+    <t xml:space="preserve">2.70298528671265</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622091293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6842794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557359695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945653915405</t>
+    <t xml:space="preserve">2.61880946159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622067451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68427968025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557383537292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945630073547</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722194671631</t>
+    <t xml:space="preserve">2.49722170829773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15192413330078</t>
+    <t xml:space="preserve">3.1519238948822</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127705574036</t>
+    <t xml:space="preserve">3.16127729415894</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457280158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780842781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81522011756897</t>
+    <t xml:space="preserve">2.82457304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81521987915039</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210520744324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598791122437</t>
+    <t xml:space="preserve">2.28210544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698870658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12310600280762</t>
+    <t xml:space="preserve">2.06698894500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1231062412262</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863681793213</t>
+    <t xml:space="preserve">1.89863669872284</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022433280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987037658691</t>
+    <t xml:space="preserve">1.94540107250214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987061500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922329902649</t>
+    <t xml:space="preserve">2.17922353744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534107208252</t>
+    <t xml:space="preserve">2.23534083366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469399452209</t>
+    <t xml:space="preserve">2.24469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -6014,7 +6014,7 @@
         <v>3.55200004577637</v>
       </c>
       <c r="G118" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -6066,7 +6066,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G120" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -6092,7 +6092,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G121" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -6118,7 +6118,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -6144,7 +6144,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G123" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -6170,7 +6170,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G124" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -6196,7 +6196,7 @@
         <v>3.5</v>
       </c>
       <c r="G125" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -6222,7 +6222,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G126" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -6248,7 +6248,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6274,7 +6274,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6300,7 +6300,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6404,7 +6404,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6456,7 +6456,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6482,7 +6482,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6508,7 +6508,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6560,7 +6560,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6638,7 +6638,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6664,7 +6664,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6690,7 +6690,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6768,7 +6768,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6794,7 +6794,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6820,7 +6820,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6846,7 +6846,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6872,7 +6872,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6898,7 +6898,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6924,7 +6924,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6950,7 +6950,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6976,7 +6976,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7080,7 +7080,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7132,7 +7132,7 @@
         <v>3.5</v>
       </c>
       <c r="G161" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -7158,7 +7158,7 @@
         <v>3.5</v>
       </c>
       <c r="G162" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -7184,7 +7184,7 @@
         <v>3.5</v>
       </c>
       <c r="G163" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -7210,7 +7210,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7314,7 +7314,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7366,7 +7366,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7418,7 +7418,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7470,7 +7470,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7496,7 +7496,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7522,7 +7522,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7548,7 +7548,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7574,7 +7574,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7600,7 +7600,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7652,7 +7652,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7678,7 +7678,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7704,7 +7704,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7730,7 +7730,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7756,7 +7756,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7782,7 +7782,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7808,7 +7808,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7834,7 +7834,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7912,7 +7912,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G191" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7938,7 +7938,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7990,7 +7990,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8016,7 +8016,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8042,7 +8042,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8068,7 +8068,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8146,7 +8146,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8172,7 +8172,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8198,7 +8198,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8224,7 +8224,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8250,7 +8250,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8276,7 +8276,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8302,7 +8302,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8354,7 +8354,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8406,7 +8406,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8432,7 +8432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8458,7 +8458,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8510,7 +8510,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8562,7 +8562,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8588,7 +8588,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8614,7 +8614,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8640,7 +8640,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8666,7 +8666,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G220" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8692,7 +8692,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G221" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8718,7 +8718,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8744,7 +8744,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8822,7 +8822,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8848,7 +8848,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8900,7 +8900,7 @@
         <v>3.5</v>
       </c>
       <c r="G229" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8926,7 +8926,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8952,7 +8952,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9030,7 +9030,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9056,7 +9056,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9082,7 +9082,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9108,7 +9108,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9160,7 +9160,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9186,7 +9186,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9238,7 +9238,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9264,7 +9264,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9290,7 +9290,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9342,7 +9342,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9368,7 +9368,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9394,7 +9394,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9446,7 +9446,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9472,7 +9472,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9498,7 +9498,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9524,7 +9524,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9550,7 +9550,7 @@
         <v>3.5</v>
       </c>
       <c r="G254" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9576,7 +9576,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9602,7 +9602,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9628,7 +9628,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9654,7 +9654,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9680,7 +9680,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9732,7 +9732,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9758,7 +9758,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9784,7 +9784,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9810,7 +9810,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9836,7 +9836,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9888,7 +9888,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9914,7 +9914,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9940,7 +9940,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9966,7 +9966,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9992,7 +9992,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10018,7 +10018,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10148,7 +10148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10174,7 +10174,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10200,7 +10200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10226,7 +10226,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10252,7 +10252,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10278,7 +10278,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10304,7 +10304,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10356,7 +10356,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10382,7 +10382,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10408,7 +10408,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10434,7 +10434,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10460,7 +10460,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10486,7 +10486,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10512,7 +10512,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10564,7 +10564,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10720,7 +10720,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10746,7 +10746,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10772,7 +10772,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10798,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10824,7 +10824,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10850,7 +10850,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10876,7 +10876,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10902,7 +10902,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10928,7 +10928,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10954,7 +10954,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10980,7 +10980,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11032,7 +11032,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11058,7 +11058,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11084,7 +11084,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11110,7 +11110,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11136,7 +11136,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11162,7 +11162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11188,7 +11188,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11214,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11240,7 +11240,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11266,7 +11266,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11292,7 +11292,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11318,7 +11318,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11344,7 +11344,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11370,7 +11370,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11396,7 +11396,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11422,7 +11422,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11448,7 +11448,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11474,7 +11474,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11500,7 +11500,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11526,7 +11526,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11552,7 +11552,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11578,7 +11578,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11604,7 +11604,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11630,7 +11630,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11656,7 +11656,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11682,7 +11682,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11708,7 +11708,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11734,7 +11734,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11760,7 +11760,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11786,7 +11786,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11838,7 +11838,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11864,7 +11864,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11890,7 +11890,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11916,7 +11916,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11942,7 +11942,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11968,7 +11968,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11994,7 +11994,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12020,7 +12020,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12046,7 +12046,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12072,7 +12072,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12098,7 +12098,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12124,7 +12124,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12150,7 +12150,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12176,7 +12176,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12202,7 +12202,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12228,7 +12228,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12254,7 +12254,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12280,7 +12280,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12306,7 +12306,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12332,7 +12332,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12358,7 +12358,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12384,7 +12384,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12410,7 +12410,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12436,7 +12436,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12462,7 +12462,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12488,7 +12488,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12514,7 +12514,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12540,7 +12540,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12566,7 +12566,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12592,7 +12592,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12618,7 +12618,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12644,7 +12644,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12670,7 +12670,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12696,7 +12696,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12722,7 +12722,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12800,7 +12800,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12826,7 +12826,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12852,7 +12852,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12878,7 +12878,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12904,7 +12904,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12930,7 +12930,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12956,7 +12956,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12982,7 +12982,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13008,7 +13008,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13034,7 +13034,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13060,7 +13060,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13086,7 +13086,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13112,7 +13112,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13138,7 +13138,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13164,7 +13164,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13190,7 +13190,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13216,7 +13216,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13242,7 +13242,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13268,7 +13268,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13294,7 +13294,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13320,7 +13320,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13346,7 +13346,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13398,7 +13398,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13424,7 +13424,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13450,7 +13450,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13476,7 +13476,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13502,7 +13502,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13528,7 +13528,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13554,7 +13554,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13606,7 +13606,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13632,7 +13632,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13658,7 +13658,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13684,7 +13684,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13710,7 +13710,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13736,7 +13736,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13762,7 +13762,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13788,7 +13788,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13814,7 +13814,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13840,7 +13840,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13866,7 +13866,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13892,7 +13892,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13918,7 +13918,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13944,7 +13944,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13970,7 +13970,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13996,7 +13996,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14022,7 +14022,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14048,7 +14048,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14074,7 +14074,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14100,7 +14100,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14126,7 +14126,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14152,7 +14152,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14178,7 +14178,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14204,7 +14204,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14230,7 +14230,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14256,7 +14256,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14282,7 +14282,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14308,7 +14308,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14334,7 +14334,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14360,7 +14360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14386,7 +14386,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14412,7 +14412,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14438,7 +14438,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14464,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14490,7 +14490,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14516,7 +14516,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14542,7 +14542,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14568,7 +14568,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14594,7 +14594,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14620,7 +14620,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14646,7 +14646,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14672,7 +14672,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14698,7 +14698,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14724,7 +14724,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14750,7 +14750,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14776,7 +14776,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14802,7 +14802,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14828,7 +14828,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14854,7 +14854,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14906,7 +14906,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14932,7 +14932,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14984,7 +14984,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15010,7 +15010,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15036,7 +15036,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15062,7 +15062,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15088,7 +15088,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15114,7 +15114,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15140,7 +15140,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15166,7 +15166,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15192,7 +15192,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15244,7 +15244,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15322,7 +15322,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15348,7 +15348,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15374,7 +15374,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15400,7 +15400,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15426,7 +15426,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15452,7 +15452,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15478,7 +15478,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15504,7 +15504,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15530,7 +15530,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15556,7 +15556,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15582,7 +15582,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15608,7 +15608,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15634,7 +15634,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15660,7 +15660,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15686,7 +15686,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15712,7 +15712,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15738,7 +15738,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15764,7 +15764,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15790,7 +15790,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15816,7 +15816,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15842,7 +15842,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15868,7 +15868,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15894,7 +15894,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15920,7 +15920,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15946,7 +15946,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15972,7 +15972,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15998,7 +15998,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16024,7 +16024,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16050,7 +16050,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16076,7 +16076,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16102,7 +16102,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16128,7 +16128,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16154,7 +16154,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16232,7 +16232,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16258,7 +16258,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16284,7 +16284,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16310,7 +16310,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16336,7 +16336,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16388,7 +16388,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16414,7 +16414,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16466,7 +16466,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16492,7 +16492,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16518,7 +16518,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16570,7 +16570,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16622,7 +16622,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16648,7 +16648,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16674,7 +16674,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16700,7 +16700,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16726,7 +16726,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16752,7 +16752,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16778,7 +16778,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16804,7 +16804,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16830,7 +16830,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16856,7 +16856,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16882,7 +16882,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16908,7 +16908,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16934,7 +16934,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16960,7 +16960,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16986,7 +16986,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17012,7 +17012,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17038,7 +17038,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17064,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17090,7 +17090,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17116,7 +17116,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17142,7 +17142,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17168,7 +17168,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17194,7 +17194,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17220,7 +17220,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17246,7 +17246,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17272,7 +17272,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17298,7 +17298,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17324,7 +17324,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17350,7 +17350,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17376,7 +17376,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17402,7 +17402,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17454,7 +17454,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17532,7 +17532,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17558,7 +17558,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17584,7 +17584,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17662,7 +17662,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17714,7 +17714,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17792,7 +17792,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17818,7 +17818,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17844,7 +17844,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18234,7 +18234,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18286,7 +18286,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18312,7 +18312,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18494,7 +18494,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18572,7 +18572,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18598,7 +18598,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19144,7 +19144,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20002,7 +20002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20054,7 +20054,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20314,7 +20314,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20652,7 +20652,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20730,7 +20730,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20912,7 +20912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20938,7 +20938,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -59114,7 +59114,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6496296296</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>3288</v>
@@ -59126,7 +59126,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="E2161" t="n">
-        <v>1.80499994754791</v>
+        <v>1.80999994277954</v>
       </c>
       <c r="F2161" t="n">
         <v>1.82000005245209</v>
@@ -59135,6 +59135,32 @@
         <v>866</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6428009259</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>12043</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>1.82500004768372</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>1.82000005245209</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>1.82000005245209</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>1.82500004768372</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>851</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">2.96581768989563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00149416923523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94410133361816</t>
+    <t xml:space="preserve">3.00149440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94410157203674</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515758514404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93169212341309</t>
+    <t xml:space="preserve">2.93169236183167</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720363616943</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">2.79984354972839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70677423477173</t>
+    <t xml:space="preserve">2.70677399635315</t>
   </si>
   <si>
     <t xml:space="preserve">2.78433203697205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83862233161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85413432121277</t>
+    <t xml:space="preserve">2.83862257003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85413455963135</t>
   </si>
   <si>
     <t xml:space="preserve">2.84637856483459</t>
@@ -89,79 +89,79 @@
     <t xml:space="preserve">2.80604839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86499261856079</t>
+    <t xml:space="preserve">2.86499238014221</t>
   </si>
   <si>
     <t xml:space="preserve">2.79363918304443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82000875473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70987629890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941367149353</t>
+    <t xml:space="preserve">2.82000851631165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75486016273499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709876537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941390991211</t>
   </si>
   <si>
     <t xml:space="preserve">2.51287913322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44152545928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54855561256409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248322486877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67264890670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69901823997498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61680674552917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77657651901245</t>
+    <t xml:space="preserve">2.44152569770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54855608940125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248346328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67264842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69901847839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61680698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77657604217529</t>
   </si>
   <si>
     <t xml:space="preserve">2.81380414962769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624610900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72538781166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73314380645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195509910583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281339645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6912624835968</t>
+    <t xml:space="preserve">2.73624634742737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72538805007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73314356803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281363487244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69126224517822</t>
   </si>
   <si>
     <t xml:space="preserve">2.71608114242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73469495773315</t>
+    <t xml:space="preserve">2.73469519615173</t>
   </si>
   <si>
     <t xml:space="preserve">2.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79829239845276</t>
+    <t xml:space="preserve">2.79829263687134</t>
   </si>
   <si>
     <t xml:space="preserve">2.76726937294006</t>
@@ -170,151 +170,151 @@
     <t xml:space="preserve">2.7222855091095</t>
   </si>
   <si>
+    <t xml:space="preserve">2.86964583396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83086681365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75330877304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74865508079529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416707038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76571798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75020670890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641107559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78278088569641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79208779335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81225275993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89291334152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93014097213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842485427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92458248138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257241249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89226675033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501437187195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80663013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8292510509491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77916169166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77593040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78724074363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74684572219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803030967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135095596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90196180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91165685653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567770957947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445672988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0296094417572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02799320220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698804855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98275136947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205140113831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94074106216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89873027801514</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.8696460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83086681365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75330877304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74865555763245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416707038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76571822166443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7502064704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641083717346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037167549133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78278112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7920880317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84327602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81225299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89291334152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93014121055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842461585999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92458295822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257217407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89226722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501413345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80663013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82925128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77916169166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77592992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78724074363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955671310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74684596061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80339860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135119438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90196180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91165637969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528292655945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567747116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02960920333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02799344062805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698828697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9827516078949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205140113831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94074082374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94558811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89873027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86964583396912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93750929832458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85833549499512</t>
+    <t xml:space="preserve">2.91811966896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93750905990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8583357334137</t>
   </si>
   <si>
     <t xml:space="preserve">2.8276355266571</t>
@@ -323,31 +323,28 @@
     <t xml:space="preserve">2.87449336051941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90842509269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96013045310974</t>
+    <t xml:space="preserve">2.96013021469116</t>
   </si>
   <si>
     <t xml:space="preserve">2.95689845085144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90519332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94720411300659</t>
+    <t xml:space="preserve">2.905193567276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881987571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
     <t xml:space="preserve">2.98113560676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89388298988342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90680932998657</t>
+    <t xml:space="preserve">2.89388275146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90680885314941</t>
   </si>
   <si>
     <t xml:space="preserve">2.87772488594055</t>
@@ -356,16 +353,16 @@
     <t xml:space="preserve">2.84379315376282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85025668144226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83571434020996</t>
+    <t xml:space="preserve">2.85025644302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83571410179138</t>
   </si>
   <si>
     <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86641454696655</t>
+    <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.87934064865112</t>
@@ -377,67 +374,67 @@
     <t xml:space="preserve">2.91327214241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9795196056366</t>
+    <t xml:space="preserve">2.97951984405518</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768825531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08616232872009</t>
+    <t xml:space="preserve">3.08616209030151</t>
   </si>
   <si>
     <t xml:space="preserve">3.11524605751038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10232019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0780827999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314639091492</t>
+    <t xml:space="preserve">3.10231971740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07808303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314615249634</t>
   </si>
   <si>
     <t xml:space="preserve">3.00537252426147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99890923500061</t>
+    <t xml:space="preserve">2.99890899658203</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97305655479431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88418769836426</t>
+    <t xml:space="preserve">2.97305679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88418793678284</t>
   </si>
   <si>
     <t xml:space="preserve">2.93104600906372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95851445198059</t>
+    <t xml:space="preserve">2.95851469039917</t>
   </si>
   <si>
     <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93589353561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93427753448486</t>
+    <t xml:space="preserve">2.93589329719543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93427729606628</t>
   </si>
   <si>
     <t xml:space="preserve">2.90357756614685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98759865760803</t>
+    <t xml:space="preserve">2.98759841918945</t>
   </si>
   <si>
     <t xml:space="preserve">3.01021981239319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99406170845032</t>
+    <t xml:space="preserve">2.99406218528748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05384612083435</t>
@@ -446,25 +443,25 @@
     <t xml:space="preserve">2.82117223739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98921465873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96659350395203</t>
+    <t xml:space="preserve">2.9892144203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96659326553345</t>
   </si>
   <si>
     <t xml:space="preserve">2.93912506103516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9423565864563</t>
+    <t xml:space="preserve">2.94235634803772</t>
   </si>
   <si>
     <t xml:space="preserve">2.83733010292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84217715263367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83409857749939</t>
+    <t xml:space="preserve">2.84217739105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83409833908081</t>
   </si>
   <si>
     <t xml:space="preserve">2.77108287811279</t>
@@ -473,16 +470,16 @@
     <t xml:space="preserve">2.72260880470276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81147742271423</t>
+    <t xml:space="preserve">2.81147766113281</t>
   </si>
   <si>
     <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70321941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69837212562561</t>
+    <t xml:space="preserve">2.70321917533875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69837188720703</t>
   </si>
   <si>
     <t xml:space="preserve">2.74522995948792</t>
@@ -491,7 +488,7 @@
     <t xml:space="preserve">2.74361419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76946663856506</t>
+    <t xml:space="preserve">2.76946687698364</t>
   </si>
   <si>
     <t xml:space="preserve">2.82440376281738</t>
@@ -500,19 +497,19 @@
     <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80016684532166</t>
+    <t xml:space="preserve">2.80016660690308</t>
   </si>
   <si>
     <t xml:space="preserve">2.8179407119751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85995101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94397258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96982526779175</t>
+    <t xml:space="preserve">2.85995125770569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94397234916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96982502937317</t>
   </si>
   <si>
     <t xml:space="preserve">2.9682092666626</t>
@@ -527,43 +524,43 @@
     <t xml:space="preserve">3.02476191520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99729347229004</t>
+    <t xml:space="preserve">2.99729323387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.01829862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0150671005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00214076042175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0199146270752</t>
+    <t xml:space="preserve">3.01506733894348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00214099884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01991438865662</t>
   </si>
   <si>
     <t xml:space="preserve">3.06030917167664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06838846206665</t>
+    <t xml:space="preserve">3.06838822364807</t>
   </si>
   <si>
     <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1427149772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542549133301</t>
+    <t xml:space="preserve">3.14271473884583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542525291443</t>
   </si>
   <si>
     <t xml:space="preserve">3.2315833568573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25582051277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25905179977417</t>
+    <t xml:space="preserve">3.25582003593445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25905156135559</t>
   </si>
   <si>
     <t xml:space="preserve">3.28652000427246</t>
@@ -572,25 +569,25 @@
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625144958496</t>
+    <t xml:space="preserve">3.13625168800354</t>
   </si>
   <si>
     <t xml:space="preserve">3.1443305015564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1540253162384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14594650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28813624382019</t>
+    <t xml:space="preserve">3.15402555465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14594602584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28813576698303</t>
   </si>
   <si>
     <t xml:space="preserve">3.33661007881165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3818519115448</t>
+    <t xml:space="preserve">3.38185143470764</t>
   </si>
   <si>
     <t xml:space="preserve">3.3931622505188</t>
@@ -599,46 +596,46 @@
     <t xml:space="preserve">3.56120467185974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57089924812317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343152046204</t>
+    <t xml:space="preserve">3.57089996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827833175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343128204346</t>
   </si>
   <si>
     <t xml:space="preserve">3.506267786026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56281971931458</t>
+    <t xml:space="preserve">3.56281995773315</t>
   </si>
   <si>
     <t xml:space="preserve">3.50788354873657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50303602218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32045197486877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51434707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47395253181458</t>
+    <t xml:space="preserve">3.50303626060486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32045149803162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44971561431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51434683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47395205497742</t>
   </si>
   <si>
     <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52752637863159</t>
+    <t xml:space="preserve">3.52752661705017</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
@@ -647,58 +644,58 @@
     <t xml:space="preserve">3.51580667495728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59951710700989</t>
+    <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
     <t xml:space="preserve">3.62965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68155193328857</t>
+    <t xml:space="preserve">3.68155169487</t>
   </si>
   <si>
     <t xml:space="preserve">3.7066650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67318081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200364112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901665687561</t>
+    <t xml:space="preserve">3.6731812953949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78200387954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901713371277</t>
   </si>
   <si>
     <t xml:space="preserve">3.97620987892151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00132369995117</t>
+    <t xml:space="preserve">4.00132322311401</t>
   </si>
   <si>
     <t xml:space="preserve">4.05154895782471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02643585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93268132209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8724102973938</t>
+    <t xml:space="preserve">4.02643632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93268156051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87240982055664</t>
   </si>
   <si>
     <t xml:space="preserve">3.76693606376648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83222985267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80879092216492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92933249473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9176139831543</t>
+    <t xml:space="preserve">3.83222961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879068374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9293327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91761302947998</t>
   </si>
   <si>
     <t xml:space="preserve">3.84394860267639</t>
@@ -707,196 +704,196 @@
     <t xml:space="preserve">3.85232019424438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84562277793884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064506530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458170890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83055543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94272613525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94607472419739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109724998474</t>
+    <t xml:space="preserve">3.84562301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064554214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458123207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83055567741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924310684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94272661209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109701156616</t>
   </si>
   <si>
     <t xml:space="preserve">3.93100690841675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93435478210449</t>
+    <t xml:space="preserve">3.93435525894165</t>
   </si>
   <si>
     <t xml:space="preserve">3.92598438262939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87743282318115</t>
+    <t xml:space="preserve">3.87743258476257</t>
   </si>
   <si>
     <t xml:space="preserve">3.77698111534119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79372262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71671032905579</t>
+    <t xml:space="preserve">3.79372310638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71671009063721</t>
   </si>
   <si>
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76861000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508120536804</t>
+    <t xml:space="preserve">3.73512601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76860952377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508096694946</t>
   </si>
   <si>
     <t xml:space="preserve">3.65978813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55933547019958</t>
+    <t xml:space="preserve">3.55933570861816</t>
   </si>
   <si>
     <t xml:space="preserve">3.65811324119568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68657422065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60788702964783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56603312492371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797808647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5744035243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64974236488342</t>
+    <t xml:space="preserve">3.68657445907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60788726806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56603264808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6279776096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440400123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.649742603302</t>
   </si>
   <si>
     <t xml:space="preserve">3.64806795120239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64137172698975</t>
+    <t xml:space="preserve">3.64137148857117</t>
   </si>
   <si>
     <t xml:space="preserve">3.70499086380005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66648435592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6798779964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65643954277039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005820274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73680067062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69996786117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70164251327515</t>
+    <t xml:space="preserve">3.66648459434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67987775802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65643906593323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005867958069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73680114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69996881484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70164227485657</t>
   </si>
   <si>
     <t xml:space="preserve">3.72173285484314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79037499427795</t>
+    <t xml:space="preserve">3.7903745174408</t>
   </si>
   <si>
     <t xml:space="preserve">3.7970712184906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78870034217834</t>
+    <t xml:space="preserve">3.78870010375977</t>
   </si>
   <si>
     <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77530717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539752006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535151481628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75019431114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390378952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11014556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548440933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25245189666748</t>
+    <t xml:space="preserve">3.77530670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539704322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535199165344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75019407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390331268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806545257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11014604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25245237350464</t>
   </si>
   <si>
     <t xml:space="preserve">4.26919412612915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31104898452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290384292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2733793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34453248977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29849243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30267810821533</t>
+    <t xml:space="preserve">4.31104946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27337980270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34453296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29849290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30267763137817</t>
   </si>
   <si>
     <t xml:space="preserve">4.36546039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3361611366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37801694869995</t>
+    <t xml:space="preserve">4.33616161346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37801647186279</t>
   </si>
   <si>
     <t xml:space="preserve">4.44498443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4366135597229</t>
+    <t xml:space="preserve">4.43661403656006</t>
   </si>
   <si>
     <t xml:space="preserve">4.49939584732056</t>
@@ -911,7 +908,7 @@
     <t xml:space="preserve">4.57473421096802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68774223327637</t>
+    <t xml:space="preserve">4.68774271011353</t>
   </si>
   <si>
     <t xml:space="preserve">4.65844440460205</t>
@@ -926,7 +923,7 @@
     <t xml:space="preserve">4.78400850296021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83004903793335</t>
+    <t xml:space="preserve">4.83004856109619</t>
   </si>
   <si>
     <t xml:space="preserve">4.82167816162109</t>
@@ -935,25 +932,25 @@
     <t xml:space="preserve">4.8802752494812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86353302001953</t>
+    <t xml:space="preserve">4.86353254318237</t>
   </si>
   <si>
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73796796798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71285581588745</t>
+    <t xml:space="preserve">4.84260606765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73796844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71285533905029</t>
   </si>
   <si>
     <t xml:space="preserve">4.6626296043396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52869367599487</t>
+    <t xml:space="preserve">4.52869415283203</t>
   </si>
   <si>
     <t xml:space="preserve">4.57054948806763</t>
@@ -965,22 +962,22 @@
     <t xml:space="preserve">4.77982330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81330728530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03095293045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13977432250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19000101089478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26115417480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28626680374146</t>
+    <t xml:space="preserve">4.81330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03095197677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13977479934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19000053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26115369796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2862663269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.31975078582764</t>
@@ -989,13 +986,13 @@
     <t xml:space="preserve">5.31556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601657867432</t>
+    <t xml:space="preserve">5.41601705551147</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4411301612854</t>
+    <t xml:space="preserve">5.44112968444824</t>
   </si>
   <si>
     <t xml:space="preserve">5.49135541915894</t>
@@ -1007,10 +1004,10 @@
     <t xml:space="preserve">5.43275880813599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54995203018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53321075439453</t>
+    <t xml:space="preserve">5.54995250701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53321027755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.50809764862061</t>
@@ -1022,34 +1019,34 @@
     <t xml:space="preserve">5.65877532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62529039382935</t>
+    <t xml:space="preserve">5.6252908706665</t>
   </si>
   <si>
     <t xml:space="preserve">5.65040349960327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62947654724121</t>
+    <t xml:space="preserve">5.62947607040405</t>
   </si>
   <si>
     <t xml:space="preserve">5.59180736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57506513595581</t>
+    <t xml:space="preserve">5.57506561279297</t>
   </si>
   <si>
     <t xml:space="preserve">5.60854911804199</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63366174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69225883483887</t>
+    <t xml:space="preserve">5.63366222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69225931167603</t>
   </si>
   <si>
     <t xml:space="preserve">5.70900106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42438745498657</t>
+    <t xml:space="preserve">5.42438793182373</t>
   </si>
   <si>
     <t xml:space="preserve">5.55832290649414</t>
@@ -1061,40 +1058,40 @@
     <t xml:space="preserve">5.15651655197144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07280683517456</t>
+    <t xml:space="preserve">5.07280731201172</t>
   </si>
   <si>
     <t xml:space="preserve">5.00583934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08954858779907</t>
+    <t xml:space="preserve">5.08954954147339</t>
   </si>
   <si>
     <t xml:space="preserve">5.2234845161438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95561408996582</t>
+    <t xml:space="preserve">4.95561361312866</t>
   </si>
   <si>
     <t xml:space="preserve">4.98909711837769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02258157730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78819417953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80493545532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77145147323608</t>
+    <t xml:space="preserve">5.02258110046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78819370269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80493593215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7714524269104</t>
   </si>
   <si>
     <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67100048065186</t>
+    <t xml:space="preserve">4.6710000038147</t>
   </si>
   <si>
     <t xml:space="preserve">4.75471019744873</t>
@@ -1103,28 +1100,28 @@
     <t xml:space="preserve">4.38638734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47009801864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83842039108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93887138366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90538740158081</t>
+    <t xml:space="preserve">4.47009706497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83841991424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93887186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90538787841797</t>
   </si>
   <si>
     <t xml:space="preserve">4.52032327651978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45335531234741</t>
+    <t xml:space="preserve">4.45335578918457</t>
   </si>
   <si>
     <t xml:space="preserve">4.60403251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65425825119019</t>
+    <t xml:space="preserve">4.65425872802734</t>
   </si>
   <si>
     <t xml:space="preserve">4.53706550598145</t>
@@ -1133,13 +1130,13 @@
     <t xml:space="preserve">4.55380725860596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701204299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63157606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429452896118</t>
+    <t xml:space="preserve">4.59701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63157653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
@@ -1154,22 +1151,22 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063314437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363327026367</t>
+    <t xml:space="preserve">4.90413188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8506326675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54746770858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28888654708862</t>
+    <t xml:space="preserve">4.5474681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28888702392578</t>
   </si>
   <si>
     <t xml:space="preserve">4.24430370330811</t>
@@ -1187,7 +1184,7 @@
     <t xml:space="preserve">4.08380460739136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05705499649048</t>
+    <t xml:space="preserve">4.05705451965332</t>
   </si>
   <si>
     <t xml:space="preserve">3.96788835525513</t>
@@ -1208,7 +1205,7 @@
     <t xml:space="preserve">3.75389003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62905788421631</t>
+    <t xml:space="preserve">3.62905764579773</t>
   </si>
   <si>
     <t xml:space="preserve">3.70039081573486</t>
@@ -1223,7 +1220,7 @@
     <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66472434997559</t>
+    <t xml:space="preserve">3.66472411155701</t>
   </si>
   <si>
     <t xml:space="preserve">4.11055469512939</t>
@@ -1259,7 +1256,7 @@
     <t xml:space="preserve">4.23538637161255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17297077178955</t>
+    <t xml:space="preserve">4.17297029495239</t>
   </si>
   <si>
     <t xml:space="preserve">4.13730430603027</t>
@@ -1271,7 +1268,7 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622116088867</t>
+    <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.18188714981079</t>
@@ -1286,7 +1283,7 @@
     <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0213885307312</t>
+    <t xml:space="preserve">4.02138805389404</t>
   </si>
   <si>
     <t xml:space="preserve">4.12838792800903</t>
@@ -1295,7 +1292,7 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330551147461</t>
+    <t xml:space="preserve">3.92330598831177</t>
   </si>
   <si>
     <t xml:space="preserve">3.90547275543213</t>
@@ -1307,7 +1304,7 @@
     <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67364048957825</t>
+    <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
     <t xml:space="preserve">3.63797450065613</t>
@@ -1322,19 +1319,19 @@
     <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61122465133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57555818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339141845703</t>
+    <t xml:space="preserve">3.61122488975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57555842399597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339165687561</t>
   </si>
   <si>
     <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52205872535706</t>
+    <t xml:space="preserve">3.52205848693848</t>
   </si>
   <si>
     <t xml:space="preserve">3.4953088760376</t>
@@ -1352,13 +1349,13 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4507257938385</t>
+    <t xml:space="preserve">3.45072555541992</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372663497925</t>
+    <t xml:space="preserve">3.34372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1370,7 +1367,7 @@
     <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17431116104126</t>
+    <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
     <t xml:space="preserve">3.12081146240234</t>
@@ -1379,7 +1376,7 @@
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056191444397</t>
+    <t xml:space="preserve">3.04056215286255</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1388,217 +1385,220 @@
     <t xml:space="preserve">3.06731176376343</t>
   </si>
   <si>
+    <t xml:space="preserve">3.05839538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164553642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02272891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9603123664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91572952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94247913360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789605140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80873036384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75523066520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63931465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56798195838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68389749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71064782142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706221580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814559936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9246461391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86223006248474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764721870422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8443968296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78198027610779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281458854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11189460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29022693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27239370346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30805993080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214415550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106053352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475613117218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23672723770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2188937664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16539454460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13864469528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1832275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50422549247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5309751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39722609519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4418089389801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42397570610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939286231995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22781038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17998290061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13321828842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515952110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08645367622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09580683708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96486639976501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92745471000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89939594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.05839514732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03164529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02272868156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96031260490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91572952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94247913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789628982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80873036384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75523066520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63931465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5858154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56798195838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68389773368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71064758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79981398582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922922134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814583778381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92464590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86222982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84439659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78198051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281435012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11189484596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29022693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27239370346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33480978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30806016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214415550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1475613117218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23672723770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2188937664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16539454460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1386444568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1832275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50422549247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6825578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5309751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4061427116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39722585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4418089389801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95139598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17998290061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13321828842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515952110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08645367622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09580683708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96486639976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92745471000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89939594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
@@ -6248,7 +6248,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6274,7 +6274,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6300,7 +6300,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6404,7 +6404,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6456,7 +6456,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6482,7 +6482,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6508,7 +6508,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6560,7 +6560,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6638,7 +6638,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6664,7 +6664,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6690,7 +6690,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6768,7 +6768,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6794,7 +6794,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6820,7 +6820,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6846,7 +6846,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6872,7 +6872,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6898,7 +6898,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6924,7 +6924,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6950,7 +6950,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6976,7 +6976,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7080,7 +7080,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7210,7 +7210,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7314,7 +7314,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7366,7 +7366,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7418,7 +7418,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7470,7 +7470,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7496,7 +7496,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7522,7 +7522,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7548,7 +7548,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7574,7 +7574,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7600,7 +7600,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7652,7 +7652,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7678,7 +7678,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7704,7 +7704,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7730,7 +7730,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7756,7 +7756,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7782,7 +7782,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7808,7 +7808,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7834,7 +7834,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7990,7 +7990,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8016,7 +8016,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8042,7 +8042,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8068,7 +8068,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8146,7 +8146,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8172,7 +8172,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8198,7 +8198,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8224,7 +8224,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8250,7 +8250,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8276,7 +8276,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8302,7 +8302,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8354,7 +8354,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8406,7 +8406,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8432,7 +8432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8458,7 +8458,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8510,7 +8510,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8562,7 +8562,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8588,7 +8588,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8614,7 +8614,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8640,7 +8640,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8718,7 +8718,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8744,7 +8744,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8822,7 +8822,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8848,7 +8848,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8926,7 +8926,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8952,7 +8952,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9030,7 +9030,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9056,7 +9056,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9082,7 +9082,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9108,7 +9108,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9160,7 +9160,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9186,7 +9186,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9238,7 +9238,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9264,7 +9264,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9290,7 +9290,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9342,7 +9342,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9368,7 +9368,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9394,7 +9394,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9446,7 +9446,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9472,7 +9472,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9498,7 +9498,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9524,7 +9524,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9576,7 +9576,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9602,7 +9602,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9628,7 +9628,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9654,7 +9654,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9680,7 +9680,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9732,7 +9732,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9758,7 +9758,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9784,7 +9784,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9810,7 +9810,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9836,7 +9836,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9888,7 +9888,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9914,7 +9914,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9940,7 +9940,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9966,7 +9966,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9992,7 +9992,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10018,7 +10018,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10148,7 +10148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10174,7 +10174,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10200,7 +10200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10226,7 +10226,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10252,7 +10252,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10278,7 +10278,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10304,7 +10304,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10356,7 +10356,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10382,7 +10382,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10408,7 +10408,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10434,7 +10434,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10460,7 +10460,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10486,7 +10486,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10512,7 +10512,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10564,7 +10564,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10720,7 +10720,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10746,7 +10746,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10772,7 +10772,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10798,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10824,7 +10824,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10850,7 +10850,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10876,7 +10876,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10902,7 +10902,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10928,7 +10928,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10954,7 +10954,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10980,7 +10980,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11032,7 +11032,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11058,7 +11058,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11084,7 +11084,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11110,7 +11110,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11136,7 +11136,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11162,7 +11162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11188,7 +11188,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11214,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11240,7 +11240,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11266,7 +11266,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11292,7 +11292,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11318,7 +11318,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11344,7 +11344,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11370,7 +11370,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11396,7 +11396,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11422,7 +11422,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11448,7 +11448,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11474,7 +11474,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11500,7 +11500,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11526,7 +11526,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11552,7 +11552,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11578,7 +11578,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11604,7 +11604,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11630,7 +11630,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11656,7 +11656,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11682,7 +11682,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11708,7 +11708,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11734,7 +11734,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11760,7 +11760,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11786,7 +11786,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11838,7 +11838,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11864,7 +11864,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11890,7 +11890,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11916,7 +11916,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11942,7 +11942,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11968,7 +11968,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11994,7 +11994,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12020,7 +12020,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12046,7 +12046,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12072,7 +12072,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12098,7 +12098,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12124,7 +12124,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12150,7 +12150,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12176,7 +12176,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12202,7 +12202,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12228,7 +12228,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12254,7 +12254,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12280,7 +12280,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12306,7 +12306,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12332,7 +12332,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12358,7 +12358,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12384,7 +12384,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12410,7 +12410,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12436,7 +12436,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12462,7 +12462,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12488,7 +12488,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12514,7 +12514,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12540,7 +12540,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12566,7 +12566,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12592,7 +12592,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12618,7 +12618,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12644,7 +12644,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12670,7 +12670,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12696,7 +12696,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12722,7 +12722,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12800,7 +12800,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12826,7 +12826,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12852,7 +12852,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12878,7 +12878,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12904,7 +12904,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12930,7 +12930,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12956,7 +12956,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12982,7 +12982,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13008,7 +13008,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13034,7 +13034,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13060,7 +13060,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13086,7 +13086,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13112,7 +13112,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13138,7 +13138,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13164,7 +13164,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13190,7 +13190,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13216,7 +13216,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13242,7 +13242,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13268,7 +13268,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13294,7 +13294,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13320,7 +13320,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13346,7 +13346,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13398,7 +13398,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13424,7 +13424,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13450,7 +13450,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13476,7 +13476,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13502,7 +13502,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13528,7 +13528,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13554,7 +13554,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13606,7 +13606,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13632,7 +13632,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13658,7 +13658,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13684,7 +13684,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13710,7 +13710,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13736,7 +13736,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13762,7 +13762,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13788,7 +13788,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13814,7 +13814,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13840,7 +13840,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13866,7 +13866,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13892,7 +13892,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13918,7 +13918,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13944,7 +13944,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13970,7 +13970,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13996,7 +13996,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14022,7 +14022,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14048,7 +14048,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14074,7 +14074,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14100,7 +14100,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14126,7 +14126,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14152,7 +14152,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14178,7 +14178,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14204,7 +14204,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14230,7 +14230,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14256,7 +14256,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14282,7 +14282,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14308,7 +14308,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14334,7 +14334,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14360,7 +14360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14386,7 +14386,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14412,7 +14412,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14438,7 +14438,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14464,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14490,7 +14490,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14516,7 +14516,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14542,7 +14542,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14568,7 +14568,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14594,7 +14594,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14620,7 +14620,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14646,7 +14646,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14672,7 +14672,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14698,7 +14698,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14724,7 +14724,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14750,7 +14750,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14776,7 +14776,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14802,7 +14802,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14828,7 +14828,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14854,7 +14854,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14906,7 +14906,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14932,7 +14932,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14984,7 +14984,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15010,7 +15010,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15036,7 +15036,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15062,7 +15062,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15088,7 +15088,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15114,7 +15114,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15140,7 +15140,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15166,7 +15166,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15192,7 +15192,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15244,7 +15244,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15322,7 +15322,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15348,7 +15348,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15374,7 +15374,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15400,7 +15400,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15426,7 +15426,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15452,7 +15452,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15478,7 +15478,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15504,7 +15504,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15530,7 +15530,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15556,7 +15556,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15582,7 +15582,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15608,7 +15608,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15634,7 +15634,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15660,7 +15660,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15686,7 +15686,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15712,7 +15712,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15738,7 +15738,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15764,7 +15764,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15790,7 +15790,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15816,7 +15816,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15842,7 +15842,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15868,7 +15868,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15894,7 +15894,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15920,7 +15920,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15946,7 +15946,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15972,7 +15972,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15998,7 +15998,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16024,7 +16024,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16050,7 +16050,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16076,7 +16076,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16102,7 +16102,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16128,7 +16128,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16154,7 +16154,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16232,7 +16232,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16258,7 +16258,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16284,7 +16284,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16310,7 +16310,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16336,7 +16336,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16388,7 +16388,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16414,7 +16414,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16466,7 +16466,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16492,7 +16492,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16518,7 +16518,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16570,7 +16570,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16622,7 +16622,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16648,7 +16648,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16674,7 +16674,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16700,7 +16700,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16726,7 +16726,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16752,7 +16752,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16778,7 +16778,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16804,7 +16804,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16830,7 +16830,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16856,7 +16856,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16882,7 +16882,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16908,7 +16908,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16934,7 +16934,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16960,7 +16960,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16986,7 +16986,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17012,7 +17012,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17038,7 +17038,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17064,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17090,7 +17090,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17116,7 +17116,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17142,7 +17142,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17168,7 +17168,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17194,7 +17194,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17220,7 +17220,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17246,7 +17246,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17272,7 +17272,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17298,7 +17298,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17324,7 +17324,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17350,7 +17350,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17376,7 +17376,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17402,7 +17402,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17454,7 +17454,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17532,7 +17532,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17558,7 +17558,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17584,7 +17584,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17662,7 +17662,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17714,7 +17714,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17792,7 +17792,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17818,7 +17818,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17844,7 +17844,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18234,7 +18234,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18286,7 +18286,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18312,7 +18312,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18494,7 +18494,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18572,7 +18572,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18598,7 +18598,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19144,7 +19144,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20002,7 +20002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20054,7 +20054,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20314,7 +20314,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20652,7 +20652,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20730,7 +20730,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20912,7 +20912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20938,7 +20938,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -59140,7 +59140,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6428009259</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>12043</v>
@@ -59161,6 +59161,32 @@
         <v>851</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6495138889</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>14515</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>1.83500003814697</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>1.82500004768372</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>1.82500004768372</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>1.83000004291534</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>852</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9859824180603</t>
+    <t xml:space="preserve">2.98598265647888</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96581768989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00149416923523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94410181045532</t>
+    <t xml:space="preserve">2.96581745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00149464607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94410109519958</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515758514404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93169212341309</t>
+    <t xml:space="preserve">2.93169260025024</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720363616943</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">2.92393660545349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80139470100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984354972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70677399635315</t>
+    <t xml:space="preserve">2.80139493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984378814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70677423477173</t>
   </si>
   <si>
     <t xml:space="preserve">2.78433203697205</t>
@@ -83,22 +83,22 @@
     <t xml:space="preserve">2.85413455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84637832641602</t>
+    <t xml:space="preserve">2.84637856483459</t>
   </si>
   <si>
     <t xml:space="preserve">2.80604839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86499261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79363942146301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82000875473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75485992431641</t>
+    <t xml:space="preserve">2.86499214172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79363894462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82000851631165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75486040115356</t>
   </si>
   <si>
     <t xml:space="preserve">2.70987629890442</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">2.51287913322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44152545928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54855561256409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248346328735</t>
+    <t xml:space="preserve">2.44152593612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54855585098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248370170593</t>
   </si>
   <si>
     <t xml:space="preserve">2.67264866828918</t>
@@ -128,46 +128,46 @@
     <t xml:space="preserve">2.61680698394775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77657628059387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81380391120911</t>
+    <t xml:space="preserve">2.77657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81380414962769</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624610900879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72538805007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73314380645752</t>
+    <t xml:space="preserve">2.72538781166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73314356803894</t>
   </si>
   <si>
     <t xml:space="preserve">2.68195557594299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281339645386</t>
+    <t xml:space="preserve">2.69281363487244</t>
   </si>
   <si>
     <t xml:space="preserve">2.6912624835968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71608138084412</t>
+    <t xml:space="preserve">2.71608114242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.73469495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74555277824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79829263687134</t>
+    <t xml:space="preserve">2.74555325508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79829239845276</t>
   </si>
   <si>
     <t xml:space="preserve">2.76726937294006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7222855091095</t>
+    <t xml:space="preserve">2.72228574752808</t>
   </si>
   <si>
     <t xml:space="preserve">2.8696460723877</t>
@@ -176,34 +176,34 @@
     <t xml:space="preserve">2.83086705207825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75330877304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74865531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416659355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76571846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75020670890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641107559204</t>
+    <t xml:space="preserve">2.75330901145935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416683197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76571822166443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7502064704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641131401062</t>
   </si>
   <si>
     <t xml:space="preserve">2.77037143707275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78278112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79208755493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84327626228333</t>
+    <t xml:space="preserve">2.78278088569641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79208779335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84327578544617</t>
   </si>
   <si>
     <t xml:space="preserve">2.81225275993347</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">2.89291334152222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93014097213745</t>
+    <t xml:space="preserve">2.93014144897461</t>
   </si>
   <si>
     <t xml:space="preserve">2.90842485427856</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">2.90034604072571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88257217407227</t>
+    <t xml:space="preserve">2.88257241249084</t>
   </si>
   <si>
     <t xml:space="preserve">2.89226698875427</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">2.80663013458252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82925128936768</t>
+    <t xml:space="preserve">2.8292510509491</t>
   </si>
   <si>
     <t xml:space="preserve">2.77916145324707</t>
@@ -245,31 +245,31 @@
     <t xml:space="preserve">2.77593040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78724074363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955647468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74684596061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80339860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135143280029</t>
+    <t xml:space="preserve">2.78724050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74684572219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803030967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135119438171</t>
   </si>
   <si>
     <t xml:space="preserve">2.90196180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91165685653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528292655945</t>
+    <t xml:space="preserve">2.91165661811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528268814087</t>
   </si>
   <si>
     <t xml:space="preserve">2.99567747116089</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">3.02799344062805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00698781013489</t>
+    <t xml:space="preserve">3.00698828697205</t>
   </si>
   <si>
     <t xml:space="preserve">2.98275136947632</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">2.95205140113831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94074082374573</t>
+    <t xml:space="preserve">2.94074106216431</t>
   </si>
   <si>
     <t xml:space="preserve">2.94558811187744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89873027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811943054199</t>
+    <t xml:space="preserve">2.89873003959656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91811966896057</t>
   </si>
   <si>
     <t xml:space="preserve">2.93750905990601</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">2.85833549499512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82763528823853</t>
+    <t xml:space="preserve">2.8276355266571</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449336051941</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">2.96013021469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95689868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90519309043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881987571716</t>
+    <t xml:space="preserve">2.95689845085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90519332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94882011413574</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720387458801</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">2.98113560676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89388298988342</t>
+    <t xml:space="preserve">2.89388251304626</t>
   </si>
   <si>
     <t xml:space="preserve">2.90680909156799</t>
@@ -347,40 +347,40 @@
     <t xml:space="preserve">2.87772488594055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84379291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8502562046051</t>
+    <t xml:space="preserve">2.84379315376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85025644302368</t>
   </si>
   <si>
     <t xml:space="preserve">2.83571410179138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91650390625</t>
+    <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
     <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87934041023254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549851417542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327214241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97951984405518</t>
+    <t xml:space="preserve">2.87934064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9795196056366</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768825531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08616209030151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524605751038</t>
+    <t xml:space="preserve">3.08616185188293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524629592896</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231995582581</t>
@@ -395,76 +395,76 @@
     <t xml:space="preserve">3.00537252426147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99890923500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99083042144775</t>
+    <t xml:space="preserve">2.99890899658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99083018302917</t>
   </si>
   <si>
     <t xml:space="preserve">2.97305679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88418817520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93104600906372</t>
+    <t xml:space="preserve">2.88418769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9310462474823</t>
   </si>
   <si>
     <t xml:space="preserve">2.95851445198059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8906512260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93589353561401</t>
+    <t xml:space="preserve">2.89065146446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93589329719543</t>
   </si>
   <si>
     <t xml:space="preserve">2.93427729606628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357780456543</t>
+    <t xml:space="preserve">2.90357756614685</t>
   </si>
   <si>
     <t xml:space="preserve">2.98759865760803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01022005081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9940619468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05384635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82117223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9892144203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96659374237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93912506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94235634803772</t>
+    <t xml:space="preserve">3.01021981239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99406218528748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05384612083435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82117199897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98921465873718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96659350395203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93912482261658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9423565864563</t>
   </si>
   <si>
     <t xml:space="preserve">2.83733034133911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84217739105225</t>
+    <t xml:space="preserve">2.84217715263367</t>
   </si>
   <si>
     <t xml:space="preserve">2.83409857749939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77108263969421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72260904312134</t>
+    <t xml:space="preserve">2.77108287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72260880470276</t>
   </si>
   <si>
     <t xml:space="preserve">2.81147766113281</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7032196521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69837188720703</t>
+    <t xml:space="preserve">2.70321941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69837212562561</t>
   </si>
   <si>
     <t xml:space="preserve">2.74522995948792</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">2.74361419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76946663856506</t>
+    <t xml:space="preserve">2.76946687698364</t>
   </si>
   <si>
     <t xml:space="preserve">2.82440376281738</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">2.77431440353394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80016684532166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8179407119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85995101928711</t>
+    <t xml:space="preserve">2.80016660690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81794047355652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85995149612427</t>
   </si>
   <si>
     <t xml:space="preserve">2.94397234916687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96982479095459</t>
+    <t xml:space="preserve">2.96982526779175</t>
   </si>
   <si>
     <t xml:space="preserve">2.9682092666626</t>
@@ -518,25 +518,25 @@
     <t xml:space="preserve">3.01183557510376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02476191520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99729347229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01829886436462</t>
+    <t xml:space="preserve">3.02476215362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99729323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01829862594604</t>
   </si>
   <si>
     <t xml:space="preserve">3.01506733894348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00214123725891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0199146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030917167664</t>
+    <t xml:space="preserve">3.00214076042175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01991415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030941009521</t>
   </si>
   <si>
     <t xml:space="preserve">3.06838798522949</t>
@@ -545,19 +545,19 @@
     <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14271450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23158311843872</t>
+    <t xml:space="preserve">3.1427149772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2315833568573</t>
   </si>
   <si>
     <t xml:space="preserve">3.25582027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25905156135559</t>
+    <t xml:space="preserve">3.25905179977417</t>
   </si>
   <si>
     <t xml:space="preserve">3.28652000427246</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">3.19118881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625168800354</t>
+    <t xml:space="preserve">3.13625144958496</t>
   </si>
   <si>
     <t xml:space="preserve">3.1443305015564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1540253162384</t>
+    <t xml:space="preserve">3.15402507781982</t>
   </si>
   <si>
     <t xml:space="preserve">3.14594626426697</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">3.28813600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33660984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38185167312622</t>
+    <t xml:space="preserve">3.33661007881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38185143470764</t>
   </si>
   <si>
     <t xml:space="preserve">3.39316248893738</t>
@@ -593,100 +593,100 @@
     <t xml:space="preserve">3.56120491027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57089924812317</t>
+    <t xml:space="preserve">3.57089948654175</t>
   </si>
   <si>
     <t xml:space="preserve">3.54827857017517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55474162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343152046204</t>
+    <t xml:space="preserve">3.55474185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343104362488</t>
   </si>
   <si>
     <t xml:space="preserve">3.50626802444458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56282043457031</t>
+    <t xml:space="preserve">3.56282067298889</t>
   </si>
   <si>
     <t xml:space="preserve">3.50788354873657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50303649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32045197486877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44971489906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51434659957886</t>
+    <t xml:space="preserve">3.50303626060486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3204517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51434683799744</t>
   </si>
   <si>
     <t xml:space="preserve">3.47395205497742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55766177177429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52752661705017</t>
+    <t xml:space="preserve">3.55766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52752614021301</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51580667495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59951710700989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62965178489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68155169487</t>
+    <t xml:space="preserve">3.51580691337585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59951686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62965202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68155193328857</t>
   </si>
   <si>
     <t xml:space="preserve">3.7066650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67318153381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200364112854</t>
+    <t xml:space="preserve">3.6731812953949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7820041179657</t>
   </si>
   <si>
     <t xml:space="preserve">3.85901689529419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97620987892151</t>
+    <t xml:space="preserve">3.97621035575867</t>
   </si>
   <si>
     <t xml:space="preserve">4.00132322311401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05154895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0264368057251</t>
+    <t xml:space="preserve">4.05154943466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02643585205078</t>
   </si>
   <si>
     <t xml:space="preserve">3.9326810836792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87241005897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7669358253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222985267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80879068374634</t>
+    <t xml:space="preserve">3.87240982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76693606376648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879092216492</t>
   </si>
   <si>
     <t xml:space="preserve">3.9293327331543</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">3.91761302947998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394860267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85232019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.845623254776</t>
+    <t xml:space="preserve">3.84394836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85231995582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84562253952026</t>
   </si>
   <si>
     <t xml:space="preserve">3.85064554214478</t>
@@ -710,25 +710,25 @@
     <t xml:space="preserve">3.98458123207092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83055567741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924310684204</t>
+    <t xml:space="preserve">3.83055543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924263000488</t>
   </si>
   <si>
     <t xml:space="preserve">3.94272661209106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109701156616</t>
+    <t xml:space="preserve">3.94607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109748840332</t>
   </si>
   <si>
     <t xml:space="preserve">3.93100690841675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93435525894165</t>
+    <t xml:space="preserve">3.93435478210449</t>
   </si>
   <si>
     <t xml:space="preserve">3.92598438262939</t>
@@ -749,109 +749,109 @@
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76860976219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508072853088</t>
+    <t xml:space="preserve">3.73512625694275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76861000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508096694946</t>
   </si>
   <si>
     <t xml:space="preserve">3.65978789329529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55933594703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65811347961426</t>
+    <t xml:space="preserve">3.55933570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6581130027771</t>
   </si>
   <si>
     <t xml:space="preserve">3.68657445907593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60788726806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56603264808655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6279776096344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57440400123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64974236488342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64806771278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64137125015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499086380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66648459434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6798779964447</t>
+    <t xml:space="preserve">3.60788750648499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56603288650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797784805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5744035243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64974284172058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64806818962097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64137148857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499110221863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66648435592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67987775802612</t>
   </si>
   <si>
     <t xml:space="preserve">3.65643906593323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72005844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73680090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69996857643127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70164227485657</t>
+    <t xml:space="preserve">3.72005820274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73680067062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6999683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70164251327515</t>
   </si>
   <si>
     <t xml:space="preserve">3.72173261642456</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79037427902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7970712184906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78870010375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78367781639099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77530670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539704322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535151481628</t>
+    <t xml:space="preserve">3.7903745174408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79707098007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78870105743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78367829322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77530741691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535223007202</t>
   </si>
   <si>
     <t xml:space="preserve">3.75019407272339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83390378952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806497573853</t>
+    <t xml:space="preserve">3.83390355110168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806545257568</t>
   </si>
   <si>
     <t xml:space="preserve">4.11014604568481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18548393249512</t>
+    <t xml:space="preserve">4.18548440933228</t>
   </si>
   <si>
     <t xml:space="preserve">4.25245237350464</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">4.35290384292603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27337980270386</t>
+    <t xml:space="preserve">4.2733793258667</t>
   </si>
   <si>
     <t xml:space="preserve">4.34453296661377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29849243164062</t>
+    <t xml:space="preserve">4.29849290847778</t>
   </si>
   <si>
     <t xml:space="preserve">4.30267810821533</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">4.33616161346436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37801599502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44498491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43661403656006</t>
+    <t xml:space="preserve">4.37801694869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.444983959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4366135597229</t>
   </si>
   <si>
     <t xml:space="preserve">4.4993953704834</t>
@@ -902,40 +902,40 @@
     <t xml:space="preserve">4.54543590545654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57473468780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68774271011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65844392776489</t>
+    <t xml:space="preserve">4.57473516464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68774223327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
     <t xml:space="preserve">4.68355655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67518615722656</t>
+    <t xml:space="preserve">4.6751856803894</t>
   </si>
   <si>
     <t xml:space="preserve">4.78400897979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8802752494812</t>
+    <t xml:space="preserve">4.83004903793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88027477264404</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353302001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85516262054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84260606765747</t>
+    <t xml:space="preserve">4.85516214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84260511398315</t>
   </si>
   <si>
     <t xml:space="preserve">4.73796844482422</t>
@@ -944,28 +944,28 @@
     <t xml:space="preserve">4.71285533905029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6626296043396</t>
+    <t xml:space="preserve">4.66263008117676</t>
   </si>
   <si>
     <t xml:space="preserve">4.52869415283203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57054901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67937231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7798228263855</t>
+    <t xml:space="preserve">4.57054948806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67937135696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77982330322266</t>
   </si>
   <si>
     <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03095197677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13977479934692</t>
+    <t xml:space="preserve">5.03095245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13977432250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.19000053405762</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">5.28626680374146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31975030899048</t>
+    <t xml:space="preserve">5.31975078582764</t>
   </si>
   <si>
     <t xml:space="preserve">5.31556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49972677230835</t>
+    <t xml:space="preserve">5.41601705551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49972724914551</t>
   </si>
   <si>
     <t xml:space="preserve">5.44112920761108</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">5.54995250701904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53321075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50809764862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64203214645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65877532958984</t>
+    <t xml:space="preserve">5.53321027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50809812545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64203262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65877485275269</t>
   </si>
   <si>
     <t xml:space="preserve">5.6252908706665</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">5.62947654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59180688858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57506513595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60854911804199</t>
+    <t xml:space="preserve">5.59180784225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57506465911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60854864120483</t>
   </si>
   <si>
     <t xml:space="preserve">5.63366222381592</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">5.42438793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55832290649414</t>
+    <t xml:space="preserve">5.55832242965698</t>
   </si>
   <si>
     <t xml:space="preserve">5.30719470977783</t>
@@ -1055,49 +1055,49 @@
     <t xml:space="preserve">5.15651655197144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07280731201172</t>
+    <t xml:space="preserve">5.07280778884888</t>
   </si>
   <si>
     <t xml:space="preserve">5.00583934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08954954147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22348403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95561361312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98909711837769</t>
+    <t xml:space="preserve">5.08954906463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2234845161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9556131362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.989098072052</t>
   </si>
   <si>
     <t xml:space="preserve">5.02258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78819370269775</t>
+    <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
     <t xml:space="preserve">4.80493593215942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7714524269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70448398590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67100048065186</t>
+    <t xml:space="preserve">4.77145195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70448446273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67100095748901</t>
   </si>
   <si>
     <t xml:space="preserve">4.75470972061157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38638687133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47009754180908</t>
+    <t xml:space="preserve">4.38638782501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47009801864624</t>
   </si>
   <si>
     <t xml:space="preserve">4.83841991424561</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">4.93887138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90538787841797</t>
+    <t xml:space="preserve">4.90538835525513</t>
   </si>
   <si>
     <t xml:space="preserve">4.52032327651978</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">4.60403251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6542592048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53706550598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55380725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59701251983643</t>
+    <t xml:space="preserve">4.65425872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53706502914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5538067817688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59701204299927</t>
   </si>
   <si>
     <t xml:space="preserve">4.63157653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61429405212402</t>
+    <t xml:space="preserve">4.61429452896118</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">4.90413188934326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8506326675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363374710083</t>
+    <t xml:space="preserve">4.85063219070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363327026367</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">4.5474681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888702392578</t>
+    <t xml:space="preserve">4.28888654708862</t>
   </si>
   <si>
     <t xml:space="preserve">4.24430370330811</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">4.08380460739136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05705451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96788835525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87872242927551</t>
+    <t xml:space="preserve">4.05705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96788859367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87872266769409</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1196,19 +1196,19 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280689239502</t>
+    <t xml:space="preserve">3.76280665397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62905764579773</t>
+    <t xml:space="preserve">3.62905788421631</t>
   </si>
   <si>
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.74497365951538</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66472411155701</t>
+    <t xml:space="preserve">3.66472434997559</t>
   </si>
   <si>
     <t xml:space="preserve">4.11055469512939</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">4.36021900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27996969223022</t>
+    <t xml:space="preserve">4.27997016906738</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1238,25 +1238,25 @@
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463844299316</t>
+    <t xml:space="preserve">3.99463868141174</t>
   </si>
   <si>
     <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20863676071167</t>
+    <t xml:space="preserve">4.20863723754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538637161255</t>
+    <t xml:space="preserve">4.23538684844971</t>
   </si>
   <si>
     <t xml:space="preserve">4.17297029495239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13730430603027</t>
+    <t xml:space="preserve">4.13730382919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922176361084</t>
+    <t xml:space="preserve">4.18188762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922128677368</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02138805389404</t>
+    <t xml:space="preserve">4.0213885307312</t>
   </si>
   <si>
     <t xml:space="preserve">4.12838792800903</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630682945251</t>
+    <t xml:space="preserve">3.92330574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547251701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630659103394</t>
   </si>
   <si>
     <t xml:space="preserve">3.70930695533752</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63797450065613</t>
+    <t xml:space="preserve">3.63797426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880833625793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61122488975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57555842399597</t>
+    <t xml:space="preserve">3.54880857467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61122465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57555866241455</t>
   </si>
   <si>
     <t xml:space="preserve">3.59339165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58447480201721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52205848693848</t>
+    <t xml:space="preserve">3.58447456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52205872535706</t>
   </si>
   <si>
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772495269775</t>
+    <t xml:space="preserve">3.55772471427917</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">3.03164553642273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02272891998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9603123664856</t>
+    <t xml:space="preserve">3.02272868156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96031212806702</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.94247913360596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89789605140686</t>
+    <t xml:space="preserve">2.89789628982544</t>
   </si>
   <si>
     <t xml:space="preserve">2.80873036384583</t>
@@ -1418,40 +1418,40 @@
     <t xml:space="preserve">2.56798195838928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68389749526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71064782142639</t>
+    <t xml:space="preserve">2.68389773368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
     <t xml:space="preserve">2.79981374740601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96922922134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814559936523</t>
+    <t xml:space="preserve">2.96922898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706197738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
     <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86223006248474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764721870422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8443968296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78198027610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281458854675</t>
+    <t xml:space="preserve">2.86222982406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764674186707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84439659118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78198051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281435012817</t>
   </si>
   <si>
     <t xml:space="preserve">2.67498111724854</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106053352356</t>
+    <t xml:space="preserve">3.20106077194214</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">3.2188937664032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539454460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13864469528198</t>
+    <t xml:space="preserve">3.16539430618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1386444568634</t>
   </si>
   <si>
     <t xml:space="preserve">3.1832275390625</t>
@@ -1532,16 +1532,16 @@
     <t xml:space="preserve">3.4418089389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939286231995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
+    <t xml:space="preserve">3.42397594451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2278106212616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489544868469</t>
   </si>
   <si>
     <t xml:space="preserve">3.08514499664307</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321828842163</t>
+    <t xml:space="preserve">3.13321805000305</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645367622375</t>
+    <t xml:space="preserve">3.08645391464233</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
@@ -1601,22 +1601,22 @@
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451268196106</t>
+    <t xml:space="preserve">3.11451244354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292492866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716135025024</t>
+    <t xml:space="preserve">2.99292516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716158866882</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104429244995</t>
+    <t xml:space="preserve">2.73104405403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039697647095</t>
+    <t xml:space="preserve">2.74039721488953</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298528671265</t>
+    <t xml:space="preserve">2.70298552513123</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1658,19 +1658,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880946159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68427968025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557383537292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945630073547</t>
+    <t xml:space="preserve">2.61880922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6842794418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557359695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945653915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722170829773</t>
+    <t xml:space="preserve">2.49722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519238948822</t>
+    <t xml:space="preserve">3.15192413330078</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127729415894</t>
+    <t xml:space="preserve">3.16127705574036</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457304000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780866622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81521987915039</t>
+    <t xml:space="preserve">2.82457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780842781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598814964294</t>
+    <t xml:space="preserve">2.28210520744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598791122437</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698894500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1231062412262</t>
+    <t xml:space="preserve">2.06698870658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863669872284</t>
+    <t xml:space="preserve">1.89863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540107250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987061500549</t>
+    <t xml:space="preserve">1.94540119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022433280945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922353744507</t>
+    <t xml:space="preserve">2.17922329902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534083366394</t>
+    <t xml:space="preserve">2.23534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469375610352</t>
+    <t xml:space="preserve">2.24469399452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -59267,7 +59267,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6403125</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>5650</v>
@@ -59288,6 +59288,32 @@
         <v>863</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6494212963</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>13496</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>1.91999995708466</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>1.85000002384186</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>1.91999995708466</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>1.87999999523163</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>856</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96581768989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00149393081665</t>
+    <t xml:space="preserve">2.96581792831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00149416923523</t>
   </si>
   <si>
     <t xml:space="preserve">2.94410157203674</t>
@@ -56,37 +56,37 @@
     <t xml:space="preserve">2.88515758514404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93169236183167</t>
+    <t xml:space="preserve">2.93169212341309</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393660545349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80139470100403</t>
+    <t xml:space="preserve">2.92393684387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80139493942261</t>
   </si>
   <si>
     <t xml:space="preserve">2.79984354972839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70677399635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78433179855347</t>
+    <t xml:space="preserve">2.70677375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78433203697205</t>
   </si>
   <si>
     <t xml:space="preserve">2.83862257003784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85413432121277</t>
+    <t xml:space="preserve">2.85413408279419</t>
   </si>
   <si>
     <t xml:space="preserve">2.84637856483459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80604863166809</t>
+    <t xml:space="preserve">2.80604839324951</t>
   </si>
   <si>
     <t xml:space="preserve">2.86499238014221</t>
@@ -98,40 +98,40 @@
     <t xml:space="preserve">2.82000875473022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75485992431641</t>
+    <t xml:space="preserve">2.75486040115356</t>
   </si>
   <si>
     <t xml:space="preserve">2.70987629890442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55941367149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287913322449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44152545928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54855561256409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248370170593</t>
+    <t xml:space="preserve">2.55941390991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44152569770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54855585098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248346328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.67264866828918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69901823997498</t>
+    <t xml:space="preserve">2.69901847839355</t>
   </si>
   <si>
     <t xml:space="preserve">2.61680674552917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81380414962769</t>
+    <t xml:space="preserve">2.77657628059387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81380391120911</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624610900879</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">2.68195533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281315803528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6912624835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71608114242554</t>
+    <t xml:space="preserve">2.69281339645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69126224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71608138084412</t>
   </si>
   <si>
     <t xml:space="preserve">2.73469495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74555325508118</t>
+    <t xml:space="preserve">2.7455530166626</t>
   </si>
   <si>
     <t xml:space="preserve">2.79829239845276</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">2.76726937294006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72228574752808</t>
+    <t xml:space="preserve">2.7222855091095</t>
   </si>
   <si>
     <t xml:space="preserve">2.86964583396912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83086681365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75330853462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74865555763245</t>
+    <t xml:space="preserve">2.83086705207825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75330877304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74865508079529</t>
   </si>
   <si>
     <t xml:space="preserve">2.76416707038879</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">2.75641107559204</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77037167549133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78278112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7920880317688</t>
+    <t xml:space="preserve">2.77037191390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78278088569641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79208779335022</t>
   </si>
   <si>
     <t xml:space="preserve">2.84327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81225299835205</t>
+    <t xml:space="preserve">2.81225275993347</t>
   </si>
   <si>
     <t xml:space="preserve">2.89291334152222</t>
@@ -227,40 +227,40 @@
     <t xml:space="preserve">2.88257217407227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89226698875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501413345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80663013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8292510509491</t>
+    <t xml:space="preserve">2.89226722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501437187195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80662989616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82925128936768</t>
   </si>
   <si>
     <t xml:space="preserve">2.77916145324707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77592992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78724074363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955671310425</t>
+    <t xml:space="preserve">2.77593016624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78724050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955647468567</t>
   </si>
   <si>
     <t xml:space="preserve">2.74684596061707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80339860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86802983283997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135119438171</t>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803030967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135143280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.9019615650177</t>
@@ -275,25 +275,25 @@
     <t xml:space="preserve">2.99567770957947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03445672988892</t>
+    <t xml:space="preserve">3.03445649147034</t>
   </si>
   <si>
     <t xml:space="preserve">3.02960920333862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02153062820435</t>
+    <t xml:space="preserve">3.02153038978577</t>
   </si>
   <si>
     <t xml:space="preserve">3.02799344062805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00698828697205</t>
+    <t xml:space="preserve">3.00698781013489</t>
   </si>
   <si>
     <t xml:space="preserve">2.98275136947632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95205140113831</t>
+    <t xml:space="preserve">2.95205163955688</t>
   </si>
   <si>
     <t xml:space="preserve">2.94074082374573</t>
@@ -302,40 +302,40 @@
     <t xml:space="preserve">2.94558811187744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89873027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811943054199</t>
+    <t xml:space="preserve">2.89873003959656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91811966896057</t>
   </si>
   <si>
     <t xml:space="preserve">2.93750905990601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85833525657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8276355266571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87449336051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842509269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96013045310974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689845085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90519332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98113536834717</t>
+    <t xml:space="preserve">2.85833549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82763528823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87449312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96013021469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95689868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.905193567276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881987571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94720411300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98113584518433</t>
   </si>
   <si>
     <t xml:space="preserve">2.89388298988342</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">2.90680932998657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87772512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8437933921814</t>
+    <t xml:space="preserve">2.87772488594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84379315376282</t>
   </si>
   <si>
     <t xml:space="preserve">2.85025668144226</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">2.83571434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91650390625</t>
+    <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
     <t xml:space="preserve">2.86641454696655</t>
@@ -368,28 +368,28 @@
     <t xml:space="preserve">2.89549875259399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91327214241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9795196056366</t>
+    <t xml:space="preserve">2.91327238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97951984405518</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768825531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08616232872009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524605751038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10232019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0780827999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314639091492</t>
+    <t xml:space="preserve">3.08616209030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524629592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10231995582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07808303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314615249634</t>
   </si>
   <si>
     <t xml:space="preserve">3.00537252426147</t>
@@ -398,28 +398,28 @@
     <t xml:space="preserve">2.99890923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99083018302917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97305655479431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88418769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93104600906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95851445198059</t>
+    <t xml:space="preserve">2.99083042144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97305679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88418793678284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9310462474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95851421356201</t>
   </si>
   <si>
     <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93589329719543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93427753448486</t>
+    <t xml:space="preserve">2.93589353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93427777290344</t>
   </si>
   <si>
     <t xml:space="preserve">2.90357756614685</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">3.01021981239319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99406170845032</t>
+    <t xml:space="preserve">2.99406218528748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05384612083435</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">2.93912506103516</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9423565864563</t>
+    <t xml:space="preserve">2.94235682487488</t>
   </si>
   <si>
     <t xml:space="preserve">2.83733010292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84217739105225</t>
+    <t xml:space="preserve">2.84217715263367</t>
   </si>
   <si>
     <t xml:space="preserve">2.83409857749939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77108287811279</t>
+    <t xml:space="preserve">2.77108263969421</t>
   </si>
   <si>
     <t xml:space="preserve">2.72260880470276</t>
@@ -470,10 +470,10 @@
     <t xml:space="preserve">2.81147718429565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7290723323822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70321941375732</t>
+    <t xml:space="preserve">2.72907209396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7032196521759</t>
   </si>
   <si>
     <t xml:space="preserve">2.69837212562561</t>
@@ -491,34 +491,34 @@
     <t xml:space="preserve">2.8244035243988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77431440353394</t>
+    <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
     <t xml:space="preserve">2.80016684532166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8179407119751</t>
+    <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
     <t xml:space="preserve">2.85995101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94397258758545</t>
+    <t xml:space="preserve">2.94397234916687</t>
   </si>
   <si>
     <t xml:space="preserve">2.96982526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9682092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.927814245224</t>
+    <t xml:space="preserve">2.96820950508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92781448364258</t>
   </si>
   <si>
     <t xml:space="preserve">3.01183557510376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02476191520691</t>
+    <t xml:space="preserve">3.02476167678833</t>
   </si>
   <si>
     <t xml:space="preserve">2.99729371070862</t>
@@ -533,22 +533,22 @@
     <t xml:space="preserve">3.00214076042175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0199146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030893325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838870048523</t>
+    <t xml:space="preserve">3.01991438865662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030917167664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838846206665</t>
   </si>
   <si>
     <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14271473884583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542525291443</t>
+    <t xml:space="preserve">3.1427149772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542549133301</t>
   </si>
   <si>
     <t xml:space="preserve">3.2315833568573</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625121116638</t>
+    <t xml:space="preserve">3.13625144958496</t>
   </si>
   <si>
     <t xml:space="preserve">3.1443305015564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1540253162384</t>
+    <t xml:space="preserve">3.15402555465698</t>
   </si>
   <si>
     <t xml:space="preserve">3.14594650268555</t>
@@ -584,37 +584,37 @@
     <t xml:space="preserve">3.33660984039307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3818519115448</t>
+    <t xml:space="preserve">3.38185167312622</t>
   </si>
   <si>
     <t xml:space="preserve">3.3931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56120467185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57089972496033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343152046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.506267786026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56282019615173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50788402557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50303602218628</t>
+    <t xml:space="preserve">3.56120443344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57089924812317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343104362488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50626802444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56282067298889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50788354873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50303626060486</t>
   </si>
   <si>
     <t xml:space="preserve">3.32045197486877</t>
@@ -623,52 +623,52 @@
     <t xml:space="preserve">3.44971513748169</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51434659957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47395205497742</t>
+    <t xml:space="preserve">3.51434683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47395253181458</t>
   </si>
   <si>
     <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52752637863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49906516075134</t>
+    <t xml:space="preserve">3.52752685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49906492233276</t>
   </si>
   <si>
     <t xml:space="preserve">3.51580667495728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59951663017273</t>
+    <t xml:space="preserve">3.59951710700989</t>
   </si>
   <si>
     <t xml:space="preserve">3.62965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68155193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7066650390625</t>
+    <t xml:space="preserve">3.68155217170715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70666480064392</t>
   </si>
   <si>
     <t xml:space="preserve">3.67318081855774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78200364112854</t>
+    <t xml:space="preserve">3.78200387954712</t>
   </si>
   <si>
     <t xml:space="preserve">3.85901665687561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97620987892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00132322311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05154943466187</t>
+    <t xml:space="preserve">3.97621035575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00132369995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05154895782471</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
@@ -677,43 +677,43 @@
     <t xml:space="preserve">3.93268132209778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8724102973938</t>
+    <t xml:space="preserve">3.87240958213806</t>
   </si>
   <si>
     <t xml:space="preserve">3.76693606376648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83222985267639</t>
+    <t xml:space="preserve">3.83222937583923</t>
   </si>
   <si>
     <t xml:space="preserve">3.80879092216492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9293327331543</t>
+    <t xml:space="preserve">3.92933249473572</t>
   </si>
   <si>
     <t xml:space="preserve">3.9176139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394907951355</t>
+    <t xml:space="preserve">3.84394860267639</t>
   </si>
   <si>
     <t xml:space="preserve">3.85232019424438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84562277793884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064506530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458170890808</t>
+    <t xml:space="preserve">3.845623254776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064554214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458123207092</t>
   </si>
   <si>
     <t xml:space="preserve">3.83055543899536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90924263000488</t>
+    <t xml:space="preserve">3.90924215316772</t>
   </si>
   <si>
     <t xml:space="preserve">3.94272613525391</t>
@@ -737,37 +737,37 @@
     <t xml:space="preserve">3.87743282318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77698111534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79372262954712</t>
+    <t xml:space="preserve">3.77698087692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79372334480286</t>
   </si>
   <si>
     <t xml:space="preserve">3.71671032905579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6832263469696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73512601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76861000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508120536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978813171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55933547019958</t>
+    <t xml:space="preserve">3.68322658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73512649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76861047744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978765487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55933570861816</t>
   </si>
   <si>
     <t xml:space="preserve">3.65811324119568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68657422065735</t>
+    <t xml:space="preserve">3.68657469749451</t>
   </si>
   <si>
     <t xml:space="preserve">3.60788750648499</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">3.56603312492371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62797808647156</t>
+    <t xml:space="preserve">3.6279776096344</t>
   </si>
   <si>
     <t xml:space="preserve">3.5744035243988</t>
@@ -785,43 +785,43 @@
     <t xml:space="preserve">3.64974236488342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64806795120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64137125015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499134063721</t>
+    <t xml:space="preserve">3.64806842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64137148857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499086380005</t>
   </si>
   <si>
     <t xml:space="preserve">3.66648411750793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6798779964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65643954277039</t>
+    <t xml:space="preserve">3.67987775802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65643882751465</t>
   </si>
   <si>
     <t xml:space="preserve">3.72005867958069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73680067062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6999683380127</t>
+    <t xml:space="preserve">3.7368004322052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69996786117554</t>
   </si>
   <si>
     <t xml:space="preserve">3.70164251327515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72173285484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79037499427795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7970712184906</t>
+    <t xml:space="preserve">3.72173309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79037427902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79707169532776</t>
   </si>
   <si>
     <t xml:space="preserve">3.78870034217834</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77530765533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539752006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535151481628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75019431114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390331268311</t>
+    <t xml:space="preserve">3.77530741691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539728164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535199165344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75019383430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390378952026</t>
   </si>
   <si>
     <t xml:space="preserve">4.01806497573853</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">4.26919412612915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31104898452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290384292603</t>
+    <t xml:space="preserve">4.31104946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290431976318</t>
   </si>
   <si>
     <t xml:space="preserve">4.2733793258667</t>
@@ -872,22 +872,22 @@
     <t xml:space="preserve">4.34453248977661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29849243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30267810821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36546039581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33616161346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37801694869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44498491287231</t>
+    <t xml:space="preserve">4.29849290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30267763137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36545991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3361611366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37801647186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44498443603516</t>
   </si>
   <si>
     <t xml:space="preserve">4.4366135597229</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">4.50358104705811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5454363822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57473421096802</t>
+    <t xml:space="preserve">4.54543590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57473468780518</t>
   </si>
   <si>
     <t xml:space="preserve">4.68774223327637</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68355703353882</t>
+    <t xml:space="preserve">4.68355655670166</t>
   </si>
   <si>
     <t xml:space="preserve">4.67518615722656</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">4.78400897979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83004903793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88027477264404</t>
+    <t xml:space="preserve">4.83004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88027429580688</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353302001953</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73796796798706</t>
+    <t xml:space="preserve">4.842604637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73796844482422</t>
   </si>
   <si>
     <t xml:space="preserve">4.71285533905029</t>
@@ -950,37 +950,37 @@
     <t xml:space="preserve">4.52869367599487</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57054901123047</t>
+    <t xml:space="preserve">4.57054948806763</t>
   </si>
   <si>
     <t xml:space="preserve">4.67937183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77982330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81330728530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03095293045044</t>
+    <t xml:space="preserve">4.7798228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03095245361328</t>
   </si>
   <si>
     <t xml:space="preserve">5.13977479934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000101089478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26115369796753</t>
+    <t xml:space="preserve">5.19000053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">5.28626680374146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31975078582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31556510925293</t>
+    <t xml:space="preserve">5.31975030899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31556558609009</t>
   </si>
   <si>
     <t xml:space="preserve">5.41601657867432</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">5.44112968444824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49135589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52483892440796</t>
+    <t xml:space="preserve">5.49135541915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52483940124512</t>
   </si>
   <si>
     <t xml:space="preserve">5.43275833129883</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">5.54995203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53321075439453</t>
+    <t xml:space="preserve">5.53321027755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.50809764862061</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">5.65877532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62529039382935</t>
+    <t xml:space="preserve">5.62529134750366</t>
   </si>
   <si>
     <t xml:space="preserve">5.65040349960327</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">5.69225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70900106430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42438745498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832290649414</t>
+    <t xml:space="preserve">5.70900058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42438793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5583233833313</t>
   </si>
   <si>
     <t xml:space="preserve">5.30719470977783</t>
@@ -1055,22 +1055,22 @@
     <t xml:space="preserve">5.15651655197144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07280683517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00583982467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08954858779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2234845161438</t>
+    <t xml:space="preserve">5.07280731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00583934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08954906463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22348403930664</t>
   </si>
   <si>
     <t xml:space="preserve">4.95561408996582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98909711837769</t>
+    <t xml:space="preserve">4.98909759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.02258157730103</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493545532227</t>
+    <t xml:space="preserve">4.80493593215942</t>
   </si>
   <si>
     <t xml:space="preserve">4.77145195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70448446273804</t>
+    <t xml:space="preserve">4.70448398590088</t>
   </si>
   <si>
     <t xml:space="preserve">4.67100048065186</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">4.75471019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38638687133789</t>
+    <t xml:space="preserve">4.38638734817505</t>
   </si>
   <si>
     <t xml:space="preserve">4.47009801864624</t>
@@ -1106,40 +1106,40 @@
     <t xml:space="preserve">4.93887138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90538740158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52032327651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45335531234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60403299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65425872802734</t>
+    <t xml:space="preserve">4.90538787841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52032375335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45335578918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60403251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65425825119019</t>
   </si>
   <si>
     <t xml:space="preserve">4.53706550598145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5538067817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59701204299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63157606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429452896118</t>
+    <t xml:space="preserve">4.55380773544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63157653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75254964828491</t>
+    <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1154,19 +1154,19 @@
     <t xml:space="preserve">4.85063314437866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74363327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72580051422119</t>
+    <t xml:space="preserve">4.74363374710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72580003738403</t>
   </si>
   <si>
     <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430370330811</t>
+    <t xml:space="preserve">4.28888607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430322647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788835525513</t>
+    <t xml:space="preserve">3.96788883209229</t>
   </si>
   <si>
     <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0035548210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78063988685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76280689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75389003753662</t>
+    <t xml:space="preserve">4.00355529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7806396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76280665397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7538902759552</t>
   </si>
   <si>
     <t xml:space="preserve">3.62905788421631</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.74497318267822</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538637161255</t>
+    <t xml:space="preserve">4.23538684844971</t>
   </si>
   <si>
     <t xml:space="preserve">4.17297077178955</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">4.18188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03922176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98572206497192</t>
+    <t xml:space="preserve">4.039222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98572158813477</t>
   </si>
   <si>
     <t xml:space="preserve">3.95897197723389</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547275543213</t>
+    <t xml:space="preserve">3.92330598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547251701355</t>
   </si>
   <si>
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70930695533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67364048957825</t>
+    <t xml:space="preserve">3.7093071937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
     <t xml:space="preserve">3.63797450065613</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4507257938385</t>
+    <t xml:space="preserve">3.45072555541992</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997738838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17431116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12081146240234</t>
+    <t xml:space="preserve">3.20997714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17431092262268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12081122398376</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">3.07622838020325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06731176376343</t>
+    <t xml:space="preserve">3.06731200218201</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03164529800415</t>
+    <t xml:space="preserve">3.03164553642273</t>
   </si>
   <si>
     <t xml:space="preserve">3.02272868156433</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247913360596</t>
+    <t xml:space="preserve">2.94247937202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.89789628982544</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.63931465148926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5858154296875</t>
+    <t xml:space="preserve">2.58581519126892</t>
   </si>
   <si>
     <t xml:space="preserve">2.56798195838928</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79981398582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922922134399</t>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922898292542</t>
   </si>
   <si>
     <t xml:space="preserve">2.98706221580505</t>
@@ -1436,19 +1436,19 @@
     <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92464590072632</t>
+    <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
     <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81764698028564</t>
+    <t xml:space="preserve">2.81764674186707</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78198051452637</t>
+    <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281435012817</t>
@@ -1466,16 +1466,16 @@
     <t xml:space="preserve">3.27239370346069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33480978012085</t>
+    <t xml:space="preserve">3.33481001853943</t>
   </si>
   <si>
     <t xml:space="preserve">3.30806016921997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19214415550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106053352356</t>
+    <t xml:space="preserve">3.19214391708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106077194214</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">3.23672723770142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2188937664032</t>
+    <t xml:space="preserve">3.21889400482178</t>
   </si>
   <si>
     <t xml:space="preserve">3.16539454460144</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647792816162</t>
+    <t xml:space="preserve">3.15647768974304</t>
   </si>
   <si>
     <t xml:space="preserve">3.32589340209961</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">3.50422549247742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6825578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580749511719</t>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580773353577</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5309751033783</t>
+    <t xml:space="preserve">3.53097534179688</t>
   </si>
   <si>
     <t xml:space="preserve">3.4061427116394</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">3.42397570610046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37939262390137</t>
+    <t xml:space="preserve">3.37939286231995</t>
   </si>
   <si>
     <t xml:space="preserve">3.22781038284302</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">3.01381230354309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95139598846436</t>
+    <t xml:space="preserve">2.95139575004578</t>
   </si>
   <si>
     <t xml:space="preserve">3.17998290061951</t>
@@ -6248,7 +6248,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6274,7 +6274,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6300,7 +6300,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6404,7 +6404,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6456,7 +6456,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6482,7 +6482,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7418,7 +7418,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8172,7 +8172,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8198,7 +8198,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9784,7 +9784,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -59504,7 +59504,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.544849537</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>11264</v>
@@ -59525,6 +59525,32 @@
         <v>866</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6495138889</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>3801</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>866</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96581768989563</t>
+    <t xml:space="preserve">2.96581792831421</t>
   </si>
   <si>
     <t xml:space="preserve">3.00149440765381</t>
@@ -53,298 +53,298 @@
     <t xml:space="preserve">2.94410181045532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88515734672546</t>
+    <t xml:space="preserve">2.88515758514404</t>
   </si>
   <si>
     <t xml:space="preserve">2.93169236183167</t>
   </si>
   <si>
+    <t xml:space="preserve">2.94720363616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92393636703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80139493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984378814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70677399635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78433203697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83862280845642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85413432121277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84637856483459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86499238014221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79363894462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82000827789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75486016273499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709876537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941390991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287913322449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44152569770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54855561256409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248322486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67264890670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69901823997498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61680674552917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81380391120911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73624610900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72538805007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7331440448761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195557594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281363487244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6912624835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71608090400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73469471931458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7455530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79829239845276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76726937294006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7222855091095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86964583396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83086681365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75330901145935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74865508079529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416730880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76571822166443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75020670890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037167549133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78278112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79208779335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81225299835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89291334152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93014121055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842509269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92458271980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034604072571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257217407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89226722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501437187195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8066303730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82925128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77916169166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77593016624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78724050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955647468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74684572219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86802983283997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135119438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9019615650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91165685653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445649147034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02960920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153038978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02799344062805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698804855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98275136947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94074082374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94558787345886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89873003959656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91811966896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93750905990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85833549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82763528823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87449359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96013021469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95689845085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.905193567276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881987571716</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393660545349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80139493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984354972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70677399635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78433179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83862257003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85413455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84637832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80604791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86499238014221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79363918304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82000851631165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75486040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70987629890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941390991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287913322449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44152569770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54855585098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248346328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67264866828918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69901823997498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61680674552917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77657628059387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81380414962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73624634742737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72538781166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7331440448761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281363487244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6912624835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71608138084412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73469495773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7455530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79829239845276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76726961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72228574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86964583396912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83086681365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75330901145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74865508079529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416683197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76571822166443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7502064704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641107559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037191390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78278088569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79208779335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84327602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81225299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8929135799408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93014144897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842509269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92458271980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257241249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89226698875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501413345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80662989616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82925128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77916169166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77593016624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78724050521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955647468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74684596061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8033983707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135119438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9019615650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91165661811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528292655945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567770957947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445649147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02960920333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153038978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02799367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698828697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98275136947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205140113831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94074082374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94558811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89873003959656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811966896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93750905990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85833549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82763528823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87449359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96013021469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.905193567276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881963729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94720411300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98113560676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89388275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90680909156799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87772512435913</t>
+    <t xml:space="preserve">2.98113584518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89388298988342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90680932998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87772488594055</t>
   </si>
   <si>
     <t xml:space="preserve">2.8437933921814</t>
@@ -359,61 +359,61 @@
     <t xml:space="preserve">2.91650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86641454696655</t>
+    <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.87934064865112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89549875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327238082886</t>
+    <t xml:space="preserve">2.89549851417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327214241028</t>
   </si>
   <si>
     <t xml:space="preserve">2.97951984405518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03768825531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08616209030151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524653434753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10231947898865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07808303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314615249634</t>
+    <t xml:space="preserve">3.03768801689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08616232872009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524605751038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10231971740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07808327674866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314639091492</t>
   </si>
   <si>
     <t xml:space="preserve">3.00537252426147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99890899658203</t>
+    <t xml:space="preserve">2.99890923500061</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97305655479431</t>
+    <t xml:space="preserve">2.97305679321289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88418817520142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93104577064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95851445198059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89065098762512</t>
+    <t xml:space="preserve">2.9310462474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95851421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93589329719543</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">2.93427753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357732772827</t>
+    <t xml:space="preserve">2.90357780456543</t>
   </si>
   <si>
     <t xml:space="preserve">2.98759865760803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01021981239319</t>
+    <t xml:space="preserve">3.01022005081177</t>
   </si>
   <si>
     <t xml:space="preserve">2.9940619468689</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">2.96659326553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93912482261658</t>
+    <t xml:space="preserve">2.93912506103516</t>
   </si>
   <si>
     <t xml:space="preserve">2.94235682487488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83733010292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84217762947083</t>
+    <t xml:space="preserve">2.83732986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84217739105225</t>
   </si>
   <si>
     <t xml:space="preserve">2.83409833908081</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">2.77108263969421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72260856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81147742271423</t>
+    <t xml:space="preserve">2.72260880470276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81147766113281</t>
   </si>
   <si>
     <t xml:space="preserve">2.72907185554504</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">2.69837188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74522995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74361395835876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76946640014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82440376281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77431440353394</t>
+    <t xml:space="preserve">2.74523019790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74361419677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76946663856506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82440400123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
     <t xml:space="preserve">2.80016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81794047355652</t>
+    <t xml:space="preserve">2.8179407119751</t>
   </si>
   <si>
     <t xml:space="preserve">2.85995101928711</t>
@@ -509,52 +509,52 @@
     <t xml:space="preserve">2.96982479095459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9682092666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.927814245224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01183557510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02476191520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99729323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01829862594604</t>
+    <t xml:space="preserve">2.96820902824402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92781448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01183581352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02476167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99729347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01829886436462</t>
   </si>
   <si>
     <t xml:space="preserve">3.0150671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00214099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0199146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030917167664</t>
+    <t xml:space="preserve">3.00214076042175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01991438865662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030941009521</t>
   </si>
   <si>
     <t xml:space="preserve">3.06838822364807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07000422477722</t>
+    <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
     <t xml:space="preserve">3.1427149772644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21542572975159</t>
+    <t xml:space="preserve">3.21542549133301</t>
   </si>
   <si>
     <t xml:space="preserve">3.23158311843872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25582027435303</t>
+    <t xml:space="preserve">3.25582051277161</t>
   </si>
   <si>
     <t xml:space="preserve">3.25905179977417</t>
@@ -566,10 +566,10 @@
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625121116638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1443305015564</t>
+    <t xml:space="preserve">3.13625144958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14433026313782</t>
   </si>
   <si>
     <t xml:space="preserve">3.1540253162384</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">3.14594626426697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28813624382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33660984039307</t>
+    <t xml:space="preserve">3.28813600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33660960197449</t>
   </si>
   <si>
     <t xml:space="preserve">3.3818519115448</t>
@@ -590,22 +590,22 @@
     <t xml:space="preserve">3.3931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56120443344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57089924812317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827904701233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474162101746</t>
+    <t xml:space="preserve">3.56120491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57089948654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474209785461</t>
   </si>
   <si>
     <t xml:space="preserve">3.54343128204346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50626802444458</t>
+    <t xml:space="preserve">3.506267786026</t>
   </si>
   <si>
     <t xml:space="preserve">3.56282043457031</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">3.32045197486877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44971489906311</t>
+    <t xml:space="preserve">3.44971513748169</t>
   </si>
   <si>
     <t xml:space="preserve">3.51434683799744</t>
@@ -632,70 +632,70 @@
     <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52752661705017</t>
+    <t xml:space="preserve">3.52752637863159</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51580691337585</t>
+    <t xml:space="preserve">3.51580715179443</t>
   </si>
   <si>
     <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62965178489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68155217170715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7066650390625</t>
+    <t xml:space="preserve">3.62965202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68155193328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70666527748108</t>
   </si>
   <si>
     <t xml:space="preserve">3.67318081855774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78200364112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97621035575867</t>
+    <t xml:space="preserve">3.7820041179657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901689529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97620987892151</t>
   </si>
   <si>
     <t xml:space="preserve">4.00132369995117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05154895782471</t>
+    <t xml:space="preserve">4.05154848098755</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93268132209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87240958213806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76693558692932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222937583923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8087911605835</t>
+    <t xml:space="preserve">3.9326810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87241005897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76693606376648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222889900208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879092216492</t>
   </si>
   <si>
     <t xml:space="preserve">3.92933225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91761374473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84394907951355</t>
+    <t xml:space="preserve">3.91761326789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84394884109497</t>
   </si>
   <si>
     <t xml:space="preserve">3.85232019424438</t>
@@ -710,79 +710,79 @@
     <t xml:space="preserve">3.98458099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83055520057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924215316772</t>
+    <t xml:space="preserve">3.83055543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924263000488</t>
   </si>
   <si>
     <t xml:space="preserve">3.94272661209106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109724998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93100714683533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93435502052307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92598438262939</t>
+    <t xml:space="preserve">3.94607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109677314758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93100762367249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93435525894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92598509788513</t>
   </si>
   <si>
     <t xml:space="preserve">3.87743258476257</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77698087692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79372358322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71671032905579</t>
+    <t xml:space="preserve">3.77698111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7937228679657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71671009063721</t>
   </si>
   <si>
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512625694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76861023902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508120536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978789329529</t>
+    <t xml:space="preserve">3.73512649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76860976219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978813171387</t>
   </si>
   <si>
     <t xml:space="preserve">3.55933570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65811347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68657469749451</t>
+    <t xml:space="preserve">3.65811324119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68657422065735</t>
   </si>
   <si>
     <t xml:space="preserve">3.60788750648499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56603336334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6279776096344</t>
+    <t xml:space="preserve">3.56603312492371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797784805298</t>
   </si>
   <si>
     <t xml:space="preserve">3.57440328598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.649742603302</t>
+    <t xml:space="preserve">3.64974212646484</t>
   </si>
   <si>
     <t xml:space="preserve">3.64806818962097</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">3.64137148857117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70499062538147</t>
+    <t xml:space="preserve">3.70499086380005</t>
   </si>
   <si>
     <t xml:space="preserve">3.66648411750793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67987775802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65643906593323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005867958069</t>
+    <t xml:space="preserve">3.6798779964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65643930435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005796432495</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680067062378</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">3.69996809959412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70164251327515</t>
+    <t xml:space="preserve">3.70164275169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.72173285484314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79037427902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79707145690918</t>
+    <t xml:space="preserve">3.79037475585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7970712184906</t>
   </si>
   <si>
     <t xml:space="preserve">3.78870034217834</t>
@@ -830,49 +830,49 @@
     <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77530717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539728164673</t>
+    <t xml:space="preserve">3.77530694007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539752006531</t>
   </si>
   <si>
     <t xml:space="preserve">3.78535151481628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75019407272339</t>
+    <t xml:space="preserve">3.75019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">3.83390378952026</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01806545257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1101450920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25245189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26919412612915</t>
+    <t xml:space="preserve">4.01806497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11014556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548488616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25245237350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26919364929199</t>
   </si>
   <si>
     <t xml:space="preserve">4.31104898452759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35290384292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27337980270386</t>
+    <t xml:space="preserve">4.35290336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2733793258667</t>
   </si>
   <si>
     <t xml:space="preserve">4.34453296661377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29849290847778</t>
+    <t xml:space="preserve">4.29849243164062</t>
   </si>
   <si>
     <t xml:space="preserve">4.30267763137817</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">4.36545991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33616161346436</t>
+    <t xml:space="preserve">4.3361611366272</t>
   </si>
   <si>
     <t xml:space="preserve">4.37801647186279</t>
@@ -896,52 +896,52 @@
     <t xml:space="preserve">4.49939584732056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50358104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54543590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57473516464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68774271011353</t>
+    <t xml:space="preserve">4.50358200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5454363822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57473468780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68774223327637</t>
   </si>
   <si>
     <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68355655670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67518663406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78400850296021</t>
+    <t xml:space="preserve">4.68355703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67518615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78400897979736</t>
   </si>
   <si>
     <t xml:space="preserve">4.83004951477051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82167768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88027477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86353254318237</t>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8802752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86353302001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73796844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71285581588745</t>
+    <t xml:space="preserve">4.84260559082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73796796798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71285533905029</t>
   </si>
   <si>
     <t xml:space="preserve">4.6626296043396</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">4.57054901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67937183380127</t>
+    <t xml:space="preserve">4.67937135696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.7798228263855</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03095293045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13977432250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19000053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26115369796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28626680374146</t>
+    <t xml:space="preserve">5.03095245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13977479934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19000101089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26115417480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2862663269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.31975030899048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31556558609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41601610183716</t>
+    <t xml:space="preserve">5.31556510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41601705551147</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44112968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49135494232178</t>
+    <t xml:space="preserve">5.4411301612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
     <t xml:space="preserve">5.52483940124512</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">5.54995250701904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53321075439453</t>
+    <t xml:space="preserve">5.53321027755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.50809717178345</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">5.65877532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62529134750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65040397644043</t>
+    <t xml:space="preserve">5.6252908706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65040349960327</t>
   </si>
   <si>
     <t xml:space="preserve">5.62947654724121</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">5.63366174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69225883483887</t>
+    <t xml:space="preserve">5.69225835800171</t>
   </si>
   <si>
     <t xml:space="preserve">5.70900106430054</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">5.5583233833313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30719470977783</t>
+    <t xml:space="preserve">5.30719423294067</t>
   </si>
   <si>
     <t xml:space="preserve">5.15651702880859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07280683517456</t>
+    <t xml:space="preserve">5.07280731201172</t>
   </si>
   <si>
     <t xml:space="preserve">5.00583934783936</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">5.22348403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95561408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.989098072052</t>
+    <t xml:space="preserve">4.95561361312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98909759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.02258110046387</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493640899658</t>
+    <t xml:space="preserve">4.80493593215942</t>
   </si>
   <si>
     <t xml:space="preserve">4.77145195007324</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67100095748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75470972061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38638782501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47009754180908</t>
+    <t xml:space="preserve">4.67100048065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75471067428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38638734817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47009801864624</t>
   </si>
   <si>
     <t xml:space="preserve">4.83842039108276</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">4.93887138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90538787841797</t>
+    <t xml:space="preserve">4.90538740158081</t>
   </si>
   <si>
     <t xml:space="preserve">4.52032327651978</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60403299331665</t>
+    <t xml:space="preserve">4.60403251647949</t>
   </si>
   <si>
     <t xml:space="preserve">4.65425825119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53706502914429</t>
+    <t xml:space="preserve">4.53706550598145</t>
   </si>
   <si>
     <t xml:space="preserve">4.55380725860596</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">4.59701204299927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63157653808594</t>
+    <t xml:space="preserve">4.63157606124878</t>
   </si>
   <si>
     <t xml:space="preserve">4.61429452896118</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75255012512207</t>
+    <t xml:space="preserve">4.75254964828491</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -59764,7 +59764,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6452893519</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>10678</v>
@@ -59785,6 +59785,32 @@
         <v>854</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6493865741</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>5190</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>861</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98598289489746</t>
+    <t xml:space="preserve">2.98598265647888</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">2.93169236183167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94720363616943</t>
+    <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
     <t xml:space="preserve">2.92393636703491</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">2.80139493942261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79984378814697</t>
+    <t xml:space="preserve">2.79984354972839</t>
   </si>
   <si>
     <t xml:space="preserve">2.70677399635315</t>
@@ -83,31 +83,31 @@
     <t xml:space="preserve">2.85413432121277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84637856483459</t>
+    <t xml:space="preserve">2.84637832641602</t>
   </si>
   <si>
     <t xml:space="preserve">2.80604839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86499238014221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79363894462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82000827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75486016273499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.709876537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941390991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287913322449</t>
+    <t xml:space="preserve">2.86499261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79363918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82000851631165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70987629890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287937164307</t>
   </si>
   <si>
     <t xml:space="preserve">2.44152569770813</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">2.54855561256409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65248322486877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67264890670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69901823997498</t>
+    <t xml:space="preserve">2.65248370170593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67264866828918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69901847839355</t>
   </si>
   <si>
     <t xml:space="preserve">2.61680674552917</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">2.72538805007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7331440448761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195557594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281363487244</t>
+    <t xml:space="preserve">2.73314356803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281339645386</t>
   </si>
   <si>
     <t xml:space="preserve">2.6912624835968</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">2.73469471931458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7455530166626</t>
+    <t xml:space="preserve">2.74555277824402</t>
   </si>
   <si>
     <t xml:space="preserve">2.79829239845276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76726937294006</t>
+    <t xml:space="preserve">2.76726913452148</t>
   </si>
   <si>
     <t xml:space="preserve">2.7222855091095</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">2.75330901145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74865508079529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416730880737</t>
+    <t xml:space="preserve">2.74865531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416707038879</t>
   </si>
   <si>
     <t xml:space="preserve">2.76571822166443</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">2.75020670890808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75641083717346</t>
+    <t xml:space="preserve">2.75641107559204</t>
   </si>
   <si>
     <t xml:space="preserve">2.77037167549133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78278112411499</t>
+    <t xml:space="preserve">2.78278136253357</t>
   </si>
   <si>
     <t xml:space="preserve">2.79208779335022</t>
@@ -209,28 +209,28 @@
     <t xml:space="preserve">2.81225299835205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89291334152222</t>
+    <t xml:space="preserve">2.89291310310364</t>
   </si>
   <si>
     <t xml:space="preserve">2.93014121055603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90842509269714</t>
+    <t xml:space="preserve">2.90842485427856</t>
   </si>
   <si>
     <t xml:space="preserve">2.92458271980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90034604072571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257217407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89226722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501437187195</t>
+    <t xml:space="preserve">2.90034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257241249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89226698875427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501413345337</t>
   </si>
   <si>
     <t xml:space="preserve">2.8066303730011</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">2.77916169166565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77593016624451</t>
+    <t xml:space="preserve">2.77593040466309</t>
   </si>
   <si>
     <t xml:space="preserve">2.78724050521851</t>
@@ -254,40 +254,40 @@
     <t xml:space="preserve">2.74684572219849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8033983707428</t>
+    <t xml:space="preserve">2.80339860916138</t>
   </si>
   <si>
     <t xml:space="preserve">2.86802983283997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92135119438171</t>
+    <t xml:space="preserve">2.92135143280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.9019615650177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91165685653687</t>
+    <t xml:space="preserve">2.91165637969971</t>
   </si>
   <si>
     <t xml:space="preserve">2.95528292655945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99567747116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445649147034</t>
+    <t xml:space="preserve">2.99567770957947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445672988892</t>
   </si>
   <si>
     <t xml:space="preserve">3.02960920333862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02153038978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02799344062805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698804855347</t>
+    <t xml:space="preserve">3.02153062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02799320220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698828697205</t>
   </si>
   <si>
     <t xml:space="preserve">2.98275136947632</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">2.95205116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94074082374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94558787345886</t>
+    <t xml:space="preserve">2.94074106216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94558835029602</t>
   </si>
   <si>
     <t xml:space="preserve">2.89873003959656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811966896057</t>
+    <t xml:space="preserve">2.91811990737915</t>
   </si>
   <si>
     <t xml:space="preserve">2.93750905990601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85833549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82763528823853</t>
+    <t xml:space="preserve">2.85833525657654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82763504981995</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449359893799</t>
@@ -323,40 +323,37 @@
     <t xml:space="preserve">2.96013021469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95689845085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.905193567276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881987571716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94720387458801</t>
+    <t xml:space="preserve">2.95689868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90519332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881963729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.98113584518433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89388298988342</t>
+    <t xml:space="preserve">2.89388275146484</t>
   </si>
   <si>
     <t xml:space="preserve">2.90680932998657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87772488594055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8437933921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85025668144226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83571434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91650390625</t>
+    <t xml:space="preserve">2.87772512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84379363059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85025644302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8357138633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
     <t xml:space="preserve">2.86641430854797</t>
@@ -365,37 +362,37 @@
     <t xml:space="preserve">2.87934064865112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89549851417542</t>
+    <t xml:space="preserve">2.89549875259399</t>
   </si>
   <si>
     <t xml:space="preserve">2.91327214241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97951984405518</t>
+    <t xml:space="preserve">2.9795196056366</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768801689148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08616232872009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524605751038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10231971740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07808327674866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314639091492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00537252426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890923500061</t>
+    <t xml:space="preserve">3.08616161346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524629592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10231995582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07808303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314615249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0053722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890899658203</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
@@ -407,70 +404,70 @@
     <t xml:space="preserve">2.88418817520142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9310462474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95851421356201</t>
+    <t xml:space="preserve">2.93104600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95851445198059</t>
   </si>
   <si>
     <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93589329719543</t>
+    <t xml:space="preserve">2.93589305877686</t>
   </si>
   <si>
     <t xml:space="preserve">2.93427753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357780456543</t>
+    <t xml:space="preserve">2.90357756614685</t>
   </si>
   <si>
     <t xml:space="preserve">2.98759865760803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01022005081177</t>
+    <t xml:space="preserve">3.01021981239319</t>
   </si>
   <si>
     <t xml:space="preserve">2.9940619468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05384612083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82117223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98921465873718</t>
+    <t xml:space="preserve">3.05384635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82117247581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9892144203186</t>
   </si>
   <si>
     <t xml:space="preserve">2.96659326553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93912506103516</t>
+    <t xml:space="preserve">2.93912482261658</t>
   </si>
   <si>
     <t xml:space="preserve">2.94235682487488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83732986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84217739105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83409833908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77108263969421</t>
+    <t xml:space="preserve">2.83733010292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84217762947083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83409857749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77108287811279</t>
   </si>
   <si>
     <t xml:space="preserve">2.72260880470276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81147766113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72907185554504</t>
+    <t xml:space="preserve">2.81147742271423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
     <t xml:space="preserve">2.70321941375732</t>
@@ -482,22 +479,22 @@
     <t xml:space="preserve">2.74523019790649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74361419677734</t>
+    <t xml:space="preserve">2.74361443519592</t>
   </si>
   <si>
     <t xml:space="preserve">2.76946663856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82440400123596</t>
+    <t xml:space="preserve">2.8244035243988</t>
   </si>
   <si>
     <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80016708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8179407119751</t>
+    <t xml:space="preserve">2.80016660690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
     <t xml:space="preserve">2.85995101928711</t>
@@ -509,7 +506,7 @@
     <t xml:space="preserve">2.96982479095459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96820902824402</t>
+    <t xml:space="preserve">2.9682092666626</t>
   </si>
   <si>
     <t xml:space="preserve">2.92781448364258</t>
@@ -524,37 +521,37 @@
     <t xml:space="preserve">2.99729347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01829886436462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0150671005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00214076042175</t>
+    <t xml:space="preserve">3.0182991027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01506733894348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00214052200317</t>
   </si>
   <si>
     <t xml:space="preserve">3.01991438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06030941009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838822364807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07000398635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1427149772644</t>
+    <t xml:space="preserve">3.06030917167664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07000374794006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14271521568298</t>
   </si>
   <si>
     <t xml:space="preserve">3.21542549133301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23158311843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25582051277161</t>
+    <t xml:space="preserve">3.2315833568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25582027435303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25905179977417</t>
@@ -566,52 +563,52 @@
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625144958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14433026313782</t>
+    <t xml:space="preserve">3.13625121116638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1443305015564</t>
   </si>
   <si>
     <t xml:space="preserve">3.1540253162384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14594626426697</t>
+    <t xml:space="preserve">3.14594674110413</t>
   </si>
   <si>
     <t xml:space="preserve">3.28813600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33660960197449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3818519115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3931622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56120491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57089948654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474209785461</t>
+    <t xml:space="preserve">3.33660936355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38185167312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39316248893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56120443344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57089972496033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827833175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474185943604</t>
   </si>
   <si>
     <t xml:space="preserve">3.54343128204346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.506267786026</t>
+    <t xml:space="preserve">3.50626802444458</t>
   </si>
   <si>
     <t xml:space="preserve">3.56282043457031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50788354873657</t>
+    <t xml:space="preserve">3.50788378715515</t>
   </si>
   <si>
     <t xml:space="preserve">3.50303602218628</t>
@@ -620,31 +617,31 @@
     <t xml:space="preserve">3.32045197486877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51434683799744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47395205497742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55766177177429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52752637863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49906492233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51580715179443</t>
+    <t xml:space="preserve">3.44971489906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51434659957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47395181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52752614021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49906516075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51580691337585</t>
   </si>
   <si>
     <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62965202331543</t>
+    <t xml:space="preserve">3.62965178489685</t>
   </si>
   <si>
     <t xml:space="preserve">3.68155193328857</t>
@@ -653,22 +650,22 @@
     <t xml:space="preserve">3.70666527748108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67318081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7820041179657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901689529419</t>
+    <t xml:space="preserve">3.67318105697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78200387954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901641845703</t>
   </si>
   <si>
     <t xml:space="preserve">3.97620987892151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00132369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05154848098755</t>
+    <t xml:space="preserve">4.00132322311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05154895782471</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
@@ -680,79 +677,79 @@
     <t xml:space="preserve">3.87241005897522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76693606376648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222889900208</t>
+    <t xml:space="preserve">3.7669358253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222937583923</t>
   </si>
   <si>
     <t xml:space="preserve">3.80879092216492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92933225631714</t>
+    <t xml:space="preserve">3.92933249473572</t>
   </si>
   <si>
     <t xml:space="preserve">3.91761326789856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394884109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85232019424438</t>
+    <t xml:space="preserve">3.84394907951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85231995582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.845623254776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85064578056335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83055543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94272661209106</t>
+    <t xml:space="preserve">3.85064554214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9845814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83055567741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924286842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94272613525391</t>
   </si>
   <si>
     <t xml:space="preserve">3.94607496261597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95109677314758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93100762367249</t>
+    <t xml:space="preserve">3.95109724998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93100714683533</t>
   </si>
   <si>
     <t xml:space="preserve">3.93435525894165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92598509788513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87743258476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77698111534119</t>
+    <t xml:space="preserve">3.92598414421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87743282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77698087692261</t>
   </si>
   <si>
     <t xml:space="preserve">3.7937228679657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71671009063721</t>
+    <t xml:space="preserve">3.71671032905579</t>
   </si>
   <si>
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76860976219177</t>
+    <t xml:space="preserve">3.73512578010559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76861000061035</t>
   </si>
   <si>
     <t xml:space="preserve">3.72508096694946</t>
@@ -764,7 +761,7 @@
     <t xml:space="preserve">3.55933570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65811324119568</t>
+    <t xml:space="preserve">3.65811347961426</t>
   </si>
   <si>
     <t xml:space="preserve">3.68657422065735</t>
@@ -773,25 +770,25 @@
     <t xml:space="preserve">3.60788750648499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56603312492371</t>
+    <t xml:space="preserve">3.56603336334229</t>
   </si>
   <si>
     <t xml:space="preserve">3.62797784805298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57440328598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64974212646484</t>
+    <t xml:space="preserve">3.5744035243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64974236488342</t>
   </si>
   <si>
     <t xml:space="preserve">3.64806818962097</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64137148857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499086380005</t>
+    <t xml:space="preserve">3.64137101173401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499134063721</t>
   </si>
   <si>
     <t xml:space="preserve">3.66648411750793</t>
@@ -803,16 +800,16 @@
     <t xml:space="preserve">3.65643930435181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72005796432495</t>
+    <t xml:space="preserve">3.72005844116211</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680067062378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69996809959412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70164275169373</t>
+    <t xml:space="preserve">3.69996857643127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70164251327515</t>
   </si>
   <si>
     <t xml:space="preserve">3.72173285484314</t>
@@ -824,13 +821,13 @@
     <t xml:space="preserve">3.7970712184906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78870034217834</t>
+    <t xml:space="preserve">3.78870010375977</t>
   </si>
   <si>
     <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77530694007874</t>
+    <t xml:space="preserve">3.77530741691589</t>
   </si>
   <si>
     <t xml:space="preserve">3.79539752006531</t>
@@ -839,55 +836,55 @@
     <t xml:space="preserve">3.78535151481628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75019431114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390378952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11014556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548488616943</t>
+    <t xml:space="preserve">3.75019407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390355110168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806545257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1101450920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548440933228</t>
   </si>
   <si>
     <t xml:space="preserve">4.25245237350464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26919364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31104898452759</t>
+    <t xml:space="preserve">4.26919412612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31104946136475</t>
   </si>
   <si>
     <t xml:space="preserve">4.35290336608887</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2733793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34453296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29849243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30267763137817</t>
+    <t xml:space="preserve">4.27337980270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34453248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29849290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30267810821533</t>
   </si>
   <si>
     <t xml:space="preserve">4.36545991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3361611366272</t>
+    <t xml:space="preserve">4.33616161346436</t>
   </si>
   <si>
     <t xml:space="preserve">4.37801647186279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44498443603516</t>
+    <t xml:space="preserve">4.44498491287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.4366135597229</t>
@@ -896,7 +893,7 @@
     <t xml:space="preserve">4.49939584732056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50358200073242</t>
+    <t xml:space="preserve">4.50358152389526</t>
   </si>
   <si>
     <t xml:space="preserve">4.5454363822937</t>
@@ -905,13 +902,13 @@
     <t xml:space="preserve">4.57473468780518</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68774223327637</t>
+    <t xml:space="preserve">4.68774271011353</t>
   </si>
   <si>
     <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68355703353882</t>
+    <t xml:space="preserve">4.68355655670166</t>
   </si>
   <si>
     <t xml:space="preserve">4.67518615722656</t>
@@ -920,13 +917,13 @@
     <t xml:space="preserve">4.78400897979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83004951477051</t>
+    <t xml:space="preserve">4.83004903793335</t>
   </si>
   <si>
     <t xml:space="preserve">4.82167816162109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8802752494812</t>
+    <t xml:space="preserve">4.88027429580688</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353302001953</t>
@@ -953,16 +950,16 @@
     <t xml:space="preserve">4.57054901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67937135696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7798228263855</t>
+    <t xml:space="preserve">4.67937183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77982330322266</t>
   </si>
   <si>
     <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03095245361328</t>
+    <t xml:space="preserve">5.03095293045044</t>
   </si>
   <si>
     <t xml:space="preserve">5.13977479934692</t>
@@ -974,22 +971,22 @@
     <t xml:space="preserve">5.26115417480469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2862663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975030899048</t>
+    <t xml:space="preserve">5.28626680374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975078582764</t>
   </si>
   <si>
     <t xml:space="preserve">5.31556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601705551147</t>
+    <t xml:space="preserve">5.41601657867432</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4411301612854</t>
+    <t xml:space="preserve">5.44112968444824</t>
   </si>
   <si>
     <t xml:space="preserve">5.49135541915894</t>
@@ -998,22 +995,22 @@
     <t xml:space="preserve">5.52483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43275880813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54995250701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53321027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50809717178345</t>
+    <t xml:space="preserve">5.43275833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54995203018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53321075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50809764862061</t>
   </si>
   <si>
     <t xml:space="preserve">5.64203262329102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65877532958984</t>
+    <t xml:space="preserve">5.65877485275269</t>
   </si>
   <si>
     <t xml:space="preserve">5.6252908706665</t>
@@ -1022,7 +1019,7 @@
     <t xml:space="preserve">5.65040349960327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62947654724121</t>
+    <t xml:space="preserve">5.62947607040405</t>
   </si>
   <si>
     <t xml:space="preserve">5.59180688858032</t>
@@ -1037,13 +1034,13 @@
     <t xml:space="preserve">5.63366174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69225835800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70900106430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42438793182373</t>
+    <t xml:space="preserve">5.69225883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70900058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42438745498657</t>
   </si>
   <si>
     <t xml:space="preserve">5.5583233833313</t>
@@ -1079,10 +1076,10 @@
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493593215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77145195007324</t>
+    <t xml:space="preserve">4.80493640899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7714524269104</t>
   </si>
   <si>
     <t xml:space="preserve">4.70448446273804</t>
@@ -1091,13 +1088,13 @@
     <t xml:space="preserve">4.67100048065186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75471067428589</t>
+    <t xml:space="preserve">4.75470972061157</t>
   </si>
   <si>
     <t xml:space="preserve">4.38638734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47009801864624</t>
+    <t xml:space="preserve">4.47009754180908</t>
   </si>
   <si>
     <t xml:space="preserve">4.83842039108276</t>
@@ -1109,22 +1106,22 @@
     <t xml:space="preserve">4.90538740158081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52032327651978</t>
+    <t xml:space="preserve">4.52032279968262</t>
   </si>
   <si>
     <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60403251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65425825119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53706550598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55380725860596</t>
+    <t xml:space="preserve">4.60403347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65425872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53706502914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5538067817688</t>
   </si>
   <si>
     <t xml:space="preserve">4.59701204299927</t>
@@ -1133,13 +1130,13 @@
     <t xml:space="preserve">4.63157606124878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61429452896118</t>
+    <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75254964828491</t>
+    <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1151,16 +1148,16 @@
     <t xml:space="preserve">4.90413188934326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8506326675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363374710083</t>
+    <t xml:space="preserve">4.85063219070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363327026367</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54746770858765</t>
+    <t xml:space="preserve">4.5474681854248</t>
   </si>
   <si>
     <t xml:space="preserve">4.28888654708862</t>
@@ -1187,52 +1184,52 @@
     <t xml:space="preserve">3.96788859367371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87872242927551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00355529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7806396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76280689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7538902759552</t>
+    <t xml:space="preserve">3.87872266769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0035548210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78063988685608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76280665397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75389003753662</t>
   </si>
   <si>
     <t xml:space="preserve">3.62905788421631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70039057731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.70039081573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74497365951538</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69147419929504</t>
+    <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
     <t xml:space="preserve">3.66472434997559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11055421829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33346939086914</t>
+    <t xml:space="preserve">4.11055469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
     <t xml:space="preserve">4.36021900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27996969223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11947059631348</t>
+    <t xml:space="preserve">4.27997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11947107315063</t>
   </si>
   <si>
     <t xml:space="preserve">4.0124716758728</t>
@@ -1241,7 +1238,7 @@
     <t xml:space="preserve">3.99463868141174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10163831710815</t>
+    <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
     <t xml:space="preserve">4.20863723754883</t>
@@ -1250,13 +1247,13 @@
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538732528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297077178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13730430603027</t>
+    <t xml:space="preserve">4.23538684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297029495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13730382919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1268,16 +1265,16 @@
     <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98572158813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95897245407104</t>
+    <t xml:space="preserve">4.18188762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922128677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98572206497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
     <t xml:space="preserve">4.0213885307312</t>
@@ -1298,7 +1295,7 @@
     <t xml:space="preserve">3.81630659103394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7093071937561</t>
+    <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
     <t xml:space="preserve">3.67364072799683</t>
@@ -1319,13 +1316,13 @@
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555842399597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58447480201721</t>
+    <t xml:space="preserve">3.57555866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339165687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58447456359863</t>
   </si>
   <si>
     <t xml:space="preserve">3.52205872535706</t>
@@ -1334,7 +1331,7 @@
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772495269775</t>
+    <t xml:space="preserve">3.55772471427917</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1355,7 +1352,7 @@
     <t xml:space="preserve">3.34372639656067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26347732543945</t>
+    <t xml:space="preserve">3.26347708702087</t>
   </si>
   <si>
     <t xml:space="preserve">3.29914355278015</t>
@@ -1370,7 +1367,7 @@
     <t xml:space="preserve">3.12081146240234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10297799110413</t>
+    <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
     <t xml:space="preserve">3.04056215286255</t>
@@ -1379,220 +1376,223 @@
     <t xml:space="preserve">3.07622838020325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06731200218201</t>
+    <t xml:space="preserve">3.06731176376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05839538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164553642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02272868156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96031212806702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91572952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94247913360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789628982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80873036384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75523066520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63931465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56798195838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68389773368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71064758300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706197738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814583778381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9246461391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86222982406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764674186707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84439659118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78198051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11189460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29022693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27239370346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30805993080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214415550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106077194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475613117218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23672723770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2188937664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16539430618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1386444568634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1832275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50422549247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5309751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39722609519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4418089389801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42397594451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2278106212616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489544868469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17998290061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13321805000305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515952110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08645391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09580683708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96486639976501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92745471000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89939594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03164553642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02272868156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9603123664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91572952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94247937202454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789652824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80873036384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75523066520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63931488990784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5858154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56798195838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68389773368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71064758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79981374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706197738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814583778381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9246461391449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86223006248474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764674186707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84439659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78198027610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281458854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11189484596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29022693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27239346504211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33481001853943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30805993080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214415550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106077194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1475613117218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23672723770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21889400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16539430618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1386444568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18322777748108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647768974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589316368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50422549247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68255758285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580773353577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53989195823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5309751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40614295005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39722609519958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4418089389801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939286231995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2278106212616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489544868469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95139575004578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17998290061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13321805000305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515952110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08645391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09580683708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227785110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551347732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96486639976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92745471000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89939594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97421932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968954086304</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
@@ -6482,7 +6482,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6508,7 +6508,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6560,7 +6560,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6638,7 +6638,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6664,7 +6664,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6690,7 +6690,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6768,7 +6768,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6794,7 +6794,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6820,7 +6820,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6846,7 +6846,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6872,7 +6872,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6898,7 +6898,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6924,7 +6924,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6950,7 +6950,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6976,7 +6976,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7080,7 +7080,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7210,7 +7210,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7314,7 +7314,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7366,7 +7366,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7470,7 +7470,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7496,7 +7496,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7522,7 +7522,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7548,7 +7548,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7574,7 +7574,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7600,7 +7600,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7652,7 +7652,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7678,7 +7678,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7704,7 +7704,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7730,7 +7730,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7756,7 +7756,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7782,7 +7782,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7808,7 +7808,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7834,7 +7834,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7990,7 +7990,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8016,7 +8016,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8042,7 +8042,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8068,7 +8068,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8146,7 +8146,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8224,7 +8224,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8250,7 +8250,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8276,7 +8276,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8302,7 +8302,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8354,7 +8354,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8406,7 +8406,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8432,7 +8432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8458,7 +8458,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8510,7 +8510,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8562,7 +8562,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8588,7 +8588,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8614,7 +8614,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8640,7 +8640,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8718,7 +8718,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8744,7 +8744,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8822,7 +8822,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8848,7 +8848,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8926,7 +8926,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8952,7 +8952,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9030,7 +9030,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9056,7 +9056,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9082,7 +9082,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9108,7 +9108,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9160,7 +9160,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9186,7 +9186,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9238,7 +9238,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9264,7 +9264,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9290,7 +9290,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9342,7 +9342,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9368,7 +9368,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9394,7 +9394,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9446,7 +9446,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9472,7 +9472,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9498,7 +9498,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9524,7 +9524,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9576,7 +9576,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9602,7 +9602,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9628,7 +9628,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9654,7 +9654,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9680,7 +9680,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9732,7 +9732,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9758,7 +9758,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9810,7 +9810,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9836,7 +9836,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9888,7 +9888,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9914,7 +9914,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9940,7 +9940,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9966,7 +9966,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9992,7 +9992,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10018,7 +10018,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10148,7 +10148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10174,7 +10174,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10200,7 +10200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10226,7 +10226,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10252,7 +10252,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10278,7 +10278,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10304,7 +10304,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10356,7 +10356,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10382,7 +10382,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10408,7 +10408,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10434,7 +10434,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10460,7 +10460,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10486,7 +10486,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10512,7 +10512,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10564,7 +10564,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10720,7 +10720,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10746,7 +10746,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10772,7 +10772,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10798,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10824,7 +10824,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10850,7 +10850,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10876,7 +10876,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10902,7 +10902,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10928,7 +10928,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10954,7 +10954,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10980,7 +10980,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11032,7 +11032,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11058,7 +11058,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11084,7 +11084,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11110,7 +11110,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11136,7 +11136,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11162,7 +11162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11188,7 +11188,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11214,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11240,7 +11240,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11266,7 +11266,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11292,7 +11292,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11318,7 +11318,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11344,7 +11344,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11370,7 +11370,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11396,7 +11396,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11422,7 +11422,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11448,7 +11448,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11474,7 +11474,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11500,7 +11500,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11526,7 +11526,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11552,7 +11552,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11578,7 +11578,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11604,7 +11604,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11630,7 +11630,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11656,7 +11656,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11682,7 +11682,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11708,7 +11708,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11734,7 +11734,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11760,7 +11760,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11786,7 +11786,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11838,7 +11838,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11864,7 +11864,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11890,7 +11890,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11916,7 +11916,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11942,7 +11942,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11968,7 +11968,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11994,7 +11994,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12020,7 +12020,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12046,7 +12046,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12072,7 +12072,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12098,7 +12098,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12124,7 +12124,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12150,7 +12150,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12176,7 +12176,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12202,7 +12202,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12228,7 +12228,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12254,7 +12254,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12280,7 +12280,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12306,7 +12306,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12332,7 +12332,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12358,7 +12358,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12384,7 +12384,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12410,7 +12410,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12436,7 +12436,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12462,7 +12462,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12488,7 +12488,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12514,7 +12514,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12540,7 +12540,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12566,7 +12566,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12592,7 +12592,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12618,7 +12618,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12644,7 +12644,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12670,7 +12670,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12696,7 +12696,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12722,7 +12722,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12800,7 +12800,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12826,7 +12826,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12852,7 +12852,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12878,7 +12878,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12904,7 +12904,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12930,7 +12930,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12956,7 +12956,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12982,7 +12982,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13008,7 +13008,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13034,7 +13034,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13060,7 +13060,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13086,7 +13086,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13112,7 +13112,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13138,7 +13138,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13164,7 +13164,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13190,7 +13190,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13216,7 +13216,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13242,7 +13242,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13268,7 +13268,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13294,7 +13294,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13320,7 +13320,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13346,7 +13346,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13398,7 +13398,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13424,7 +13424,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13450,7 +13450,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13476,7 +13476,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13502,7 +13502,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13528,7 +13528,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13554,7 +13554,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13606,7 +13606,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13632,7 +13632,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13658,7 +13658,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13684,7 +13684,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13710,7 +13710,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13736,7 +13736,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13762,7 +13762,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13788,7 +13788,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13814,7 +13814,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13840,7 +13840,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13866,7 +13866,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13892,7 +13892,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13918,7 +13918,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13944,7 +13944,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13970,7 +13970,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13996,7 +13996,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14022,7 +14022,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14048,7 +14048,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14074,7 +14074,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14100,7 +14100,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14126,7 +14126,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14152,7 +14152,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14178,7 +14178,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14204,7 +14204,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14230,7 +14230,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14256,7 +14256,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14282,7 +14282,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14308,7 +14308,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14334,7 +14334,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14360,7 +14360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14386,7 +14386,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14412,7 +14412,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14438,7 +14438,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14464,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14490,7 +14490,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14516,7 +14516,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14542,7 +14542,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14568,7 +14568,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14594,7 +14594,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14620,7 +14620,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14646,7 +14646,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14672,7 +14672,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14698,7 +14698,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14724,7 +14724,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14750,7 +14750,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14776,7 +14776,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14802,7 +14802,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14828,7 +14828,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14854,7 +14854,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14906,7 +14906,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14932,7 +14932,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14984,7 +14984,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15010,7 +15010,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15036,7 +15036,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15062,7 +15062,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15088,7 +15088,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15114,7 +15114,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15140,7 +15140,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15166,7 +15166,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15192,7 +15192,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15244,7 +15244,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15322,7 +15322,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15348,7 +15348,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15374,7 +15374,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15400,7 +15400,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15426,7 +15426,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15452,7 +15452,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15478,7 +15478,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15504,7 +15504,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15530,7 +15530,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15556,7 +15556,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15582,7 +15582,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15608,7 +15608,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15634,7 +15634,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15660,7 +15660,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15686,7 +15686,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15712,7 +15712,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15738,7 +15738,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15764,7 +15764,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15790,7 +15790,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15816,7 +15816,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15842,7 +15842,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15868,7 +15868,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15894,7 +15894,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15920,7 +15920,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15946,7 +15946,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15972,7 +15972,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15998,7 +15998,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16024,7 +16024,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16050,7 +16050,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16076,7 +16076,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16102,7 +16102,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16128,7 +16128,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16154,7 +16154,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16232,7 +16232,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16258,7 +16258,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16284,7 +16284,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16310,7 +16310,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16336,7 +16336,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16388,7 +16388,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16414,7 +16414,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16466,7 +16466,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16492,7 +16492,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16518,7 +16518,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16570,7 +16570,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16622,7 +16622,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16648,7 +16648,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16674,7 +16674,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16700,7 +16700,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16726,7 +16726,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16752,7 +16752,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16778,7 +16778,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16804,7 +16804,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16830,7 +16830,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16856,7 +16856,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16882,7 +16882,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16908,7 +16908,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16934,7 +16934,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16960,7 +16960,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16986,7 +16986,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17012,7 +17012,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17038,7 +17038,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17064,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17090,7 +17090,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17116,7 +17116,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17142,7 +17142,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17168,7 +17168,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17194,7 +17194,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17220,7 +17220,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17246,7 +17246,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17272,7 +17272,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17298,7 +17298,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17324,7 +17324,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17350,7 +17350,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17376,7 +17376,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17402,7 +17402,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17454,7 +17454,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17532,7 +17532,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17558,7 +17558,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17584,7 +17584,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17662,7 +17662,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17714,7 +17714,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17792,7 +17792,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17818,7 +17818,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17844,7 +17844,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18234,7 +18234,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18286,7 +18286,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18312,7 +18312,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18494,7 +18494,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18572,7 +18572,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18598,7 +18598,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19144,7 +19144,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20002,7 +20002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20054,7 +20054,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20314,7 +20314,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20652,7 +20652,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20730,7 +20730,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20912,7 +20912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20938,7 +20938,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -59790,7 +59790,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6493865741</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>5190</v>
@@ -59811,6 +59811,32 @@
         <v>861</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5332986111</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>14600</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>1.8400000333786</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>1.8400000333786</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>848</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98598289489746</t>
+    <t xml:space="preserve">2.98598265647888</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96581768989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00149440765381</t>
+    <t xml:space="preserve">2.96581745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00149464607239</t>
   </si>
   <si>
     <t xml:space="preserve">2.94410157203674</t>
@@ -59,16 +59,16 @@
     <t xml:space="preserve">2.93169236183167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94720363616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92393660545349</t>
+    <t xml:space="preserve">2.94720387458801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92393636703491</t>
   </si>
   <si>
     <t xml:space="preserve">2.80139493942261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79984354972839</t>
+    <t xml:space="preserve">2.79984331130981</t>
   </si>
   <si>
     <t xml:space="preserve">2.70677423477173</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">2.85413432121277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84637832641602</t>
+    <t xml:space="preserve">2.84637880325317</t>
   </si>
   <si>
     <t xml:space="preserve">2.80604839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86499214172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79363894462585</t>
+    <t xml:space="preserve">2.86499238014221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79363918304443</t>
   </si>
   <si>
     <t xml:space="preserve">2.82000851631165</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">2.75486016273499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.709876537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941390991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287913322449</t>
+    <t xml:space="preserve">2.70987629890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287889480591</t>
   </si>
   <si>
     <t xml:space="preserve">2.44152569770813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54855608940125</t>
+    <t xml:space="preserve">2.54855561256409</t>
   </si>
   <si>
     <t xml:space="preserve">2.65248346328735</t>
@@ -125,22 +125,22 @@
     <t xml:space="preserve">2.69901823997498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6168065071106</t>
+    <t xml:space="preserve">2.61680674552917</t>
   </si>
   <si>
     <t xml:space="preserve">2.77657604217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81380391120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73624587059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72538805007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7331440448761</t>
+    <t xml:space="preserve">2.81380414962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73624634742737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72538781166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73314356803894</t>
   </si>
   <si>
     <t xml:space="preserve">2.68195533752441</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">2.73469495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74555277824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79829287528992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76726937294006</t>
+    <t xml:space="preserve">2.74555325508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79829239845276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76726913452148</t>
   </si>
   <si>
     <t xml:space="preserve">2.7222855091095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86964583396912</t>
+    <t xml:space="preserve">2.8696460723877</t>
   </si>
   <si>
     <t xml:space="preserve">2.83086705207825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75330901145935</t>
+    <t xml:space="preserve">2.75330877304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.74865555763245</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">2.76571822166443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75020670890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641107559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037191390991</t>
+    <t xml:space="preserve">2.75020623207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037167549133</t>
   </si>
   <si>
     <t xml:space="preserve">2.78278088569641</t>
@@ -203,28 +203,28 @@
     <t xml:space="preserve">2.79208779335022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84327578544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81225299835205</t>
+    <t xml:space="preserve">2.84327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81225275993347</t>
   </si>
   <si>
     <t xml:space="preserve">2.89291334152222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93014097213745</t>
+    <t xml:space="preserve">2.93014121055603</t>
   </si>
   <si>
     <t xml:space="preserve">2.90842509269714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92458271980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257241249084</t>
+    <t xml:space="preserve">2.92458295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034604072571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257217407227</t>
   </si>
   <si>
     <t xml:space="preserve">2.89226722717285</t>
@@ -233,16 +233,16 @@
     <t xml:space="preserve">2.80501413345337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80663013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82925152778625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77916193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77593016624451</t>
+    <t xml:space="preserve">2.80662989616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82925128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77916169166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77592992782593</t>
   </si>
   <si>
     <t xml:space="preserve">2.78724074363708</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">2.81955647468567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74684596061707</t>
+    <t xml:space="preserve">2.74684619903564</t>
   </si>
   <si>
     <t xml:space="preserve">2.80339860916138</t>
@@ -266,22 +266,22 @@
     <t xml:space="preserve">2.90196180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91165661811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528292655945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567747116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02960920333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153062820435</t>
+    <t xml:space="preserve">2.91165637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528268814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567770957947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0344569683075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0296094417572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153015136719</t>
   </si>
   <si>
     <t xml:space="preserve">3.02799344062805</t>
@@ -296,19 +296,19 @@
     <t xml:space="preserve">2.95205116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94074106216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94558835029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89873027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811966896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93750929832458</t>
+    <t xml:space="preserve">2.94074082374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89873003959656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91811990737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93750905990601</t>
   </si>
   <si>
     <t xml:space="preserve">2.85833549499512</t>
@@ -317,79 +317,79 @@
     <t xml:space="preserve">2.8276355266571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96013021469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689868927002</t>
+    <t xml:space="preserve">2.87449336051941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842485427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96012997627258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9568989276886</t>
   </si>
   <si>
     <t xml:space="preserve">2.90519332885742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94881987571716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94720387458801</t>
+    <t xml:space="preserve">2.94882011413574</t>
   </si>
   <si>
     <t xml:space="preserve">2.98113560676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89388275146484</t>
+    <t xml:space="preserve">2.89388298988342</t>
   </si>
   <si>
     <t xml:space="preserve">2.90680909156799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87772464752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84379315376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85025644302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83571457862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91650366783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86641454696655</t>
+    <t xml:space="preserve">2.87772488594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8437933921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85025668144226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83571434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.87934064865112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89549875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327238082886</t>
+    <t xml:space="preserve">2.89549851417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327214241028</t>
   </si>
   <si>
     <t xml:space="preserve">2.9795196056366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03768801689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08616209030151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524629592896</t>
+    <t xml:space="preserve">3.03768825531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08616185188293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524605751038</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07808303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0231466293335</t>
+    <t xml:space="preserve">3.0780827999115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314615249634</t>
   </si>
   <si>
     <t xml:space="preserve">3.00537252426147</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">2.99890923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9908299446106</t>
+    <t xml:space="preserve">2.99083042144775</t>
   </si>
   <si>
     <t xml:space="preserve">2.97305679321289</t>
@@ -407,37 +407,37 @@
     <t xml:space="preserve">2.88418793678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93104577064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95851445198059</t>
+    <t xml:space="preserve">2.93104600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95851469039917</t>
   </si>
   <si>
     <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93589329719543</t>
+    <t xml:space="preserve">2.93589305877686</t>
   </si>
   <si>
     <t xml:space="preserve">2.93427729606628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357756614685</t>
+    <t xml:space="preserve">2.90357732772827</t>
   </si>
   <si>
     <t xml:space="preserve">2.98759865760803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01021981239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9940619468689</t>
+    <t xml:space="preserve">3.01022005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99406218528748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05384612083435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82117199897766</t>
+    <t xml:space="preserve">2.82117223739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.98921465873718</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">2.96659350395203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93912506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94235682487488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83732986450195</t>
+    <t xml:space="preserve">2.93912482261658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9423565864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83733034133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.84217715263367</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">2.72260880470276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81147742271423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72907209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70321941375732</t>
+    <t xml:space="preserve">2.81147766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72907185554504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70321917533875</t>
   </si>
   <si>
     <t xml:space="preserve">2.69837188720703</t>
@@ -482,49 +482,49 @@
     <t xml:space="preserve">2.74522995948792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74361419677734</t>
+    <t xml:space="preserve">2.74361395835876</t>
   </si>
   <si>
     <t xml:space="preserve">2.76946663856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82440376281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77431416511536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80016708374023</t>
+    <t xml:space="preserve">2.82440400123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77431392669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80016660690308</t>
   </si>
   <si>
     <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85995125770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94397258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96982526779175</t>
+    <t xml:space="preserve">2.85995149612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94397211074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96982502937317</t>
   </si>
   <si>
     <t xml:space="preserve">2.9682092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.927814245224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01183557510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02476191520691</t>
+    <t xml:space="preserve">2.92781448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01183533668518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02476167678833</t>
   </si>
   <si>
     <t xml:space="preserve">2.99729347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01829886436462</t>
+    <t xml:space="preserve">3.01829862594604</t>
   </si>
   <si>
     <t xml:space="preserve">3.01506733894348</t>
@@ -533,16 +533,16 @@
     <t xml:space="preserve">3.00214099884033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0199146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030941009521</t>
+    <t xml:space="preserve">3.01991438865662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030964851379</t>
   </si>
   <si>
     <t xml:space="preserve">3.06838846206665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07000374794006</t>
+    <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
     <t xml:space="preserve">3.1427149772644</t>
@@ -551,22 +551,22 @@
     <t xml:space="preserve">3.21542549133301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23158311843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25582051277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25905179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28652000427246</t>
+    <t xml:space="preserve">3.2315833568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25582003593445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25905156135559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28652024269104</t>
   </si>
   <si>
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625168800354</t>
+    <t xml:space="preserve">3.13625144958496</t>
   </si>
   <si>
     <t xml:space="preserve">3.14433073997498</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">3.14594626426697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28813624382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33660984039307</t>
+    <t xml:space="preserve">3.28813576698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33660960197449</t>
   </si>
   <si>
     <t xml:space="preserve">3.38185167312622</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3931622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56120467185974</t>
+    <t xml:space="preserve">3.39316201210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56120491027832</t>
   </si>
   <si>
     <t xml:space="preserve">3.57089924812317</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">3.54827857017517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55474185943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343128204346</t>
+    <t xml:space="preserve">3.55474162101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343104362488</t>
   </si>
   <si>
     <t xml:space="preserve">3.506267786026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56281995773315</t>
+    <t xml:space="preserve">3.56282067298889</t>
   </si>
   <si>
     <t xml:space="preserve">3.50788354873657</t>
@@ -623,34 +623,34 @@
     <t xml:space="preserve">3.44971489906311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51434707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47395277023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55766153335571</t>
+    <t xml:space="preserve">3.51434683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.473952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
     <t xml:space="preserve">3.52752637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49906492233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51580667495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59951734542847</t>
+    <t xml:space="preserve">3.49906516075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51580691337585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
     <t xml:space="preserve">3.62965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68155193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7066650390625</t>
+    <t xml:space="preserve">3.68155169487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70666480064392</t>
   </si>
   <si>
     <t xml:space="preserve">3.67318105697632</t>
@@ -659,22 +659,22 @@
     <t xml:space="preserve">3.78200387954712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85901641845703</t>
+    <t xml:space="preserve">3.85901689529419</t>
   </si>
   <si>
     <t xml:space="preserve">3.97621011734009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00132369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05154895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02643585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9326810836792</t>
+    <t xml:space="preserve">4.00132322311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05154848098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02643537521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93268060684204</t>
   </si>
   <si>
     <t xml:space="preserve">3.87241005897522</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">3.7669358253479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83222985267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80879092216492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92933249473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91761350631714</t>
+    <t xml:space="preserve">3.83222937583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879068374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92933297157288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9176139831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.84394884109497</t>
@@ -701,91 +701,91 @@
     <t xml:space="preserve">3.85231971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84562301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064554214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9845814704895</t>
+    <t xml:space="preserve">3.84562253952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064578056335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458099365234</t>
   </si>
   <si>
     <t xml:space="preserve">3.83055543899536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90924263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94272613525391</t>
+    <t xml:space="preserve">3.90924310684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94272661209106</t>
   </si>
   <si>
     <t xml:space="preserve">3.94607472419739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95109701156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93100666999817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93435478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92598438262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87743282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77698111534119</t>
+    <t xml:space="preserve">3.95109748840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93100714683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93435525894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92598485946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87743330001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77698159217834</t>
   </si>
   <si>
     <t xml:space="preserve">3.7937228679657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71671032905579</t>
+    <t xml:space="preserve">3.71671009063721</t>
   </si>
   <si>
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76861000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508120536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978813171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55933570861816</t>
+    <t xml:space="preserve">3.73512625694275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76861023902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978765487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55933547019958</t>
   </si>
   <si>
     <t xml:space="preserve">3.65811324119568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68657422065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60788702964783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56603312492371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797808647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5744035243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64974236488342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64806795120239</t>
+    <t xml:space="preserve">3.68657445907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60788726806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56603264808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797832489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64974284172058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64806842803955</t>
   </si>
   <si>
     <t xml:space="preserve">3.64137172698975</t>
@@ -800,85 +800,85 @@
     <t xml:space="preserve">3.6798779964447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65643954277039</t>
+    <t xml:space="preserve">3.65643906593323</t>
   </si>
   <si>
     <t xml:space="preserve">3.72005820274353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7368004322052</t>
+    <t xml:space="preserve">3.73680090904236</t>
   </si>
   <si>
     <t xml:space="preserve">3.69996786117554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70164251327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72173285484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79037499427795</t>
+    <t xml:space="preserve">3.70164227485657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72173261642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79037523269653</t>
   </si>
   <si>
     <t xml:space="preserve">3.79707098007202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78870034217834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78367781639099</t>
+    <t xml:space="preserve">3.78870058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78367805480957</t>
   </si>
   <si>
     <t xml:space="preserve">3.77530717849731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79539728164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535175323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75019431114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390355110168</t>
+    <t xml:space="preserve">3.79539680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7853524684906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75019407272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390402793884</t>
   </si>
   <si>
     <t xml:space="preserve">4.01806497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11014556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25245141983032</t>
+    <t xml:space="preserve">4.11014604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25245189666748</t>
   </si>
   <si>
     <t xml:space="preserve">4.26919412612915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31104898452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290384292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27337980270386</t>
+    <t xml:space="preserve">4.31104850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2733793258667</t>
   </si>
   <si>
     <t xml:space="preserve">4.34453296661377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29849243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30267763137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36546039581299</t>
+    <t xml:space="preserve">4.29849290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30267715454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36545991897583</t>
   </si>
   <si>
     <t xml:space="preserve">4.33616161346436</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">4.37801694869995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44498443603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43661403656006</t>
+    <t xml:space="preserve">4.444983959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4366135597229</t>
   </si>
   <si>
     <t xml:space="preserve">4.49939584732056</t>
@@ -908,25 +908,25 @@
     <t xml:space="preserve">4.68774223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65844440460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68355703353882</t>
+    <t xml:space="preserve">4.65844392776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68355655670166</t>
   </si>
   <si>
     <t xml:space="preserve">4.67518615722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78400850296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83004856109619</t>
+    <t xml:space="preserve">4.78400897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83004903793335</t>
   </si>
   <si>
     <t xml:space="preserve">4.82167816162109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8802752494812</t>
+    <t xml:space="preserve">4.88027429580688</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353254318237</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73796796798706</t>
+    <t xml:space="preserve">4.84260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73796844482422</t>
   </si>
   <si>
     <t xml:space="preserve">4.71285581588745</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6626296043396</t>
+    <t xml:space="preserve">4.66263008117676</t>
   </si>
   <si>
     <t xml:space="preserve">4.52869367599487</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">4.67937183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77982330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81330728530884</t>
+    <t xml:space="preserve">4.7798228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
     <t xml:space="preserve">5.03095245361328</t>
@@ -980,25 +980,25 @@
     <t xml:space="preserve">5.31975078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31556510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41601610183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49972724914551</t>
+    <t xml:space="preserve">5.31556558609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41601657867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
     <t xml:space="preserve">5.4411301612854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49135541915894</t>
+    <t xml:space="preserve">5.49135589599609</t>
   </si>
   <si>
     <t xml:space="preserve">5.52483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43275880813599</t>
+    <t xml:space="preserve">5.43275833129883</t>
   </si>
   <si>
     <t xml:space="preserve">5.54995250701904</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">5.65877485275269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62529039382935</t>
+    <t xml:space="preserve">5.6252908706665</t>
   </si>
   <si>
     <t xml:space="preserve">5.65040349960327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62947702407837</t>
+    <t xml:space="preserve">5.62947654724121</t>
   </si>
   <si>
     <t xml:space="preserve">5.59180688858032</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57506513595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60854911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63366174697876</t>
+    <t xml:space="preserve">5.57506465911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60854816436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63366222381592</t>
   </si>
   <si>
     <t xml:space="preserve">5.69225883483887</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">5.42438745498657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5583233833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30719423294067</t>
+    <t xml:space="preserve">5.55832290649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30719470977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.15651655197144</t>
@@ -1058,34 +1058,34 @@
     <t xml:space="preserve">5.07280683517456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0058388710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08954906463623</t>
+    <t xml:space="preserve">5.00583934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08954954147339</t>
   </si>
   <si>
     <t xml:space="preserve">5.2234845161438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95561408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98909759521484</t>
+    <t xml:space="preserve">4.95561361312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.989098072052</t>
   </si>
   <si>
     <t xml:space="preserve">5.02258157730103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78819417953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80493545532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77145147323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7044849395752</t>
+    <t xml:space="preserve">4.78819370269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80493593215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77145195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
     <t xml:space="preserve">4.67100095748901</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">4.38638782501221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47009801864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83841991424561</t>
+    <t xml:space="preserve">4.47009754180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83842039108276</t>
   </si>
   <si>
     <t xml:space="preserve">4.93887186050415</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">4.52032327651978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45335531234741</t>
+    <t xml:space="preserve">4.45335578918457</t>
   </si>
   <si>
     <t xml:space="preserve">4.60403251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65425825119019</t>
+    <t xml:space="preserve">4.65425872802734</t>
   </si>
   <si>
     <t xml:space="preserve">4.53706502914429</t>
@@ -1127,19 +1127,19 @@
     <t xml:space="preserve">4.55380725860596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701204299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63157606124878</t>
+    <t xml:space="preserve">4.59701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63157653808594</t>
   </si>
   <si>
     <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7179856300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75254964828491</t>
+    <t xml:space="preserve">4.71798610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">4.5474681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888702392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430370330811</t>
+    <t xml:space="preserve">4.28888654708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430322647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">4.06597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08380460739136</t>
+    <t xml:space="preserve">4.08380508422852</t>
   </si>
   <si>
     <t xml:space="preserve">4.05705451965332</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">3.96788835525513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87872242927551</t>
+    <t xml:space="preserve">3.87872290611267</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280689239502</t>
+    <t xml:space="preserve">3.76280665397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62905764579773</t>
+    <t xml:space="preserve">3.62905788421631</t>
   </si>
   <si>
     <t xml:space="preserve">3.70039081573486</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">3.69147396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66472411155701</t>
+    <t xml:space="preserve">3.66472434997559</t>
   </si>
   <si>
     <t xml:space="preserve">4.11055469512939</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36021900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27996969223022</t>
+    <t xml:space="preserve">4.36021947860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27997016906738</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">4.23538637161255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17297029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13730430603027</t>
+    <t xml:space="preserve">4.17297077178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13730382919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922176361084</t>
+    <t xml:space="preserve">4.18188762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922128677368</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1280,13 +1280,13 @@
     <t xml:space="preserve">3.95897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02138805389404</t>
+    <t xml:space="preserve">4.0213885307312</t>
   </si>
   <si>
     <t xml:space="preserve">4.12838792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15513753890991</t>
+    <t xml:space="preserve">4.15513706207275</t>
   </si>
   <si>
     <t xml:space="preserve">3.92330598831177</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70930695533752</t>
+    <t xml:space="preserve">3.7093071937561</t>
   </si>
   <si>
     <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63797450065613</t>
+    <t xml:space="preserve">3.63797426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61122488975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57555842399597</t>
+    <t xml:space="preserve">3.61122465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57555866241455</t>
   </si>
   <si>
     <t xml:space="preserve">3.59339165687561</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52205848693848</t>
+    <t xml:space="preserve">3.52205872535706</t>
   </si>
   <si>
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772495269775</t>
+    <t xml:space="preserve">3.55772471427917</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">3.45964241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47747564315796</t>
+    <t xml:space="preserve">3.47747588157654</t>
   </si>
   <si>
     <t xml:space="preserve">3.45072555541992</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997738838196</t>
+    <t xml:space="preserve">3.20997714996338</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081146240234</t>
+    <t xml:space="preserve">3.12081122398376</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789605140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80873036384583</t>
+    <t xml:space="preserve">2.94247937202454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789628982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8087306022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.75523066520691</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">2.56798195838928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68389749526978</t>
+    <t xml:space="preserve">2.68389773368835</t>
   </si>
   <si>
     <t xml:space="preserve">2.71064782142639</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">2.79981374740601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96922922134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
+    <t xml:space="preserve">2.96922898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706197738647</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814559936523</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86223006248474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764721870422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8443968296051</t>
+    <t xml:space="preserve">2.86222982406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
     <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281458854675</t>
+    <t xml:space="preserve">2.69281435012817</t>
   </si>
   <si>
     <t xml:space="preserve">2.67498111724854</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106053352356</t>
+    <t xml:space="preserve">3.20106077194214</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">3.2188937664032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539454460144</t>
+    <t xml:space="preserve">3.16539430618286</t>
   </si>
   <si>
     <t xml:space="preserve">3.13864469528198</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647768974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589316368103</t>
+    <t xml:space="preserve">3.15647792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589340209961</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">3.68255758285522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65580749511719</t>
+    <t xml:space="preserve">3.65580725669861</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314210891724</t>
+    <t xml:space="preserve">3.51314187049866</t>
   </si>
   <si>
     <t xml:space="preserve">3.5309751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4061427116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
+    <t xml:space="preserve">3.40614247322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697654724121</t>
   </si>
   <si>
     <t xml:space="preserve">3.39722609519958</t>
@@ -1532,22 +1532,22 @@
     <t xml:space="preserve">3.4418089389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939286231995</t>
+    <t xml:space="preserve">3.42397594451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939310073853</t>
   </si>
   <si>
     <t xml:space="preserve">3.22781038284302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00489521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
+    <t xml:space="preserve">3.00489544868469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514475822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381206512451</t>
   </si>
   <si>
     <t xml:space="preserve">2.95139598846436</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321828842163</t>
+    <t xml:space="preserve">3.13321805000305</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645367622375</t>
+    <t xml:space="preserve">3.08645391464233</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
   </si>
   <si>
     <t xml:space="preserve">3.05839514732361</t>
@@ -1601,22 +1601,22 @@
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451268196106</t>
+    <t xml:space="preserve">3.11451244354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292492866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716135025024</t>
+    <t xml:space="preserve">2.99292516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716158866882</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104429244995</t>
+    <t xml:space="preserve">2.73104405403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039697647095</t>
+    <t xml:space="preserve">2.74039721488953</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298528671265</t>
+    <t xml:space="preserve">2.70298552513123</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1658,19 +1658,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880946159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68427968025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557383537292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945630073547</t>
+    <t xml:space="preserve">2.61880922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6842794418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557359695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945653915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722170829773</t>
+    <t xml:space="preserve">2.49722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519238948822</t>
+    <t xml:space="preserve">3.15192413330078</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127729415894</t>
+    <t xml:space="preserve">3.16127705574036</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457304000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780866622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81521987915039</t>
+    <t xml:space="preserve">2.82457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780842781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598814964294</t>
+    <t xml:space="preserve">2.28210520744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598791122437</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698894500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1231062412262</t>
+    <t xml:space="preserve">2.06698870658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863669872284</t>
+    <t xml:space="preserve">1.89863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540107250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987061500549</t>
+    <t xml:space="preserve">1.94540119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022433280945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922353744507</t>
+    <t xml:space="preserve">2.17922329902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534083366394</t>
+    <t xml:space="preserve">2.23534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469375610352</t>
+    <t xml:space="preserve">2.24469399452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -6251,7 +6251,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6277,7 +6277,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6303,7 +6303,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6355,7 +6355,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6381,7 +6381,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6407,7 +6407,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6459,7 +6459,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6485,7 +6485,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G136" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7421,7 +7421,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8175,7 +8175,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8201,7 +8201,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8539,7 +8539,7 @@
         <v>3.64800000190735</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9787,7 +9787,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -59819,7 +59819,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6495717593</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>23062</v>
@@ -59840,6 +59840,58 @@
         <v>864</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>853</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.6496412037</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>1.85500001907349</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>1.86000001430511</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>1.87999999523163</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>856</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">2.96581768989563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00149440765381</t>
+    <t xml:space="preserve">3.00149416923523</t>
   </si>
   <si>
     <t xml:space="preserve">2.94410133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88515758514404</t>
+    <t xml:space="preserve">2.88515734672546</t>
   </si>
   <si>
     <t xml:space="preserve">2.93169212341309</t>
@@ -62,76 +62,76 @@
     <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393636703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80139470100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984354972839</t>
+    <t xml:space="preserve">2.92393660545349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80139493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984331130981</t>
   </si>
   <si>
     <t xml:space="preserve">2.70677399635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78433203697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83862257003784</t>
+    <t xml:space="preserve">2.78433179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83862280845642</t>
   </si>
   <si>
     <t xml:space="preserve">2.85413432121277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84637856483459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80604839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86499261856079</t>
+    <t xml:space="preserve">2.84637880325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604815483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86499238014221</t>
   </si>
   <si>
     <t xml:space="preserve">2.79363942146301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82000875473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70987606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941390991211</t>
+    <t xml:space="preserve">2.82000851631165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75486040115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70987629890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941367149353</t>
   </si>
   <si>
     <t xml:space="preserve">2.51287913322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44152569770813</t>
+    <t xml:space="preserve">2.44152545928955</t>
   </si>
   <si>
     <t xml:space="preserve">2.54855561256409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65248346328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67264842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69901847839355</t>
+    <t xml:space="preserve">2.65248322486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67264890670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69901823997498</t>
   </si>
   <si>
     <t xml:space="preserve">2.61680674552917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81380391120911</t>
+    <t xml:space="preserve">2.77657628059387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81380438804626</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624634742737</t>
@@ -140,91 +140,91 @@
     <t xml:space="preserve">2.72538805007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73314380645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281339645386</t>
+    <t xml:space="preserve">2.7331440448761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195557594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281363487244</t>
   </si>
   <si>
     <t xml:space="preserve">2.6912624835968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71608114242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73469495773315</t>
+    <t xml:space="preserve">2.71608090400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73469519615173</t>
   </si>
   <si>
     <t xml:space="preserve">2.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79829263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76726913452148</t>
+    <t xml:space="preserve">2.79829239845276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76726937294006</t>
   </si>
   <si>
     <t xml:space="preserve">2.72228574752808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86964631080627</t>
+    <t xml:space="preserve">2.86964559555054</t>
   </si>
   <si>
     <t xml:space="preserve">2.83086705207825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75330901145935</t>
+    <t xml:space="preserve">2.75330877304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.74865531921387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416659355164</t>
+    <t xml:space="preserve">2.76416707038879</t>
   </si>
   <si>
     <t xml:space="preserve">2.76571822166443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7502064704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7564115524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037167549133</t>
+    <t xml:space="preserve">2.75020670890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641131401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037191390991</t>
   </si>
   <si>
     <t xml:space="preserve">2.78278088569641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79208731651306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84327626228333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81225275993347</t>
+    <t xml:space="preserve">2.7920880317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84327578544617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81225299835205</t>
   </si>
   <si>
     <t xml:space="preserve">2.89291334152222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93014121055603</t>
+    <t xml:space="preserve">2.93014144897461</t>
   </si>
   <si>
     <t xml:space="preserve">2.90842485427856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92458271980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034604072571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257217407227</t>
+    <t xml:space="preserve">2.92458295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034556388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257241249084</t>
   </si>
   <si>
     <t xml:space="preserve">2.89226698875427</t>
@@ -233,16 +233,16 @@
     <t xml:space="preserve">2.80501413345337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8066303730011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82925128936768</t>
+    <t xml:space="preserve">2.80662989616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8292510509491</t>
   </si>
   <si>
     <t xml:space="preserve">2.77916169166565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77593040466309</t>
+    <t xml:space="preserve">2.77593016624451</t>
   </si>
   <si>
     <t xml:space="preserve">2.78724074363708</t>
@@ -254,34 +254,34 @@
     <t xml:space="preserve">2.74684572219849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80339860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135119438171</t>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86802983283997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135143280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.90196180343628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91165661811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528268814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567747116089</t>
+    <t xml:space="preserve">2.91165637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567770957947</t>
   </si>
   <si>
     <t xml:space="preserve">3.03445672988892</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0296094417572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153038978577</t>
+    <t xml:space="preserve">3.02960920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153015136719</t>
   </si>
   <si>
     <t xml:space="preserve">3.02799320220947</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">3.00698828697205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98275136947632</t>
+    <t xml:space="preserve">2.98275113105774</t>
   </si>
   <si>
     <t xml:space="preserve">2.95205140113831</t>
@@ -299,43 +299,43 @@
     <t xml:space="preserve">2.94074106216431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94558787345886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89873027801514</t>
+    <t xml:space="preserve">2.94558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89873003959656</t>
   </si>
   <si>
     <t xml:space="preserve">2.8696460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811966896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93750929832458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8583357334137</t>
+    <t xml:space="preserve">2.91811990737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93750905990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85833549499512</t>
   </si>
   <si>
     <t xml:space="preserve">2.82763528823853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842461585999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96013021469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689845085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90519309043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881987571716</t>
+    <t xml:space="preserve">2.87449359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842509269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96013045310974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9568989276886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90519332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94882011413574</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720411300659</t>
@@ -353,55 +353,55 @@
     <t xml:space="preserve">2.87772488594055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84379315376282</t>
+    <t xml:space="preserve">2.8437933921814</t>
   </si>
   <si>
     <t xml:space="preserve">2.85025644302368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83571410179138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91650390625</t>
+    <t xml:space="preserve">2.83571434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
     <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87934041023254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327214241028</t>
+    <t xml:space="preserve">2.8793408870697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549851417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327238082886</t>
   </si>
   <si>
     <t xml:space="preserve">2.97951984405518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03768825531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08616185188293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524629592896</t>
+    <t xml:space="preserve">3.03768801689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08616232872009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524605751038</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07808327674866</t>
+    <t xml:space="preserve">3.07808303833008</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314639091492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00537252426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890923500061</t>
+    <t xml:space="preserve">3.0053722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890899658203</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
@@ -434,52 +434,52 @@
     <t xml:space="preserve">2.98759865760803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01022005081177</t>
+    <t xml:space="preserve">3.01021981239319</t>
   </si>
   <si>
     <t xml:space="preserve">2.9940619468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05384635925293</t>
+    <t xml:space="preserve">3.05384588241577</t>
   </si>
   <si>
     <t xml:space="preserve">2.82117223739624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98921465873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96659350395203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93912506103516</t>
+    <t xml:space="preserve">2.9892144203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96659326553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93912482261658</t>
   </si>
   <si>
     <t xml:space="preserve">2.9423565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83733034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84217715263367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83409857749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77108240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72260880470276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81147742271423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72907209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7032196521759</t>
+    <t xml:space="preserve">2.83733010292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84217762947083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83409833908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77108287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72260856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81147766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72907185554504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70321941375732</t>
   </si>
   <si>
     <t xml:space="preserve">2.69837188720703</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">2.74522995948792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74361395835876</t>
+    <t xml:space="preserve">2.74361419677734</t>
   </si>
   <si>
     <t xml:space="preserve">2.76946663856506</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">2.82440400123596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77431440353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80016684532166</t>
+    <t xml:space="preserve">2.77431416511536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80016708374023</t>
   </si>
   <si>
     <t xml:space="preserve">2.81794047355652</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">2.9682092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92781472206116</t>
+    <t xml:space="preserve">2.927814245224</t>
   </si>
   <si>
     <t xml:space="preserve">3.01183557510376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99729323387146</t>
+    <t xml:space="preserve">3.02476191520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99729347229004</t>
   </si>
   <si>
     <t xml:space="preserve">3.01829886436462</t>
@@ -542,37 +542,37 @@
     <t xml:space="preserve">3.01991438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06030941009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838822364807</t>
+    <t xml:space="preserve">3.06030917167664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838846206665</t>
   </si>
   <si>
     <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14271450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542525291443</t>
+    <t xml:space="preserve">3.14271473884583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542549133301</t>
   </si>
   <si>
     <t xml:space="preserve">3.23158311843872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25582027435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25905132293701</t>
+    <t xml:space="preserve">3.25582075119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25905156135559</t>
   </si>
   <si>
     <t xml:space="preserve">3.28652000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19118881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625168800354</t>
+    <t xml:space="preserve">3.1911883354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625121116638</t>
   </si>
   <si>
     <t xml:space="preserve">3.1443305015564</t>
@@ -581,52 +581,52 @@
     <t xml:space="preserve">3.1540253162384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14594626426697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28813600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33661007881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38185167312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3931622505188</t>
+    <t xml:space="preserve">3.14594650268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28813624382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33660960197449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3818519115448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39316248893738</t>
   </si>
   <si>
     <t xml:space="preserve">3.56120467185974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57089972496033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474138259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343152046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50626802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56282043457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50788331031799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50303602218628</t>
+    <t xml:space="preserve">3.57089924812317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474162101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.506267786026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56281995773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50788354873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50303626060486</t>
   </si>
   <si>
     <t xml:space="preserve">3.3204517364502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44971537590027</t>
+    <t xml:space="preserve">3.44971489906311</t>
   </si>
   <si>
     <t xml:space="preserve">3.51434683799744</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52752661705017</t>
+    <t xml:space="preserve">3.52752637863159</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5158064365387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59951710700989</t>
+    <t xml:space="preserve">3.51580715179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
     <t xml:space="preserve">3.62965202331543</t>
@@ -659,16 +659,16 @@
     <t xml:space="preserve">3.70666527748108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6731812953949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200364112854</t>
+    <t xml:space="preserve">3.67318081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7820041179657</t>
   </si>
   <si>
     <t xml:space="preserve">3.85901689529419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97621035575867</t>
+    <t xml:space="preserve">3.97620987892151</t>
   </si>
   <si>
     <t xml:space="preserve">4.00132369995117</t>
@@ -686,67 +686,67 @@
     <t xml:space="preserve">3.87241005897522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7669358253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222937583923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8087911605835</t>
+    <t xml:space="preserve">3.76693606376648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222889900208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879092216492</t>
   </si>
   <si>
     <t xml:space="preserve">3.92933225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91761350631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84394907951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85231995582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84562277793884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064554214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458075523376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83055520057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924310684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94272613525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109701156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93100690841675</t>
+    <t xml:space="preserve">3.91761326789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84394884109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85232019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.845623254776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064578056335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83055543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924263000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94272661209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109677314758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93100762367249</t>
   </si>
   <si>
     <t xml:space="preserve">3.93435525894165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92598438262939</t>
+    <t xml:space="preserve">3.92598509788513</t>
   </si>
   <si>
     <t xml:space="preserve">3.87743258476257</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77698135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79372310638428</t>
+    <t xml:space="preserve">3.77698111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7937228679657</t>
   </si>
   <si>
     <t xml:space="preserve">3.71671009063721</t>
@@ -755,31 +755,31 @@
     <t xml:space="preserve">3.6832263469696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76861023902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508120536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978765487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55933594703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65811371803284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68657445907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60788726806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56603288650513</t>
+    <t xml:space="preserve">3.73512649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76860976219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55933570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65811324119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68657422065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60788750648499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56603312492371</t>
   </si>
   <si>
     <t xml:space="preserve">3.62797784805298</t>
@@ -788,28 +788,28 @@
     <t xml:space="preserve">3.57440328598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64974284172058</t>
+    <t xml:space="preserve">3.64974212646484</t>
   </si>
   <si>
     <t xml:space="preserve">3.64806818962097</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64137125015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499062538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66648435592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67987775802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65643882751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005820274353</t>
+    <t xml:space="preserve">3.64137148857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499086380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66648411750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6798779964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65643930435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005796432495</t>
   </si>
   <si>
     <t xml:space="preserve">3.73680067062378</t>
@@ -818,34 +818,34 @@
     <t xml:space="preserve">3.69996809959412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70164227485657</t>
+    <t xml:space="preserve">3.70164275169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.72173285484314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79037427902222</t>
+    <t xml:space="preserve">3.79037475585938</t>
   </si>
   <si>
     <t xml:space="preserve">3.7970712184906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78870058059692</t>
+    <t xml:space="preserve">3.78870034217834</t>
   </si>
   <si>
     <t xml:space="preserve">3.78367781639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77530717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539704322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535199165344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75019407272339</t>
+    <t xml:space="preserve">3.77530694007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539752006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535151481628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">3.83390378952026</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">4.01806497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11014604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548440933228</t>
+    <t xml:space="preserve">4.11014556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548488616943</t>
   </si>
   <si>
     <t xml:space="preserve">4.25245237350464</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">4.31104898452759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35290384292603</t>
+    <t xml:space="preserve">4.35290336608887</t>
   </si>
   <si>
     <t xml:space="preserve">4.2733793258667</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">4.37801647186279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44498491287231</t>
+    <t xml:space="preserve">4.44498443603516</t>
   </si>
   <si>
     <t xml:space="preserve">4.4366135597229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4993953704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50358104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54543590545654</t>
+    <t xml:space="preserve">4.49939584732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50358200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5454363822937</t>
   </si>
   <si>
     <t xml:space="preserve">4.57473468780518</t>
@@ -914,28 +914,28 @@
     <t xml:space="preserve">4.68774223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65844392776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6835560798645</t>
+    <t xml:space="preserve">4.65844440460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68355703353882</t>
   </si>
   <si>
     <t xml:space="preserve">4.67518615722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78400850296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83004903793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88027477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86353349685669</t>
+    <t xml:space="preserve">4.78400897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8802752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86353302001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.85516214370728</t>
@@ -944,22 +944,22 @@
     <t xml:space="preserve">4.84260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73796844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71285486221313</t>
+    <t xml:space="preserve">4.73796796798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71285533905029</t>
   </si>
   <si>
     <t xml:space="preserve">4.6626296043396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52869415283203</t>
+    <t xml:space="preserve">4.52869367599487</t>
   </si>
   <si>
     <t xml:space="preserve">4.57054901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67937183380127</t>
+    <t xml:space="preserve">4.67937135696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.7798228263855</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03095197677612</t>
+    <t xml:space="preserve">5.03095245361328</t>
   </si>
   <si>
     <t xml:space="preserve">5.13977479934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000053405762</t>
+    <t xml:space="preserve">5.19000101089478</t>
   </si>
   <si>
     <t xml:space="preserve">5.26115417480469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28626728057861</t>
+    <t xml:space="preserve">5.2862663269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.31975030899048</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">5.31556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601657867432</t>
+    <t xml:space="preserve">5.41601705551147</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44112968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49135589599609</t>
+    <t xml:space="preserve">5.4411301612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
     <t xml:space="preserve">5.52483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43275833129883</t>
+    <t xml:space="preserve">5.43275880813599</t>
   </si>
   <si>
     <t xml:space="preserve">5.54995250701904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53321075439453</t>
+    <t xml:space="preserve">5.53321027755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.50809717178345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64203214645386</t>
+    <t xml:space="preserve">5.64203262329102</t>
   </si>
   <si>
     <t xml:space="preserve">5.65877532958984</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">5.62947654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59180736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57506465911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60854911804199</t>
+    <t xml:space="preserve">5.59180688858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57506513595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60854864120483</t>
   </si>
   <si>
     <t xml:space="preserve">5.63366174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69225931167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70900058746338</t>
+    <t xml:space="preserve">5.69225835800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70900106430054</t>
   </si>
   <si>
     <t xml:space="preserve">5.42438793182373</t>
@@ -1076,34 +1076,34 @@
     <t xml:space="preserve">4.95561361312866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98909711837769</t>
+    <t xml:space="preserve">4.98909759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.02258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78819370269775</t>
+    <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
     <t xml:space="preserve">4.80493593215942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7714524269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70448398590088</t>
+    <t xml:space="preserve">4.77145195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
     <t xml:space="preserve">4.67100048065186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75471019744873</t>
+    <t xml:space="preserve">4.75471067428589</t>
   </si>
   <si>
     <t xml:space="preserve">4.38638734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47009754180908</t>
+    <t xml:space="preserve">4.47009801864624</t>
   </si>
   <si>
     <t xml:space="preserve">4.83842039108276</t>
@@ -1112,40 +1112,40 @@
     <t xml:space="preserve">4.93887138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90538787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52032375335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45335578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60403299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65425872802734</t>
+    <t xml:space="preserve">4.90538740158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52032327651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45335531234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60403251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65425825119019</t>
   </si>
   <si>
     <t xml:space="preserve">4.53706550598145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55380773544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59701251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63157653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429405212402</t>
+    <t xml:space="preserve">4.55380725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59701204299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63157606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429452896118</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75255012512207</t>
+    <t xml:space="preserve">4.75254964828491</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1154,25 +1154,25 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063314437866</t>
+    <t xml:space="preserve">4.90413188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8506326675415</t>
   </si>
   <si>
     <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72580003738403</t>
+    <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
     <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28888607025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24430322647095</t>
+    <t xml:space="preserve">4.28888654708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24430370330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788883209229</t>
+    <t xml:space="preserve">3.96788859367371</t>
   </si>
   <si>
     <t xml:space="preserve">3.87872242927551</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">3.7806396484375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280665397644</t>
+    <t xml:space="preserve">3.76280689239502</t>
   </si>
   <si>
     <t xml:space="preserve">3.7538902759552</t>
@@ -1211,25 +1211,25 @@
     <t xml:space="preserve">3.62905788421631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70039081573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74497318267822</t>
+    <t xml:space="preserve">3.70039057731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7449734210968</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69147396087646</t>
+    <t xml:space="preserve">3.69147419929504</t>
   </si>
   <si>
     <t xml:space="preserve">3.66472434997559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11055469512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3334698677063</t>
+    <t xml:space="preserve">4.11055421829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33346939086914</t>
   </si>
   <si>
     <t xml:space="preserve">4.36021900177002</t>
@@ -1238,25 +1238,25 @@
     <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11947107315063</t>
+    <t xml:space="preserve">4.11947059631348</t>
   </si>
   <si>
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.101637840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20863676071167</t>
+    <t xml:space="preserve">3.99463868141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10163831710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20863723754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538684844971</t>
+    <t xml:space="preserve">4.23538732528687</t>
   </si>
   <si>
     <t xml:space="preserve">4.17297077178955</t>
@@ -1271,19 +1271,19 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622116088867</t>
+    <t xml:space="preserve">4.14622068405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.18188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.039222240448</t>
+    <t xml:space="preserve">4.03922176361084</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572158813477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95897197723389</t>
+    <t xml:space="preserve">3.95897245407104</t>
   </si>
   <si>
     <t xml:space="preserve">4.0213885307312</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330598831177</t>
+    <t xml:space="preserve">3.92330574989319</t>
   </si>
   <si>
     <t xml:space="preserve">3.90547251701355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81630682945251</t>
+    <t xml:space="preserve">3.81630659103394</t>
   </si>
   <si>
     <t xml:space="preserve">3.7093071937561</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">3.67364072799683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63797450065613</t>
+    <t xml:space="preserve">3.63797426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880833625793</t>
+    <t xml:space="preserve">3.54880857467651</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555818557739</t>
+    <t xml:space="preserve">3.57555842399597</t>
   </si>
   <si>
     <t xml:space="preserve">3.59339141845703</t>
@@ -1358,28 +1358,28 @@
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372663497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26347708702087</t>
+    <t xml:space="preserve">3.34372639656067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26347732543945</t>
   </si>
   <si>
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997714996338</t>
+    <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081122398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10297822952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04056191444397</t>
+    <t xml:space="preserve">3.12081146240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10297799110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04056215286255</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">3.02272868156433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96031260490417</t>
+    <t xml:space="preserve">2.9603123664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">2.94247937202454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89789628982544</t>
+    <t xml:space="preserve">2.89789652824402</t>
   </si>
   <si>
     <t xml:space="preserve">2.80873036384583</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">2.75523066520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63931465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58581519126892</t>
+    <t xml:space="preserve">2.63931488990784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5858154296875</t>
   </si>
   <si>
     <t xml:space="preserve">2.56798195838928</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">2.96922898292542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98706221580505</t>
+    <t xml:space="preserve">2.98706197738647</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814583778381</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.9246461391449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86222982406616</t>
+    <t xml:space="preserve">2.86223006248474</t>
   </si>
   <si>
     <t xml:space="preserve">2.81764674186707</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">2.78198027610779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281435012817</t>
+    <t xml:space="preserve">2.69281458854675</t>
   </si>
   <si>
     <t xml:space="preserve">2.67498111724854</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">3.29022693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27239370346069</t>
+    <t xml:space="preserve">3.27239346504211</t>
   </si>
   <si>
     <t xml:space="preserve">3.33481001853943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30806016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214391708374</t>
+    <t xml:space="preserve">3.30805993080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
     <t xml:space="preserve">3.20106077194214</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">3.21889400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539454460144</t>
+    <t xml:space="preserve">3.16539430618286</t>
   </si>
   <si>
     <t xml:space="preserve">3.1386444568634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1832275390625</t>
+    <t xml:space="preserve">3.18322777748108</t>
   </si>
   <si>
     <t xml:space="preserve">3.15647768974304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32589340209961</t>
+    <t xml:space="preserve">3.32589316368103</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
@@ -1517,22 +1517,22 @@
     <t xml:space="preserve">3.65580773353577</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53989171981812</t>
+    <t xml:space="preserve">3.53989195823669</t>
   </si>
   <si>
     <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53097534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4061427116394</t>
+    <t xml:space="preserve">3.5309751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40614295005798</t>
   </si>
   <si>
     <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39722585678101</t>
+    <t xml:space="preserve">3.39722609519958</t>
   </si>
   <si>
     <t xml:space="preserve">3.4418089389801</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">3.37939286231995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
+    <t xml:space="preserve">3.2278106212616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489544868469</t>
   </si>
   <si>
     <t xml:space="preserve">3.08514499664307</t>
@@ -1562,25 +1562,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321828842163</t>
+    <t xml:space="preserve">3.13321805000305</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645367622375</t>
+    <t xml:space="preserve">3.08645391464233</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1592,34 +1592,34 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451268196106</t>
+    <t xml:space="preserve">3.11451244354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292492866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716135025024</t>
+    <t xml:space="preserve">2.99292516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716158866882</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104429244995</t>
+    <t xml:space="preserve">2.73104405403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039697647095</t>
+    <t xml:space="preserve">2.74039721488953</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298528671265</t>
+    <t xml:space="preserve">2.70298552513123</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880946159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68427968025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557383537292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945630073547</t>
+    <t xml:space="preserve">2.61880922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6842794418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557359695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945653915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722170829773</t>
+    <t xml:space="preserve">2.49722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519238948822</t>
+    <t xml:space="preserve">3.15192413330078</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127729415894</t>
+    <t xml:space="preserve">3.16127705574036</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457304000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780866622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81521987915039</t>
+    <t xml:space="preserve">2.82457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780842781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598814964294</t>
+    <t xml:space="preserve">2.28210520744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598791122437</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698894500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1231062412262</t>
+    <t xml:space="preserve">2.06698870658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863669872284</t>
+    <t xml:space="preserve">1.89863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540107250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987061500549</t>
+    <t xml:space="preserve">1.94540119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022433280945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922353744507</t>
+    <t xml:space="preserve">2.17922329902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534083366394</t>
+    <t xml:space="preserve">2.23534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469375610352</t>
+    <t xml:space="preserve">2.24469399452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -59900,7 +59900,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6495138889</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>17870</v>
@@ -59921,6 +59921,32 @@
         <v>853</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6496064815</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>41859</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>1.89499998092651</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>1.86500000953674</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>1.89499998092651</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>862</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">3.00149464607239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94410133361816</t>
+    <t xml:space="preserve">2.94410157203674</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515758514404</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">2.93169212341309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94720387458801</t>
+    <t xml:space="preserve">2.94720411300659</t>
   </si>
   <si>
     <t xml:space="preserve">2.92393660545349</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">2.79363918304443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82000875473022</t>
+    <t xml:space="preserve">2.82000851631165</t>
   </si>
   <si>
     <t xml:space="preserve">2.75485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70987629890442</t>
+    <t xml:space="preserve">2.70987606048584</t>
   </si>
   <si>
     <t xml:space="preserve">2.55941367149353</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">2.51287889480591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44152593612671</t>
+    <t xml:space="preserve">2.44152617454529</t>
   </si>
   <si>
     <t xml:space="preserve">2.54855561256409</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">2.65248370170593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67264842987061</t>
+    <t xml:space="preserve">2.67264866828918</t>
   </si>
   <si>
     <t xml:space="preserve">2.69901823997498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61680698394775</t>
+    <t xml:space="preserve">2.61680674552917</t>
   </si>
   <si>
     <t xml:space="preserve">2.77657604217529</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">2.81380414962769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624610900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72538828849792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73314356803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195557594299</t>
+    <t xml:space="preserve">2.73624634742737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72538805007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73314380645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195581436157</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281363487244</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">2.71608114242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73469519615173</t>
+    <t xml:space="preserve">2.73469495773315</t>
   </si>
   <si>
     <t xml:space="preserve">2.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79829263687134</t>
+    <t xml:space="preserve">2.79829239845276</t>
   </si>
   <si>
     <t xml:space="preserve">2.76726913452148</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">2.7222855091095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8696460723877</t>
+    <t xml:space="preserve">2.86964583396912</t>
   </si>
   <si>
     <t xml:space="preserve">2.83086705207825</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">2.75330877304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74865555763245</t>
+    <t xml:space="preserve">2.74865531921387</t>
   </si>
   <si>
     <t xml:space="preserve">2.76416683197021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76571798324585</t>
+    <t xml:space="preserve">2.76571822166443</t>
   </si>
   <si>
     <t xml:space="preserve">2.7502064704895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75641131401062</t>
+    <t xml:space="preserve">2.75641107559204</t>
   </si>
   <si>
     <t xml:space="preserve">2.77037167549133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78278088569641</t>
+    <t xml:space="preserve">2.78278112411499</t>
   </si>
   <si>
     <t xml:space="preserve">2.79208779335022</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">2.84327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81225275993347</t>
+    <t xml:space="preserve">2.81225299835205</t>
   </si>
   <si>
     <t xml:space="preserve">2.89291334152222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93014097213745</t>
+    <t xml:space="preserve">2.93014121055603</t>
   </si>
   <si>
     <t xml:space="preserve">2.90842485427856</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">2.92458295822144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90034604072571</t>
+    <t xml:space="preserve">2.90034580230713</t>
   </si>
   <si>
     <t xml:space="preserve">2.88257217407227</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">2.89226698875427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80501389503479</t>
+    <t xml:space="preserve">2.80501413345337</t>
   </si>
   <si>
     <t xml:space="preserve">2.80663013458252</t>
@@ -248,34 +248,34 @@
     <t xml:space="preserve">2.78724050521851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81955671310425</t>
+    <t xml:space="preserve">2.81955647468567</t>
   </si>
   <si>
     <t xml:space="preserve">2.74684596061707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80339860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803030967712</t>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803007125854</t>
   </si>
   <si>
     <t xml:space="preserve">2.92135119438171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90196180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91165661811829</t>
+    <t xml:space="preserve">2.9019615650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91165685653687</t>
   </si>
   <si>
     <t xml:space="preserve">2.95528268814087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99567770957947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445672988892</t>
+    <t xml:space="preserve">2.99567747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445649147034</t>
   </si>
   <si>
     <t xml:space="preserve">3.02960920333862</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">3.00698828697205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98275136947632</t>
+    <t xml:space="preserve">2.98275113105774</t>
   </si>
   <si>
     <t xml:space="preserve">2.95205140113831</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">2.96013021469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95689868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90519332885742</t>
+    <t xml:space="preserve">2.95689845085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.905193567276</t>
   </si>
   <si>
     <t xml:space="preserve">2.94881987571716</t>
@@ -338,25 +338,25 @@
     <t xml:space="preserve">2.89388298988342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90680909156799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87772464752197</t>
+    <t xml:space="preserve">2.90680932998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87772488594055</t>
   </si>
   <si>
     <t xml:space="preserve">2.8437933921814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85025668144226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83571410179138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86641407012939</t>
+    <t xml:space="preserve">2.85025644302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8357138633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91650366783142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.87934064865112</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">2.91327214241028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9795196056366</t>
+    <t xml:space="preserve">2.97951984405518</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768825531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08616185188293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524653434753</t>
+    <t xml:space="preserve">3.08616209030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524629592896</t>
   </si>
   <si>
     <t xml:space="preserve">3.10231971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0780827999115</t>
+    <t xml:space="preserve">3.07808303833008</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314615249634</t>
@@ -395,22 +395,22 @@
     <t xml:space="preserve">2.99890899658203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9908299446106</t>
+    <t xml:space="preserve">2.99083018302917</t>
   </si>
   <si>
     <t xml:space="preserve">2.97305655479431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88418793678284</t>
+    <t xml:space="preserve">2.88418817520142</t>
   </si>
   <si>
     <t xml:space="preserve">2.93104577064514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95851469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89065098762512</t>
+    <t xml:space="preserve">2.95851445198059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8906512260437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93589353561401</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">2.93427753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357756614685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98759865760803</t>
+    <t xml:space="preserve">2.90357732772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98759889602661</t>
   </si>
   <si>
     <t xml:space="preserve">3.01021981239319</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">2.9940619468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05384588241577</t>
+    <t xml:space="preserve">3.05384612083435</t>
   </si>
   <si>
     <t xml:space="preserve">2.82117223739624</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">2.96659326553345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93912482261658</t>
+    <t xml:space="preserve">2.93912506103516</t>
   </si>
   <si>
     <t xml:space="preserve">2.9423565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83733010292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84217715263367</t>
+    <t xml:space="preserve">2.83733034133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84217739105225</t>
   </si>
   <si>
     <t xml:space="preserve">2.83409833908081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77108263969421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72260880470276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81147742271423</t>
+    <t xml:space="preserve">2.77108287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72260856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81147766113281</t>
   </si>
   <si>
     <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70321917533875</t>
+    <t xml:space="preserve">2.70321941375732</t>
   </si>
   <si>
     <t xml:space="preserve">2.69837188720703</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">2.74522995948792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74361419677734</t>
+    <t xml:space="preserve">2.74361443519592</t>
   </si>
   <si>
     <t xml:space="preserve">2.76946663856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82440376281738</t>
+    <t xml:space="preserve">2.82440400123596</t>
   </si>
   <si>
     <t xml:space="preserve">2.77431440353394</t>
@@ -494,16 +494,16 @@
     <t xml:space="preserve">2.80016684532166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81794023513794</t>
+    <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
     <t xml:space="preserve">2.85995101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94397211074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96982502937317</t>
+    <t xml:space="preserve">2.94397234916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96982479095459</t>
   </si>
   <si>
     <t xml:space="preserve">2.96820902824402</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">2.92781448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183533668518</t>
+    <t xml:space="preserve">3.01183557510376</t>
   </si>
   <si>
     <t xml:space="preserve">3.02476191520691</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">3.01506733894348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00214123725891</t>
+    <t xml:space="preserve">3.00214099884033</t>
   </si>
   <si>
     <t xml:space="preserve">3.0199146270752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06030917167664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838846206665</t>
+    <t xml:space="preserve">3.06030941009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838822364807</t>
   </si>
   <si>
     <t xml:space="preserve">3.07000398635864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14271450042725</t>
+    <t xml:space="preserve">3.14271473884583</t>
   </si>
   <si>
     <t xml:space="preserve">3.21542525291443</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625144958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1443305015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15402507781982</t>
+    <t xml:space="preserve">3.13625121116638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14433073997498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1540253162384</t>
   </si>
   <si>
     <t xml:space="preserve">3.14594650268555</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">3.3931622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56120491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57089972496033</t>
+    <t xml:space="preserve">3.56120467185974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57089948654175</t>
   </si>
   <si>
     <t xml:space="preserve">3.54827880859375</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">3.50788331031799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50303626060486</t>
+    <t xml:space="preserve">3.50303602218628</t>
   </si>
   <si>
     <t xml:space="preserve">3.32045197486877</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52752637863159</t>
+    <t xml:space="preserve">3.52752614021301</t>
   </si>
   <si>
     <t xml:space="preserve">3.49906492233276</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">3.51580691337585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59951686859131</t>
+    <t xml:space="preserve">3.59951663017273</t>
   </si>
   <si>
     <t xml:space="preserve">3.62965226173401</t>
@@ -647,25 +647,25 @@
     <t xml:space="preserve">3.68155193328857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70666480064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67318105697632</t>
+    <t xml:space="preserve">3.7066650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67318081855774</t>
   </si>
   <si>
     <t xml:space="preserve">3.78200387954712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85901641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97621011734009</t>
+    <t xml:space="preserve">3.85901689529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97621035575867</t>
   </si>
   <si>
     <t xml:space="preserve">4.00132322311401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05154895782471</t>
+    <t xml:space="preserve">4.05154848098755</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">3.93268156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87241005897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76693606376648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222985267639</t>
+    <t xml:space="preserve">3.87240982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7669358253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222961425781</t>
   </si>
   <si>
     <t xml:space="preserve">3.8087911605835</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">3.91761350631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85231971740723</t>
+    <t xml:space="preserve">3.84394907951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85231995582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.84562301635742</t>
@@ -704,28 +704,28 @@
     <t xml:space="preserve">3.85064554214478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9845814704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83055520057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90924263000488</t>
+    <t xml:space="preserve">3.98458099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8305549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9092423915863</t>
   </si>
   <si>
     <t xml:space="preserve">3.94272613525391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94607472419739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109701156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93100666999817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93435525894165</t>
+    <t xml:space="preserve">3.94607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109724998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93100690841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93435502052307</t>
   </si>
   <si>
     <t xml:space="preserve">3.92598438262939</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">3.87743234634399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77698111534119</t>
+    <t xml:space="preserve">3.77698135375977</t>
   </si>
   <si>
     <t xml:space="preserve">3.79372310638428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71671032905579</t>
+    <t xml:space="preserve">3.71671009063721</t>
   </si>
   <si>
     <t xml:space="preserve">3.68322658538818</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">3.73512578010559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76861000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978765487671</t>
+    <t xml:space="preserve">3.76860976219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508120536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978789329529</t>
   </si>
   <si>
     <t xml:space="preserve">3.55933594703674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65811347961426</t>
+    <t xml:space="preserve">3.65811371803284</t>
   </si>
   <si>
     <t xml:space="preserve">3.68657445907593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60788750648499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56603288650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797808647156</t>
+    <t xml:space="preserve">3.60788774490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56603312492371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797784805298</t>
   </si>
   <si>
     <t xml:space="preserve">3.5744035243988</t>
@@ -785,28 +785,28 @@
     <t xml:space="preserve">3.64806795120239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64137125015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499134063721</t>
+    <t xml:space="preserve">3.64137148857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499110221863</t>
   </si>
   <si>
     <t xml:space="preserve">3.66648435592651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67987775802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65643930435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005867958069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7368004322052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69996857643127</t>
+    <t xml:space="preserve">3.6798779964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65643906593323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73680067062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6999683380127</t>
   </si>
   <si>
     <t xml:space="preserve">3.70164227485657</t>
@@ -818,37 +818,37 @@
     <t xml:space="preserve">3.79037475585938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7970712184906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78870058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78367805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77530717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539728164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535175323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75019407272339</t>
+    <t xml:space="preserve">3.79707145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78870034217834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78367781639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77530741691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539752006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535151481628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">3.83390355110168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01806449890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11014556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548488616943</t>
+    <t xml:space="preserve">4.01806497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1101450920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548440933228</t>
   </si>
   <si>
     <t xml:space="preserve">4.25245189666748</t>
@@ -857,16 +857,16 @@
     <t xml:space="preserve">4.26919412612915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31104898452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290431976318</t>
+    <t xml:space="preserve">4.31104946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290336608887</t>
   </si>
   <si>
     <t xml:space="preserve">4.27337980270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34453296661377</t>
+    <t xml:space="preserve">4.34453344345093</t>
   </si>
   <si>
     <t xml:space="preserve">4.29849290847778</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">4.30267810821533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36546087265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33616161346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37801742553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44498443603516</t>
+    <t xml:space="preserve">4.36546039581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33616209030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37801694869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44498491287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.4366135597229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49939632415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50358104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54543590545654</t>
+    <t xml:space="preserve">4.4993953704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50358152389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5454363822937</t>
   </si>
   <si>
     <t xml:space="preserve">4.57473468780518</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">4.68774223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65844392776489</t>
+    <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
     <t xml:space="preserve">4.68355655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6751856803894</t>
+    <t xml:space="preserve">4.67518615722656</t>
   </si>
   <si>
     <t xml:space="preserve">4.78400897979736</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">4.83004903793335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82167863845825</t>
+    <t xml:space="preserve">4.82167816162109</t>
   </si>
   <si>
     <t xml:space="preserve">4.88027477264404</t>
@@ -938,19 +938,19 @@
     <t xml:space="preserve">4.73796796798706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71285533905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6626296043396</t>
+    <t xml:space="preserve">4.71285486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66262912750244</t>
   </si>
   <si>
     <t xml:space="preserve">4.52869367599487</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57054853439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67937183380127</t>
+    <t xml:space="preserve">4.57054901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67937135696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.7798228263855</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">5.13977479934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000101089478</t>
+    <t xml:space="preserve">5.19000053405762</t>
   </si>
   <si>
     <t xml:space="preserve">5.26115369796753</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">5.28626680374146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31975030899048</t>
+    <t xml:space="preserve">5.31975078582764</t>
   </si>
   <si>
     <t xml:space="preserve">5.31556463241577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601657867432</t>
+    <t xml:space="preserve">5.41601705551147</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">5.44112968444824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49135589599609</t>
+    <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
     <t xml:space="preserve">5.52483940124512</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">5.43275880813599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54995250701904</t>
+    <t xml:space="preserve">5.54995203018188</t>
   </si>
   <si>
     <t xml:space="preserve">5.53321075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50809764862061</t>
+    <t xml:space="preserve">5.50809717178345</t>
   </si>
   <si>
     <t xml:space="preserve">5.64203262329102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65877532958984</t>
+    <t xml:space="preserve">5.658775806427</t>
   </si>
   <si>
     <t xml:space="preserve">5.6252908706665</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">5.57506513595581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60854911804199</t>
+    <t xml:space="preserve">5.60854864120483</t>
   </si>
   <si>
     <t xml:space="preserve">5.63366222381592</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">5.70900058746338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42438745498657</t>
+    <t xml:space="preserve">5.42438793182373</t>
   </si>
   <si>
     <t xml:space="preserve">5.5583233833313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30719423294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15651607513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07280683517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00583982467651</t>
+    <t xml:space="preserve">5.30719375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15651655197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07280731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00583934783936</t>
   </si>
   <si>
     <t xml:space="preserve">5.08954906463623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2234845161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95561408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98909711837769</t>
+    <t xml:space="preserve">5.22348403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95561361312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98909759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.02258110046387</t>
@@ -1076,13 +1076,13 @@
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493593215942</t>
+    <t xml:space="preserve">4.80493640899658</t>
   </si>
   <si>
     <t xml:space="preserve">4.77145195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70448446273804</t>
+    <t xml:space="preserve">4.7044849395752</t>
   </si>
   <si>
     <t xml:space="preserve">4.67100048065186</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">4.83842039108276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93887186050415</t>
+    <t xml:space="preserve">4.93887233734131</t>
   </si>
   <si>
     <t xml:space="preserve">4.90538787841797</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60403251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65425872802734</t>
+    <t xml:space="preserve">4.60403299331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65425825119019</t>
   </si>
   <si>
     <t xml:space="preserve">4.53706502914429</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">4.5538067817688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59701251983643</t>
+    <t xml:space="preserve">4.59701204299927</t>
   </si>
   <si>
     <t xml:space="preserve">4.63157653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61429405212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71798610687256</t>
+    <t xml:space="preserve">4.61429452896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71798658370972</t>
   </si>
   <si>
     <t xml:space="preserve">4.75255012512207</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">4.90413188934326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8506326675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363374710083</t>
+    <t xml:space="preserve">4.85063219070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363327026367</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">4.28888654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24430322647095</t>
+    <t xml:space="preserve">4.24430370330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">4.06597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08380508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05705451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96788835525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87872290611267</t>
+    <t xml:space="preserve">4.08380460739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96788859367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87872266769409</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7449734210968</t>
+    <t xml:space="preserve">3.74497365951538</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36021947860718</t>
+    <t xml:space="preserve">4.36021900177002</t>
   </si>
   <si>
     <t xml:space="preserve">4.27997016906738</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463844299316</t>
+    <t xml:space="preserve">3.99463868141174</t>
   </si>
   <si>
     <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20863676071167</t>
+    <t xml:space="preserve">4.20863723754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538637161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297077178955</t>
+    <t xml:space="preserve">4.23538684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297029495239</t>
   </si>
   <si>
     <t xml:space="preserve">4.13730382919312</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">4.12838792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15513706207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92330598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630682945251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7093071937561</t>
+    <t xml:space="preserve">4.15513753890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92330574989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547251701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630659103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
     <t xml:space="preserve">3.67364072799683</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880833625793</t>
+    <t xml:space="preserve">3.54880857467651</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">3.59339165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58447480201721</t>
+    <t xml:space="preserve">3.58447456359863</t>
   </si>
   <si>
     <t xml:space="preserve">3.52205872535706</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">3.45964241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47747588157654</t>
+    <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
     <t xml:space="preserve">3.45072555541992</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997714996338</t>
+    <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
     <t xml:space="preserve">3.17431092262268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12081122398376</t>
+    <t xml:space="preserve">3.12081146240234</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">3.03164553642273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02272891998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9603123664856</t>
+    <t xml:space="preserve">3.02272868156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96031212806702</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247937202454</t>
+    <t xml:space="preserve">2.94247913360596</t>
   </si>
   <si>
     <t xml:space="preserve">2.89789628982544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8087306022644</t>
+    <t xml:space="preserve">2.80873036384583</t>
   </si>
   <si>
     <t xml:space="preserve">2.75523066520691</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">2.68389773368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71064782142639</t>
+    <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
     <t xml:space="preserve">2.79981374740601</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">2.98706197738647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97814559936523</t>
+    <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
     <t xml:space="preserve">2.9246461391449</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81764698028564</t>
+    <t xml:space="preserve">2.81764674186707</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78198027610779</t>
+    <t xml:space="preserve">2.78198051452637</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281435012817</t>
@@ -1487,16 +1487,16 @@
     <t xml:space="preserve">3.16539430618286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13864469528198</t>
+    <t xml:space="preserve">3.1386444568634</t>
   </si>
   <si>
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
+    <t xml:space="preserve">3.15647768974304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589316368103</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
@@ -1505,22 +1505,22 @@
     <t xml:space="preserve">3.68255758285522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65580725669861</t>
+    <t xml:space="preserve">3.65580749511719</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314187049866</t>
+    <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
     <t xml:space="preserve">3.5309751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40614247322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697654724121</t>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
     <t xml:space="preserve">3.39722609519958</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">3.37939310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22781038284302</t>
+    <t xml:space="preserve">3.2278106212616</t>
   </si>
   <si>
     <t xml:space="preserve">3.00489544868469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08514475822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381206512451</t>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
   </si>
   <si>
     <t xml:space="preserve">2.95139598846436</t>
@@ -60022,6 +60022,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>45520.6496296296</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>5487</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>1.8400000333786</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>1.84500002861023</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>1.85000002384186</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>865</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -44,37 +44,37 @@
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96581745147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00149464607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94410157203674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515758514404</t>
+    <t xml:space="preserve">2.96581768989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00149393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94410133361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515734672546</t>
   </si>
   <si>
     <t xml:space="preserve">2.93169212341309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94720411300659</t>
+    <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
     <t xml:space="preserve">2.92393660545349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80139470100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984331130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70677423477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78433203697205</t>
+    <t xml:space="preserve">2.80139493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984354972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70677399635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78433179855347</t>
   </si>
   <si>
     <t xml:space="preserve">2.83862257003784</t>
@@ -83,40 +83,40 @@
     <t xml:space="preserve">2.85413432121277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84637856483459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80604839324951</t>
+    <t xml:space="preserve">2.84637880325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604863166809</t>
   </si>
   <si>
     <t xml:space="preserve">2.86499238014221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79363918304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82000851631165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70987606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941367149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44152617454529</t>
+    <t xml:space="preserve">2.79363894462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82000875473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75486016273499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.709876537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941343307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287913322449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44152569770813</t>
   </si>
   <si>
     <t xml:space="preserve">2.54855561256409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65248370170593</t>
+    <t xml:space="preserve">2.65248394012451</t>
   </si>
   <si>
     <t xml:space="preserve">2.67264866828918</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">2.77657604217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81380414962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73624634742737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72538805007935</t>
+    <t xml:space="preserve">2.81380438804626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73624610900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72538781166077</t>
   </si>
   <si>
     <t xml:space="preserve">2.73314380645752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68195581436157</t>
+    <t xml:space="preserve">2.68195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281363487244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6912624835968</t>
+    <t xml:space="preserve">2.69126224517822</t>
   </si>
   <si>
     <t xml:space="preserve">2.71608114242554</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">2.73469495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7455530166626</t>
+    <t xml:space="preserve">2.74555325508118</t>
   </si>
   <si>
     <t xml:space="preserve">2.79829239845276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76726913452148</t>
+    <t xml:space="preserve">2.76726937294006</t>
   </si>
   <si>
     <t xml:space="preserve">2.7222855091095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86964583396912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83086705207825</t>
+    <t xml:space="preserve">2.8696460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83086657524109</t>
   </si>
   <si>
     <t xml:space="preserve">2.75330877304077</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">2.77037167549133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78278112411499</t>
+    <t xml:space="preserve">2.78278088569641</t>
   </si>
   <si>
     <t xml:space="preserve">2.79208779335022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84327602386475</t>
+    <t xml:space="preserve">2.84327578544617</t>
   </si>
   <si>
     <t xml:space="preserve">2.81225299835205</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">2.90034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88257217407227</t>
+    <t xml:space="preserve">2.88257241249084</t>
   </si>
   <si>
     <t xml:space="preserve">2.89226698875427</t>
@@ -236,28 +236,28 @@
     <t xml:space="preserve">2.80663013458252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8292510509491</t>
+    <t xml:space="preserve">2.82925128936768</t>
   </si>
   <si>
     <t xml:space="preserve">2.77916169166565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77593016624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78724050521851</t>
+    <t xml:space="preserve">2.77593040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78724098205566</t>
   </si>
   <si>
     <t xml:space="preserve">2.81955647468567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74684596061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8033983707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803007125854</t>
+    <t xml:space="preserve">2.74684572219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80339860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86802983283997</t>
   </si>
   <si>
     <t xml:space="preserve">2.92135119438171</t>
@@ -266,37 +266,37 @@
     <t xml:space="preserve">2.9019615650177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91165685653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528268814087</t>
+    <t xml:space="preserve">2.91165637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
   </si>
   <si>
     <t xml:space="preserve">2.99567747116089</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03445649147034</t>
+    <t xml:space="preserve">3.0344569683075</t>
   </si>
   <si>
     <t xml:space="preserve">3.02960920333862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02153015136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02799344062805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698828697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98275113105774</t>
+    <t xml:space="preserve">3.02153038978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02799367904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698804855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98275136947632</t>
   </si>
   <si>
     <t xml:space="preserve">2.95205140113831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94074106216431</t>
+    <t xml:space="preserve">2.94074082374573</t>
   </si>
   <si>
     <t xml:space="preserve">2.94558811187744</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">2.89873027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811966896057</t>
+    <t xml:space="preserve">2.91811990737915</t>
   </si>
   <si>
     <t xml:space="preserve">2.93750905990601</t>
@@ -317,19 +317,22 @@
     <t xml:space="preserve">2.82763528823853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449336051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96013021469116</t>
+    <t xml:space="preserve">2.87449359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842509269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96012997627258</t>
   </si>
   <si>
     <t xml:space="preserve">2.95689845085144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.905193567276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881987571716</t>
+    <t xml:space="preserve">2.90519309043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881963729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.98113560676575</t>
@@ -347,28 +350,28 @@
     <t xml:space="preserve">2.8437933921814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85025644302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8357138633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91650366783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86641430854797</t>
+    <t xml:space="preserve">2.85025668144226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83571434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86641454696655</t>
   </si>
   <si>
     <t xml:space="preserve">2.87934064865112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89549851417542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91327214241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97951984405518</t>
+    <t xml:space="preserve">2.89549875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9132719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9795196056366</t>
   </si>
   <si>
     <t xml:space="preserve">3.03768825531006</t>
@@ -380,19 +383,19 @@
     <t xml:space="preserve">3.11524629592896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10231971740723</t>
+    <t xml:space="preserve">3.10231995582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.07808303833008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02314615249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00537252426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890899658203</t>
+    <t xml:space="preserve">3.02314639091492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0053722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890947341919</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
@@ -401,31 +404,31 @@
     <t xml:space="preserve">2.97305655479431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88418817520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93104577064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95851445198059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8906512260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93589353561401</t>
+    <t xml:space="preserve">2.88418793678284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93104600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95851421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89065098762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93589329719543</t>
   </si>
   <si>
     <t xml:space="preserve">2.93427753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357732772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98759889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01021981239319</t>
+    <t xml:space="preserve">2.90357756614685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98759865760803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01022005081177</t>
   </si>
   <si>
     <t xml:space="preserve">2.9940619468689</t>
@@ -440,52 +443,52 @@
     <t xml:space="preserve">2.98921465873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96659326553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93912506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9423565864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83733034133911</t>
+    <t xml:space="preserve">2.96659350395203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93912529945374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94235634803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83733010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.84217739105225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83409833908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77108287811279</t>
+    <t xml:space="preserve">2.83409857749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77108263969421</t>
   </si>
   <si>
     <t xml:space="preserve">2.72260856628418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81147766113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72907209396362</t>
+    <t xml:space="preserve">2.81147718429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7290723323822</t>
   </si>
   <si>
     <t xml:space="preserve">2.70321941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69837188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74522995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74361443519592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76946663856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82440400123596</t>
+    <t xml:space="preserve">2.69837212562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74522972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74361419677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76946687698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82440376281738</t>
   </si>
   <si>
     <t xml:space="preserve">2.77431440353394</t>
@@ -497,22 +500,22 @@
     <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85995101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94397234916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96982479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96820902824402</t>
+    <t xml:space="preserve">2.85995125770569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94397258758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96982526779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9682092666626</t>
   </si>
   <si>
     <t xml:space="preserve">2.92781448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183557510376</t>
+    <t xml:space="preserve">3.01183581352234</t>
   </si>
   <si>
     <t xml:space="preserve">3.02476191520691</t>
@@ -521,31 +524,31 @@
     <t xml:space="preserve">2.99729347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0182991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01506733894348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00214099884033</t>
+    <t xml:space="preserve">3.01829862594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0150671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00214076042175</t>
   </si>
   <si>
     <t xml:space="preserve">3.0199146270752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06030941009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838822364807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07000398635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14271473884583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542525291443</t>
+    <t xml:space="preserve">3.06030917167664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07000422477722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1427149772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542549133301</t>
   </si>
   <si>
     <t xml:space="preserve">3.23158311843872</t>
@@ -554,10 +557,10 @@
     <t xml:space="preserve">3.25582027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25905156135559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28652000427246</t>
+    <t xml:space="preserve">3.25905179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28651976585388</t>
   </si>
   <si>
     <t xml:space="preserve">3.19118857383728</t>
@@ -578,10 +581,10 @@
     <t xml:space="preserve">3.28813600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33660960197449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38185167312622</t>
+    <t xml:space="preserve">3.33660984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38185143470764</t>
   </si>
   <si>
     <t xml:space="preserve">3.3931622505188</t>
@@ -590,70 +593,70 @@
     <t xml:space="preserve">3.56120467185974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57089948654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54827880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55474162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50626802444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56282043457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50788331031799</t>
+    <t xml:space="preserve">3.57089996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54827857017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55474185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343152046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50626826286316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56282019615173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50788378715515</t>
   </si>
   <si>
     <t xml:space="preserve">3.50303602218628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32045197486877</t>
+    <t xml:space="preserve">3.32045221328735</t>
   </si>
   <si>
     <t xml:space="preserve">3.44971513748169</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51434659957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.473952293396</t>
+    <t xml:space="preserve">3.51434683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47395205497742</t>
   </si>
   <si>
     <t xml:space="preserve">3.55766177177429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52752614021301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49906492233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51580691337585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59951663017273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62965226173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68155193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7066650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67318081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200387954712</t>
+    <t xml:space="preserve">3.52752637863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49906516075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51580667495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59951686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62965202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68155217170715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70666527748108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67318105697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78200340270996</t>
   </si>
   <si>
     <t xml:space="preserve">3.85901689529419</t>
@@ -665,25 +668,25 @@
     <t xml:space="preserve">4.00132322311401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05154848098755</t>
+    <t xml:space="preserve">4.05154895782471</t>
   </si>
   <si>
     <t xml:space="preserve">4.02643585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93268156051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87240982055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7669358253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83222961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8087911605835</t>
+    <t xml:space="preserve">3.93268132209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87240958213806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76693606376648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83222937583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879139900208</t>
   </si>
   <si>
     <t xml:space="preserve">3.92933249473572</t>
@@ -692,31 +695,31 @@
     <t xml:space="preserve">3.91761350631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394907951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85231995582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84562301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064554214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8305549621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9092423915863</t>
+    <t xml:space="preserve">3.84394860267639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85232019424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.845623254776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064506530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458170890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83055567741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90924263000488</t>
   </si>
   <si>
     <t xml:space="preserve">3.94272613525391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94607496261597</t>
+    <t xml:space="preserve">3.94607472419739</t>
   </si>
   <si>
     <t xml:space="preserve">3.95109724998474</t>
@@ -725,19 +728,19 @@
     <t xml:space="preserve">3.93100690841675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93435502052307</t>
+    <t xml:space="preserve">3.93435525894165</t>
   </si>
   <si>
     <t xml:space="preserve">3.92598438262939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87743234634399</t>
+    <t xml:space="preserve">3.87743282318115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77698135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79372310638428</t>
+    <t xml:space="preserve">3.7937228679657</t>
   </si>
   <si>
     <t xml:space="preserve">3.71671009063721</t>
@@ -746,13 +749,13 @@
     <t xml:space="preserve">3.68322658538818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512578010559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76860976219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72508120536804</t>
+    <t xml:space="preserve">3.73512601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76861000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72508096694946</t>
   </si>
   <si>
     <t xml:space="preserve">3.65978789329529</t>
@@ -764,16 +767,16 @@
     <t xml:space="preserve">3.65811371803284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68657445907593</t>
+    <t xml:space="preserve">3.68657422065735</t>
   </si>
   <si>
     <t xml:space="preserve">3.60788774490356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56603312492371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797784805298</t>
+    <t xml:space="preserve">3.56603288650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797808647156</t>
   </si>
   <si>
     <t xml:space="preserve">3.5744035243988</t>
@@ -785,43 +788,43 @@
     <t xml:space="preserve">3.64806795120239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64137148857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70499110221863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66648435592651</t>
+    <t xml:space="preserve">3.64137125015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70499086380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66648411750793</t>
   </si>
   <si>
     <t xml:space="preserve">3.6798779964447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65643906593323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72005844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73680067062378</t>
+    <t xml:space="preserve">3.65643930435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72005820274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7368004322052</t>
   </si>
   <si>
     <t xml:space="preserve">3.6999683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70164227485657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72173285484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79037475585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79707145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78870034217834</t>
+    <t xml:space="preserve">3.70164251327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72173261642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79037427902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79707169532776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7887008190155</t>
   </si>
   <si>
     <t xml:space="preserve">3.78367781639099</t>
@@ -830,22 +833,22 @@
     <t xml:space="preserve">3.77530741691589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79539752006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78535151481628</t>
+    <t xml:space="preserve">3.79539728164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78535199165344</t>
   </si>
   <si>
     <t xml:space="preserve">3.75019431114197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83390355110168</t>
+    <t xml:space="preserve">3.83390331268311</t>
   </si>
   <si>
     <t xml:space="preserve">4.01806497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1101450920105</t>
+    <t xml:space="preserve">4.11014556884766</t>
   </si>
   <si>
     <t xml:space="preserve">4.18548440933228</t>
@@ -860,16 +863,16 @@
     <t xml:space="preserve">4.31104946136475</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35290336608887</t>
+    <t xml:space="preserve">4.35290384292603</t>
   </si>
   <si>
     <t xml:space="preserve">4.27337980270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34453344345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29849290847778</t>
+    <t xml:space="preserve">4.34453248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29849243164062</t>
   </si>
   <si>
     <t xml:space="preserve">4.30267810821533</t>
@@ -878,7 +881,7 @@
     <t xml:space="preserve">4.36546039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33616209030151</t>
+    <t xml:space="preserve">4.33616161346436</t>
   </si>
   <si>
     <t xml:space="preserve">4.37801694869995</t>
@@ -890,16 +893,16 @@
     <t xml:space="preserve">4.4366135597229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4993953704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50358152389526</t>
+    <t xml:space="preserve">4.49939632415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50358104705811</t>
   </si>
   <si>
     <t xml:space="preserve">4.5454363822937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57473468780518</t>
+    <t xml:space="preserve">4.57473421096802</t>
   </si>
   <si>
     <t xml:space="preserve">4.68774223327637</t>
@@ -908,7 +911,7 @@
     <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68355655670166</t>
+    <t xml:space="preserve">4.68355703353882</t>
   </si>
   <si>
     <t xml:space="preserve">4.67518615722656</t>
@@ -917,13 +920,13 @@
     <t xml:space="preserve">4.78400897979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83004903793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82167816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88027477264404</t>
+    <t xml:space="preserve">4.83004856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82167863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88027429580688</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353302001953</t>
@@ -932,16 +935,16 @@
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73796796798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71285486221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66262912750244</t>
+    <t xml:space="preserve">4.84260511398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73796844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71285533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6626296043396</t>
   </si>
   <si>
     <t xml:space="preserve">4.52869367599487</t>
@@ -950,13 +953,13 @@
     <t xml:space="preserve">4.57054901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67937135696411</t>
+    <t xml:space="preserve">4.67937183380127</t>
   </si>
   <si>
     <t xml:space="preserve">4.7798228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81330728530884</t>
+    <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
     <t xml:space="preserve">5.03095293045044</t>
@@ -965,7 +968,7 @@
     <t xml:space="preserve">5.13977479934692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000053405762</t>
+    <t xml:space="preserve">5.19000101089478</t>
   </si>
   <si>
     <t xml:space="preserve">5.26115369796753</t>
@@ -980,7 +983,7 @@
     <t xml:space="preserve">5.31556463241577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601705551147</t>
+    <t xml:space="preserve">5.41601657867432</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
@@ -992,34 +995,34 @@
     <t xml:space="preserve">5.49135541915894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52483940124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43275880813599</t>
+    <t xml:space="preserve">5.52483892440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43275833129883</t>
   </si>
   <si>
     <t xml:space="preserve">5.54995203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53321075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50809717178345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64203262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.658775806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6252908706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65040397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62947654724121</t>
+    <t xml:space="preserve">5.53321027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50809764862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64203214645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65877532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62529039382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65040349960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62947607040405</t>
   </si>
   <si>
     <t xml:space="preserve">5.59180736541748</t>
@@ -1028,10 +1031,10 @@
     <t xml:space="preserve">5.57506513595581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60854864120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63366222381592</t>
+    <t xml:space="preserve">5.60854911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63366174697876</t>
   </si>
   <si>
     <t xml:space="preserve">5.69225883483887</t>
@@ -1046,10 +1049,10 @@
     <t xml:space="preserve">5.5583233833313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30719375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15651655197144</t>
+    <t xml:space="preserve">5.30719423294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15651607513428</t>
   </si>
   <si>
     <t xml:space="preserve">5.07280731201172</t>
@@ -1058,49 +1061,49 @@
     <t xml:space="preserve">5.00583934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08954906463623</t>
+    <t xml:space="preserve">5.08954858779907</t>
   </si>
   <si>
     <t xml:space="preserve">5.22348403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95561361312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98909759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02258110046387</t>
+    <t xml:space="preserve">4.95561408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98909664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02258157730103</t>
   </si>
   <si>
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493640899658</t>
+    <t xml:space="preserve">4.80493593215942</t>
   </si>
   <si>
     <t xml:space="preserve">4.77145195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7044849395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67100048065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75471019744873</t>
+    <t xml:space="preserve">4.70448446273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6710000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75471067428589</t>
   </si>
   <si>
     <t xml:space="preserve">4.38638734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47009754180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83842039108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93887233734131</t>
+    <t xml:space="preserve">4.47009801864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83841991424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93887186050415</t>
   </si>
   <si>
     <t xml:space="preserve">4.90538787841797</t>
@@ -1115,25 +1118,25 @@
     <t xml:space="preserve">4.60403299331665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65425825119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53706502914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5538067817688</t>
+    <t xml:space="preserve">4.65425872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53706550598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55380725860596</t>
   </si>
   <si>
     <t xml:space="preserve">4.59701204299927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63157653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429452896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71798658370972</t>
+    <t xml:space="preserve">4.63157606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429405212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
     <t xml:space="preserve">4.75255012512207</t>
@@ -1145,10 +1148,10 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063219070435</t>
+    <t xml:space="preserve">4.90413236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85063314437866</t>
   </si>
   <si>
     <t xml:space="preserve">4.74363327026367</t>
@@ -1157,7 +1160,7 @@
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5474681854248</t>
+    <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
     <t xml:space="preserve">4.28888654708862</t>
@@ -1181,10 +1184,10 @@
     <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96788859367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87872266769409</t>
+    <t xml:space="preserve">3.96788835525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1193,7 +1196,7 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280665397644</t>
+    <t xml:space="preserve">3.76280689239502</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
@@ -1205,7 +1208,7 @@
     <t xml:space="preserve">3.70039081573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74497365951538</t>
+    <t xml:space="preserve">3.7449734210968</t>
   </si>
   <si>
     <t xml:space="preserve">3.72714042663574</t>
@@ -1226,7 +1229,7 @@
     <t xml:space="preserve">4.36021900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27997016906738</t>
+    <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1235,25 +1238,25 @@
     <t xml:space="preserve">4.0124716758728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99463868141174</t>
+    <t xml:space="preserve">3.99463844299316</t>
   </si>
   <si>
     <t xml:space="preserve">4.101637840271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20863723754883</t>
+    <t xml:space="preserve">4.20863676071167</t>
   </si>
   <si>
     <t xml:space="preserve">4.19080352783203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23538684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17297029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13730382919312</t>
+    <t xml:space="preserve">4.23538637161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17297077178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13730430603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1262,13 +1265,13 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18188762664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922128677368</t>
+    <t xml:space="preserve">4.14622116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922176361084</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1286,22 +1289,22 @@
     <t xml:space="preserve">4.15513753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92330574989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90547251701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81630659103394</t>
+    <t xml:space="preserve">3.92330551147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90547275543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
     <t xml:space="preserve">3.70930695533752</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67364072799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63797426223755</t>
+    <t xml:space="preserve">3.67364048957825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63797450065613</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1310,19 +1313,19 @@
     <t xml:space="preserve">3.48639225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54880857467651</t>
+    <t xml:space="preserve">3.54880833625793</t>
   </si>
   <si>
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339165687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58447456359863</t>
+    <t xml:space="preserve">3.57555818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58447480201721</t>
   </si>
   <si>
     <t xml:space="preserve">3.52205872535706</t>
@@ -1331,7 +1334,7 @@
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772471427917</t>
+    <t xml:space="preserve">3.55772495269775</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1343,13 +1346,13 @@
     <t xml:space="preserve">3.47747564315796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45072555541992</t>
+    <t xml:space="preserve">3.4507257938385</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372639656067</t>
+    <t xml:space="preserve">3.34372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1361,7 +1364,7 @@
     <t xml:space="preserve">3.20997738838196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17431092262268</t>
+    <t xml:space="preserve">3.17431116104126</t>
   </si>
   <si>
     <t xml:space="preserve">3.12081146240234</t>
@@ -1370,7 +1373,7 @@
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056215286255</t>
+    <t xml:space="preserve">3.04056191444397</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1379,16 +1382,16 @@
     <t xml:space="preserve">3.06731176376343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05839538574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03164553642273</t>
+    <t xml:space="preserve">3.05839514732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164529800415</t>
   </si>
   <si>
     <t xml:space="preserve">3.02272868156433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96031212806702</t>
+    <t xml:space="preserve">2.96031260490417</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
@@ -1421,25 +1424,25 @@
     <t xml:space="preserve">2.71064758300781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79981374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706197738647</t>
+    <t xml:space="preserve">2.79981398582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706221580505</t>
   </si>
   <si>
     <t xml:space="preserve">2.97814583778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9246461391449</t>
+    <t xml:space="preserve">2.92464590072632</t>
   </si>
   <si>
     <t xml:space="preserve">2.86222982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81764674186707</t>
+    <t xml:space="preserve">2.81764698028564</t>
   </si>
   <si>
     <t xml:space="preserve">2.84439659118652</t>
@@ -1454,7 +1457,7 @@
     <t xml:space="preserve">2.67498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11189460754395</t>
+    <t xml:space="preserve">3.11189484596252</t>
   </si>
   <si>
     <t xml:space="preserve">3.29022693634033</t>
@@ -1466,13 +1469,13 @@
     <t xml:space="preserve">3.33480978012085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30805993080139</t>
+    <t xml:space="preserve">3.30806016921997</t>
   </si>
   <si>
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106077194214</t>
+    <t xml:space="preserve">3.20106053352356</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1484,7 +1487,7 @@
     <t xml:space="preserve">3.2188937664032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539430618286</t>
+    <t xml:space="preserve">3.16539454460144</t>
   </si>
   <si>
     <t xml:space="preserve">3.1386444568634</t>
@@ -1493,16 +1496,16 @@
     <t xml:space="preserve">3.1832275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647768974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589316368103</t>
+    <t xml:space="preserve">3.15647792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589340209961</t>
   </si>
   <si>
     <t xml:space="preserve">3.50422549247742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68255758285522</t>
+    <t xml:space="preserve">3.6825578212738</t>
   </si>
   <si>
     <t xml:space="preserve">3.65580749511719</t>
@@ -1523,22 +1526,22 @@
     <t xml:space="preserve">3.31697678565979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39722609519958</t>
+    <t xml:space="preserve">3.39722585678101</t>
   </si>
   <si>
     <t xml:space="preserve">3.4418089389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42397594451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2278106212616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489544868469</t>
+    <t xml:space="preserve">3.42397570610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22781038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489521026611</t>
   </si>
   <si>
     <t xml:space="preserve">3.08514499664307</t>
@@ -1553,25 +1556,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321805000305</t>
+    <t xml:space="preserve">3.13321828842163</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645391464233</t>
+    <t xml:space="preserve">3.08645367622375</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227785110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551347732544</t>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1583,37 +1586,34 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968954086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05839514732361</t>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451244354248</t>
+    <t xml:space="preserve">3.11451268196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292516708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716158866882</t>
+    <t xml:space="preserve">2.99292492866516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357224464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616055488586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716135025024</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104405403137</t>
+    <t xml:space="preserve">2.73104429244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039721488953</t>
+    <t xml:space="preserve">2.74039697647095</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298552513123</t>
+    <t xml:space="preserve">2.70298528671265</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622091293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6842794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557359695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945653915405</t>
+    <t xml:space="preserve">2.61880946159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622067451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68427968025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557383537292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945630073547</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722194671631</t>
+    <t xml:space="preserve">2.49722170829773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15192413330078</t>
+    <t xml:space="preserve">3.1519238948822</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127705574036</t>
+    <t xml:space="preserve">3.16127729415894</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457280158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780842781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81522011756897</t>
+    <t xml:space="preserve">2.82457304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81521987915039</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210520744324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598791122437</t>
+    <t xml:space="preserve">2.28210544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698870658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12310600280762</t>
+    <t xml:space="preserve">2.06698894500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1231062412262</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863681793213</t>
+    <t xml:space="preserve">1.89863669872284</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022433280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987037658691</t>
+    <t xml:space="preserve">1.94540107250214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987061500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922329902649</t>
+    <t xml:space="preserve">2.17922353744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534107208252</t>
+    <t xml:space="preserve">2.23534083366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469399452209</t>
+    <t xml:space="preserve">2.24469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -6248,7 +6248,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6274,7 +6274,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6300,7 +6300,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6404,7 +6404,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6456,7 +6456,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6508,7 +6508,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6560,7 +6560,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6638,7 +6638,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6664,7 +6664,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6690,7 +6690,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6768,7 +6768,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6794,7 +6794,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6820,7 +6820,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6846,7 +6846,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6872,7 +6872,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6898,7 +6898,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6924,7 +6924,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6950,7 +6950,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6976,7 +6976,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7080,7 +7080,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7210,7 +7210,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7314,7 +7314,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7366,7 +7366,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7418,7 +7418,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7470,7 +7470,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7496,7 +7496,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7522,7 +7522,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7548,7 +7548,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7574,7 +7574,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7600,7 +7600,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7652,7 +7652,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7678,7 +7678,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7704,7 +7704,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7730,7 +7730,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7756,7 +7756,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7782,7 +7782,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7808,7 +7808,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7834,7 +7834,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7990,7 +7990,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8016,7 +8016,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8042,7 +8042,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8068,7 +8068,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8146,7 +8146,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8172,7 +8172,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8198,7 +8198,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8224,7 +8224,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8250,7 +8250,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8276,7 +8276,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8302,7 +8302,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8354,7 +8354,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8406,7 +8406,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8432,7 +8432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8458,7 +8458,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8510,7 +8510,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8562,7 +8562,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8588,7 +8588,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8614,7 +8614,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8640,7 +8640,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8718,7 +8718,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8744,7 +8744,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8822,7 +8822,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8848,7 +8848,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8926,7 +8926,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8952,7 +8952,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9030,7 +9030,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9056,7 +9056,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9082,7 +9082,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9108,7 +9108,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9160,7 +9160,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9186,7 +9186,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9238,7 +9238,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9264,7 +9264,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9290,7 +9290,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9342,7 +9342,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9368,7 +9368,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9394,7 +9394,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9446,7 +9446,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9472,7 +9472,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9498,7 +9498,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9524,7 +9524,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9576,7 +9576,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9602,7 +9602,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9628,7 +9628,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9654,7 +9654,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9680,7 +9680,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9732,7 +9732,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9758,7 +9758,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9784,7 +9784,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9810,7 +9810,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9836,7 +9836,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9888,7 +9888,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9914,7 +9914,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9940,7 +9940,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9966,7 +9966,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9992,7 +9992,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10018,7 +10018,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10148,7 +10148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10174,7 +10174,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10200,7 +10200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10226,7 +10226,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10252,7 +10252,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10278,7 +10278,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10304,7 +10304,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10356,7 +10356,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10382,7 +10382,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10408,7 +10408,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10434,7 +10434,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10460,7 +10460,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10486,7 +10486,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10512,7 +10512,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10564,7 +10564,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10720,7 +10720,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10746,7 +10746,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10772,7 +10772,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10798,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10824,7 +10824,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10850,7 +10850,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10876,7 +10876,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10902,7 +10902,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10928,7 +10928,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10954,7 +10954,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10980,7 +10980,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11032,7 +11032,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11058,7 +11058,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11084,7 +11084,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11110,7 +11110,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11136,7 +11136,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11162,7 +11162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11188,7 +11188,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11214,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11240,7 +11240,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11266,7 +11266,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11292,7 +11292,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11318,7 +11318,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11344,7 +11344,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11370,7 +11370,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11396,7 +11396,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11422,7 +11422,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11448,7 +11448,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11474,7 +11474,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11500,7 +11500,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11526,7 +11526,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11552,7 +11552,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11578,7 +11578,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11604,7 +11604,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11630,7 +11630,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11656,7 +11656,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11682,7 +11682,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11708,7 +11708,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11734,7 +11734,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11760,7 +11760,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11786,7 +11786,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11838,7 +11838,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11864,7 +11864,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11890,7 +11890,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11916,7 +11916,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11942,7 +11942,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11968,7 +11968,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11994,7 +11994,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12020,7 +12020,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12046,7 +12046,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12072,7 +12072,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12098,7 +12098,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12124,7 +12124,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12150,7 +12150,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12176,7 +12176,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12202,7 +12202,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12228,7 +12228,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12254,7 +12254,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12280,7 +12280,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12306,7 +12306,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12332,7 +12332,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12358,7 +12358,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12384,7 +12384,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12410,7 +12410,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12436,7 +12436,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12462,7 +12462,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12488,7 +12488,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12514,7 +12514,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12540,7 +12540,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12566,7 +12566,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12592,7 +12592,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12618,7 +12618,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12644,7 +12644,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12670,7 +12670,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12696,7 +12696,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12722,7 +12722,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12800,7 +12800,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12826,7 +12826,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12852,7 +12852,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12878,7 +12878,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12904,7 +12904,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12930,7 +12930,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12956,7 +12956,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12982,7 +12982,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13008,7 +13008,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13034,7 +13034,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13060,7 +13060,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13086,7 +13086,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13112,7 +13112,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13138,7 +13138,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13164,7 +13164,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13190,7 +13190,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13216,7 +13216,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13242,7 +13242,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13268,7 +13268,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13294,7 +13294,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13320,7 +13320,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13346,7 +13346,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13398,7 +13398,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13424,7 +13424,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13450,7 +13450,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13476,7 +13476,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13502,7 +13502,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13528,7 +13528,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13554,7 +13554,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13606,7 +13606,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13632,7 +13632,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13658,7 +13658,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13684,7 +13684,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13710,7 +13710,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13736,7 +13736,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13762,7 +13762,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13788,7 +13788,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13814,7 +13814,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13840,7 +13840,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13866,7 +13866,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13892,7 +13892,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13918,7 +13918,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13944,7 +13944,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13970,7 +13970,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13996,7 +13996,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14022,7 +14022,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14048,7 +14048,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14074,7 +14074,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14100,7 +14100,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14126,7 +14126,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14152,7 +14152,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14178,7 +14178,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14204,7 +14204,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14230,7 +14230,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14256,7 +14256,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14282,7 +14282,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14308,7 +14308,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14334,7 +14334,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14360,7 +14360,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14386,7 +14386,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14412,7 +14412,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14438,7 +14438,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14464,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14490,7 +14490,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14516,7 +14516,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14542,7 +14542,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14568,7 +14568,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14594,7 +14594,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14620,7 +14620,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14646,7 +14646,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14672,7 +14672,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14698,7 +14698,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14724,7 +14724,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14750,7 +14750,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14776,7 +14776,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14802,7 +14802,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14828,7 +14828,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14854,7 +14854,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14906,7 +14906,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14932,7 +14932,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14984,7 +14984,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15010,7 +15010,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15036,7 +15036,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15062,7 +15062,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15088,7 +15088,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15114,7 +15114,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15140,7 +15140,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15166,7 +15166,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15192,7 +15192,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15244,7 +15244,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15322,7 +15322,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15348,7 +15348,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15374,7 +15374,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15400,7 +15400,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15426,7 +15426,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15452,7 +15452,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15478,7 +15478,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15504,7 +15504,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15530,7 +15530,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15556,7 +15556,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15582,7 +15582,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15608,7 +15608,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15634,7 +15634,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15660,7 +15660,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15686,7 +15686,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15712,7 +15712,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15738,7 +15738,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15764,7 +15764,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15790,7 +15790,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15816,7 +15816,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15842,7 +15842,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15868,7 +15868,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15894,7 +15894,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15920,7 +15920,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15946,7 +15946,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15972,7 +15972,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15998,7 +15998,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16024,7 +16024,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16050,7 +16050,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16076,7 +16076,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16102,7 +16102,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16128,7 +16128,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16154,7 +16154,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16232,7 +16232,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16258,7 +16258,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16284,7 +16284,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16310,7 +16310,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16336,7 +16336,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16388,7 +16388,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16414,7 +16414,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16466,7 +16466,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16492,7 +16492,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16518,7 +16518,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16570,7 +16570,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16622,7 +16622,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16648,7 +16648,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16674,7 +16674,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16700,7 +16700,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16726,7 +16726,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16752,7 +16752,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16778,7 +16778,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16804,7 +16804,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16830,7 +16830,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16856,7 +16856,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16882,7 +16882,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16908,7 +16908,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16934,7 +16934,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16960,7 +16960,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16986,7 +16986,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17012,7 +17012,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17038,7 +17038,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17064,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17090,7 +17090,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17116,7 +17116,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17142,7 +17142,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17168,7 +17168,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17194,7 +17194,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17220,7 +17220,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17246,7 +17246,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17272,7 +17272,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17298,7 +17298,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17324,7 +17324,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17350,7 +17350,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17376,7 +17376,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17402,7 +17402,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17454,7 +17454,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17532,7 +17532,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17558,7 +17558,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17584,7 +17584,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17662,7 +17662,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17714,7 +17714,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17792,7 +17792,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17818,7 +17818,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17844,7 +17844,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18234,7 +18234,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18286,7 +18286,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18312,7 +18312,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18494,7 +18494,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18572,7 +18572,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18598,7 +18598,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19144,7 +19144,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20002,7 +20002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20054,7 +20054,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20314,7 +20314,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20652,7 +20652,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20730,7 +20730,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20912,7 +20912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20938,7 +20938,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -60024,7 +60024,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="1" t="n">
-        <v>45520.6496296296</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B2196" t="n">
         <v>5487</v>
@@ -60045,6 +60045,32 @@
         <v>865</v>
       </c>
       <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>45523.6494791667</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>1.87000000476837</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>853</v>
+      </c>
+      <c r="H2197" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="868">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98598265647888</t>
+    <t xml:space="preserve">2.98598289489746</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96581768989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00149393081665</t>
+    <t xml:space="preserve">2.96581745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00149440765381</t>
   </si>
   <si>
     <t xml:space="preserve">2.94410133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88515734672546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93169212341309</t>
+    <t xml:space="preserve">2.88515758514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93169236183167</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393660545349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80139493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984354972839</t>
+    <t xml:space="preserve">2.92393636703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80139470100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984378814697</t>
   </si>
   <si>
     <t xml:space="preserve">2.70677399635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78433179855347</t>
+    <t xml:space="preserve">2.78433203697205</t>
   </si>
   <si>
     <t xml:space="preserve">2.83862257003784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85413432121277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84637880325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80604863166809</t>
+    <t xml:space="preserve">2.85413455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84637856483459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604839324951</t>
   </si>
   <si>
     <t xml:space="preserve">2.86499238014221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79363894462585</t>
+    <t xml:space="preserve">2.79363918304443</t>
   </si>
   <si>
     <t xml:space="preserve">2.82000875473022</t>
@@ -101,22 +101,22 @@
     <t xml:space="preserve">2.75486016273499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.709876537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55941343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287913322449</t>
+    <t xml:space="preserve">2.70987629890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55941390991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287889480591</t>
   </si>
   <si>
     <t xml:space="preserve">2.44152569770813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54855561256409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248394012451</t>
+    <t xml:space="preserve">2.54855585098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248346328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.67264866828918</t>
@@ -125,76 +125,76 @@
     <t xml:space="preserve">2.69901823997498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61680674552917</t>
+    <t xml:space="preserve">2.61680698394775</t>
   </si>
   <si>
     <t xml:space="preserve">2.77657604217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81380438804626</t>
+    <t xml:space="preserve">2.81380414962769</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624610900879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72538781166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73314380645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281363487244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69126224517822</t>
+    <t xml:space="preserve">2.72538805007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73314356803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68195581436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6912624835968</t>
   </si>
   <si>
     <t xml:space="preserve">2.71608114242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73469495773315</t>
+    <t xml:space="preserve">2.73469519615173</t>
   </si>
   <si>
     <t xml:space="preserve">2.74555325508118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79829239845276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76726937294006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7222855091095</t>
+    <t xml:space="preserve">2.79829263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76726913452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72228574752808</t>
   </si>
   <si>
     <t xml:space="preserve">2.8696460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83086657524109</t>
+    <t xml:space="preserve">2.83086681365967</t>
   </si>
   <si>
     <t xml:space="preserve">2.75330877304077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74865531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416683197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76571822166443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7502064704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641107559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037167549133</t>
+    <t xml:space="preserve">2.74865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416707038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76571798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75020670890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641131401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037143707275</t>
   </si>
   <si>
     <t xml:space="preserve">2.78278088569641</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">2.84327578544617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81225299835205</t>
+    <t xml:space="preserve">2.81225275993347</t>
   </si>
   <si>
     <t xml:space="preserve">2.89291334152222</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">2.90842485427856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92458295822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034580230713</t>
+    <t xml:space="preserve">2.92458271980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034604072571</t>
   </si>
   <si>
     <t xml:space="preserve">2.88257241249084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89226698875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501413345337</t>
+    <t xml:space="preserve">2.89226675033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501437187195</t>
   </si>
   <si>
     <t xml:space="preserve">2.80663013458252</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">2.77593040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78724098205566</t>
+    <t xml:space="preserve">2.78724074363708</t>
   </si>
   <si>
     <t xml:space="preserve">2.81955647468567</t>
@@ -254,37 +254,37 @@
     <t xml:space="preserve">2.74684572219849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80339860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86802983283997</t>
+    <t xml:space="preserve">2.8033983707428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803030967712</t>
   </si>
   <si>
     <t xml:space="preserve">2.92135119438171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9019615650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91165637969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528292655945</t>
+    <t xml:space="preserve">2.90196180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91165661811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528268814087</t>
   </si>
   <si>
     <t xml:space="preserve">2.99567747116089</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0344569683075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02960920333862</t>
+    <t xml:space="preserve">3.03445672988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0296094417572</t>
   </si>
   <si>
     <t xml:space="preserve">3.02153038978577</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02799367904663</t>
+    <t xml:space="preserve">3.02799320220947</t>
   </si>
   <si>
     <t xml:space="preserve">3.00698804855347</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">2.89873027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91811990737915</t>
+    <t xml:space="preserve">2.91811966896057</t>
   </si>
   <si>
     <t xml:space="preserve">2.93750905990601</t>
@@ -317,31 +317,28 @@
     <t xml:space="preserve">2.82763528823853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842509269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96012997627258</t>
+    <t xml:space="preserve">2.87449336051941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96013021469116</t>
   </si>
   <si>
     <t xml:space="preserve">2.95689845085144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90519309043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94881963729858</t>
+    <t xml:space="preserve">2.90519332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94881987571716</t>
   </si>
   <si>
     <t xml:space="preserve">2.98113560676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89388298988342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90680932998657</t>
+    <t xml:space="preserve">2.89388275146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90680885314941</t>
   </si>
   <si>
     <t xml:space="preserve">2.87772488594055</t>
@@ -350,7 +347,7 @@
     <t xml:space="preserve">2.8437933921814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85025668144226</t>
+    <t xml:space="preserve">2.85025644302368</t>
   </si>
   <si>
     <t xml:space="preserve">2.83571434020996</t>
@@ -359,10 +356,10 @@
     <t xml:space="preserve">2.91650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86641454696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87934064865112</t>
+    <t xml:space="preserve">2.86641430854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8793408870697</t>
   </si>
   <si>
     <t xml:space="preserve">2.89549875259399</t>
@@ -371,10 +368,10 @@
     <t xml:space="preserve">2.9132719039917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9795196056366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03768825531006</t>
+    <t xml:space="preserve">2.97951984405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03768801689148</t>
   </si>
   <si>
     <t xml:space="preserve">3.08616209030151</t>
@@ -383,25 +380,25 @@
     <t xml:space="preserve">3.11524629592896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10231995582581</t>
+    <t xml:space="preserve">3.10231971740723</t>
   </si>
   <si>
     <t xml:space="preserve">3.07808303833008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02314639091492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0053722858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890947341919</t>
+    <t xml:space="preserve">3.02314615249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00537252426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890899658203</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97305655479431</t>
+    <t xml:space="preserve">2.97305679321289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88418793678284</t>
@@ -410,10 +407,10 @@
     <t xml:space="preserve">2.93104600906372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95851421356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89065098762512</t>
+    <t xml:space="preserve">2.95851469039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89065146446228</t>
   </si>
   <si>
     <t xml:space="preserve">2.93589329719543</t>
@@ -422,76 +419,76 @@
     <t xml:space="preserve">2.93427753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90357756614685</t>
+    <t xml:space="preserve">2.90357780456543</t>
   </si>
   <si>
     <t xml:space="preserve">2.98759865760803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01022005081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9940619468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05384612083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82117223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98921465873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96659350395203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93912529945374</t>
+    <t xml:space="preserve">3.01021981239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99406242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05384635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82117199897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9892144203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96659326553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93912506103516</t>
   </si>
   <si>
     <t xml:space="preserve">2.94235634803772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83733010292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84217739105225</t>
+    <t xml:space="preserve">2.83733034133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84217715263367</t>
   </si>
   <si>
     <t xml:space="preserve">2.83409857749939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77108263969421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72260856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81147718429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7290723323822</t>
+    <t xml:space="preserve">2.77108287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72260904312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81147766113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
     <t xml:space="preserve">2.70321941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69837212562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74522972106934</t>
+    <t xml:space="preserve">2.69837188720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74523019790649</t>
   </si>
   <si>
     <t xml:space="preserve">2.74361419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76946687698364</t>
+    <t xml:space="preserve">2.76946711540222</t>
   </si>
   <si>
     <t xml:space="preserve">2.82440376281738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77431440353394</t>
+    <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
     <t xml:space="preserve">2.80016684532166</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85995125770569</t>
+    <t xml:space="preserve">2.85995149612427</t>
   </si>
   <si>
     <t xml:space="preserve">2.94397258758545</t>
@@ -515,67 +512,67 @@
     <t xml:space="preserve">2.92781448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183581352234</t>
+    <t xml:space="preserve">3.01183557510376</t>
   </si>
   <si>
     <t xml:space="preserve">3.02476191520691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99729347229004</t>
+    <t xml:space="preserve">2.99729323387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.01829862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0150671005249</t>
+    <t xml:space="preserve">3.01506757736206</t>
   </si>
   <si>
     <t xml:space="preserve">3.00214076042175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0199146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030917167664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06838846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07000422477722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1427149772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21542549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23158311843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25582027435303</t>
+    <t xml:space="preserve">3.01991415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030941009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06838822364807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07000398635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14271473884583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21542525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2315833568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25582003593445</t>
   </si>
   <si>
     <t xml:space="preserve">3.25905179977417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28651976585388</t>
+    <t xml:space="preserve">3.28652000427246</t>
   </si>
   <si>
     <t xml:space="preserve">3.19118857383728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625121116638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14433073997498</t>
+    <t xml:space="preserve">3.13625144958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1443305015564</t>
   </si>
   <si>
     <t xml:space="preserve">3.1540253162384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14594650268555</t>
+    <t xml:space="preserve">3.14594626426697</t>
   </si>
   <si>
     <t xml:space="preserve">3.28813600540161</t>
@@ -584,43 +581,43 @@
     <t xml:space="preserve">3.33660984039307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38185143470764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3931622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56120467185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57089996337891</t>
+    <t xml:space="preserve">3.38185167312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39316248893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56120491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57089948654175</t>
   </si>
   <si>
     <t xml:space="preserve">3.54827857017517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55474185943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343152046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50626826286316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56282019615173</t>
+    <t xml:space="preserve">3.55474209785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50626802444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56282043457031</t>
   </si>
   <si>
     <t xml:space="preserve">3.50788378715515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50303602218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32045221328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44971513748169</t>
+    <t xml:space="preserve">3.50303649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3204517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44971537590027</t>
   </si>
   <si>
     <t xml:space="preserve">3.51434683799744</t>
@@ -629,85 +626,85 @@
     <t xml:space="preserve">3.47395205497742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55766177177429</t>
+    <t xml:space="preserve">3.55766201019287</t>
   </si>
   <si>
     <t xml:space="preserve">3.52752637863159</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49906516075134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51580667495728</t>
+    <t xml:space="preserve">3.49906468391418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51580691337585</t>
   </si>
   <si>
     <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62965202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68155217170715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70666527748108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67318105697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200340270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901689529419</t>
+    <t xml:space="preserve">3.62965226173401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68155193328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7066650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67318081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78200387954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901665687561</t>
   </si>
   <si>
     <t xml:space="preserve">3.97621035575867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00132322311401</t>
+    <t xml:space="preserve">4.00132369995117</t>
   </si>
   <si>
     <t xml:space="preserve">4.05154895782471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02643585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93268132209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87240958213806</t>
+    <t xml:space="preserve">4.02643632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9326810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8724102973938</t>
   </si>
   <si>
     <t xml:space="preserve">3.76693606376648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83222937583923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80879139900208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92933249473572</t>
+    <t xml:space="preserve">3.83222961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8087911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92933225631714</t>
   </si>
   <si>
     <t xml:space="preserve">3.91761350631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394860267639</t>
+    <t xml:space="preserve">3.84394907951355</t>
   </si>
   <si>
     <t xml:space="preserve">3.85232019424438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.845623254776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064506530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458170890808</t>
+    <t xml:space="preserve">3.84562253952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064554214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458123207092</t>
   </si>
   <si>
     <t xml:space="preserve">3.83055567741394</t>
@@ -719,10 +716,10 @@
     <t xml:space="preserve">3.94272613525391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94607472419739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109724998474</t>
+    <t xml:space="preserve">3.94607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109701156616</t>
   </si>
   <si>
     <t xml:space="preserve">3.93100690841675</t>
@@ -731,16 +728,16 @@
     <t xml:space="preserve">3.93435525894165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92598438262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87743282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77698135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7937228679657</t>
+    <t xml:space="preserve">3.92598485946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87743306159973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77698111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79372310638428</t>
   </si>
   <si>
     <t xml:space="preserve">3.71671009063721</t>
@@ -755,178 +752,178 @@
     <t xml:space="preserve">3.76861000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72508096694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978789329529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55933594703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65811371803284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68657422065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60788774490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56603288650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797808647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5744035243988</t>
+    <t xml:space="preserve">3.72508120536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978741645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55933570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6581130027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68657445907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60788726806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56603264808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62797784805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440376281738</t>
   </si>
   <si>
     <t xml:space="preserve">3.649742603302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64806795120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64137125015259</t>
+    <t xml:space="preserve">3.64806842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64137148857117</t>
   </si>
   <si>
     <t xml:space="preserve">3.70499086380005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66648411750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6798779964447</t>
+    <t xml:space="preserve">3.66648459434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67987775802612</t>
   </si>
   <si>
     <t xml:space="preserve">3.65643930435181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72005820274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7368004322052</t>
+    <t xml:space="preserve">3.72005867958069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73680067062378</t>
   </si>
   <si>
     <t xml:space="preserve">3.6999683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70164251327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72173261642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79037427902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79707169532776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7887008190155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78367781639099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77530741691589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539728164673</t>
+    <t xml:space="preserve">3.70164227485657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72173285484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7903745174408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7970712184906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78870105743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78367829322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77530717849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539680480957</t>
   </si>
   <si>
     <t xml:space="preserve">3.78535199165344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75019431114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390331268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11014556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548440933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25245189666748</t>
+    <t xml:space="preserve">3.75019359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806545257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11014604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548488616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25245237350464</t>
   </si>
   <si>
     <t xml:space="preserve">4.26919412612915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31104946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290384292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27337980270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34453248977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29849243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30267810821533</t>
+    <t xml:space="preserve">4.31104898452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2733793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34453296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29849290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30267763137817</t>
   </si>
   <si>
     <t xml:space="preserve">4.36546039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33616161346436</t>
+    <t xml:space="preserve">4.33616209030151</t>
   </si>
   <si>
     <t xml:space="preserve">4.37801694869995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44498491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4366135597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49939632415771</t>
+    <t xml:space="preserve">4.444983959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43661403656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49939584732056</t>
   </si>
   <si>
     <t xml:space="preserve">4.50358104705811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5454363822937</t>
+    <t xml:space="preserve">4.54543590545654</t>
   </si>
   <si>
     <t xml:space="preserve">4.57473421096802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68774223327637</t>
+    <t xml:space="preserve">4.68774271011353</t>
   </si>
   <si>
     <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68355703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67518615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78400897979736</t>
+    <t xml:space="preserve">4.68355655670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6751856803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78400850296021</t>
   </si>
   <si>
     <t xml:space="preserve">4.83004856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82167863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88027429580688</t>
+    <t xml:space="preserve">4.82167816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88027477264404</t>
   </si>
   <si>
     <t xml:space="preserve">4.86353302001953</t>
@@ -935,7 +932,7 @@
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260511398315</t>
+    <t xml:space="preserve">4.84260559082031</t>
   </si>
   <si>
     <t xml:space="preserve">4.73796844482422</t>
@@ -944,25 +941,25 @@
     <t xml:space="preserve">4.71285533905029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6626296043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52869367599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57054901123047</t>
+    <t xml:space="preserve">4.66263008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52869415283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57054948806763</t>
   </si>
   <si>
     <t xml:space="preserve">4.67937183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7798228263855</t>
+    <t xml:space="preserve">4.77982330322266</t>
   </si>
   <si>
     <t xml:space="preserve">4.81330680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03095293045044</t>
+    <t xml:space="preserve">5.03095245361328</t>
   </si>
   <si>
     <t xml:space="preserve">5.13977479934692</t>
@@ -971,7 +968,7 @@
     <t xml:space="preserve">5.19000101089478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26115369796753</t>
+    <t xml:space="preserve">5.26115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">5.28626680374146</t>
@@ -980,10 +977,10 @@
     <t xml:space="preserve">5.31975078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31556463241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41601657867432</t>
+    <t xml:space="preserve">5.31556510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41601705551147</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
@@ -992,16 +989,16 @@
     <t xml:space="preserve">5.44112968444824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49135541915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52483892440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43275833129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54995203018188</t>
+    <t xml:space="preserve">5.49135589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52483940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43275880813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54995250701904</t>
   </si>
   <si>
     <t xml:space="preserve">5.53321027755737</t>
@@ -1010,13 +1007,13 @@
     <t xml:space="preserve">5.50809764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64203214645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65877532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62529039382935</t>
+    <t xml:space="preserve">5.64203310012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65877485275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6252908706665</t>
   </si>
   <si>
     <t xml:space="preserve">5.65040349960327</t>
@@ -1031,28 +1028,28 @@
     <t xml:space="preserve">5.57506513595581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60854911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63366174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69225883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70900058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42438793182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5583233833313</t>
+    <t xml:space="preserve">5.60854864120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63366222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69225931167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70900106430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42438745498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55832242965698</t>
   </si>
   <si>
     <t xml:space="preserve">5.30719423294067</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15651607513428</t>
+    <t xml:space="preserve">5.15651655197144</t>
   </si>
   <si>
     <t xml:space="preserve">5.07280731201172</t>
@@ -1061,25 +1058,25 @@
     <t xml:space="preserve">5.00583934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08954858779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22348403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95561408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98909664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02258157730103</t>
+    <t xml:space="preserve">5.08954954147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2234845161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95561361312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98909759521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02258110046387</t>
   </si>
   <si>
     <t xml:space="preserve">4.78819417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80493593215942</t>
+    <t xml:space="preserve">4.80493545532227</t>
   </si>
   <si>
     <t xml:space="preserve">4.77145195007324</t>
@@ -1088,19 +1085,19 @@
     <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6710000038147</t>
+    <t xml:space="preserve">4.67100048065186</t>
   </si>
   <si>
     <t xml:space="preserve">4.75471067428589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38638734817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47009801864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83841991424561</t>
+    <t xml:space="preserve">4.38638782501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47009754180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83842039108276</t>
   </si>
   <si>
     <t xml:space="preserve">4.93887186050415</t>
@@ -1109,37 +1106,37 @@
     <t xml:space="preserve">4.90538787841797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52032327651978</t>
+    <t xml:space="preserve">4.52032375335693</t>
   </si>
   <si>
     <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60403299331665</t>
+    <t xml:space="preserve">4.60403251647949</t>
   </si>
   <si>
     <t xml:space="preserve">4.65425872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53706550598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55380725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59701204299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63157606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429405212402</t>
+    <t xml:space="preserve">4.53706502914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5538067817688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63157653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429452896118</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75255012512207</t>
+    <t xml:space="preserve">4.75254964828491</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1148,25 +1145,25 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85063314437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363327026367</t>
+    <t xml:space="preserve">4.90413188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8506326675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363374710083</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54746770858765</t>
+    <t xml:space="preserve">4.5474681854248</t>
   </si>
   <si>
     <t xml:space="preserve">4.28888654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24430370330811</t>
+    <t xml:space="preserve">4.24430322647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1178,16 +1175,16 @@
     <t xml:space="preserve">4.06597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08380460739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05705499649048</t>
+    <t xml:space="preserve">4.08380508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05705451965332</t>
   </si>
   <si>
     <t xml:space="preserve">3.96788835525513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87872242927551</t>
+    <t xml:space="preserve">3.87872290611267</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1196,7 +1193,7 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280689239502</t>
+    <t xml:space="preserve">3.76280665397644</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
@@ -1226,10 +1223,10 @@
     <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36021900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27996969223022</t>
+    <t xml:space="preserve">4.36021947860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27997016906738</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1256,7 +1253,7 @@
     <t xml:space="preserve">4.17297077178955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13730430603027</t>
+    <t xml:space="preserve">4.13730382919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1265,13 +1262,13 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922176361084</t>
+    <t xml:space="preserve">4.14622068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18188762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922128677368</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1286,10 +1283,10 @@
     <t xml:space="preserve">4.12838792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15513753890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92330551147461</t>
+    <t xml:space="preserve">4.15513706207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92330598831177</t>
   </si>
   <si>
     <t xml:space="preserve">3.90547275543213</t>
@@ -1298,13 +1295,13 @@
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70930695533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67364048957825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63797450065613</t>
+    <t xml:space="preserve">3.7093071937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67364072799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63797426223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1319,10 +1316,10 @@
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339141845703</t>
+    <t xml:space="preserve">3.57555866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339165687561</t>
   </si>
   <si>
     <t xml:space="preserve">3.58447480201721</t>
@@ -1334,7 +1331,7 @@
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772495269775</t>
+    <t xml:space="preserve">3.55772471427917</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1343,16 +1340,16 @@
     <t xml:space="preserve">3.45964241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47747564315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4507257938385</t>
+    <t xml:space="preserve">3.47747588157654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45072555541992</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372663497925</t>
+    <t xml:space="preserve">3.34372639656067</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1361,19 +1358,19 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997738838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17431116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12081146240234</t>
+    <t xml:space="preserve">3.20997714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17431092262268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12081122398376</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056191444397</t>
+    <t xml:space="preserve">3.04056215286255</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1382,238 +1379,241 @@
     <t xml:space="preserve">3.06731176376343</t>
   </si>
   <si>
+    <t xml:space="preserve">3.05839538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164553642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02272891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9603123664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91572952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94247937202454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89789628982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8087306022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75523066520691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63931465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5858154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56798195838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68389773368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71064782142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79981374740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706197738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814559936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9246461391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86222982406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81764698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84439659118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78198027610779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69281435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67498111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11189460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29022693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27239370346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33480978012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30805993080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19214415550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20106077194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1475613117218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23672723770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2188937664032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16539430618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13864469528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1832275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32589340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50422549247742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580725669861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314187049866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5309751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40614247322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39722609519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4418089389801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42397594451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22781038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00489544868469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514475822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95139598846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17998290061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13321805000305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10515952110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08645391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09580683708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227785110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96486639976501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92745471000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89939594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97421932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968954086304</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.05839514732361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03164529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02272868156433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96031260490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91572952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94247913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89789628982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80873036384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75523066520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63931465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5858154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56798195838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68389773368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71064758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79981398582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922922134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706221580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814583778381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92464590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86222982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81764698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84439659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78198051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69281435012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67498111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11189484596252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29022693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27239370346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33480978012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30806016921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19214415550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20106053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1475613117218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23672723770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2188937664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16539454460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1386444568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1832275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32589340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50422549247742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6825578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5309751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4061427116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697678565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39722585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4418089389801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42397570610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22781038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00489521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381230354309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95139598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17998290061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13321828842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10515952110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08645367622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09580683708191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02098345756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227808952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551371574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96486639976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92745471000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89939594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97421908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033661842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968930244446</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451268196106</t>
+    <t xml:space="preserve">3.11451244354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292492866516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716135025024</t>
+    <t xml:space="preserve">2.99292516708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716158866882</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104429244995</t>
+    <t xml:space="preserve">2.73104405403137</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039697647095</t>
+    <t xml:space="preserve">2.74039721488953</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298528671265</t>
+    <t xml:space="preserve">2.70298552513123</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880946159363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622067451477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68427968025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557383537292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945630073547</t>
+    <t xml:space="preserve">2.61880922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6842794418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557359695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945653915405</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722170829773</t>
+    <t xml:space="preserve">2.49722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519238948822</t>
+    <t xml:space="preserve">3.15192413330078</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127729415894</t>
+    <t xml:space="preserve">3.16127705574036</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457304000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780866622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81521987915039</t>
+    <t xml:space="preserve">2.82457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780842781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210544586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598814964294</t>
+    <t xml:space="preserve">2.28210520744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598791122437</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698894500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1231062412262</t>
+    <t xml:space="preserve">2.06698870658875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12310600280762</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863669872284</t>
+    <t xml:space="preserve">1.89863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540107250214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022457122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987061500549</t>
+    <t xml:space="preserve">1.94540119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022433280945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922353744507</t>
+    <t xml:space="preserve">2.17922329902649</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534083366394</t>
+    <t xml:space="preserve">2.23534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469375610352</t>
+    <t xml:space="preserve">2.24469399452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -2613,6 +2613,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.85500001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90499997138977</t>
   </si>
 </sst>
 </file>
@@ -6248,7 +6251,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -6274,7 +6277,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G128" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -6300,7 +6303,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6352,7 +6355,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6378,7 +6381,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6404,7 +6407,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G133" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -6456,7 +6459,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6508,7 +6511,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6560,7 +6563,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6638,7 +6641,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6664,7 +6667,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6690,7 +6693,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6742,7 +6745,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6768,7 +6771,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6794,7 +6797,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6820,7 +6823,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6846,7 +6849,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6872,7 +6875,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6898,7 +6901,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6924,7 +6927,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6950,7 +6953,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6976,7 +6979,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7080,7 +7083,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7210,7 +7213,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7314,7 +7317,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7340,7 +7343,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7366,7 +7369,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7418,7 +7421,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7444,7 +7447,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7470,7 +7473,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7496,7 +7499,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7522,7 +7525,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7548,7 +7551,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7574,7 +7577,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7600,7 +7603,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7652,7 +7655,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7678,7 +7681,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7704,7 +7707,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7730,7 +7733,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7756,7 +7759,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7782,7 +7785,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7808,7 +7811,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7834,7 +7837,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7886,7 +7889,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7964,7 +7967,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7990,7 +7993,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8016,7 +8019,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8042,7 +8045,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8068,7 +8071,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8146,7 +8149,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8172,7 +8175,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8198,7 +8201,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8224,7 +8227,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -8250,7 +8253,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G204" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8276,7 +8279,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8302,7 +8305,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8328,7 +8331,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8354,7 +8357,7 @@
         <v>3.70600008964539</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8406,7 +8409,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8432,7 +8435,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8458,7 +8461,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8510,7 +8513,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G214" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8562,7 +8565,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8588,7 +8591,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8614,7 +8617,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G218" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8640,7 +8643,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G219" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8718,7 +8721,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G222" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8744,7 +8747,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G223" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8770,7 +8773,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G224" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8822,7 +8825,7 @@
         <v>3.64199995994568</v>
       </c>
       <c r="G226" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8848,7 +8851,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8926,7 +8929,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8952,7 +8955,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G231" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -9004,7 +9007,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G233" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -9030,7 +9033,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -9056,7 +9059,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -9082,7 +9085,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -9108,7 +9111,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G237" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -9134,7 +9137,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -9160,7 +9163,7 @@
         <v>3.34599995613098</v>
       </c>
       <c r="G239" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -9186,7 +9189,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G240" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -9238,7 +9241,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9264,7 +9267,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G243" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9290,7 +9293,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G244" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9342,7 +9345,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G246" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9368,7 +9371,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9394,7 +9397,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G248" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9446,7 +9449,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9472,7 +9475,7 @@
         <v>3.46600008010864</v>
       </c>
       <c r="G251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9498,7 +9501,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9524,7 +9527,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9576,7 +9579,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9602,7 +9605,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G256" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9628,7 +9631,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G257" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9654,7 +9657,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G258" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9680,7 +9683,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G259" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9732,7 +9735,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G261" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9758,7 +9761,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9784,7 +9787,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9810,7 +9813,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G264" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9836,7 +9839,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G265" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9888,7 +9891,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G267" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9914,7 +9917,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G268" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9940,7 +9943,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G269" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9966,7 +9969,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G270" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9992,7 +9995,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G271" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10018,7 +10021,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G272" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10148,7 +10151,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10174,7 +10177,7 @@
         <v>3.74399995803833</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10200,7 +10203,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G279" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10226,7 +10229,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10252,7 +10255,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G281" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10278,7 +10281,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G282" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10304,7 +10307,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G283" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10356,7 +10359,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G285" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10382,7 +10385,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G286" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10408,7 +10411,7 @@
         <v>3.73200011253357</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10434,7 +10437,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G288" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10460,7 +10463,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G289" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10486,7 +10489,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G290" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10512,7 +10515,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10538,7 +10541,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G292" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10564,7 +10567,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G293" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10642,7 +10645,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G296" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10694,7 +10697,7 @@
         <v>3.79800009727478</v>
       </c>
       <c r="G298" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10720,7 +10723,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10746,7 +10749,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G300" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10772,7 +10775,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G301" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10798,7 +10801,7 @@
         <v>4</v>
       </c>
       <c r="G302" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10824,7 +10827,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10850,7 +10853,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G304" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10876,7 +10879,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G305" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10902,7 +10905,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G306" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10928,7 +10931,7 @@
         <v>4.06799983978271</v>
       </c>
       <c r="G307" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10954,7 +10957,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G308" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10980,7 +10983,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G309" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11032,7 +11035,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G311" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11058,7 +11061,7 @@
         <v>3.88199996948242</v>
       </c>
       <c r="G312" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11084,7 +11087,7 @@
         <v>3.89199995994568</v>
       </c>
       <c r="G313" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11110,7 +11113,7 @@
         <v>3.90400004386902</v>
       </c>
       <c r="G314" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11136,7 +11139,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G315" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11162,7 +11165,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G316" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11188,7 +11191,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11214,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11240,7 +11243,7 @@
         <v>4.03399991989136</v>
       </c>
       <c r="G319" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11266,7 +11269,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G320" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11292,7 +11295,7 @@
         <v>4.18599987030029</v>
       </c>
       <c r="G321" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11318,7 +11321,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11344,7 +11347,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11370,7 +11373,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G324" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11396,7 +11399,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11422,7 +11425,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G326" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11448,7 +11451,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G327" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11474,7 +11477,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G328" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11500,7 +11503,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11526,7 +11529,7 @@
         <v>4.34200000762939</v>
       </c>
       <c r="G330" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11552,7 +11555,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G331" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11578,7 +11581,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G332" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11604,7 +11607,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G333" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11630,7 +11633,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11656,7 +11659,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G335" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11682,7 +11685,7 @@
         <v>4.25</v>
       </c>
       <c r="G336" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11708,7 +11711,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G337" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11734,7 +11737,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G338" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11760,7 +11763,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G339" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11786,7 +11789,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G340" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11812,7 +11815,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G341" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11838,7 +11841,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G342" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11864,7 +11867,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G343" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11890,7 +11893,7 @@
         <v>4.38800001144409</v>
       </c>
       <c r="G344" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11916,7 +11919,7 @@
         <v>4.51800012588501</v>
       </c>
       <c r="G345" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11942,7 +11945,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G346" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11968,7 +11971,7 @@
         <v>4.75</v>
       </c>
       <c r="G347" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11994,7 +11997,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G348" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12020,7 +12023,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G349" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12046,7 +12049,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12072,7 +12075,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G351" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12098,7 +12101,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G352" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12124,7 +12127,7 @@
         <v>4.5</v>
       </c>
       <c r="G353" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12150,7 +12153,7 @@
         <v>4.5</v>
       </c>
       <c r="G354" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12176,7 +12179,7 @@
         <v>4.57800006866455</v>
       </c>
       <c r="G355" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12202,7 +12205,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G356" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12228,7 +12231,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G357" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12254,7 +12257,7 @@
         <v>4.69399976730347</v>
       </c>
       <c r="G358" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12280,7 +12283,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G359" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12306,7 +12309,7 @@
         <v>4.59200000762939</v>
       </c>
       <c r="G360" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12332,7 +12335,7 @@
         <v>4.60200023651123</v>
       </c>
       <c r="G361" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12358,7 +12361,7 @@
         <v>4.5939998626709</v>
       </c>
       <c r="G362" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12384,7 +12387,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G363" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12410,7 +12413,7 @@
         <v>4.69799995422363</v>
       </c>
       <c r="G364" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12436,7 +12439,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G365" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12462,7 +12465,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G366" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12488,7 +12491,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G367" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12514,7 +12517,7 @@
         <v>4.57600021362305</v>
       </c>
       <c r="G368" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12540,7 +12543,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12566,7 +12569,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G370" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12592,7 +12595,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G371" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12618,7 +12621,7 @@
         <v>4.71400022506714</v>
       </c>
       <c r="G372" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12644,7 +12647,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G373" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12670,7 +12673,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G374" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12696,7 +12699,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12722,7 +12725,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G376" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12748,7 +12751,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G377" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12774,7 +12777,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G378" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12800,7 +12803,7 @@
         <v>4.69600009918213</v>
       </c>
       <c r="G379" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12826,7 +12829,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12852,7 +12855,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G381" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12878,7 +12881,7 @@
         <v>4.62599992752075</v>
       </c>
       <c r="G382" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12904,7 +12907,7 @@
         <v>4.63199996948242</v>
       </c>
       <c r="G383" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12930,7 +12933,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G384" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12956,7 +12959,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G385" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12982,7 +12985,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G386" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13008,7 +13011,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G387" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13034,7 +13037,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G388" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13060,7 +13063,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G389" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13086,7 +13089,7 @@
         <v>4.5019998550415</v>
       </c>
       <c r="G390" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13112,7 +13115,7 @@
         <v>4.5</v>
       </c>
       <c r="G391" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13138,7 +13141,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G392" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13164,7 +13167,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G393" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13190,7 +13193,7 @@
         <v>4.21400022506714</v>
       </c>
       <c r="G394" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13216,7 +13219,7 @@
         <v>4.2519998550415</v>
       </c>
       <c r="G395" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13242,7 +13245,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G396" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13268,7 +13271,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G397" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13294,7 +13297,7 @@
         <v>4.37200021743774</v>
       </c>
       <c r="G398" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13320,7 +13323,7 @@
         <v>4.40399980545044</v>
       </c>
       <c r="G399" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13346,7 +13349,7 @@
         <v>4.33599996566772</v>
       </c>
       <c r="G400" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13372,7 +13375,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13398,7 +13401,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G402" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13424,7 +13427,7 @@
         <v>4.33400011062622</v>
       </c>
       <c r="G403" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13450,7 +13453,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G404" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13476,7 +13479,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G405" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13502,7 +13505,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G406" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13528,7 +13531,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G407" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13554,7 +13557,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G408" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13580,7 +13583,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13606,7 +13609,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G410" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13632,7 +13635,7 @@
         <v>4.42600011825562</v>
       </c>
       <c r="G411" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13658,7 +13661,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G412" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13684,7 +13687,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G413" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13710,7 +13713,7 @@
         <v>4.36800003051758</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13736,7 +13739,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G415" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13762,7 +13765,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G416" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13788,7 +13791,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13814,7 +13817,7 @@
         <v>4.46400022506714</v>
       </c>
       <c r="G418" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13840,7 +13843,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G419" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13866,7 +13869,7 @@
         <v>4.44399976730347</v>
       </c>
       <c r="G420" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13892,7 +13895,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13918,7 +13921,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G422" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13944,7 +13947,7 @@
         <v>4.42199993133545</v>
       </c>
       <c r="G423" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13970,7 +13973,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G424" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13996,7 +13999,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G425" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14022,7 +14025,7 @@
         <v>4.5</v>
       </c>
       <c r="G426" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14048,7 +14051,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14074,7 +14077,7 @@
         <v>4.53599977493286</v>
       </c>
       <c r="G428" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14100,7 +14103,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14126,7 +14129,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14152,7 +14155,7 @@
         <v>4.53200006484985</v>
       </c>
       <c r="G431" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14178,7 +14181,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G432" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14204,7 +14207,7 @@
         <v>4.51200008392334</v>
       </c>
       <c r="G433" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14230,7 +14233,7 @@
         <v>4.53399991989136</v>
       </c>
       <c r="G434" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14256,7 +14259,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G435" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14282,7 +14285,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G436" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14308,7 +14311,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G437" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14334,7 +14337,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G438" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14360,7 +14363,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14386,7 +14389,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G440" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14412,7 +14415,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G441" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14438,7 +14441,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G442" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14464,7 +14467,7 @@
         <v>5</v>
       </c>
       <c r="G443" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14490,7 +14493,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14516,7 +14519,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G445" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14542,7 +14545,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14568,7 +14571,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14594,7 +14597,7 @@
         <v>5.10500001907349</v>
       </c>
       <c r="G448" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14620,7 +14623,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G449" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14646,7 +14649,7 @@
         <v>5.13500022888184</v>
       </c>
       <c r="G450" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14672,7 +14675,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14698,7 +14701,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G452" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14724,7 +14727,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G453" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14750,7 +14753,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G454" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14776,7 +14779,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G455" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14802,7 +14805,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G456" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14828,7 +14831,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G457" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14854,7 +14857,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14880,7 +14883,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G459" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14906,7 +14909,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G460" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14932,7 +14935,7 @@
         <v>5.375</v>
       </c>
       <c r="G461" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14958,7 +14961,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14984,7 +14987,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15010,7 +15013,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G464" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15036,7 +15039,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G465" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15062,7 +15065,7 @@
         <v>5.56500005722046</v>
       </c>
       <c r="G466" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15088,7 +15091,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G467" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15114,7 +15117,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G468" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15140,7 +15143,7 @@
         <v>5.71500015258789</v>
       </c>
       <c r="G469" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15166,7 +15169,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15192,7 +15195,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G471" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15218,7 +15221,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G472" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15244,7 +15247,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G473" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15270,7 +15273,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15296,7 +15299,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15322,7 +15325,7 @@
         <v>5.78499984741211</v>
       </c>
       <c r="G476" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15348,7 +15351,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G477" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15374,7 +15377,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G478" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15400,7 +15403,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G479" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15426,7 +15429,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G480" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15452,7 +15455,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15478,7 +15481,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G482" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15504,7 +15507,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G483" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15530,7 +15533,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G484" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15556,7 +15559,7 @@
         <v>5.75</v>
       </c>
       <c r="G485" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15582,7 +15585,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G486" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15608,7 +15611,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G487" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15634,7 +15637,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G488" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15660,7 +15663,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G489" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15686,7 +15689,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G490" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15712,7 +15715,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G491" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15738,7 +15741,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15764,7 +15767,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G493" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15790,7 +15793,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G494" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15816,7 +15819,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G495" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15842,7 +15845,7 @@
         <v>6.5</v>
       </c>
       <c r="G496" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15868,7 +15871,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G497" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15894,7 +15897,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G498" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15920,7 +15923,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G499" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15946,7 +15949,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15972,7 +15975,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G501" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15998,7 +16001,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G502" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16024,7 +16027,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G503" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16050,7 +16053,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G504" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16076,7 +16079,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G505" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16102,7 +16105,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G506" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16128,7 +16131,7 @@
         <v>6.75</v>
       </c>
       <c r="G507" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16154,7 +16157,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G508" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16180,7 +16183,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G509" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16206,7 +16209,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16232,7 +16235,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G511" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16258,7 +16261,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16284,7 +16287,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G513" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16310,7 +16313,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G514" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16336,7 +16339,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G515" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16362,7 +16365,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G516" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16388,7 +16391,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G517" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16414,7 +16417,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G518" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16440,7 +16443,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G519" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16466,7 +16469,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G520" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16492,7 +16495,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16518,7 +16521,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G522" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16544,7 +16547,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G523" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16570,7 +16573,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G524" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16596,7 +16599,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G525" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16622,7 +16625,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16648,7 +16651,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16674,7 +16677,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G528" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16700,7 +16703,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G529" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16726,7 +16729,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16752,7 +16755,7 @@
         <v>6.5</v>
       </c>
       <c r="G531" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16778,7 +16781,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G532" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16804,7 +16807,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16830,7 +16833,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G534" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16856,7 +16859,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G535" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16882,7 +16885,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G536" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16908,7 +16911,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16934,7 +16937,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G538" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16960,7 +16963,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G539" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16986,7 +16989,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G540" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17012,7 +17015,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17038,7 +17041,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17064,7 +17067,7 @@
         <v>6</v>
       </c>
       <c r="G543" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17090,7 +17093,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G544" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17116,7 +17119,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17142,7 +17145,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G546" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17168,7 +17171,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G547" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17194,7 +17197,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G548" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17220,7 +17223,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G549" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17246,7 +17249,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G550" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17272,7 +17275,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17298,7 +17301,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17324,7 +17327,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17350,7 +17353,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G554" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17376,7 +17379,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G555" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17402,7 +17405,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G556" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17428,7 +17431,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G557" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17454,7 +17457,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17480,7 +17483,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G559" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17506,7 +17509,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G560" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17532,7 +17535,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17558,7 +17561,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G562" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17584,7 +17587,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G563" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17610,7 +17613,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G564" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17636,7 +17639,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G565" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17662,7 +17665,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G566" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17688,7 +17691,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G567" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17714,7 +17717,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17740,7 +17743,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17766,7 +17769,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G570" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17792,7 +17795,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17818,7 +17821,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17844,7 +17847,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G573" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17870,7 +17873,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17896,7 +17899,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G575" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17922,7 +17925,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G576" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17948,7 +17951,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G577" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17974,7 +17977,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18000,7 +18003,7 @@
         <v>5.5</v>
       </c>
       <c r="G579" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18026,7 +18029,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G580" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18052,7 +18055,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G581" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18078,7 +18081,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G582" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18104,7 +18107,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G583" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18130,7 +18133,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18156,7 +18159,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G585" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18182,7 +18185,7 @@
         <v>5.5</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18208,7 +18211,7 @@
         <v>5.5</v>
       </c>
       <c r="G587" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18234,7 +18237,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G588" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18260,7 +18263,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G589" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18286,7 +18289,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G590" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18312,7 +18315,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G591" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18338,7 +18341,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G592" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18364,7 +18367,7 @@
         <v>5.5</v>
       </c>
       <c r="G593" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18390,7 +18393,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G594" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18416,7 +18419,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G595" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18442,7 +18445,7 @@
         <v>5.5</v>
       </c>
       <c r="G596" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18468,7 +18471,7 @@
         <v>5.5</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18494,7 +18497,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G598" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18520,7 +18523,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18546,7 +18549,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G600" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18572,7 +18575,7 @@
         <v>5.5</v>
       </c>
       <c r="G601" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18598,7 +18601,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G602" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18624,7 +18627,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G603" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18650,7 +18653,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G604" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18676,7 +18679,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G605" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18702,7 +18705,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G606" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18728,7 +18731,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G607" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18754,7 +18757,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18780,7 +18783,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G609" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18806,7 +18809,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18832,7 +18835,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G611" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18858,7 +18861,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G612" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18884,7 +18887,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G613" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18910,7 +18913,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G614" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18936,7 +18939,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G615" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18962,7 +18965,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G616" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18988,7 +18991,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19014,7 +19017,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G618" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19040,7 +19043,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G619" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19066,7 +19069,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19092,7 +19095,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G621" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19118,7 +19121,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G622" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19144,7 +19147,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G623" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19170,7 +19173,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G624" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19196,7 +19199,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G625" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19222,7 +19225,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G626" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19248,7 +19251,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G627" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19274,7 +19277,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G628" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19300,7 +19303,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G629" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19326,7 +19329,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G630" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19352,7 +19355,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G631" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19378,7 +19381,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G632" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19404,7 +19407,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G633" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19430,7 +19433,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G634" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19456,7 +19459,7 @@
         <v>4.5</v>
       </c>
       <c r="G635" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19482,7 +19485,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G636" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19508,7 +19511,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19534,7 +19537,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19560,7 +19563,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G639" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19586,7 +19589,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19612,7 +19615,7 @@
         <v>4.75</v>
       </c>
       <c r="G641" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19638,7 +19641,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G642" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19664,7 +19667,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19690,7 +19693,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19716,7 +19719,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G645" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19742,7 +19745,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G646" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19768,7 +19771,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G647" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19794,7 +19797,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G648" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19820,7 +19823,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G649" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19846,7 +19849,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19872,7 +19875,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G651" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19898,7 +19901,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G652" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19924,7 +19927,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G653" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19950,7 +19953,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19976,7 +19979,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20002,7 +20005,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20028,7 +20031,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G657" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20054,7 +20057,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G658" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20080,7 +20083,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G659" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20106,7 +20109,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20132,7 +20135,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G661" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20158,7 +20161,7 @@
         <v>4.5</v>
       </c>
       <c r="G662" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20184,7 +20187,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G663" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20210,7 +20213,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20236,7 +20239,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G665" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20262,7 +20265,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G666" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20288,7 +20291,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G667" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20314,7 +20317,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G668" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20340,7 +20343,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20366,7 +20369,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20392,7 +20395,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G671" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20418,7 +20421,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G672" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20444,7 +20447,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20470,7 +20473,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G674" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20496,7 +20499,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20522,7 +20525,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G676" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20548,7 +20551,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20574,7 +20577,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G678" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20600,7 +20603,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G679" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20626,7 +20629,7 @@
         <v>4</v>
       </c>
       <c r="G680" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20652,7 +20655,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G681" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20678,7 +20681,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20704,7 +20707,7 @@
         <v>4</v>
       </c>
       <c r="G683" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20730,7 +20733,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G684" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20756,7 +20759,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G685" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20782,7 +20785,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G686" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20808,7 +20811,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G687" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20834,7 +20837,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G688" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20860,7 +20863,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G689" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20886,7 +20889,7 @@
         <v>4</v>
       </c>
       <c r="G690" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20912,7 +20915,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G691" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20938,7 +20941,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G692" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20964,7 +20967,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G693" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20990,7 +20993,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21016,7 +21019,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G695" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21042,7 +21045,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G696" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21068,7 +21071,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G697" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21094,7 +21097,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21120,7 +21123,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G699" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21146,7 +21149,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G700" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21172,7 +21175,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21198,7 +21201,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21224,7 +21227,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21250,7 +21253,7 @@
         <v>4</v>
       </c>
       <c r="G704" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21276,7 +21279,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G705" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21302,7 +21305,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G706" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21328,7 +21331,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21354,7 +21357,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G708" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21380,7 +21383,7 @@
         <v>3.75</v>
       </c>
       <c r="G709" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21406,7 +21409,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G710" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21432,7 +21435,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21458,7 +21461,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21484,7 +21487,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21510,7 +21513,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21536,7 +21539,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21562,7 +21565,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21588,7 +21591,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G717" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21614,7 +21617,7 @@
         <v>3.5</v>
       </c>
       <c r="G718" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21640,7 +21643,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G719" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21666,7 +21669,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G720" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21692,7 +21695,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21718,7 +21721,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G722" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21744,7 +21747,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G723" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21770,7 +21773,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21796,7 +21799,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G725" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21822,7 +21825,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G726" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21848,7 +21851,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21874,7 +21877,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G728" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21900,7 +21903,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G729" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21926,7 +21929,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G730" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21952,7 +21955,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G731" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21978,7 +21981,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G732" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22004,7 +22007,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22030,7 +22033,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22056,7 +22059,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22082,7 +22085,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22108,7 +22111,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G737" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22134,7 +22137,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G738" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22160,7 +22163,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22186,7 +22189,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G740" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22212,7 +22215,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G741" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22238,7 +22241,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G742" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22264,7 +22267,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22290,7 +22293,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G744" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22316,7 +22319,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G745" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22342,7 +22345,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22368,7 +22371,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22394,7 +22397,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22420,7 +22423,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G749" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22446,7 +22449,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22472,7 +22475,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22498,7 +22501,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G752" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22524,7 +22527,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G753" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22550,7 +22553,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G754" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22576,7 +22579,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G755" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22602,7 +22605,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G756" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22628,7 +22631,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22654,7 +22657,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22680,7 +22683,7 @@
         <v>3</v>
       </c>
       <c r="G759" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22706,7 +22709,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22732,7 +22735,7 @@
         <v>3</v>
       </c>
       <c r="G761" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22758,7 +22761,7 @@
         <v>3</v>
       </c>
       <c r="G762" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22784,7 +22787,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G763" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22810,7 +22813,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G764" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22836,7 +22839,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G765" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22862,7 +22865,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G766" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22888,7 +22891,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G767" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22914,7 +22917,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22940,7 +22943,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G769" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22966,7 +22969,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G770" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22992,7 +22995,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23018,7 +23021,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23044,7 +23047,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G773" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23070,7 +23073,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G774" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23096,7 +23099,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G775" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23122,7 +23125,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G776" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23148,7 +23151,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G777" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23174,7 +23177,7 @@
         <v>3.5</v>
       </c>
       <c r="G778" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23200,7 +23203,7 @@
         <v>3.5</v>
       </c>
       <c r="G779" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23226,7 +23229,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23252,7 +23255,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G781" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23278,7 +23281,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G782" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23304,7 +23307,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G783" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23330,7 +23333,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G784" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23356,7 +23359,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G785" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23382,7 +23385,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G786" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23408,7 +23411,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23434,7 +23437,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23460,7 +23463,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G789" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23486,7 +23489,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23512,7 +23515,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23538,7 +23541,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23564,7 +23567,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G793" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23590,7 +23593,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G794" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23616,7 +23619,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G795" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23642,7 +23645,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G796" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23668,7 +23671,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23694,7 +23697,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G798" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23720,7 +23723,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G799" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23746,7 +23749,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G800" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23772,7 +23775,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G801" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23798,7 +23801,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G802" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23824,7 +23827,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G803" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23850,7 +23853,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G804" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23876,7 +23879,7 @@
         <v>4</v>
       </c>
       <c r="G805" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23902,7 +23905,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G806" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23928,7 +23931,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23954,7 +23957,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23980,7 +23983,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G809" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24006,7 +24009,7 @@
         <v>4</v>
       </c>
       <c r="G810" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24032,7 +24035,7 @@
         <v>4</v>
       </c>
       <c r="G811" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24058,7 +24061,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G812" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24084,7 +24087,7 @@
         <v>4</v>
       </c>
       <c r="G813" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24110,7 +24113,7 @@
         <v>4</v>
       </c>
       <c r="G814" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24136,7 +24139,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24162,7 +24165,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G816" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24188,7 +24191,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G817" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24214,7 +24217,7 @@
         <v>4</v>
       </c>
       <c r="G818" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24240,7 +24243,7 @@
         <v>4</v>
       </c>
       <c r="G819" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24266,7 +24269,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G820" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24292,7 +24295,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G821" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24318,7 +24321,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G822" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24344,7 +24347,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24370,7 +24373,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G824" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24396,7 +24399,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24422,7 +24425,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G826" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24448,7 +24451,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G827" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24474,7 +24477,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G828" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24500,7 +24503,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24526,7 +24529,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24552,7 +24555,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G831" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24578,7 +24581,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G832" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24604,7 +24607,7 @@
         <v>4</v>
       </c>
       <c r="G833" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24630,7 +24633,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24656,7 +24659,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24682,7 +24685,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G836" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24708,7 +24711,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24734,7 +24737,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G838" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24760,7 +24763,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24786,7 +24789,7 @@
         <v>3.75</v>
       </c>
       <c r="G840" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24812,7 +24815,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G841" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24838,7 +24841,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G842" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24864,7 +24867,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24890,7 +24893,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24916,7 +24919,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G845" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24942,7 +24945,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24968,7 +24971,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G847" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24994,7 +24997,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G848" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25020,7 +25023,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G849" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25046,7 +25049,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G850" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25072,7 +25075,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G851" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25098,7 +25101,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G852" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25124,7 +25127,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G853" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25150,7 +25153,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25176,7 +25179,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G855" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25202,7 +25205,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25228,7 +25231,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G857" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25254,7 +25257,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G858" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25280,7 +25283,7 @@
         <v>3.5</v>
       </c>
       <c r="G859" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25306,7 +25309,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25332,7 +25335,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25358,7 +25361,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25384,7 +25387,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25410,7 +25413,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25436,7 +25439,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25462,7 +25465,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G866" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25488,7 +25491,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G867" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25514,7 +25517,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G868" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25540,7 +25543,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G869" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25566,7 +25569,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G870" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25592,7 +25595,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G871" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25618,7 +25621,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G872" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25644,7 +25647,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G873" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25670,7 +25673,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G874" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25696,7 +25699,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G875" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25722,7 +25725,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G876" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25748,7 +25751,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G877" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25774,7 +25777,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G878" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25800,7 +25803,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G879" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25826,7 +25829,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25852,7 +25855,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25878,7 +25881,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G882" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25904,7 +25907,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G883" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25930,7 +25933,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25956,7 +25959,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G885" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25982,7 +25985,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G886" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26008,7 +26011,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G887" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26034,7 +26037,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26060,7 +26063,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G889" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26086,7 +26089,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26112,7 +26115,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G891" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26138,7 +26141,7 @@
         <v>3.25</v>
       </c>
       <c r="G892" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26164,7 +26167,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G893" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26190,7 +26193,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G894" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26216,7 +26219,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G895" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26242,7 +26245,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G896" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26268,7 +26271,7 @@
         <v>3.25</v>
       </c>
       <c r="G897" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26294,7 +26297,7 @@
         <v>3.25</v>
       </c>
       <c r="G898" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26372,7 +26375,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G901" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26398,7 +26401,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G902" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26632,7 +26635,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26684,7 +26687,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G913" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26710,7 +26713,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G914" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26762,7 +26765,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28842,7 +28845,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28868,7 +28871,7 @@
         <v>3.25</v>
       </c>
       <c r="G997" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28894,7 +28897,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G998" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28998,7 +29001,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1002" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29050,7 +29053,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1004" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29102,7 +29105,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1006" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29128,7 +29131,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29154,7 +29157,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29180,7 +29183,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1009" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -60050,7 +60053,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="1" t="n">
-        <v>45523.6494791667</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B2197" t="n">
         <v>200</v>
@@ -60059,7 +60062,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="D2197" t="n">
-        <v>1.88499999046326</v>
+        <v>1.87000000476837</v>
       </c>
       <c r="E2197" t="n">
         <v>1.88499999046326</v>
@@ -60071,6 +60074,32 @@
         <v>853</v>
       </c>
       <c r="H2197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>45524.6493865741</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>12342</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>1.9099999666214</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>1.88499999046326</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>1.90499997138977</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>867</v>
+      </c>
+      <c r="H2198" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRI.MI.xlsx
+++ b/data/SRI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="869">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98598289489746</t>
+    <t xml:space="preserve">2.98598265647888</t>
   </si>
   <si>
     <t xml:space="preserve">SRI.MI</t>
@@ -50,49 +50,49 @@
     <t xml:space="preserve">3.00149440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94410133361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93169236183167</t>
+    <t xml:space="preserve">2.94410157203674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515734672546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93169212341309</t>
   </si>
   <si>
     <t xml:space="preserve">2.94720387458801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92393636703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80139470100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79984378814697</t>
+    <t xml:space="preserve">2.92393660545349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80139493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79984354972839</t>
   </si>
   <si>
     <t xml:space="preserve">2.70677399635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78433203697205</t>
+    <t xml:space="preserve">2.78433179855347</t>
   </si>
   <si>
     <t xml:space="preserve">2.83862257003784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85413455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84637856483459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80604839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86499238014221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79363918304443</t>
+    <t xml:space="preserve">2.85413432121277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84637832641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80604863166809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86499261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79363894462585</t>
   </si>
   <si>
     <t xml:space="preserve">2.82000875473022</t>
@@ -104,58 +104,58 @@
     <t xml:space="preserve">2.70987629890442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55941390991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51287889480591</t>
+    <t xml:space="preserve">2.55941367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51287913322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.44152569770813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54855585098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65248346328735</t>
+    <t xml:space="preserve">2.54855561256409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65248370170593</t>
   </si>
   <si>
     <t xml:space="preserve">2.67264866828918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69901823997498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61680698394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81380414962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73624610900879</t>
+    <t xml:space="preserve">2.69901871681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61680674552917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77657628059387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81380367279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73624587059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.72538805007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73314356803894</t>
+    <t xml:space="preserve">2.73314380645752</t>
   </si>
   <si>
     <t xml:space="preserve">2.68195581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69281387329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6912624835968</t>
+    <t xml:space="preserve">2.69281339645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69126224517822</t>
   </si>
   <si>
     <t xml:space="preserve">2.71608114242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73469519615173</t>
+    <t xml:space="preserve">2.73469495773315</t>
   </si>
   <si>
     <t xml:space="preserve">2.74555325508118</t>
@@ -167,151 +167,154 @@
     <t xml:space="preserve">2.76726913452148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72228574752808</t>
+    <t xml:space="preserve">2.7222855091095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86964583396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83086681365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75330853462219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74865555763245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416659355164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76571822166443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75020623207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75641107559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77037143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78278088569641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79208779335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81225275993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8929135799408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93014121055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90842485427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92458295822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88257217407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89226698875427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80501413345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80663013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82925128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77916169166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77593016624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78724050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81955647468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74684619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80339860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86803007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92135119438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90196180343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91165637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95528292655945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99567770957947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03445649147034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02960920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153015136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02799367904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00698804855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98275113105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205140113831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94074082374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89873027801514</t>
   </si>
   <si>
     <t xml:space="preserve">2.8696460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83086681365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75330877304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74865484237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416707038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76571798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75020670890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75641131401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77037143707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78278088569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79208779335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84327578544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81225275993347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89291334152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93014121055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90842485427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92458271980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90034604072571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88257241249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89226675033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80501437187195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80663013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82925128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77916169166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77593040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78724074363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81955647468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74684572219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8033983707428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86803030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92135119438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90196180343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91165661811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95528268814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99567747116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03445672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0296094417572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153038978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02799320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00698804855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98275136947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205140113831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94074082374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94558811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89873027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91811966896057</t>
+    <t xml:space="preserve">2.91811943054199</t>
   </si>
   <si>
     <t xml:space="preserve">2.93750905990601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85833549499512</t>
+    <t xml:space="preserve">2.8583357334137</t>
   </si>
   <si>
     <t xml:space="preserve">2.82763528823853</t>
@@ -320,13 +323,13 @@
     <t xml:space="preserve">2.87449336051941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96013021469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95689845085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90519332885742</t>
+    <t xml:space="preserve">2.96012997627258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95689868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90519309043884</t>
   </si>
   <si>
     <t xml:space="preserve">2.94881987571716</t>
@@ -335,16 +338,16 @@
     <t xml:space="preserve">2.98113560676575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89388275146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90680885314941</t>
+    <t xml:space="preserve">2.89388298988342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90680909156799</t>
   </si>
   <si>
     <t xml:space="preserve">2.87772488594055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8437933921814</t>
+    <t xml:space="preserve">2.84379315376282</t>
   </si>
   <si>
     <t xml:space="preserve">2.85025644302368</t>
@@ -353,70 +356,70 @@
     <t xml:space="preserve">2.83571434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91650390625</t>
+    <t xml:space="preserve">2.91650366783142</t>
   </si>
   <si>
     <t xml:space="preserve">2.86641430854797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8793408870697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89549875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9132719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97951984405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03768801689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08616209030151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11524629592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10231971740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07808303833008</t>
+    <t xml:space="preserve">2.87934064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89549851417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91327214241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97952008247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03768825531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08616185188293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11524653434753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10231995582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314615249634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00537252426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99890899658203</t>
+    <t xml:space="preserve">3.0053722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99890923500061</t>
   </si>
   <si>
     <t xml:space="preserve">2.99083018302917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97305679321289</t>
+    <t xml:space="preserve">2.97305655479431</t>
   </si>
   <si>
     <t xml:space="preserve">2.88418793678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93104600906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95851469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89065146446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93589329719543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93427753448486</t>
+    <t xml:space="preserve">2.93104577064514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95851445198059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8906512260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93589353561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93427777290344</t>
   </si>
   <si>
     <t xml:space="preserve">2.90357780456543</t>
@@ -428,19 +431,19 @@
     <t xml:space="preserve">3.01021981239319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99406242370605</t>
+    <t xml:space="preserve">2.9940619468689</t>
   </si>
   <si>
     <t xml:space="preserve">3.05384635925293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82117199897766</t>
+    <t xml:space="preserve">2.82117223739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.9892144203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96659326553345</t>
+    <t xml:space="preserve">2.96659350395203</t>
   </si>
   <si>
     <t xml:space="preserve">2.93912506103516</t>
@@ -449,19 +452,19 @@
     <t xml:space="preserve">2.94235634803772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83733034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84217715263367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83409857749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77108287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72260904312134</t>
+    <t xml:space="preserve">2.83733010292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84217739105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83409881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77108263969421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72260880470276</t>
   </si>
   <si>
     <t xml:space="preserve">2.81147766113281</t>
@@ -470,85 +473,85 @@
     <t xml:space="preserve">2.72907209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70321941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69837188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74523019790649</t>
+    <t xml:space="preserve">2.7032196521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69837212562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74522995948792</t>
   </si>
   <si>
     <t xml:space="preserve">2.74361419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76946711540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82440376281738</t>
+    <t xml:space="preserve">2.76946687698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82440400123596</t>
   </si>
   <si>
     <t xml:space="preserve">2.77431416511536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80016684532166</t>
+    <t xml:space="preserve">2.80016708374023</t>
   </si>
   <si>
     <t xml:space="preserve">2.81794047355652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85995149612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94397258758545</t>
+    <t xml:space="preserve">2.85995101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94397234916687</t>
   </si>
   <si>
     <t xml:space="preserve">2.96982526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9682092666626</t>
+    <t xml:space="preserve">2.96820950508118</t>
   </si>
   <si>
     <t xml:space="preserve">2.92781448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183557510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02476191520691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99729323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01829862594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01506757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00214076042175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01991415023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06030941009521</t>
+    <t xml:space="preserve">3.01183533668518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02476215362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99729371070862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01829886436462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0150671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00214099884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0199146270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06030917167664</t>
   </si>
   <si>
     <t xml:space="preserve">3.06838822364807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07000398635864</t>
+    <t xml:space="preserve">3.07000422477722</t>
   </si>
   <si>
     <t xml:space="preserve">3.14271473884583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21542525291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2315833568573</t>
+    <t xml:space="preserve">3.21542549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23158311843872</t>
   </si>
   <si>
     <t xml:space="preserve">3.25582003593445</t>
@@ -560,7 +563,7 @@
     <t xml:space="preserve">3.28652000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19118857383728</t>
+    <t xml:space="preserve">3.1911883354187</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625144958496</t>
@@ -572,22 +575,22 @@
     <t xml:space="preserve">3.1540253162384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14594626426697</t>
+    <t xml:space="preserve">3.14594602584839</t>
   </si>
   <si>
     <t xml:space="preserve">3.28813600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33660984039307</t>
+    <t xml:space="preserve">3.33660960197449</t>
   </si>
   <si>
     <t xml:space="preserve">3.38185167312622</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39316248893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56120491027832</t>
+    <t xml:space="preserve">3.3931622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56120467185974</t>
   </si>
   <si>
     <t xml:space="preserve">3.57089948654175</t>
@@ -596,10 +599,10 @@
     <t xml:space="preserve">3.54827857017517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55474209785461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54343128204346</t>
+    <t xml:space="preserve">3.55474162101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54343152046204</t>
   </si>
   <si>
     <t xml:space="preserve">3.50626802444458</t>
@@ -608,16 +611,16 @@
     <t xml:space="preserve">3.56282043457031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50788378715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50303649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3204517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44971537590027</t>
+    <t xml:space="preserve">3.50788354873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50303602218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32045221328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44971513748169</t>
   </si>
   <si>
     <t xml:space="preserve">3.51434683799744</t>
@@ -626,43 +629,43 @@
     <t xml:space="preserve">3.47395205497742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55766201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52752637863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49906468391418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51580691337585</t>
+    <t xml:space="preserve">3.55766177177429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52752685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49906516075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51580667495728</t>
   </si>
   <si>
     <t xml:space="preserve">3.59951686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62965226173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68155193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7066650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67318081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78200387954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901665687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97621035575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00132369995117</t>
+    <t xml:space="preserve">3.62965154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68155217170715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70666527748108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67318105697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78200340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901689529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97620987892151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00132322311401</t>
   </si>
   <si>
     <t xml:space="preserve">4.05154895782471</t>
@@ -671,40 +674,40 @@
     <t xml:space="preserve">4.02643632888794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9326810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8724102973938</t>
+    <t xml:space="preserve">3.93268132209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87240958213806</t>
   </si>
   <si>
     <t xml:space="preserve">3.76693606376648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83222961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8087911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92933225631714</t>
+    <t xml:space="preserve">3.83222985267639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80879139900208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92933249473572</t>
   </si>
   <si>
     <t xml:space="preserve">3.91761350631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84394907951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85232019424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84562253952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85064554214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98458123207092</t>
+    <t xml:space="preserve">3.84394836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85232043266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.845623254776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85064506530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98458170890808</t>
   </si>
   <si>
     <t xml:space="preserve">3.83055567741394</t>
@@ -713,31 +716,31 @@
     <t xml:space="preserve">3.90924263000488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94272613525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94607496261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95109701156616</t>
+    <t xml:space="preserve">3.94272661209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94607472419739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95109724998474</t>
   </si>
   <si>
     <t xml:space="preserve">3.93100690841675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93435525894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92598485946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87743306159973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77698111534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79372310638428</t>
+    <t xml:space="preserve">3.93435478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92598438262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87743282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77698135375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7937228679657</t>
   </si>
   <si>
     <t xml:space="preserve">3.71671009063721</t>
@@ -746,130 +749,130 @@
     <t xml:space="preserve">3.68322658538818</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73512601852417</t>
+    <t xml:space="preserve">3.73512649536133</t>
   </si>
   <si>
     <t xml:space="preserve">3.76861000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72508120536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65978741645813</t>
+    <t xml:space="preserve">3.72508096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65978789329529</t>
   </si>
   <si>
     <t xml:space="preserve">3.55933570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6581130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68657445907593</t>
+    <t xml:space="preserve">3.65811371803284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68657469749451</t>
   </si>
   <si>
     <t xml:space="preserve">3.60788726806641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56603264808655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62797784805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57440376281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.649742603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64806842803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64137148857117</t>
+    <t xml:space="preserve">3.56603240966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6279776096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440400123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64974212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64806795120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64137125015259</t>
   </si>
   <si>
     <t xml:space="preserve">3.70499086380005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66648459434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67987775802612</t>
+    <t xml:space="preserve">3.66648435592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6798779964447</t>
   </si>
   <si>
     <t xml:space="preserve">3.65643930435181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72005867958069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73680067062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6999683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70164227485657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72173285484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7903745174408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7970712184906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78870105743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78367829322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77530717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539680480957</t>
+    <t xml:space="preserve">3.72005820274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7368004322052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69996881484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70164251327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72173309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79037475585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79707169532776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7887008190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78367781639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77530694007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539728164673</t>
   </si>
   <si>
     <t xml:space="preserve">3.78535199165344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75019359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83390426635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01806545257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11014604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18548488616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25245237350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26919412612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31104898452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35290336608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2733793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34453296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29849290847778</t>
+    <t xml:space="preserve">3.75019431114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83390378952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01806497573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11014556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18548440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25245189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26919460296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31104946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35290384292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27337980270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34453248977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29849243164062</t>
   </si>
   <si>
     <t xml:space="preserve">4.30267763137817</t>
@@ -878,19 +881,19 @@
     <t xml:space="preserve">4.36546039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33616209030151</t>
+    <t xml:space="preserve">4.33616161346436</t>
   </si>
   <si>
     <t xml:space="preserve">4.37801694869995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.444983959198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43661403656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49939584732056</t>
+    <t xml:space="preserve">4.44498491287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4366135597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49939632415771</t>
   </si>
   <si>
     <t xml:space="preserve">4.50358104705811</t>
@@ -908,19 +911,19 @@
     <t xml:space="preserve">4.65844440460205</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68355655670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6751856803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78400850296021</t>
+    <t xml:space="preserve">4.68355703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67518615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78400897979736</t>
   </si>
   <si>
     <t xml:space="preserve">4.83004856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82167816162109</t>
+    <t xml:space="preserve">4.82167863845825</t>
   </si>
   <si>
     <t xml:space="preserve">4.88027477264404</t>
@@ -932,7 +935,7 @@
     <t xml:space="preserve">4.85516214370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84260559082031</t>
+    <t xml:space="preserve">4.84260511398315</t>
   </si>
   <si>
     <t xml:space="preserve">4.73796844482422</t>
@@ -941,28 +944,28 @@
     <t xml:space="preserve">4.71285533905029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66263008117676</t>
+    <t xml:space="preserve">4.6626296043396</t>
   </si>
   <si>
     <t xml:space="preserve">4.52869415283203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57054948806763</t>
+    <t xml:space="preserve">4.57054901123047</t>
   </si>
   <si>
     <t xml:space="preserve">4.67937183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77982330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81330680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03095245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13977479934692</t>
+    <t xml:space="preserve">4.7798228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81330728530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03095293045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13977527618408</t>
   </si>
   <si>
     <t xml:space="preserve">5.19000101089478</t>
@@ -974,43 +977,43 @@
     <t xml:space="preserve">5.28626680374146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31975078582764</t>
+    <t xml:space="preserve">5.31975030899048</t>
   </si>
   <si>
     <t xml:space="preserve">5.31556510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41601705551147</t>
+    <t xml:space="preserve">5.41601657867432</t>
   </si>
   <si>
     <t xml:space="preserve">5.49972677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44112968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49135589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52483940124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43275880813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54995250701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53321027755737</t>
+    <t xml:space="preserve">5.44112920761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49135541915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52483892440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43275833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54995203018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53321075439453</t>
   </si>
   <si>
     <t xml:space="preserve">5.50809764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64203310012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65877485275269</t>
+    <t xml:space="preserve">5.64203262329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65877532958984</t>
   </si>
   <si>
     <t xml:space="preserve">5.6252908706665</t>
@@ -1022,61 +1025,61 @@
     <t xml:space="preserve">5.62947607040405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59180736541748</t>
+    <t xml:space="preserve">5.59180688858032</t>
   </si>
   <si>
     <t xml:space="preserve">5.57506513595581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60854864120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63366222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69225931167603</t>
+    <t xml:space="preserve">5.60854911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63366174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69225883483887</t>
   </si>
   <si>
     <t xml:space="preserve">5.70900106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42438745498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55832242965698</t>
+    <t xml:space="preserve">5.42438793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5583233833313</t>
   </si>
   <si>
     <t xml:space="preserve">5.30719423294067</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15651655197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07280731201172</t>
+    <t xml:space="preserve">5.15651607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07280683517456</t>
   </si>
   <si>
     <t xml:space="preserve">5.00583934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08954954147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2234845161438</t>
+    <t xml:space="preserve">5.08954858779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22348403930664</t>
   </si>
   <si>
     <t xml:space="preserve">4.95561361312866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98909759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02258110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78819417953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80493545532227</t>
+    <t xml:space="preserve">4.98909711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02258157730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78819370269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80493593215942</t>
   </si>
   <si>
     <t xml:space="preserve">4.77145195007324</t>
@@ -1085,58 +1088,58 @@
     <t xml:space="preserve">4.70448446273804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67100048065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75471067428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38638782501221</t>
+    <t xml:space="preserve">4.6710000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75471019744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38638734817505</t>
   </si>
   <si>
     <t xml:space="preserve">4.47009754180908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83842039108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93887186050415</t>
+    <t xml:space="preserve">4.83841991424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93887138366699</t>
   </si>
   <si>
     <t xml:space="preserve">4.90538787841797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52032375335693</t>
+    <t xml:space="preserve">4.52032327651978</t>
   </si>
   <si>
     <t xml:space="preserve">4.45335531234741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60403251647949</t>
+    <t xml:space="preserve">4.60403299331665</t>
   </si>
   <si>
     <t xml:space="preserve">4.65425872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53706502914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5538067817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59701251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63157653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61429452896118</t>
+    <t xml:space="preserve">4.53706550598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55380773544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59701204299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63157606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61429405212402</t>
   </si>
   <si>
     <t xml:space="preserve">4.71798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75254964828491</t>
+    <t xml:space="preserve">4.75255012512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.83279943466187</t>
@@ -1145,25 +1148,25 @@
     <t xml:space="preserve">5.01113128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90413188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8506326675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74363374710083</t>
+    <t xml:space="preserve">4.90413236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85063314437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74363327026367</t>
   </si>
   <si>
     <t xml:space="preserve">4.72580051422119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5474681854248</t>
+    <t xml:space="preserve">4.54746770858765</t>
   </si>
   <si>
     <t xml:space="preserve">4.28888654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24430322647095</t>
+    <t xml:space="preserve">4.24430370330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.3958854675293</t>
@@ -1175,16 +1178,16 @@
     <t xml:space="preserve">4.06597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08380508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05705451965332</t>
+    <t xml:space="preserve">4.08380460739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05705499649048</t>
   </si>
   <si>
     <t xml:space="preserve">3.96788835525513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87872290611267</t>
+    <t xml:space="preserve">3.87872242927551</t>
   </si>
   <si>
     <t xml:space="preserve">4.0035548210144</t>
@@ -1193,7 +1196,7 @@
     <t xml:space="preserve">3.78063988685608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76280665397644</t>
+    <t xml:space="preserve">3.76280689239502</t>
   </si>
   <si>
     <t xml:space="preserve">3.75389003753662</t>
@@ -1223,10 +1226,10 @@
     <t xml:space="preserve">4.3334698677063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36021947860718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27997016906738</t>
+    <t xml:space="preserve">4.36021900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27996969223022</t>
   </si>
   <si>
     <t xml:space="preserve">4.11947107315063</t>
@@ -1253,7 +1256,7 @@
     <t xml:space="preserve">4.17297077178955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13730382919312</t>
+    <t xml:space="preserve">4.13730430603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.22646999359131</t>
@@ -1262,13 +1265,13 @@
     <t xml:space="preserve">4.16405439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14622068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18188762664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03922128677368</t>
+    <t xml:space="preserve">4.14622116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03922176361084</t>
   </si>
   <si>
     <t xml:space="preserve">3.98572206497192</t>
@@ -1283,10 +1286,10 @@
     <t xml:space="preserve">4.12838792800903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15513706207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92330598831177</t>
+    <t xml:space="preserve">4.15513753890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92330551147461</t>
   </si>
   <si>
     <t xml:space="preserve">3.90547275543213</t>
@@ -1295,13 +1298,13 @@
     <t xml:space="preserve">3.81630682945251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7093071937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67364072799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63797426223755</t>
+    <t xml:space="preserve">3.70930695533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67364048957825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63797450065613</t>
   </si>
   <si>
     <t xml:space="preserve">3.56664156913757</t>
@@ -1316,10 +1319,10 @@
     <t xml:space="preserve">3.61122465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57555866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59339165687561</t>
+    <t xml:space="preserve">3.57555818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59339141845703</t>
   </si>
   <si>
     <t xml:space="preserve">3.58447480201721</t>
@@ -1331,7 +1334,7 @@
     <t xml:space="preserve">3.4953088760376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55772471427917</t>
+    <t xml:space="preserve">3.55772495269775</t>
   </si>
   <si>
     <t xml:space="preserve">3.60230803489685</t>
@@ -1340,16 +1343,16 @@
     <t xml:space="preserve">3.45964241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47747588157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45072555541992</t>
+    <t xml:space="preserve">3.47747564315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4507257938385</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264325141907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34372639656067</t>
+    <t xml:space="preserve">3.34372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">3.26347708702087</t>
@@ -1358,19 +1361,19 @@
     <t xml:space="preserve">3.29914355278015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20997714996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17431092262268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12081122398376</t>
+    <t xml:space="preserve">3.20997738838196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17431116104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12081146240234</t>
   </si>
   <si>
     <t xml:space="preserve">3.10297822952271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04056215286255</t>
+    <t xml:space="preserve">3.04056191444397</t>
   </si>
   <si>
     <t xml:space="preserve">3.07622838020325</t>
@@ -1379,28 +1382,28 @@
     <t xml:space="preserve">3.06731176376343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05839538574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03164553642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02272891998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9603123664856</t>
+    <t xml:space="preserve">3.05839514732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03164529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02272868156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96031260490417</t>
   </si>
   <si>
     <t xml:space="preserve">2.91572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94247937202454</t>
+    <t xml:space="preserve">2.94247913360596</t>
   </si>
   <si>
     <t xml:space="preserve">2.89789628982544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8087306022644</t>
+    <t xml:space="preserve">2.80873036384583</t>
   </si>
   <si>
     <t xml:space="preserve">2.75523066520691</t>
@@ -1418,22 +1421,22 @@
     <t xml:space="preserve">2.68389773368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71064782142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79981374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96922898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98706197738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97814559936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9246461391449</t>
+    <t xml:space="preserve">2.71064758300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79981398582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96922922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98706221580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97814583778381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92464590072632</t>
   </si>
   <si>
     <t xml:space="preserve">2.86222982406616</t>
@@ -1445,7 +1448,7 @@
     <t xml:space="preserve">2.84439659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78198027610779</t>
+    <t xml:space="preserve">2.78198051452637</t>
   </si>
   <si>
     <t xml:space="preserve">2.69281435012817</t>
@@ -1454,7 +1457,7 @@
     <t xml:space="preserve">2.67498111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11189460754395</t>
+    <t xml:space="preserve">3.11189484596252</t>
   </si>
   <si>
     <t xml:space="preserve">3.29022693634033</t>
@@ -1466,13 +1469,13 @@
     <t xml:space="preserve">3.33480978012085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30805993080139</t>
+    <t xml:space="preserve">3.30806016921997</t>
   </si>
   <si>
     <t xml:space="preserve">3.19214415550232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20106077194214</t>
+    <t xml:space="preserve">3.20106053352356</t>
   </si>
   <si>
     <t xml:space="preserve">3.1475613117218</t>
@@ -1484,10 +1487,10 @@
     <t xml:space="preserve">3.2188937664032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16539430618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13864469528198</t>
+    <t xml:space="preserve">3.16539454460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1386444568634</t>
   </si>
   <si>
     <t xml:space="preserve">3.1832275390625</t>
@@ -1502,49 +1505,49 @@
     <t xml:space="preserve">3.50422549247742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68255758285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65580725669861</t>
+    <t xml:space="preserve">3.6825578212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65580749511719</t>
   </si>
   <si>
     <t xml:space="preserve">3.53989171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314187049866</t>
+    <t xml:space="preserve">3.51314210891724</t>
   </si>
   <si>
     <t xml:space="preserve">3.5309751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40614247322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31697654724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39722609519958</t>
+    <t xml:space="preserve">3.4061427116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31697678565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39722585678101</t>
   </si>
   <si>
     <t xml:space="preserve">3.4418089389801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42397594451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37939310073853</t>
+    <t xml:space="preserve">3.42397570610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37939262390137</t>
   </si>
   <si>
     <t xml:space="preserve">3.22781038284302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00489544868469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08514475822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01381206512451</t>
+    <t xml:space="preserve">3.00489521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08514499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01381230354309</t>
   </si>
   <si>
     <t xml:space="preserve">2.95139598846436</t>
@@ -1553,25 +1556,25 @@
     <t xml:space="preserve">3.17998290061951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13321805000305</t>
+    <t xml:space="preserve">3.13321828842163</t>
   </si>
   <si>
     <t xml:space="preserve">3.10515952110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08645391464233</t>
+    <t xml:space="preserve">3.08645367622375</t>
   </si>
   <si>
     <t xml:space="preserve">3.09580683708191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227785110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95551347732544</t>
+    <t xml:space="preserve">3.02098345756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227808952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95551371574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.96486639976501</t>
@@ -1583,37 +1586,34 @@
     <t xml:space="preserve">2.89939594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97421932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03033638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03968954086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05839514732361</t>
+    <t xml:space="preserve">2.97421908378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03033661842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03968930244446</t>
   </si>
   <si>
     <t xml:space="preserve">3.06774806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11451244354248</t>
+    <t xml:space="preserve">3.11451268196106</t>
   </si>
   <si>
     <t xml:space="preserve">3.01163077354431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99292516708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98357200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78716158866882</t>
+    <t xml:space="preserve">2.99292492866516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98357224464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94616055488586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78716135025024</t>
   </si>
   <si>
     <t xml:space="preserve">2.80586719512939</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">2.74974989891052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73104405403137</t>
+    <t xml:space="preserve">2.73104429244995</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74039721488953</t>
+    <t xml:space="preserve">2.74039697647095</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70298552513123</t>
+    <t xml:space="preserve">2.70298528671265</t>
   </si>
   <si>
     <t xml:space="preserve">2.7216911315918</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">2.6375150680542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61880922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65622091293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6842794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66557359695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60945653915405</t>
+    <t xml:space="preserve">2.61880946159363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65622067451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68427968025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66557383537292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60945630073547</t>
   </si>
   <si>
     <t xml:space="preserve">2.57204484939575</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.60010361671448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49722194671631</t>
+    <t xml:space="preserve">2.49722170829773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79651427268982</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">2.89004325866699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15192413330078</t>
+    <t xml:space="preserve">3.1519238948822</t>
   </si>
   <si>
     <t xml:space="preserve">3.14257121086121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16127705574036</t>
+    <t xml:space="preserve">3.16127729415894</t>
   </si>
   <si>
     <t xml:space="preserve">3.07710099220276</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">2.90874886512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82457280158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77780842781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81522011756897</t>
+    <t xml:space="preserve">2.82457304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77780866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81521987915039</t>
   </si>
   <si>
     <t xml:space="preserve">2.76845550537109</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">2.38498711585999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28210520744324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22598791122437</t>
+    <t xml:space="preserve">2.28210544586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22598814964294</t>
   </si>
   <si>
     <t xml:space="preserve">2.15116477012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06698870658875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12310600280762</t>
+    <t xml:space="preserve">2.06698894500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1231062412262</t>
   </si>
   <si>
     <t xml:space="preserve">2.07634162902832</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">1.99216568470001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89863681793213</t>
+    <t xml:space="preserve">1.89863669872284</t>
   </si>
   <si>
     <t xml:space="preserve">1.954754114151</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">1.86122524738312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94540119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02022433280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16987037658691</t>
+    <t xml:space="preserve">1.94540107250214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02022457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16987061500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.16051769256592</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">2.11375331878662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17922329902649</t>
+    <t xml:space="preserve">2.17922353744507</t>
   </si>
   <si>
     <t xml:space="preserve">2.20728206634521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23534107208252</t>
+    <t xml:space="preserve">2.23534083366394</t>
   </si>
   <si>
     <t xml:space="preserve">2.26339960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24469399452209</t>
+    <t xml:space="preserve">2.24469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.21663498878479</t>
@@ -2616,6 +2616,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.90499997138977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9099999666214</t>
   </si>
 </sst>
 </file>
@@ -6017,7 +6020,7 @@
         <v>3.55200004577637</v>
       </c>
       <c r="G118" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -6069,7 +6072,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G120" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -6095,7 +6098,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G121" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -6121,7 +6124,7 @@
         <v>3.61199998855591</v>
       </c>
       <c r="G122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -6147,7 +6150,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G123" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -6173,7 +6176,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G124" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -6199,7 +6202,7 @@
         <v>3.5</v>
       </c>
       <c r="G125" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -6225,7 +6228,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G126" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -6303,7 +6306,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -6355,7 +6358,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -6381,7 +6384,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -6459,7 +6462,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -6511,7 +6514,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G137" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6563,7 +6566,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G139" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6641,7 +6644,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -6667,7 +6670,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G143" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6693,7 +6696,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6745,7 +6748,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G146" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6771,7 +6774,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G147" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6797,7 +6800,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G148" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6823,7 +6826,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6849,7 +6852,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G150" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6875,7 +6878,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G151" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6901,7 +6904,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6927,7 +6930,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G153" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6953,7 +6956,7 @@
         <v>3.56200003623962</v>
       </c>
       <c r="G154" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6979,7 +6982,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G155" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -7083,7 +7086,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G159" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -7135,7 +7138,7 @@
         <v>3.5</v>
       </c>
       <c r="G161" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -7161,7 +7164,7 @@
         <v>3.5</v>
       </c>
       <c r="G162" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -7187,7 +7190,7 @@
         <v>3.5</v>
       </c>
       <c r="G163" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -7213,7 +7216,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G164" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -7317,7 +7320,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G168" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7343,7 +7346,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G169" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7369,7 +7372,7 @@
         <v>3.60599994659424</v>
       </c>
       <c r="G170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7421,7 +7424,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7447,7 +7450,7 @@
         <v>3.68799996376038</v>
       </c>
       <c r="G173" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7473,7 +7476,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G174" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7499,7 +7502,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G175" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7525,7 +7528,7 @@
         <v>3.85599994659424</v>
       </c>
       <c r="G176" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7551,7 +7554,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G177" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7577,7 +7580,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G178" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7603,7 +7606,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7655,7 +7658,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G181" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7681,7 +7684,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7707,7 +7710,7 @@
         <v>3.71199989318848</v>
       </c>
       <c r="G183" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7733,7 +7736,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G184" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7759,7 +7762,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7785,7 +7788,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7811,7 +7814,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7837,7 +7840,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G188" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7889,7 +7892,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7915,7 +7918,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G191" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7941,7 +7944,7 @@
         <v>3.63599991798401</v>
       </c>
       <c r="G192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7967,7 +7970,7 @@
         <v>3.62800002098083</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7993,7 +7996,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -8019,7 +8022,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G195" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -8045,7 +8048,7 @@
         <v>3.6340000629425</v>
       </c>
       <c r="G196" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -8071,7 +8074,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G197" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -8149,7 +8152,7 @@
         <v>3.59400010108948</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -8175,7 +8178,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -8201,7 +8204,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -8227,7 +8230,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G203" t="s">
-        <v>106</v>
+        <v>107</v>
    